--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645"/>
+    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="下行" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,7 +70,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D2K</t>
+  </si>
+  <si>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -256,6 +262,11 @@
       <tableStyleElement type="wholeTable" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -546,9 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -618,19 +629,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>3000</v>
+        <v>1880</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>7.8970000000000002</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -638,17 +649,17 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6">
-        <v>9353.8520000000008</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6">
-        <v>11000</v>
+      <c r="I3" s="6">
+        <v>11811.74</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <v>11800</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
@@ -656,37 +667,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>8</v>
+        <v>1.88</v>
       </c>
       <c r="C4" s="9">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D4" s="9">
-        <v>600</v>
+        <v>1520</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>7.9</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9">
+        <v>18967.900000000001</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9">
+        <v>19000</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9">
-        <v>460267.24800000002</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9">
-        <v>507500</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
@@ -694,175 +705,215 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>8.6</v>
+        <v>3.4</v>
       </c>
       <c r="C5" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>15.1</v>
+        <v>96.52</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6">
+        <v>27607.258000000002</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>28400</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>9.35</v>
+        <v>3.8</v>
       </c>
       <c r="C6" s="9">
-        <v>-5.5</v>
+        <v>-15.7</v>
       </c>
       <c r="D6" s="9">
-        <v>803.85199999999998</v>
+        <v>851</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>16.600000000000001</v>
+        <v>96.52</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>70015.343999999997</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>70000</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>11.8</v>
+        <v>4.6509999999999998</v>
       </c>
       <c r="C7" s="6">
-        <v>6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>800</v>
+        <v>247</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>12.18</v>
+        <v>83.16</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6">
+        <v>124108.13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6">
+        <v>124200</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>12.6</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="C8" s="9">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="9">
-        <v>800</v>
+        <v>1302</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>16.98</v>
+        <v>84.25</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
+        <v>139526.08199999999</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>140000</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>13.4</v>
+        <v>6.2</v>
       </c>
       <c r="C9" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>900</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>26.58</v>
+        <v>86.2</v>
       </c>
       <c r="G9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6">
+        <v>147723.62</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>147700</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>14.3</v>
+        <v>7.35</v>
       </c>
       <c r="C10" s="9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D10" s="9">
-        <v>700</v>
+        <v>3850</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>35.58</v>
+        <v>100</v>
       </c>
       <c r="G10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -874,25 +925,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>15</v>
+        <v>11.2</v>
       </c>
       <c r="C11" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>800</v>
+        <v>611.74040000000002</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>34.18</v>
+        <v>88.45</v>
       </c>
       <c r="G11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -904,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>15.8</v>
+        <v>11.8</v>
       </c>
       <c r="C12" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>40.58</v>
+        <v>88.45</v>
       </c>
       <c r="G12" s="9">
         <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -934,25 +985,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>16.899999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="C13" s="6">
-        <v>-6</v>
+        <v>10.7</v>
       </c>
       <c r="D13" s="6">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>38.380000000000003</v>
+        <v>88.45</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -964,25 +1015,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>18.3</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>-5.5</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="9">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>29.98</v>
+        <v>98.08</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -994,25 +1045,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6">
-        <v>6.5</v>
+        <v>-5.4</v>
       </c>
       <c r="D15" s="6">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>26.13</v>
+        <v>96.58</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1024,25 +1075,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>19.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C16" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>2500</v>
+        <v>67.900769999999994</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>30.68</v>
+        <v>86.32</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1054,22 +1105,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>22.2</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1800</v>
+        <v>3700.0010000000002</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>38.18</v>
+        <v>86.32</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -1084,22 +1135,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="C18" s="9">
-        <v>-5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D18" s="9">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>53.48</v>
+        <v>86.32</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1114,22 +1165,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>25.8</v>
+        <v>24.1</v>
       </c>
       <c r="C19" s="6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D19" s="6">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>44.48</v>
+        <v>99.34</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -1147,19 +1198,19 @@
         <v>26.4</v>
       </c>
       <c r="C20" s="9">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
-        <v>1800</v>
+        <v>1207.258</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>43.28</v>
+        <v>92.44</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1174,22 +1225,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>32.479999999999997</v>
+        <v>96.061779999999999</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1204,22 +1255,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C22" s="9">
-        <v>-5.8</v>
+        <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>32.479999999999997</v>
+        <v>96.36</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -1234,22 +1285,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>30.7</v>
+        <v>28.5</v>
       </c>
       <c r="C23" s="6">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>1500</v>
+        <v>213</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>22.62</v>
+        <v>96.36</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -1264,22 +1315,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>32.200000000000003</v>
+        <v>28.713000000000001</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
       </c>
       <c r="D24" s="9">
-        <v>4300</v>
+        <v>2287</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>13.62</v>
+        <v>97</v>
       </c>
       <c r="G24" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
@@ -1294,22 +1345,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>36.5</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6">
         <v>-2</v>
       </c>
       <c r="D25" s="6">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>13.62</v>
+        <v>97</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>13</v>
@@ -1324,22 +1375,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>37.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="C26" s="9">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="D26" s="9">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>12.02</v>
+        <v>93.8</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
@@ -1354,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>38.1</v>
+        <v>34.9</v>
       </c>
       <c r="C27" s="6">
-        <v>10</v>
+        <v>-6.5</v>
       </c>
       <c r="D27" s="6">
-        <v>1600</v>
+        <v>2930</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>13.62</v>
+        <v>109.67</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>13</v>
@@ -1384,22 +1435,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>39.700000000000003</v>
+        <v>37.83</v>
       </c>
       <c r="C28" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>600</v>
+        <v>7240</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>29.62</v>
+        <v>90.63</v>
       </c>
       <c r="G28" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
@@ -1414,22 +1465,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>40.299999999999997</v>
+        <v>45.07</v>
       </c>
       <c r="C29" s="6">
-        <v>-4</v>
+        <v>5.4</v>
       </c>
       <c r="D29" s="6">
-        <v>1000</v>
+        <v>4630</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>28.42</v>
+        <v>90.63</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -1444,22 +1495,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>41.3</v>
+        <v>49.7</v>
       </c>
       <c r="C30" s="9">
-        <v>-6</v>
+        <v>-3.1</v>
       </c>
       <c r="D30" s="9">
-        <v>1200</v>
+        <v>6300</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>24.42</v>
+        <v>115.63</v>
       </c>
       <c r="G30" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
@@ -1474,22 +1525,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>42.5</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>2500</v>
+        <v>5343</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>17.22</v>
+        <v>96.1</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
@@ -1504,22 +1555,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>45</v>
+        <v>61.343000000000004</v>
       </c>
       <c r="C32" s="9">
-        <v>-2</v>
+        <v>-2.8</v>
       </c>
       <c r="D32" s="9">
-        <v>3400</v>
+        <v>1807</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>22.22</v>
+        <v>96.1</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -1534,22 +1585,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>48.4</v>
+        <v>63.15</v>
       </c>
       <c r="C33" s="6">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="D33" s="6">
-        <v>800</v>
+        <v>4150</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>15.42</v>
+        <v>91.04</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -1564,22 +1615,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>49.2</v>
+        <v>67.3</v>
       </c>
       <c r="C34" s="9">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="D34" s="9">
-        <v>1100</v>
+        <v>2625</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>17.82</v>
+        <v>98.1</v>
       </c>
       <c r="G34" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -1594,22 +1645,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>50.3</v>
+        <v>69.924999999999997</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="D35" s="6">
-        <v>700</v>
+        <v>90.340699999999998</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>17.82</v>
+        <v>93.38</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -1624,22 +1675,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C36" s="9">
-        <v>-6</v>
+        <v>2.6</v>
       </c>
       <c r="D36" s="9">
-        <v>600</v>
+        <v>2699.9969999999998</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>19.22</v>
+        <v>93.614879999999999</v>
       </c>
       <c r="G36" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -1654,22 +1705,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>51.6</v>
+        <v>72.7</v>
       </c>
       <c r="C37" s="6">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D37" s="6">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>15.62</v>
+        <v>100.63</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -1684,22 +1735,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>52.6</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C38" s="9">
-        <v>-3</v>
+        <v>2.8</v>
       </c>
       <c r="D38" s="9">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>19.62</v>
+        <v>95.53</v>
       </c>
       <c r="G38" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -1714,25 +1765,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>53.6</v>
+        <v>78.5</v>
       </c>
       <c r="C39" s="6">
-        <v>2</v>
+        <v>-3.3</v>
       </c>
       <c r="D39" s="6">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>16.62</v>
+        <v>107.01</v>
       </c>
       <c r="G39" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1744,25 +1795,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>54.5</v>
+        <v>80.5</v>
       </c>
       <c r="C40" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="9">
-        <v>1300</v>
+        <v>3370</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>18.420000000000002</v>
+        <v>100.41</v>
       </c>
       <c r="G40" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1774,25 +1825,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>55.8</v>
+        <v>83.87</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D41" s="6">
-        <v>3500</v>
+        <v>1384</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>15.82</v>
+        <v>100.41</v>
       </c>
       <c r="G41" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -1804,25 +1855,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>59.3</v>
+        <v>85.254000000000005</v>
       </c>
       <c r="C42" s="9">
-        <v>2</v>
+        <v>7.64</v>
       </c>
       <c r="D42" s="9">
-        <v>1200</v>
+        <v>946</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>15.82</v>
+        <v>102.9</v>
       </c>
       <c r="G42" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1834,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>60.5</v>
+        <v>86.2</v>
       </c>
       <c r="C43" s="6">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>18.22</v>
+        <v>110.13</v>
       </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -1864,25 +1915,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>61.5</v>
+        <v>86.2</v>
       </c>
       <c r="C44" s="9">
-        <v>2</v>
+        <v>7.64</v>
       </c>
       <c r="D44" s="9">
-        <v>1700</v>
+        <v>650</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>14.72</v>
+        <v>110.12</v>
       </c>
       <c r="G44" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1894,25 +1945,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>63.2</v>
+        <v>86.85</v>
       </c>
       <c r="C45" s="6">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>1100</v>
+        <v>1650</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>18.12</v>
+        <v>115.09</v>
       </c>
       <c r="G45" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -1924,25 +1975,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>64.3</v>
+        <v>88.5</v>
       </c>
       <c r="C46" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D46" s="9">
-        <v>800</v>
+        <v>2750</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>14.82</v>
+        <v>120.04</v>
       </c>
       <c r="G46" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1954,25 +2005,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>65.099999999999994</v>
+        <v>91.25</v>
       </c>
       <c r="C47" s="6">
         <v>-2</v>
       </c>
       <c r="D47" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>16.420000000000002</v>
+        <v>153.04</v>
       </c>
       <c r="G47" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -1984,25 +2035,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>66.3</v>
+        <v>92.65</v>
       </c>
       <c r="C48" s="9">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="D48" s="9">
-        <v>1000</v>
+        <v>2780</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>14.02</v>
+        <v>150.24</v>
       </c>
       <c r="G48" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2014,25 +2065,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>67.3</v>
+        <v>95.43</v>
       </c>
       <c r="C49" s="6">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="D49" s="6">
-        <v>800</v>
+        <v>1957</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>18.02</v>
+        <v>128</v>
       </c>
       <c r="G49" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2044,25 +2095,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>68.099999999999994</v>
+        <v>97.387</v>
       </c>
       <c r="C50" s="9">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D50" s="9">
-        <v>1100</v>
+        <v>2613</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>14.82</v>
+        <v>104.52</v>
       </c>
       <c r="G50" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2074,25 +2125,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>69.2</v>
+        <v>100</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="D51" s="6">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>17.02</v>
+        <v>110.27</v>
       </c>
       <c r="G51" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2104,22 +2155,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>70.3</v>
+        <v>101.8</v>
       </c>
       <c r="C52" s="9">
-        <v>-3.5</v>
+        <v>5.4</v>
       </c>
       <c r="D52" s="9">
-        <v>900</v>
+        <v>1850</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>17.02</v>
+        <v>107.93</v>
       </c>
       <c r="G52" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -2134,22 +2185,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>71.2</v>
+        <v>103.65</v>
       </c>
       <c r="C53" s="6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>13.87</v>
+        <v>117.92</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2164,22 +2215,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>73.2</v>
+        <v>105.75</v>
       </c>
       <c r="C54" s="9">
-        <v>0</v>
+        <v>-8.1</v>
       </c>
       <c r="D54" s="9">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>18.87</v>
+        <v>117.92</v>
       </c>
       <c r="G54" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -2194,22 +2245,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>74.599999999999994</v>
+        <v>106.8</v>
       </c>
       <c r="C55" s="6">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D55" s="6">
-        <v>2000</v>
+        <v>1215</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>18.87</v>
+        <v>109.42</v>
       </c>
       <c r="G55" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -2224,22 +2275,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>76.599999999999994</v>
+        <v>108.015</v>
       </c>
       <c r="C56" s="9">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="9">
-        <v>900</v>
+        <v>1885</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>12.87</v>
+        <v>104.56</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -2254,25 +2305,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>77.5</v>
+        <v>109.9</v>
       </c>
       <c r="C57" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D57" s="6">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>8.3699999999999992</v>
+        <v>104.56</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2284,25 +2335,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>78.3</v>
+        <v>111.45</v>
       </c>
       <c r="C58" s="9">
-        <v>-3.5</v>
+        <v>-5.5</v>
       </c>
       <c r="D58" s="9">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>9.9700000000000006</v>
+        <v>123.16</v>
       </c>
       <c r="G58" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2314,25 +2365,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>79.400000000000006</v>
+        <v>114.05</v>
       </c>
       <c r="C59" s="6">
-        <v>-2</v>
+        <v>7.3</v>
       </c>
       <c r="D59" s="6">
-        <v>1200</v>
+        <v>1750</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>6.12</v>
+        <v>108.86</v>
       </c>
       <c r="G59" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2344,25 +2395,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>80.599999999999994</v>
+        <v>115.8</v>
       </c>
       <c r="C60" s="9">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="D60" s="9">
-        <v>900</v>
+        <v>2382</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>3.72</v>
+        <v>121.64</v>
       </c>
       <c r="G60" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2374,25 +2425,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>81.5</v>
+        <v>118.182</v>
       </c>
       <c r="C61" s="6">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D61" s="6">
-        <v>1000</v>
+        <v>2618</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>7.32</v>
+        <v>110.92</v>
       </c>
       <c r="G61" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2404,25 +2455,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>82.5</v>
+        <v>120.8</v>
       </c>
       <c r="C62" s="9">
-        <v>5</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D62" s="9">
-        <v>700</v>
+        <v>1418</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>4.32</v>
+        <v>129.25</v>
       </c>
       <c r="G62" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2434,25 +2485,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>83.2</v>
+        <v>122.218</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6">
-        <v>2800</v>
+        <v>1890.13</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>7.82</v>
+        <v>122.3</v>
       </c>
       <c r="G63" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2464,22 +2515,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>86</v>
+        <v>124.2</v>
       </c>
       <c r="C64" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" s="9">
-        <v>600</v>
+        <v>4300</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>7.82</v>
+        <v>127.9704</v>
       </c>
       <c r="G64" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -2494,22 +2545,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>86.6</v>
+        <v>128.5</v>
       </c>
       <c r="C65" s="6">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D65" s="6">
-        <v>600</v>
+        <v>4280</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>9.02</v>
+        <v>140.87</v>
       </c>
       <c r="G65" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -2524,22 +2575,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>87.2</v>
+        <v>132.78</v>
       </c>
       <c r="C66" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D66" s="9">
-        <v>2700</v>
+        <v>1720</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>5.42</v>
+        <v>128.03</v>
       </c>
       <c r="G66" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -2554,22 +2605,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>89.9</v>
+        <v>134.5</v>
       </c>
       <c r="C67" s="6">
-        <v>-6</v>
+        <v>-7.5</v>
       </c>
       <c r="D67" s="6">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>10.82</v>
+        <v>148.66999999999999</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -2584,22 +2635,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>90.6</v>
+        <v>138.6</v>
       </c>
       <c r="C68" s="9">
-        <v>2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D68" s="9">
-        <v>1500</v>
+        <v>926.072</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>6.62</v>
+        <v>117.92</v>
       </c>
       <c r="G68" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -2614,22 +2665,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>92.1</v>
+        <v>140</v>
       </c>
       <c r="C69" s="6">
-        <v>-2</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D69" s="6">
-        <v>900</v>
+        <v>600.00609999999995</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>9.6199999999999992</v>
+        <v>115.79</v>
       </c>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -2644,22 +2695,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>93</v>
+        <v>140.6</v>
       </c>
       <c r="C70" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" s="9">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>7.82</v>
+        <v>114.41</v>
       </c>
       <c r="G70" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -2674,25 +2725,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>94.1</v>
+        <v>143.4</v>
       </c>
       <c r="C71" s="6">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="D71" s="6">
-        <v>900</v>
+        <v>2249</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>10.02</v>
+        <v>125.61</v>
       </c>
       <c r="G71" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -2704,25 +2755,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>95</v>
+        <v>145.649</v>
       </c>
       <c r="C72" s="9">
-        <v>2.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D72" s="9">
-        <v>1700</v>
+        <v>2074.623</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>4.62</v>
+        <v>113.47</v>
       </c>
       <c r="G72" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2734,22 +2785,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>96.7</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="C73" s="6">
-        <v>1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D73" s="6">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>8.8699999999999992</v>
+        <v>111.1879</v>
       </c>
       <c r="G73" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>13</v>
@@ -2764,22 +2815,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>99.1</v>
+        <v>148.5</v>
       </c>
       <c r="C74" s="9">
-        <v>6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D74" s="9">
-        <v>600</v>
+        <v>5890</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>11.27</v>
+        <v>110.31</v>
       </c>
       <c r="G74" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>13</v>
@@ -2794,22 +2845,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>99.7</v>
+        <v>154.38999999999999</v>
       </c>
       <c r="C75" s="6">
-        <v>-5.5</v>
+        <v>-3.198</v>
       </c>
       <c r="D75" s="6">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>14.87</v>
+        <v>137.4</v>
       </c>
       <c r="G75" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
@@ -2824,22 +2875,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>100.4</v>
+        <v>155.59</v>
       </c>
       <c r="C76" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D76" s="9">
-        <v>3300</v>
+        <v>1810</v>
       </c>
       <c r="E76" s="9">
         <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>11.02</v>
+        <v>133.56</v>
       </c>
       <c r="G76" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>13</v>
@@ -2854,22 +2905,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>103.7</v>
+        <v>157.4</v>
       </c>
       <c r="C77" s="6">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="D77" s="6">
-        <v>1700</v>
+        <v>1610</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>4.42</v>
+        <v>133.56</v>
       </c>
       <c r="G77" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>13</v>
@@ -2884,22 +2935,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>105.4</v>
+        <v>159.01</v>
       </c>
       <c r="C78" s="9">
-        <v>-6</v>
+        <v>3.3</v>
       </c>
       <c r="D78" s="9">
-        <v>1200</v>
+        <v>3420</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="9">
-        <v>14.62</v>
+        <v>145.15</v>
       </c>
       <c r="G78" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>13</v>
@@ -2914,22 +2965,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>106.6</v>
+        <v>162.43</v>
       </c>
       <c r="C79" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D79" s="6">
-        <v>3600</v>
+        <v>2170</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>7.42</v>
+        <v>156.44</v>
       </c>
       <c r="G79" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>13</v>
@@ -2944,22 +2995,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>110.2</v>
+        <v>164.6</v>
       </c>
       <c r="C80" s="9">
-        <v>-3.1</v>
+        <v>-5.4</v>
       </c>
       <c r="D80" s="9">
-        <v>700</v>
+        <v>1213</v>
       </c>
       <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="9">
-        <v>14.62</v>
+        <v>182.48</v>
       </c>
       <c r="G80" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>13</v>
@@ -2974,22 +3025,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>110.9</v>
+        <v>165.81299999999999</v>
       </c>
       <c r="C81" s="6">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="D81" s="6">
-        <v>1600</v>
+        <v>1637</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <v>12.45</v>
+        <v>175.93</v>
       </c>
       <c r="G81" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>13</v>
@@ -3004,22 +3055,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>112.5</v>
+        <v>167.45</v>
       </c>
       <c r="C82" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D82" s="9">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="9">
-        <v>17.25</v>
+        <v>156.29</v>
       </c>
       <c r="G82" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>13</v>
@@ -3034,22 +3085,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>117.4</v>
+        <v>169.35</v>
       </c>
       <c r="C83" s="6">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D83" s="6">
-        <v>2500</v>
+        <v>2125</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
       </c>
       <c r="F83" s="6">
-        <v>7.45</v>
+        <v>156.29</v>
       </c>
       <c r="G83" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
@@ -3064,22 +3115,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>119.9</v>
+        <v>171.47499999999999</v>
       </c>
       <c r="C84" s="9">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D84" s="9">
-        <v>700</v>
+        <v>6625</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="9">
-        <v>22.45</v>
+        <v>168.4</v>
       </c>
       <c r="G84" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>13</v>
@@ -3094,22 +3145,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>120.6</v>
+        <v>178.1</v>
       </c>
       <c r="C85" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>23.85</v>
+        <v>200.86</v>
       </c>
       <c r="G85" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>13</v>
@@ -3124,22 +3175,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>121.7</v>
+        <v>178.1</v>
       </c>
       <c r="C86" s="9">
-        <v>2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D86" s="9">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="9">
-        <v>21.65</v>
+        <v>200.834</v>
       </c>
       <c r="G86" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>13</v>
@@ -3154,22 +3205,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>122.7</v>
+        <v>178.14</v>
       </c>
       <c r="C87" s="6">
-        <v>-6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D87" s="6">
-        <v>800</v>
+        <v>2060</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>23.65</v>
+        <v>201.03</v>
       </c>
       <c r="G87" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>13</v>
@@ -3184,22 +3235,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>123.5</v>
+        <v>180.2</v>
       </c>
       <c r="C88" s="9">
-        <v>-2</v>
+        <v>-8.9</v>
       </c>
       <c r="D88" s="9">
-        <v>2100</v>
+        <v>4800</v>
       </c>
       <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="9">
-        <v>18.850000000000001</v>
+        <v>203.3</v>
       </c>
       <c r="G88" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>13</v>
@@ -3214,22 +3265,22 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>125.6</v>
+        <v>185</v>
       </c>
       <c r="C89" s="6">
-        <v>5</v>
+        <v>-3.9</v>
       </c>
       <c r="D89" s="6">
-        <v>3100</v>
+        <v>6550</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <v>14.65</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="G89" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>13</v>
@@ -3244,22 +3295,22 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>128.69999999999999</v>
+        <v>191.55</v>
       </c>
       <c r="C90" s="9">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D90" s="9">
-        <v>1100</v>
+        <v>2550</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="9">
-        <v>30.15</v>
+        <v>135.04</v>
       </c>
       <c r="G90" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>13</v>
@@ -3274,22 +3325,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>129.80000000000001</v>
+        <v>194.1</v>
       </c>
       <c r="C91" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D91" s="6">
-        <v>600</v>
+        <v>1245</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="6">
-        <v>25.75</v>
+        <v>135.04</v>
       </c>
       <c r="G91" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>13</v>
@@ -3304,22 +3355,22 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>130.4</v>
+        <v>195.345</v>
       </c>
       <c r="C92" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D92" s="9">
-        <v>800</v>
+        <v>2230</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
       </c>
       <c r="F92" s="9">
-        <v>26.95</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="G92" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>13</v>
@@ -3334,22 +3385,22 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>131.19999999999999</v>
+        <v>197.57499999999999</v>
       </c>
       <c r="C93" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" s="6">
-        <v>800</v>
+        <v>1825</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
       </c>
       <c r="F93" s="6">
-        <v>22.15</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="G93" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>13</v>
@@ -3364,22 +3415,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>132</v>
+        <v>199.4</v>
       </c>
       <c r="C94" s="9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D94" s="9">
-        <v>800</v>
+        <v>1399</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
       </c>
       <c r="F94" s="9">
-        <v>23.75</v>
+        <v>157.28</v>
       </c>
       <c r="G94" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>13</v>
@@ -3394,22 +3445,22 @@
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>132.80000000000001</v>
+        <v>200.79900000000001</v>
       </c>
       <c r="C95" s="6">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="D95" s="6">
-        <v>800</v>
+        <v>1601</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
       </c>
       <c r="F95" s="6">
-        <v>22.15</v>
+        <v>150.29</v>
       </c>
       <c r="G95" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>13</v>
@@ -3424,22 +3475,22 @@
         <v>94</v>
       </c>
       <c r="B96" s="11">
-        <v>133.6</v>
+        <v>202.4</v>
       </c>
       <c r="C96" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="9">
-        <v>1800</v>
+        <v>2242</v>
       </c>
       <c r="E96" s="9">
         <v>1</v>
       </c>
       <c r="F96" s="9">
-        <v>23.75</v>
+        <v>131.08000000000001</v>
       </c>
       <c r="G96" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>13</v>
@@ -3454,22 +3505,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>135.4</v>
+        <v>204.642</v>
       </c>
       <c r="C97" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D97" s="6">
-        <v>1100</v>
+        <v>1458</v>
       </c>
       <c r="E97" s="6">
         <v>1</v>
       </c>
       <c r="F97" s="6">
-        <v>12.95</v>
+        <v>131.08000000000001</v>
       </c>
       <c r="G97" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>13</v>
@@ -3484,22 +3535,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="11">
-        <v>136.5</v>
+        <v>206.1</v>
       </c>
       <c r="C98" s="9">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D98" s="9">
-        <v>1700</v>
+        <v>12040</v>
       </c>
       <c r="E98" s="9">
         <v>1</v>
       </c>
       <c r="F98" s="9">
-        <v>15.15</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="G98" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>13</v>
@@ -3514,22 +3565,22 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>138.19999999999999</v>
+        <v>218.14</v>
       </c>
       <c r="C99" s="6">
         <v>-3</v>
       </c>
       <c r="D99" s="6">
-        <v>1200</v>
+        <v>1418</v>
       </c>
       <c r="E99" s="6">
         <v>1</v>
       </c>
       <c r="F99" s="6">
-        <v>22.8</v>
+        <v>193.13</v>
       </c>
       <c r="G99" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>13</v>
@@ -3544,22 +3595,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="11">
-        <v>139.4</v>
+        <v>219.55799999999999</v>
       </c>
       <c r="C100" s="9">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="D100" s="9">
-        <v>1100</v>
+        <v>2992</v>
       </c>
       <c r="E100" s="9">
         <v>1</v>
       </c>
       <c r="F100" s="9">
-        <v>19.2</v>
+        <v>188.88</v>
       </c>
       <c r="G100" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>13</v>
@@ -3574,22 +3625,22 @@
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>140.5</v>
+        <v>222.55</v>
       </c>
       <c r="C101" s="6">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="6">
         <v>1</v>
       </c>
       <c r="F101" s="6">
-        <v>21.4</v>
+        <v>146.99</v>
       </c>
       <c r="G101" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>13</v>
@@ -3604,22 +3655,22 @@
         <v>100</v>
       </c>
       <c r="B102" s="11">
-        <v>141.1</v>
+        <v>224.15</v>
       </c>
       <c r="C102" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D102" s="9">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="9">
         <v>1</v>
       </c>
       <c r="F102" s="9">
-        <v>17.8</v>
+        <v>146.99</v>
       </c>
       <c r="G102" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>13</v>
@@ -3634,22 +3685,22 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>142</v>
+        <v>225.15</v>
       </c>
       <c r="C103" s="6">
-        <v>-6</v>
+        <v>18.3</v>
       </c>
       <c r="D103" s="6">
-        <v>2700</v>
+        <v>250.048</v>
       </c>
       <c r="E103" s="6">
         <v>1</v>
       </c>
       <c r="F103" s="6">
-        <v>23.2</v>
+        <v>148.99</v>
       </c>
       <c r="G103" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>13</v>
@@ -3663,27 +3714,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>144.69999999999999</v>
-      </c>
-      <c r="C104" s="9">
-        <v>6</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E104" s="9">
-        <v>1</v>
-      </c>
-      <c r="F104" s="9">
-        <v>7</v>
-      </c>
-      <c r="G104" s="9">
-        <v>2</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3693,27 +3730,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>145.80000000000001</v>
-      </c>
-      <c r="C105" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
-      <c r="F105" s="6">
-        <v>13.6</v>
-      </c>
-      <c r="G105" s="6">
-        <v>2</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -3723,27 +3746,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>147</v>
-      </c>
-      <c r="C106" s="9">
-        <v>0</v>
-      </c>
-      <c r="D106" s="9">
-        <v>3006.1480000000001</v>
-      </c>
-      <c r="E106" s="9">
-        <v>1</v>
-      </c>
-      <c r="F106" s="9">
-        <v>10</v>
-      </c>
-      <c r="G106" s="9">
-        <v>2</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -18070,6 +18079,7 @@
       <c r="L1001" s="6"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -18082,9 +18092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18154,19 +18164,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>8</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>3000</v>
+        <v>1880</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>7.8970000000000002</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18174,17 +18184,17 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="6">
-        <v>9353.8520000000008</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="6">
-        <v>11000</v>
+      <c r="I3" s="6">
+        <v>11811.74</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <v>11800</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
@@ -18192,37 +18202,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>8.6</v>
+        <v>3.4</v>
       </c>
       <c r="C4" s="9">
-        <v>-12</v>
+        <v>-11.9</v>
       </c>
       <c r="D4" s="9">
-        <v>600</v>
+        <v>1520</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>15.100000000000001</v>
+        <v>96.518000000000001</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9">
+        <v>18967.900000000001</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9">
+        <v>19000</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9">
-        <v>460267.24800000002</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9">
-        <v>507500</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
@@ -18230,175 +18240,215 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>9.35</v>
+        <v>3.8</v>
       </c>
       <c r="C5" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>16.600000000000001</v>
+        <v>96.52</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6">
+        <v>27607.258000000002</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>28400</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>10.153852000000001</v>
+        <v>4.6509999999999998</v>
       </c>
       <c r="C6" s="9">
-        <v>5.5</v>
+        <v>15.7</v>
       </c>
       <c r="D6" s="9">
-        <v>803.85199999999998</v>
+        <v>851</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>12.178814000000003</v>
+        <v>83.159300000000002</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>70015.343999999997</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>70000</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>12.600000000000001</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="C7" s="6">
-        <v>-6</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>800</v>
+        <v>247</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>16.98</v>
+        <v>84.246799999999993</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6">
+        <v>124108.13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6">
+        <v>124200</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>13.4</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="C8" s="9">
-        <v>-12</v>
+        <v>-1.5</v>
       </c>
       <c r="D8" s="9">
-        <v>800</v>
+        <v>1302</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>26.58</v>
+        <v>86.203000000000003</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9">
+        <v>139526.08199999999</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="9">
+        <v>140000</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>14.3</v>
+        <v>7.35</v>
       </c>
       <c r="C9" s="6">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D9" s="6">
-        <v>900</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>35.58</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6">
+        <v>147723.62</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>147700</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>15</v>
+        <v>11.2</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9">
-        <v>700</v>
+        <v>3850</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>34.18</v>
+        <v>88.45</v>
       </c>
       <c r="G10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -18410,25 +18460,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>15.8</v>
+        <v>11.8117404</v>
       </c>
       <c r="C11" s="6">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>800</v>
+        <v>611.74040000000002</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>40.58</v>
+        <v>88.45</v>
       </c>
       <c r="G11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -18440,25 +18490,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>16.900000000000002</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="C12" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>38.379999999999995</v>
+        <v>88.45</v>
       </c>
       <c r="G12" s="9">
         <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -18470,25 +18520,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>18.299999999999997</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
-        <v>6</v>
+        <v>-10.7</v>
       </c>
       <c r="D13" s="6">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>29.980000000000004</v>
+        <v>98.08</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -18500,25 +18550,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="9">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>26.13</v>
+        <v>96.58</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -18530,25 +18580,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>19.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-6.5</v>
+        <v>5.4</v>
       </c>
       <c r="D15" s="6">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>30.68</v>
+        <v>86.32</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -18560,25 +18610,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>22.2</v>
+        <v>18.96790077</v>
       </c>
       <c r="C16" s="9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>2500</v>
+        <v>67.900769999999994</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>38.18</v>
+        <v>86.32</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -18590,22 +18640,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>24</v>
+        <v>22.700001</v>
       </c>
       <c r="C17" s="6">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1800</v>
+        <v>3700.0010000000002</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>53.480000000000004</v>
+        <v>86.32</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -18620,22 +18670,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>25.8</v>
+        <v>24.099999999999998</v>
       </c>
       <c r="C18" s="9">
-        <v>5</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D18" s="9">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>44.48</v>
+        <v>99.339999999999989</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -18653,19 +18703,19 @@
         <v>26.400000000000002</v>
       </c>
       <c r="C19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>43.279999999999994</v>
+        <v>92.44</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -18680,22 +18730,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>28.2</v>
+        <v>27.607257999999998</v>
       </c>
       <c r="C20" s="9">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="D20" s="9">
-        <v>1800</v>
+        <v>1207.258</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>32.480000000000004</v>
+        <v>96.061774</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -18710,22 +18760,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>32.479999999999997</v>
+        <v>96.361779999999996</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -18740,22 +18790,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>30.7</v>
+        <v>28.5</v>
       </c>
       <c r="C22" s="9">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>22.619999999999997</v>
+        <v>96.36</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -18770,22 +18820,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>32.200000000000003</v>
+        <v>28.713000000000001</v>
       </c>
       <c r="C23" s="6">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="D23" s="6">
-        <v>1500</v>
+        <v>213</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>13.620000000000001</v>
+        <v>96.998999999999995</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -18800,22 +18850,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>36.5</v>
+        <v>31</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
       </c>
       <c r="D24" s="9">
-        <v>4300</v>
+        <v>2287</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>13.62</v>
+        <v>97</v>
       </c>
       <c r="G24" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
@@ -18830,22 +18880,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>37.299999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
       </c>
       <c r="D25" s="6">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>12.02</v>
+        <v>93.8</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>13</v>
@@ -18860,22 +18910,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>38.099999999999994</v>
+        <v>34.9</v>
       </c>
       <c r="C26" s="9">
-        <v>-2</v>
+        <v>-6.9</v>
       </c>
       <c r="D26" s="9">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>13.62</v>
+        <v>109.67</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
@@ -18890,22 +18940,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>39.700000000000003</v>
+        <v>37.83</v>
       </c>
       <c r="C27" s="6">
-        <v>-10</v>
+        <v>6.5</v>
       </c>
       <c r="D27" s="6">
-        <v>1600</v>
+        <v>2930</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>29.619999999999997</v>
+        <v>90.625</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>13</v>
@@ -18920,22 +18970,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>40.300000000000004</v>
+        <v>45.07</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>600</v>
+        <v>7240</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>28.42</v>
+        <v>90.63</v>
       </c>
       <c r="G28" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
@@ -18950,22 +19000,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>41.3</v>
+        <v>49.7</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>-5.4</v>
       </c>
       <c r="D29" s="6">
-        <v>1000</v>
+        <v>4630</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>24.42</v>
+        <v>115.63199999999999</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -18980,22 +19030,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>42.5</v>
+        <v>56</v>
       </c>
       <c r="C30" s="9">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="D30" s="9">
-        <v>1200</v>
+        <v>6300</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>17.220000000000002</v>
+        <v>96.1</v>
       </c>
       <c r="G30" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
@@ -19010,22 +19060,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>45</v>
+        <v>61.343000000000004</v>
       </c>
       <c r="C31" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>2500</v>
+        <v>5343</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>22.22</v>
+        <v>96.1</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
@@ -19040,22 +19090,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>48.4</v>
+        <v>63.150000000000006</v>
       </c>
       <c r="C32" s="9">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D32" s="9">
-        <v>3400</v>
+        <v>1807</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>15.419999999999998</v>
+        <v>91.040399999999991</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -19070,22 +19120,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>49.199999999999996</v>
+        <v>67.3</v>
       </c>
       <c r="C33" s="6">
-        <v>-3</v>
+        <v>-1.7</v>
       </c>
       <c r="D33" s="6">
-        <v>800</v>
+        <v>4150</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>17.82</v>
+        <v>98.094999999999999</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -19100,22 +19150,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>50.300000000000004</v>
+        <v>69.924999999999997</v>
       </c>
       <c r="C34" s="9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D34" s="9">
-        <v>1100</v>
+        <v>2625</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>17.82</v>
+        <v>93.375</v>
       </c>
       <c r="G34" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -19130,22 +19180,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>51</v>
+        <v>70.015340699999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-2</v>
+        <v>-2.6</v>
       </c>
       <c r="D35" s="6">
-        <v>700</v>
+        <v>90.340699999999998</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>19.22</v>
+        <v>93.614885819999998</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -19160,22 +19210,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>51.6</v>
+        <v>72.699996999999996</v>
       </c>
       <c r="C36" s="9">
-        <v>6</v>
+        <v>-2.6</v>
       </c>
       <c r="D36" s="9">
-        <v>600</v>
+        <v>2699.9969999999998</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>15.62</v>
+        <v>100.6348722</v>
       </c>
       <c r="G36" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -19190,22 +19240,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>52.6</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C37" s="6">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>19.619999999999997</v>
+        <v>95.53</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -19220,22 +19270,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>53.6</v>
+        <v>78.5</v>
       </c>
       <c r="C38" s="9">
-        <v>3</v>
+        <v>-2.8</v>
       </c>
       <c r="D38" s="9">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>16.62</v>
+        <v>107.01</v>
       </c>
       <c r="G38" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -19250,25 +19300,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>54.5</v>
+        <v>80.5</v>
       </c>
       <c r="C39" s="6">
-        <v>-2</v>
+        <v>3.3</v>
       </c>
       <c r="D39" s="6">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>18.420000000000002</v>
+        <v>100.41000000000001</v>
       </c>
       <c r="G39" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -19280,25 +19330,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>55.8</v>
+        <v>83.87</v>
       </c>
       <c r="C40" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" s="9">
-        <v>1300</v>
+        <v>3370</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>15.820000000000002</v>
+        <v>100.41</v>
       </c>
       <c r="G40" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -19310,25 +19360,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>59.3</v>
+        <v>85.254000000000005</v>
       </c>
       <c r="C41" s="6">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="D41" s="6">
-        <v>3500</v>
+        <v>1384</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>15.82</v>
+        <v>102.9012</v>
       </c>
       <c r="G41" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -19340,25 +19390,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>60.5</v>
+        <v>86.2</v>
       </c>
       <c r="C42" s="9">
-        <v>-2</v>
+        <v>-7.64</v>
       </c>
       <c r="D42" s="9">
-        <v>1200</v>
+        <v>946</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>18.22</v>
+        <v>110.12744000000001</v>
       </c>
       <c r="G42" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -19370,25 +19420,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>61.5</v>
+        <v>86.2</v>
       </c>
       <c r="C43" s="6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>14.719999999999999</v>
+        <v>110.13</v>
       </c>
       <c r="G43" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -19400,25 +19450,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>63.2</v>
+        <v>86.850000000000009</v>
       </c>
       <c r="C44" s="9">
-        <v>-2</v>
+        <v>-7.64</v>
       </c>
       <c r="D44" s="9">
-        <v>1700</v>
+        <v>650</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>18.12</v>
+        <v>115.086</v>
       </c>
       <c r="G44" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -19430,25 +19480,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>64.3</v>
+        <v>88.5</v>
       </c>
       <c r="C45" s="6">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D45" s="6">
-        <v>1100</v>
+        <v>1650</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>14.82</v>
+        <v>120.04</v>
       </c>
       <c r="G45" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -19460,25 +19510,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>65.099999999999994</v>
+        <v>91.25</v>
       </c>
       <c r="C46" s="9">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D46" s="9">
-        <v>800</v>
+        <v>2750</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>16.420000000000002</v>
+        <v>153.04000000000002</v>
       </c>
       <c r="G46" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -19490,25 +19540,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>66.3</v>
+        <v>92.65</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
       </c>
       <c r="D47" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>14.020000000000001</v>
+        <v>150.23999999999998</v>
       </c>
       <c r="G47" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -19520,25 +19570,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>67.3</v>
+        <v>95.43</v>
       </c>
       <c r="C48" s="9">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="D48" s="9">
-        <v>1000</v>
+        <v>2780</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>18.02</v>
+        <v>128</v>
       </c>
       <c r="G48" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -19550,25 +19600,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>68.099999999999994</v>
+        <v>97.387</v>
       </c>
       <c r="C49" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D49" s="6">
-        <v>800</v>
+        <v>1957</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>14.82</v>
+        <v>104.51599999999999</v>
       </c>
       <c r="G49" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -19580,25 +19630,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>69.199999999999989</v>
+        <v>100</v>
       </c>
       <c r="C50" s="9">
-        <v>-2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D50" s="9">
-        <v>1100</v>
+        <v>2613</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>17.02</v>
+        <v>110.26859999999999</v>
       </c>
       <c r="G50" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -19610,25 +19660,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>70.3</v>
+        <v>101.8</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D51" s="6">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>17.02</v>
+        <v>107.92999999999999</v>
       </c>
       <c r="G51" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -19640,22 +19690,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>71.2</v>
+        <v>103.64999999999999</v>
       </c>
       <c r="C52" s="9">
-        <v>3.5</v>
+        <v>-5.4</v>
       </c>
       <c r="D52" s="9">
-        <v>900</v>
+        <v>1850</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>13.87</v>
+        <v>117.92</v>
       </c>
       <c r="G52" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -19670,22 +19720,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>73.2</v>
+        <v>105.75</v>
       </c>
       <c r="C53" s="6">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>18.869999999999997</v>
+        <v>117.92</v>
       </c>
       <c r="G53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -19700,22 +19750,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>74.600000000000009</v>
+        <v>106.8</v>
       </c>
       <c r="C54" s="9">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="D54" s="9">
-        <v>1400</v>
+        <v>1050</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>18.87</v>
+        <v>109.41500000000001</v>
       </c>
       <c r="G54" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -19730,22 +19780,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>76.599999999999994</v>
+        <v>108.015</v>
       </c>
       <c r="C55" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="6">
-        <v>2000</v>
+        <v>1215</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>12.870000000000001</v>
+        <v>104.56</v>
       </c>
       <c r="G55" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -19760,22 +19810,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>77.5</v>
+        <v>109.9</v>
       </c>
       <c r="C56" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="9">
-        <v>900</v>
+        <v>1885</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>8.3699999999999992</v>
+        <v>104.56</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -19790,25 +19840,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>78.3</v>
+        <v>111.45</v>
       </c>
       <c r="C57" s="6">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D57" s="6">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>9.9699999999999989</v>
+        <v>123.16</v>
       </c>
       <c r="G57" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -19820,25 +19870,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>79.399999999999991</v>
+        <v>114.05</v>
       </c>
       <c r="C58" s="9">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D58" s="9">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>6.120000000000001</v>
+        <v>108.86</v>
       </c>
       <c r="G58" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -19850,25 +19900,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>80.600000000000009</v>
+        <v>115.8</v>
       </c>
       <c r="C59" s="6">
-        <v>2</v>
+        <v>-7.3</v>
       </c>
       <c r="D59" s="6">
-        <v>1200</v>
+        <v>1750</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>3.72</v>
+        <v>121.63500000000001</v>
       </c>
       <c r="G59" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -19880,25 +19930,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>81.5</v>
+        <v>118.182</v>
       </c>
       <c r="C60" s="9">
-        <v>-4</v>
+        <v>4.5</v>
       </c>
       <c r="D60" s="9">
-        <v>900</v>
+        <v>2382</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>7.32</v>
+        <v>110.92100000000001</v>
       </c>
       <c r="G60" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -19910,25 +19960,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>82.5</v>
+        <v>120.8</v>
       </c>
       <c r="C61" s="6">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D61" s="6">
-        <v>1000</v>
+        <v>2618</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>4.32</v>
+        <v>129.24600000000001</v>
       </c>
       <c r="G61" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -19940,25 +19990,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>83.2</v>
+        <v>122.218</v>
       </c>
       <c r="C62" s="9">
-        <v>-5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D62" s="9">
-        <v>700</v>
+        <v>1418</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>7.82</v>
+        <v>122.3018</v>
       </c>
       <c r="G62" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -19970,25 +20020,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>86</v>
+        <v>124.10813</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D63" s="6">
-        <v>2800</v>
+        <v>1890.13</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>7.82</v>
+        <v>127.97038999999999</v>
       </c>
       <c r="G63" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -20000,22 +20050,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>86.6</v>
+        <v>128.5</v>
       </c>
       <c r="C64" s="9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D64" s="9">
-        <v>600</v>
+        <v>4300</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>9.02</v>
+        <v>140.87039999999999</v>
       </c>
       <c r="G64" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -20030,22 +20080,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>87.199999999999989</v>
+        <v>132.78</v>
       </c>
       <c r="C65" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>600</v>
+        <v>4280</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>5.42</v>
+        <v>128.03</v>
       </c>
       <c r="G65" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -20060,22 +20110,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>89.9</v>
+        <v>134.5</v>
       </c>
       <c r="C66" s="9">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D66" s="9">
-        <v>2700</v>
+        <v>1720</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>10.82</v>
+        <v>148.67000000000002</v>
       </c>
       <c r="G66" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -20090,22 +20140,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>90.600000000000009</v>
+        <v>138.6</v>
       </c>
       <c r="C67" s="6">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D67" s="6">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>6.62</v>
+        <v>117.91999999999999</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -20120,22 +20170,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>92.1</v>
+        <v>139.526072</v>
       </c>
       <c r="C68" s="9">
-        <v>-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D68" s="9">
-        <v>1500</v>
+        <v>926.072</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>9.620000000000001</v>
+        <v>115.7900344</v>
       </c>
       <c r="G68" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -20150,22 +20200,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>93</v>
+        <v>140.6000061</v>
       </c>
       <c r="C69" s="6">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D69" s="6">
-        <v>900</v>
+        <v>600.00609999999995</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>7.8199999999999994</v>
+        <v>114.40998597000001</v>
       </c>
       <c r="G69" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -20180,22 +20230,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>94.1</v>
+        <v>143.4</v>
       </c>
       <c r="C70" s="9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D70" s="9">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>10.02</v>
+        <v>125.61</v>
       </c>
       <c r="G70" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -20210,25 +20260,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>95</v>
+        <v>145.649</v>
       </c>
       <c r="C71" s="6">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="D71" s="6">
-        <v>900</v>
+        <v>2249</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>4.6199999999999992</v>
+        <v>113.4654</v>
       </c>
       <c r="G71" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -20240,25 +20290,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>96.7</v>
+        <v>147.723623</v>
       </c>
       <c r="C72" s="9">
-        <v>-2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D72" s="9">
-        <v>1700</v>
+        <v>2074.623</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>8.870000000000001</v>
+        <v>111.18791469999999</v>
       </c>
       <c r="G72" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -20270,22 +20320,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>99.100000000000009</v>
+        <v>148.5</v>
       </c>
       <c r="C73" s="6">
-        <v>-1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D73" s="6">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>11.27</v>
+        <v>110.3079</v>
       </c>
       <c r="G73" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>13</v>
@@ -20300,22 +20350,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>99.699999999999989</v>
+        <v>154.38999999999999</v>
       </c>
       <c r="C74" s="9">
-        <v>-6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D74" s="9">
-        <v>600</v>
+        <v>5890</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>14.87</v>
+        <v>137.404</v>
       </c>
       <c r="G74" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>13</v>
@@ -20330,22 +20380,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>100.4</v>
+        <v>155.58999999999997</v>
       </c>
       <c r="C75" s="6">
-        <v>5.5</v>
+        <v>3.198</v>
       </c>
       <c r="D75" s="6">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>11.02</v>
+        <v>133.5624</v>
       </c>
       <c r="G75" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
@@ -20360,22 +20410,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>103.7</v>
+        <v>157.4</v>
       </c>
       <c r="C76" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76" s="9">
-        <v>3300</v>
+        <v>1810</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>4.42</v>
+        <v>133.56</v>
       </c>
       <c r="G76" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>13</v>
@@ -20390,22 +20440,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>105.4</v>
+        <v>159.01000000000002</v>
       </c>
       <c r="C77" s="6">
-        <v>-6</v>
+        <v>-7.2</v>
       </c>
       <c r="D77" s="6">
-        <v>1700</v>
+        <v>1610</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <v>14.62</v>
+        <v>145.15200000000002</v>
       </c>
       <c r="G77" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>13</v>
@@ -20420,22 +20470,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>106.60000000000001</v>
+        <v>162.42999999999998</v>
       </c>
       <c r="C78" s="9">
-        <v>6</v>
+        <v>-3.3</v>
       </c>
       <c r="D78" s="9">
-        <v>1200</v>
+        <v>3420</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <v>7.419999999999999</v>
+        <v>156.43600000000001</v>
       </c>
       <c r="G78" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>13</v>
@@ -20450,22 +20500,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>110.19999999999999</v>
+        <v>164.6</v>
       </c>
       <c r="C79" s="6">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D79" s="6">
-        <v>3600</v>
+        <v>2170</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <v>14.620000000000001</v>
+        <v>182.48</v>
       </c>
       <c r="G79" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>13</v>
@@ -20480,22 +20530,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>110.9</v>
+        <v>165.81299999999999</v>
       </c>
       <c r="C80" s="9">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="D80" s="9">
-        <v>700</v>
+        <v>1213</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <v>12.45</v>
+        <v>175.9298</v>
       </c>
       <c r="G80" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>13</v>
@@ -20510,22 +20560,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>112.5</v>
+        <v>167.45</v>
       </c>
       <c r="C81" s="6">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="D81" s="6">
-        <v>1600</v>
+        <v>1637</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <v>17.25</v>
+        <v>156.286</v>
       </c>
       <c r="G81" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>13</v>
@@ -20540,22 +20590,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>117.4</v>
+        <v>169.35</v>
       </c>
       <c r="C82" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82" s="9">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>7.4499999999999993</v>
+        <v>156.29</v>
       </c>
       <c r="G82" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>13</v>
@@ -20570,22 +20620,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>119.9</v>
+        <v>171.47499999999999</v>
       </c>
       <c r="C83" s="6">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="D83" s="6">
-        <v>2500</v>
+        <v>2125</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>22.45</v>
+        <v>168.4025</v>
       </c>
       <c r="G83" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>13</v>
@@ -20600,22 +20650,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>120.60000000000001</v>
+        <v>178.1</v>
       </c>
       <c r="C84" s="9">
-        <v>-2</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D84" s="9">
-        <v>700</v>
+        <v>6625</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>23.849999999999998</v>
+        <v>200.86250000000001</v>
       </c>
       <c r="G84" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>13</v>
@@ -20630,22 +20680,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>121.69999999999999</v>
+        <v>178.1</v>
       </c>
       <c r="C85" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <v>21.650000000000002</v>
+        <v>200.86</v>
       </c>
       <c r="G85" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>13</v>
@@ -20660,22 +20710,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>122.7</v>
+        <v>178.14</v>
       </c>
       <c r="C86" s="9">
-        <v>-2</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D86" s="9">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <v>23.65</v>
+        <v>201.03</v>
       </c>
       <c r="G86" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>13</v>
@@ -20690,22 +20740,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>123.5</v>
+        <v>180.2</v>
       </c>
       <c r="C87" s="6">
-        <v>6</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D87" s="6">
-        <v>800</v>
+        <v>2060</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <v>18.849999999999998</v>
+        <v>203.29599999999999</v>
       </c>
       <c r="G87" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>13</v>
@@ -20720,22 +20770,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>125.6</v>
+        <v>185</v>
       </c>
       <c r="C88" s="9">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="D88" s="9">
-        <v>2100</v>
+        <v>4800</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <v>14.650000000000002</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="G88" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>13</v>
@@ -20750,22 +20800,22 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>128.69999999999999</v>
+        <v>191.55</v>
       </c>
       <c r="C89" s="6">
-        <v>-5</v>
+        <v>3.9</v>
       </c>
       <c r="D89" s="6">
-        <v>3100</v>
+        <v>6550</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <v>30.15</v>
+        <v>135.03500000000003</v>
       </c>
       <c r="G89" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>13</v>
@@ -20780,22 +20830,22 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>129.79999999999998</v>
+        <v>194.10000000000002</v>
       </c>
       <c r="C90" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D90" s="9">
-        <v>1100</v>
+        <v>2550</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <v>25.75</v>
+        <v>135.04</v>
       </c>
       <c r="G90" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>13</v>
@@ -20810,22 +20860,22 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>130.4</v>
+        <v>195.345</v>
       </c>
       <c r="C91" s="6">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D91" s="6">
-        <v>600</v>
+        <v>1245</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="6">
-        <v>26.95</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="G91" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>13</v>
@@ -20840,22 +20890,22 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>131.20000000000002</v>
+        <v>197.57499999999999</v>
       </c>
       <c r="C92" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D92" s="9">
-        <v>800</v>
+        <v>2230</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <v>22.15</v>
+        <v>149.97999999999999</v>
       </c>
       <c r="G92" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>13</v>
@@ -20870,22 +20920,22 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>132</v>
+        <v>199.39999999999998</v>
       </c>
       <c r="C93" s="6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D93" s="6">
-        <v>800</v>
+        <v>1825</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <v>23.75</v>
+        <v>157.28</v>
       </c>
       <c r="G93" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>13</v>
@@ -20900,22 +20950,22 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>132.80000000000001</v>
+        <v>200.79900000000001</v>
       </c>
       <c r="C94" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" s="9">
-        <v>800</v>
+        <v>1399</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <v>22.15</v>
+        <v>150.285</v>
       </c>
       <c r="G94" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>13</v>
@@ -20930,22 +20980,22 @@
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>133.60000000000002</v>
+        <v>202.4</v>
       </c>
       <c r="C95" s="6">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="D95" s="6">
-        <v>800</v>
+        <v>1601</v>
       </c>
       <c r="E95" s="6">
         <v>0</v>
       </c>
       <c r="F95" s="6">
-        <v>23.75</v>
+        <v>131.078</v>
       </c>
       <c r="G95" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>13</v>
@@ -20960,22 +21010,22 @@
         <v>94</v>
       </c>
       <c r="B96" s="11">
-        <v>135.4</v>
+        <v>204.642</v>
       </c>
       <c r="C96" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="9">
-        <v>1800</v>
+        <v>2242</v>
       </c>
       <c r="E96" s="9">
         <v>0</v>
       </c>
       <c r="F96" s="9">
-        <v>12.95</v>
+        <v>131.08000000000001</v>
       </c>
       <c r="G96" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>13</v>
@@ -20990,22 +21040,22 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>136.5</v>
+        <v>206.1</v>
       </c>
       <c r="C97" s="6">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="D97" s="6">
-        <v>1100</v>
+        <v>1458</v>
       </c>
       <c r="E97" s="6">
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <v>15.149999999999999</v>
+        <v>148.57600000000002</v>
       </c>
       <c r="G97" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>13</v>
@@ -21020,22 +21070,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="11">
-        <v>138.19999999999999</v>
+        <v>218.14</v>
       </c>
       <c r="C98" s="9">
-        <v>-4.5</v>
+        <v>-3.7</v>
       </c>
       <c r="D98" s="9">
-        <v>1700</v>
+        <v>12040</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
       <c r="F98" s="9">
-        <v>22.8</v>
+        <v>193.12800000000001</v>
       </c>
       <c r="G98" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H98" s="9" t="s">
         <v>13</v>
@@ -21050,22 +21100,22 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>139.39999999999998</v>
+        <v>219.55799999999999</v>
       </c>
       <c r="C99" s="6">
         <v>3</v>
       </c>
       <c r="D99" s="6">
-        <v>1200</v>
+        <v>1418</v>
       </c>
       <c r="E99" s="6">
         <v>0</v>
       </c>
       <c r="F99" s="6">
-        <v>19.2</v>
+        <v>188.876</v>
       </c>
       <c r="G99" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>13</v>
@@ -21080,22 +21130,22 @@
         <v>98</v>
       </c>
       <c r="B100" s="11">
-        <v>140.5</v>
+        <v>222.54999999999998</v>
       </c>
       <c r="C100" s="9">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="D100" s="9">
-        <v>1100</v>
+        <v>2992</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
       </c>
       <c r="F100" s="9">
-        <v>21.4</v>
+        <v>146.99199999999999</v>
       </c>
       <c r="G100" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>13</v>
@@ -21110,22 +21160,22 @@
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>141.1</v>
+        <v>224.15</v>
       </c>
       <c r="C101" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="6">
         <v>0</v>
       </c>
       <c r="F101" s="6">
-        <v>17.799999999999997</v>
+        <v>146.99</v>
       </c>
       <c r="G101" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>13</v>
@@ -21140,22 +21190,22 @@
         <v>100</v>
       </c>
       <c r="B102" s="11">
-        <v>142</v>
+        <v>225.15</v>
       </c>
       <c r="C102" s="9">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D102" s="9">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
       <c r="F102" s="9">
-        <v>23.200000000000003</v>
+        <v>148.99</v>
       </c>
       <c r="G102" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>13</v>
@@ -21170,22 +21220,22 @@
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>144.69999999999999</v>
+        <v>225.400048</v>
       </c>
       <c r="C103" s="6">
-        <v>6</v>
+        <v>-18.3</v>
       </c>
       <c r="D103" s="6">
-        <v>2700</v>
+        <v>250.048</v>
       </c>
       <c r="E103" s="6">
         <v>0</v>
       </c>
       <c r="F103" s="6">
-        <v>7</v>
+        <v>153.5658784</v>
       </c>
       <c r="G103" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>13</v>
@@ -21199,27 +21249,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>145.79999999999998</v>
-      </c>
-      <c r="C104" s="9">
-        <v>-6</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1100</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>13.6</v>
-      </c>
-      <c r="G104" s="9">
-        <v>2</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -21229,27 +21265,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>147</v>
-      </c>
-      <c r="C105" s="6">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <v>10</v>
-      </c>
-      <c r="G105" s="6">
-        <v>2</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -21259,27 +21281,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>150.006148</v>
-      </c>
-      <c r="C106" s="9">
-        <v>0</v>
-      </c>
-      <c r="D106" s="9">
-        <v>3006.1480000000001</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>10</v>
-      </c>
-      <c r="G106" s="9">
-        <v>2</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="465" yWindow="4125" windowWidth="17190" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="下行" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,13 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>D2K</t>
-  </si>
-  <si>
-    <t>D1K</t>
+    <t>CK</t>
   </si>
 </sst>
 </file>
@@ -557,9 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -567,7 +561,9 @@
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="15.75" style="10" customWidth="1"/>
     <col min="3" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
@@ -635,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1880</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>78.430000000000007</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -649,271 +645,215 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6">
-        <v>11811.74</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6">
-        <v>11800</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="C4" s="9">
-        <v>11.9</v>
+        <v>14.3</v>
       </c>
       <c r="D4" s="9">
-        <v>1520</v>
+        <v>280</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>78.430000000000007</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="9">
-        <v>18967.900000000001</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9">
-        <v>19000</v>
-      </c>
-      <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>96.52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6">
-        <v>27607.258000000002</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6">
-        <v>28400</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>-15.7</v>
+        <v>-8.5</v>
       </c>
       <c r="D6" s="9">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>96.52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>70015.343999999997</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="9">
-        <v>70000</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>4.6509999999999998</v>
+        <v>3.88</v>
       </c>
       <c r="C7" s="6">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>247</v>
+        <v>2120</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>83.16</v>
+        <v>46.52</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6">
-        <v>124108.13</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6">
-        <v>124200</v>
-      </c>
-      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>4.8979999999999997</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D8" s="9">
-        <v>1302</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>84.25</v>
+        <v>46.52</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="9">
-        <v>139526.08199999999</v>
-      </c>
-      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9">
-        <v>140000</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="C9" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>490</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>86.2</v>
+        <v>48.06</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6">
-        <v>147723.62</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>147700</v>
-      </c>
-      <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>7.35</v>
+        <v>7.59</v>
       </c>
       <c r="C10" s="9">
-        <v>-3</v>
+        <v>-40.4</v>
       </c>
       <c r="D10" s="9">
-        <v>3850</v>
+        <v>180</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>100</v>
+        <v>48.06</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -925,25 +865,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>11.2</v>
+        <v>7.77</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6">
-        <v>611.74040000000002</v>
+        <v>250</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>88.45</v>
+        <v>40.79</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -955,25 +895,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>11.8</v>
+        <v>8.02</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>88.45</v>
+        <v>48.04</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -985,25 +925,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>13.1</v>
+        <v>9.4</v>
       </c>
       <c r="C13" s="6">
-        <v>10.7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>88.45</v>
+        <v>61.84</v>
       </c>
       <c r="G13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1015,25 +955,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>14</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C14" s="9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="9">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>98.08</v>
+        <v>63.79</v>
       </c>
       <c r="G14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1045,25 +985,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>17</v>
+        <v>11.7</v>
       </c>
       <c r="C15" s="6">
-        <v>-5.4</v>
+        <v>10.8</v>
       </c>
       <c r="D15" s="6">
-        <v>1900</v>
+        <v>930</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>96.58</v>
+        <v>62.14</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1075,25 +1015,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>18.899999999999999</v>
+        <v>12.63</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="D16" s="9">
-        <v>67.900769999999994</v>
+        <v>570</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>86.32</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="G16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1105,22 +1045,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>19</v>
+        <v>13.2</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D17" s="6">
-        <v>3700.0010000000002</v>
+        <v>800</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>86.32</v>
+        <v>66.77</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -1135,22 +1075,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>22.7</v>
+        <v>14</v>
       </c>
       <c r="C18" s="9">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>86.32</v>
+        <v>65.17</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1165,22 +1105,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>24.1</v>
+        <v>14.7</v>
       </c>
       <c r="C19" s="6">
-        <v>-3</v>
+        <v>13.8</v>
       </c>
       <c r="D19" s="6">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>99.34</v>
+        <v>65.17</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -1195,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>26.4</v>
+        <v>15.3</v>
       </c>
       <c r="C20" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="9">
-        <v>1207.258</v>
+        <v>700</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>92.44</v>
+        <v>73.45</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1225,22 +1165,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>28.4</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D21" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>96.061779999999999</v>
+        <v>73.45</v>
       </c>
       <c r="G21" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1255,22 +1195,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="C22" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>96.36</v>
+        <v>75.25</v>
       </c>
       <c r="G22" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -1285,22 +1225,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>28.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="C23" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>213</v>
+        <v>869.73500000000001</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>96.36</v>
+        <v>77.55</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -1314,27 +1254,13 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
-        <v>28.713000000000001</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2287</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>97</v>
-      </c>
-      <c r="G24" s="9">
-        <v>4</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1344,27 +1270,13 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>31</v>
-      </c>
-      <c r="C25" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>97</v>
-      </c>
-      <c r="G25" s="6">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1374,27 +1286,13 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
-        <v>32.6</v>
-      </c>
-      <c r="C26" s="9">
-        <v>6.9</v>
-      </c>
-      <c r="D26" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>93.8</v>
-      </c>
-      <c r="G26" s="9">
-        <v>4</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1404,27 +1302,13 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
-        <v>34.9</v>
-      </c>
-      <c r="C27" s="6">
-        <v>-6.5</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2930</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>109.67</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1434,27 +1318,13 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
-        <v>37.83</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>7240</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>90.63</v>
-      </c>
-      <c r="G28" s="9">
-        <v>4</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1464,27 +1334,13 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
-        <v>45.07</v>
-      </c>
-      <c r="C29" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="D29" s="6">
-        <v>4630</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>90.63</v>
-      </c>
-      <c r="G29" s="6">
-        <v>4</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1494,27 +1350,13 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
-        <v>49.7</v>
-      </c>
-      <c r="C30" s="9">
-        <v>-3.1</v>
-      </c>
-      <c r="D30" s="9">
-        <v>6300</v>
-      </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
-        <v>115.63</v>
-      </c>
-      <c r="G30" s="9">
-        <v>4</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1524,27 +1366,13 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
-        <v>56</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>5343</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
-        <v>96.1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1554,27 +1382,13 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
-        <v>61.343000000000004</v>
-      </c>
-      <c r="C32" s="9">
-        <v>-2.8</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1807</v>
-      </c>
-      <c r="E32" s="9">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9">
-        <v>96.1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>4</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1584,27 +1398,13 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
-        <v>63.15</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4150</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>91.04</v>
-      </c>
-      <c r="G33" s="6">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1614,27 +1414,13 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
-        <v>67.3</v>
-      </c>
-      <c r="C34" s="9">
-        <v>-1.8</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2625</v>
-      </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9">
-        <v>98.1</v>
-      </c>
-      <c r="G34" s="9">
-        <v>4</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1644,27 +1430,13 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
-        <v>69.924999999999997</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="D35" s="6">
-        <v>90.340699999999998</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>93.38</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -1674,27 +1446,13 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
-        <v>70</v>
-      </c>
-      <c r="C36" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="D36" s="9">
-        <v>2699.9969999999998</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9">
-        <v>93.614879999999999</v>
-      </c>
-      <c r="G36" s="9">
-        <v>5</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -1704,27 +1462,13 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
-        <v>72.7</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
-        <v>100.63</v>
-      </c>
-      <c r="G37" s="6">
-        <v>5</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -1734,27 +1478,13 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C38" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="D38" s="9">
-        <v>4100</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9">
-        <v>95.53</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -1764,27 +1494,13 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>78.5</v>
-      </c>
-      <c r="C39" s="6">
-        <v>-3.3</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>107.01</v>
-      </c>
-      <c r="G39" s="6">
-        <v>5</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -1794,27 +1510,13 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
-        <v>80.5</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>3370</v>
-      </c>
-      <c r="E40" s="9">
-        <v>1</v>
-      </c>
-      <c r="F40" s="9">
-        <v>100.41</v>
-      </c>
-      <c r="G40" s="9">
-        <v>5</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -1824,27 +1526,13 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
-        <v>83.87</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1384</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>100.41</v>
-      </c>
-      <c r="G41" s="6">
-        <v>5</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1854,27 +1542,13 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
-        <v>85.254000000000005</v>
-      </c>
-      <c r="C42" s="9">
-        <v>7.64</v>
-      </c>
-      <c r="D42" s="9">
-        <v>946</v>
-      </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9">
-        <v>102.9</v>
-      </c>
-      <c r="G42" s="9">
-        <v>5</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -1884,27 +1558,13 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <v>86.2</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>110.13</v>
-      </c>
-      <c r="G43" s="6">
-        <v>5</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -1914,27 +1574,13 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
-        <v>86.2</v>
-      </c>
-      <c r="C44" s="9">
-        <v>7.64</v>
-      </c>
-      <c r="D44" s="9">
-        <v>650</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1</v>
-      </c>
-      <c r="F44" s="9">
-        <v>110.12</v>
-      </c>
-      <c r="G44" s="9">
-        <v>5</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -1944,27 +1590,13 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
-        <v>86.85</v>
-      </c>
-      <c r="C45" s="6">
-        <v>3</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1650</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>115.09</v>
-      </c>
-      <c r="G45" s="6">
-        <v>5</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -1974,27 +1606,13 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
-        <v>88.5</v>
-      </c>
-      <c r="C46" s="9">
-        <v>12</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2750</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9">
-        <v>120.04</v>
-      </c>
-      <c r="G46" s="9">
-        <v>5</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2004,27 +1622,13 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
-        <v>91.25</v>
-      </c>
-      <c r="C47" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>153.04</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -2034,27 +1638,13 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
-        <v>92.65</v>
-      </c>
-      <c r="C48" s="9">
-        <v>-8</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2780</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9">
-        <v>150.24</v>
-      </c>
-      <c r="G48" s="9">
-        <v>5</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -2064,27 +1654,13 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
-        <v>95.43</v>
-      </c>
-      <c r="C49" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1957</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
-        <v>128</v>
-      </c>
-      <c r="G49" s="6">
-        <v>5</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2094,27 +1670,13 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
-        <v>97.387</v>
-      </c>
-      <c r="C50" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2613</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
-        <v>104.52</v>
-      </c>
-      <c r="G50" s="9">
-        <v>5</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2124,27 +1686,13 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
-        <v>100</v>
-      </c>
-      <c r="C51" s="6">
-        <v>-1.3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1800</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>110.27</v>
-      </c>
-      <c r="G51" s="6">
-        <v>5</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -2154,27 +1702,13 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
-        <v>101.8</v>
-      </c>
-      <c r="C52" s="9">
-        <v>5.4</v>
-      </c>
-      <c r="D52" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9">
-        <v>107.93</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2184,27 +1718,13 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
-        <v>103.65</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
-        <v>117.92</v>
-      </c>
-      <c r="G53" s="6">
-        <v>5</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -2214,27 +1734,13 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="11">
-        <v>105.75</v>
-      </c>
-      <c r="C54" s="9">
-        <v>-8.1</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1050</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1</v>
-      </c>
-      <c r="F54" s="9">
-        <v>117.92</v>
-      </c>
-      <c r="G54" s="9">
-        <v>5</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -2244,27 +1750,13 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
-        <v>106.8</v>
-      </c>
-      <c r="C55" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1215</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
-        <v>109.42</v>
-      </c>
-      <c r="G55" s="6">
-        <v>5</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -2274,27 +1766,13 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="11">
-        <v>108.015</v>
-      </c>
-      <c r="C56" s="9">
-        <v>0</v>
-      </c>
-      <c r="D56" s="9">
-        <v>1885</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9">
-        <v>104.56</v>
-      </c>
-      <c r="G56" s="9">
-        <v>5</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -2304,27 +1782,13 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
-        <v>109.9</v>
-      </c>
-      <c r="C57" s="6">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1</v>
-      </c>
-      <c r="F57" s="6">
-        <v>104.56</v>
-      </c>
-      <c r="G57" s="6">
-        <v>5</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -2334,27 +1798,13 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="11">
-        <v>111.45</v>
-      </c>
-      <c r="C58" s="9">
-        <v>-5.5</v>
-      </c>
-      <c r="D58" s="9">
-        <v>2600</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1</v>
-      </c>
-      <c r="F58" s="9">
-        <v>123.16</v>
-      </c>
-      <c r="G58" s="9">
-        <v>5</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2364,27 +1814,13 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
-        <v>114.05</v>
-      </c>
-      <c r="C59" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1750</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
-        <v>108.86</v>
-      </c>
-      <c r="G59" s="6">
-        <v>5</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -2394,27 +1830,13 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="11">
-        <v>115.8</v>
-      </c>
-      <c r="C60" s="9">
-        <v>-4.5</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2382</v>
-      </c>
-      <c r="E60" s="9">
-        <v>1</v>
-      </c>
-      <c r="F60" s="9">
-        <v>121.64</v>
-      </c>
-      <c r="G60" s="9">
-        <v>5</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -2424,27 +1846,13 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
-        <v>118.182</v>
-      </c>
-      <c r="C61" s="6">
-        <v>7</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2618</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>110.92</v>
-      </c>
-      <c r="G61" s="6">
-        <v>5</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -2454,27 +1862,13 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="11">
-        <v>120.8</v>
-      </c>
-      <c r="C62" s="9">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="D62" s="9">
-        <v>1418</v>
-      </c>
-      <c r="E62" s="9">
-        <v>1</v>
-      </c>
-      <c r="F62" s="9">
-        <v>129.25</v>
-      </c>
-      <c r="G62" s="9">
-        <v>5</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2484,27 +1878,13 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
-        <v>122.218</v>
-      </c>
-      <c r="C63" s="6">
-        <v>3</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1890.13</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
-        <v>122.3</v>
-      </c>
-      <c r="G63" s="6">
-        <v>5</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -2514,27 +1894,13 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="C64" s="9">
-        <v>3</v>
-      </c>
-      <c r="D64" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E64" s="9">
-        <v>1</v>
-      </c>
-      <c r="F64" s="9">
-        <v>127.9704</v>
-      </c>
-      <c r="G64" s="9">
-        <v>6</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -2544,27 +1910,13 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="7">
-        <v>128.5</v>
-      </c>
-      <c r="C65" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D65" s="6">
-        <v>4280</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
-        <v>140.87</v>
-      </c>
-      <c r="G65" s="6">
-        <v>6</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -2574,27 +1926,13 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="11">
-        <v>132.78</v>
-      </c>
-      <c r="C66" s="9">
-        <v>12</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1720</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9">
-        <v>128.03</v>
-      </c>
-      <c r="G66" s="9">
-        <v>6</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -2604,27 +1942,13 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
-        <v>134.5</v>
-      </c>
-      <c r="C67" s="6">
-        <v>-7.5</v>
-      </c>
-      <c r="D67" s="6">
-        <v>4100</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6">
-        <v>148.66999999999999</v>
-      </c>
-      <c r="G67" s="6">
-        <v>6</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -2634,27 +1958,13 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="11">
-        <v>138.6</v>
-      </c>
-      <c r="C68" s="9">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D68" s="9">
-        <v>926.072</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1</v>
-      </c>
-      <c r="F68" s="9">
-        <v>117.92</v>
-      </c>
-      <c r="G68" s="9">
-        <v>6</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -2664,27 +1974,13 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
-        <v>140</v>
-      </c>
-      <c r="C69" s="6">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D69" s="6">
-        <v>600.00609999999995</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6">
-        <v>115.79</v>
-      </c>
-      <c r="G69" s="6">
-        <v>7</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -2694,27 +1990,13 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11">
-        <v>140.6</v>
-      </c>
-      <c r="C70" s="9">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="9">
-        <v>114.41</v>
-      </c>
-      <c r="G70" s="9">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2724,27 +2006,13 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
-        <v>143.4</v>
-      </c>
-      <c r="C71" s="6">
-        <v>-5.4</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2249</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>125.61</v>
-      </c>
-      <c r="G71" s="6">
-        <v>7</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -2754,27 +2022,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>145.649</v>
-      </c>
-      <c r="C72" s="9">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D72" s="9">
-        <v>2074.623</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
-      </c>
-      <c r="F72" s="9">
-        <v>113.47</v>
-      </c>
-      <c r="G72" s="9">
-        <v>7</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2784,27 +2038,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>147.69999999999999</v>
-      </c>
-      <c r="C73" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D73" s="6">
-        <v>800</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>111.1879</v>
-      </c>
-      <c r="G73" s="6">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -2814,27 +2054,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>148.5</v>
-      </c>
-      <c r="C74" s="9">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D74" s="9">
-        <v>5890</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
-        <v>110.31</v>
-      </c>
-      <c r="G74" s="9">
-        <v>8</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2844,27 +2070,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>154.38999999999999</v>
-      </c>
-      <c r="C75" s="6">
-        <v>-3.198</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6">
-        <v>137.4</v>
-      </c>
-      <c r="G75" s="6">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -2874,27 +2086,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>155.59</v>
-      </c>
-      <c r="C76" s="9">
-        <v>0</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1810</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="9">
-        <v>133.56</v>
-      </c>
-      <c r="G76" s="9">
-        <v>8</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2904,27 +2102,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>157.4</v>
-      </c>
-      <c r="C77" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1610</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
-        <v>133.56</v>
-      </c>
-      <c r="G77" s="6">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -2934,27 +2118,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>159.01</v>
-      </c>
-      <c r="C78" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3420</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="9">
-        <v>145.15</v>
-      </c>
-      <c r="G78" s="9">
-        <v>8</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -2964,27 +2134,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>162.43</v>
-      </c>
-      <c r="C79" s="6">
-        <v>12</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2170</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
-        <v>156.44</v>
-      </c>
-      <c r="G79" s="6">
-        <v>8</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -2994,27 +2150,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>164.6</v>
-      </c>
-      <c r="C80" s="9">
-        <v>-5.4</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1213</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>182.48</v>
-      </c>
-      <c r="G80" s="9">
-        <v>8</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -3024,27 +2166,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>165.81299999999999</v>
-      </c>
-      <c r="C81" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1637</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
-        <v>175.93</v>
-      </c>
-      <c r="G81" s="6">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -3054,27 +2182,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>167.45</v>
-      </c>
-      <c r="C82" s="9">
-        <v>0</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9">
-        <v>156.29</v>
-      </c>
-      <c r="G82" s="9">
-        <v>8</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -3084,27 +2198,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>169.35</v>
-      </c>
-      <c r="C83" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2125</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
-        <v>156.29</v>
-      </c>
-      <c r="G83" s="6">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -3114,27 +2214,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>171.47499999999999</v>
-      </c>
-      <c r="C84" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D84" s="9">
-        <v>6625</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9">
-        <v>168.4</v>
-      </c>
-      <c r="G84" s="9">
-        <v>8</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -3144,27 +2230,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>178.1</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1</v>
-      </c>
-      <c r="F85" s="6">
-        <v>200.86</v>
-      </c>
-      <c r="G85" s="6">
-        <v>8</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -3174,27 +2246,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>178.1</v>
-      </c>
-      <c r="C86" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D86" s="9">
-        <v>40</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1</v>
-      </c>
-      <c r="F86" s="9">
-        <v>200.834</v>
-      </c>
-      <c r="G86" s="9">
-        <v>8</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -3204,27 +2262,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>178.14</v>
-      </c>
-      <c r="C87" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D87" s="6">
-        <v>2060</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>201.03</v>
-      </c>
-      <c r="G87" s="6">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -3234,27 +2278,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>180.2</v>
-      </c>
-      <c r="C88" s="9">
-        <v>-8.9</v>
-      </c>
-      <c r="D88" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1</v>
-      </c>
-      <c r="F88" s="9">
-        <v>203.3</v>
-      </c>
-      <c r="G88" s="9">
-        <v>8</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -3264,27 +2294,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>185</v>
-      </c>
-      <c r="C89" s="6">
-        <v>-3.9</v>
-      </c>
-      <c r="D89" s="6">
-        <v>6550</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6">
-        <v>160.58000000000001</v>
-      </c>
-      <c r="G89" s="6">
-        <v>8</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -3294,27 +2310,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>191.55</v>
-      </c>
-      <c r="C90" s="9">
-        <v>0</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2550</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
-      <c r="F90" s="9">
-        <v>135.04</v>
-      </c>
-      <c r="G90" s="9">
-        <v>8</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -3324,27 +2326,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>194.1</v>
-      </c>
-      <c r="C91" s="6">
-        <v>12</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1245</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1</v>
-      </c>
-      <c r="F91" s="6">
-        <v>135.04</v>
-      </c>
-      <c r="G91" s="6">
-        <v>8</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -3354,27 +2342,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>195.345</v>
-      </c>
-      <c r="C92" s="9">
-        <v>0</v>
-      </c>
-      <c r="D92" s="9">
-        <v>2230</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1</v>
-      </c>
-      <c r="F92" s="9">
-        <v>149.97999999999999</v>
-      </c>
-      <c r="G92" s="9">
-        <v>8</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -3384,27 +2358,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>197.57499999999999</v>
-      </c>
-      <c r="C93" s="6">
-        <v>4</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1825</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1</v>
-      </c>
-      <c r="F93" s="6">
-        <v>149.97999999999999</v>
-      </c>
-      <c r="G93" s="6">
-        <v>8</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -3414,27 +2374,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>199.4</v>
-      </c>
-      <c r="C94" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D94" s="9">
-        <v>1399</v>
-      </c>
-      <c r="E94" s="9">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
-        <v>157.28</v>
-      </c>
-      <c r="G94" s="9">
-        <v>8</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -3444,27 +2390,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>200.79900000000001</v>
-      </c>
-      <c r="C95" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1601</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6">
-        <v>150.29</v>
-      </c>
-      <c r="G95" s="6">
-        <v>8</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -3474,27 +2406,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>202.4</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2242</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
-        <v>131.08000000000001</v>
-      </c>
-      <c r="G96" s="9">
-        <v>8</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3504,27 +2422,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>204.642</v>
-      </c>
-      <c r="C97" s="6">
-        <v>12</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1458</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" s="6">
-        <v>131.08000000000001</v>
-      </c>
-      <c r="G97" s="6">
-        <v>8</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -3534,27 +2438,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>206.1</v>
-      </c>
-      <c r="C98" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="D98" s="9">
-        <v>12040</v>
-      </c>
-      <c r="E98" s="9">
-        <v>1</v>
-      </c>
-      <c r="F98" s="9">
-        <v>148.58000000000001</v>
-      </c>
-      <c r="G98" s="9">
-        <v>8</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3564,27 +2454,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>218.14</v>
-      </c>
-      <c r="C99" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1418</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>193.13</v>
-      </c>
-      <c r="G99" s="6">
-        <v>8</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -3594,27 +2470,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>219.55799999999999</v>
-      </c>
-      <c r="C100" s="9">
-        <v>-14</v>
-      </c>
-      <c r="D100" s="9">
-        <v>2992</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
-      </c>
-      <c r="F100" s="9">
-        <v>188.88</v>
-      </c>
-      <c r="G100" s="9">
-        <v>8</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3624,27 +2486,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>222.55</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <v>146.99</v>
-      </c>
-      <c r="G101" s="6">
-        <v>8</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -3654,27 +2502,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>224.15</v>
-      </c>
-      <c r="C102" s="9">
-        <v>2</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
-      </c>
-      <c r="F102" s="9">
-        <v>146.99</v>
-      </c>
-      <c r="G102" s="9">
-        <v>8</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3684,27 +2518,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>225.15</v>
-      </c>
-      <c r="C103" s="6">
-        <v>18.3</v>
-      </c>
-      <c r="D103" s="6">
-        <v>250.048</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>148.99</v>
-      </c>
-      <c r="G103" s="6">
-        <v>8</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -18079,7 +16899,6 @@
       <c r="L1001" s="6"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -18092,9 +16911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18102,7 +16921,9 @@
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="15.75" style="10" customWidth="1"/>
     <col min="3" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
@@ -18164,19 +16985,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1880</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>78.430000000000007</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18184,271 +17005,215 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6">
-        <v>11811.74</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6">
-        <v>11800</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="9">
-        <v>-11.9</v>
+        <v>-14.3</v>
       </c>
       <c r="D4" s="9">
-        <v>1520</v>
+        <v>280</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>96.518000000000001</v>
+        <v>54.003999999999998</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="9">
-        <v>18967.900000000001</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="9">
-        <v>19000</v>
-      </c>
-      <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>96.52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="6">
-        <v>27607.258000000002</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6">
-        <v>28400</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>4.6509999999999998</v>
+        <v>3.88</v>
       </c>
       <c r="C6" s="9">
-        <v>15.7</v>
+        <v>8.5</v>
       </c>
       <c r="D6" s="9">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>83.159300000000002</v>
+        <v>46.519999999999996</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>70015.343999999997</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="9">
-        <v>70000</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>4.8979999999999997</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>-4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>247</v>
+        <v>2120</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>84.246799999999993</v>
+        <v>46.52</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="6">
-        <v>124108.13</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6">
-        <v>124200</v>
-      </c>
-      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>6.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="C8" s="9">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="D8" s="9">
-        <v>1302</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>86.203000000000003</v>
+        <v>48.06</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="9">
-        <v>139526.08199999999</v>
-      </c>
-      <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9">
-        <v>140000</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>7.35</v>
+        <v>7.59</v>
       </c>
       <c r="C9" s="6">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>490</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>100</v>
+        <v>48.06</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6">
-        <v>147723.62</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>147700</v>
-      </c>
-      <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>11.2</v>
+        <v>7.77</v>
       </c>
       <c r="C10" s="9">
-        <v>3</v>
+        <v>40.4</v>
       </c>
       <c r="D10" s="9">
-        <v>3850</v>
+        <v>180</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>88.45</v>
+        <v>40.788000000000004</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -18460,25 +17225,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>11.8117404</v>
+        <v>8.02</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="D11" s="6">
-        <v>611.74040000000002</v>
+        <v>250</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>88.45</v>
+        <v>48.04</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -18490,25 +17255,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>13.100000000000001</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D12" s="9">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>88.45</v>
+        <v>61.84</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -18520,25 +17285,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>14</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>-10.7</v>
+        <v>-3</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>98.08</v>
+        <v>63.790000000000006</v>
       </c>
       <c r="G13" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -18550,25 +17315,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>17</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="C14" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>96.58</v>
+        <v>62.14</v>
       </c>
       <c r="G14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -18580,25 +17345,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>18.899999999999999</v>
+        <v>12.629999999999999</v>
       </c>
       <c r="C15" s="6">
-        <v>5.4</v>
+        <v>-10.8</v>
       </c>
       <c r="D15" s="6">
-        <v>1900</v>
+        <v>930</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>86.32</v>
+        <v>72.183999999999997</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -18610,25 +17375,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>18.96790077</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D16" s="9">
-        <v>67.900769999999994</v>
+        <v>570</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>86.32</v>
+        <v>66.765000000000001</v>
       </c>
       <c r="G16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -18640,22 +17405,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>22.700001</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6">
-        <v>3700.0010000000002</v>
+        <v>800</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>86.32</v>
+        <v>65.17</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -18670,22 +17435,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>24.099999999999998</v>
+        <v>14.7</v>
       </c>
       <c r="C18" s="9">
-        <v>-9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>99.339999999999989</v>
+        <v>65.17</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -18700,22 +17465,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>26.400000000000002</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="C19" s="6">
-        <v>3</v>
+        <v>-13.8</v>
       </c>
       <c r="D19" s="6">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>92.44</v>
+        <v>73.45</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -18730,22 +17495,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>27.607257999999998</v>
+        <v>16</v>
       </c>
       <c r="C20" s="9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="9">
-        <v>1207.258</v>
+        <v>700</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>96.061774</v>
+        <v>73.45</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -18760,22 +17525,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="C21" s="6">
-        <v>-3</v>
+        <v>-3.6</v>
       </c>
       <c r="D21" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>96.361779999999996</v>
+        <v>75.25</v>
       </c>
       <c r="G21" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -18790,22 +17555,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>28.5</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="C22" s="9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>96.36</v>
+        <v>77.55</v>
       </c>
       <c r="G22" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -18820,22 +17585,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>28.713000000000001</v>
+        <v>18.519734999999997</v>
       </c>
       <c r="C23" s="6">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>213</v>
+        <v>869.73500000000001</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>96.998999999999995</v>
+        <v>77.55</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -18849,27 +17614,13 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2287</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>97</v>
-      </c>
-      <c r="G24" s="9">
-        <v>4</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -18879,27 +17630,13 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>32.6</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>93.8</v>
-      </c>
-      <c r="G25" s="6">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -18909,27 +17646,13 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
-        <v>34.9</v>
-      </c>
-      <c r="C26" s="9">
-        <v>-6.9</v>
-      </c>
-      <c r="D26" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>109.67</v>
-      </c>
-      <c r="G26" s="9">
-        <v>4</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -18939,27 +17662,13 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
-        <v>37.83</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2930</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>90.625</v>
-      </c>
-      <c r="G27" s="6">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -18969,27 +17678,13 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
-        <v>45.07</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>7240</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>90.63</v>
-      </c>
-      <c r="G28" s="9">
-        <v>4</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -18999,27 +17694,13 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
-        <v>49.7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>-5.4</v>
-      </c>
-      <c r="D29" s="6">
-        <v>4630</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>115.63199999999999</v>
-      </c>
-      <c r="G29" s="6">
-        <v>4</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -19029,27 +17710,13 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
-        <v>56</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="D30" s="9">
-        <v>6300</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>96.1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>4</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -19059,27 +17726,13 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
-        <v>61.343000000000004</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>5343</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>96.1</v>
-      </c>
-      <c r="G31" s="6">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -19089,27 +17742,13 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
-        <v>63.150000000000006</v>
-      </c>
-      <c r="C32" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1807</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
-        <v>91.040399999999991</v>
-      </c>
-      <c r="G32" s="9">
-        <v>4</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -19119,27 +17758,13 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
-        <v>67.3</v>
-      </c>
-      <c r="C33" s="6">
-        <v>-1.7</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4150</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>98.094999999999999</v>
-      </c>
-      <c r="G33" s="6">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -19149,27 +17774,13 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
-        <v>69.924999999999997</v>
-      </c>
-      <c r="C34" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2625</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>93.375</v>
-      </c>
-      <c r="G34" s="9">
-        <v>4</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -19179,27 +17790,13 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
-        <v>70.015340699999996</v>
-      </c>
-      <c r="C35" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="D35" s="6">
-        <v>90.340699999999998</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>93.614885819999998</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -19209,27 +17806,13 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
-        <v>72.699996999999996</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-2.6</v>
-      </c>
-      <c r="D36" s="9">
-        <v>2699.9969999999998</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>100.6348722</v>
-      </c>
-      <c r="G36" s="9">
-        <v>5</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -19239,27 +17822,13 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>95.53</v>
-      </c>
-      <c r="G37" s="6">
-        <v>5</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -19269,27 +17838,13 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
-        <v>78.5</v>
-      </c>
-      <c r="C38" s="9">
-        <v>-2.8</v>
-      </c>
-      <c r="D38" s="9">
-        <v>4100</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>107.01</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -19299,27 +17854,13 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>80.5</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>100.41000000000001</v>
-      </c>
-      <c r="G39" s="6">
-        <v>5</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -19329,27 +17870,13 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
-        <v>83.87</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>3370</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>100.41</v>
-      </c>
-      <c r="G40" s="9">
-        <v>5</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -19359,27 +17886,13 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="7">
-        <v>85.254000000000005</v>
-      </c>
-      <c r="C41" s="6">
-        <v>-1.8</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1384</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>102.9012</v>
-      </c>
-      <c r="G41" s="6">
-        <v>5</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -19389,27 +17902,13 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
-        <v>86.2</v>
-      </c>
-      <c r="C42" s="9">
-        <v>-7.64</v>
-      </c>
-      <c r="D42" s="9">
-        <v>946</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>110.12744000000001</v>
-      </c>
-      <c r="G42" s="9">
-        <v>5</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -19419,27 +17918,13 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
-        <v>86.2</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>110.13</v>
-      </c>
-      <c r="G43" s="6">
-        <v>5</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -19449,27 +17934,13 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
-        <v>86.850000000000009</v>
-      </c>
-      <c r="C44" s="9">
-        <v>-7.64</v>
-      </c>
-      <c r="D44" s="9">
-        <v>650</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>115.086</v>
-      </c>
-      <c r="G44" s="9">
-        <v>5</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -19479,27 +17950,13 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
-        <v>88.5</v>
-      </c>
-      <c r="C45" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1650</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>120.04</v>
-      </c>
-      <c r="G45" s="6">
-        <v>5</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -19509,27 +17966,13 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
-        <v>91.25</v>
-      </c>
-      <c r="C46" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2750</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>153.04000000000002</v>
-      </c>
-      <c r="G46" s="9">
-        <v>5</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -19539,27 +17982,13 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
-        <v>92.65</v>
-      </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>150.23999999999998</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -19569,27 +17998,13 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
-        <v>95.43</v>
-      </c>
-      <c r="C48" s="9">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2780</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <v>128</v>
-      </c>
-      <c r="G48" s="9">
-        <v>5</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -19599,27 +18014,13 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
-        <v>97.387</v>
-      </c>
-      <c r="C49" s="6">
-        <v>12</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1957</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>104.51599999999999</v>
-      </c>
-      <c r="G49" s="6">
-        <v>5</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -19629,27 +18030,13 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
-        <v>100</v>
-      </c>
-      <c r="C50" s="9">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2613</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>110.26859999999999</v>
-      </c>
-      <c r="G50" s="9">
-        <v>5</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -19659,27 +18046,13 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
-        <v>101.8</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1800</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>107.92999999999999</v>
-      </c>
-      <c r="G51" s="6">
-        <v>5</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -19689,27 +18062,13 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
-        <v>103.64999999999999</v>
-      </c>
-      <c r="C52" s="9">
-        <v>-5.4</v>
-      </c>
-      <c r="D52" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
-        <v>117.92</v>
-      </c>
-      <c r="G52" s="9">
-        <v>5</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -19719,27 +18078,13 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
-        <v>105.75</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
-        <v>117.92</v>
-      </c>
-      <c r="G53" s="6">
-        <v>5</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -19749,27 +18094,13 @@
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="11">
-        <v>106.8</v>
-      </c>
-      <c r="C54" s="9">
-        <v>8.1</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1050</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>109.41500000000001</v>
-      </c>
-      <c r="G54" s="9">
-        <v>5</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -19779,27 +18110,13 @@
       <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
-        <v>108.015</v>
-      </c>
-      <c r="C55" s="6">
-        <v>4</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1215</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6">
-        <v>104.56</v>
-      </c>
-      <c r="G55" s="6">
-        <v>5</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -19809,27 +18126,13 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="11">
-        <v>109.9</v>
-      </c>
-      <c r="C56" s="9">
-        <v>0</v>
-      </c>
-      <c r="D56" s="9">
-        <v>1885</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>104.56</v>
-      </c>
-      <c r="G56" s="9">
-        <v>5</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -19839,27 +18142,13 @@
       <c r="A57" s="8">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
-        <v>111.45</v>
-      </c>
-      <c r="C57" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6">
-        <v>123.16</v>
-      </c>
-      <c r="G57" s="6">
-        <v>5</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -19869,27 +18158,13 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="11">
-        <v>114.05</v>
-      </c>
-      <c r="C58" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="D58" s="9">
-        <v>2600</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>108.86</v>
-      </c>
-      <c r="G58" s="9">
-        <v>5</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -19899,27 +18174,13 @@
       <c r="A59" s="8">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
-        <v>115.8</v>
-      </c>
-      <c r="C59" s="6">
-        <v>-7.3</v>
-      </c>
-      <c r="D59" s="6">
-        <v>1750</v>
-      </c>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>121.63500000000001</v>
-      </c>
-      <c r="G59" s="6">
-        <v>5</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -19929,27 +18190,13 @@
       <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="B60" s="11">
-        <v>118.182</v>
-      </c>
-      <c r="C60" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2382</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>110.92100000000001</v>
-      </c>
-      <c r="G60" s="9">
-        <v>5</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -19959,27 +18206,13 @@
       <c r="A61" s="8">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
-        <v>120.8</v>
-      </c>
-      <c r="C61" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2618</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6">
-        <v>129.24600000000001</v>
-      </c>
-      <c r="G61" s="6">
-        <v>5</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -19989,27 +18222,13 @@
       <c r="A62" s="9">
         <v>60</v>
       </c>
-      <c r="B62" s="11">
-        <v>122.218</v>
-      </c>
-      <c r="C62" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D62" s="9">
-        <v>1418</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
-      </c>
-      <c r="F62" s="9">
-        <v>122.3018</v>
-      </c>
-      <c r="G62" s="9">
-        <v>5</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -20019,27 +18238,13 @@
       <c r="A63" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
-        <v>124.10813</v>
-      </c>
-      <c r="C63" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1890.13</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
-        <v>127.97038999999999</v>
-      </c>
-      <c r="G63" s="6">
-        <v>5</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -20049,27 +18254,13 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="11">
-        <v>128.5</v>
-      </c>
-      <c r="C64" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D64" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
-      </c>
-      <c r="F64" s="9">
-        <v>140.87039999999999</v>
-      </c>
-      <c r="G64" s="9">
-        <v>6</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -20079,27 +18270,13 @@
       <c r="A65" s="8">
         <v>63</v>
       </c>
-      <c r="B65" s="7">
-        <v>132.78</v>
-      </c>
-      <c r="C65" s="6">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6">
-        <v>4280</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="6">
-        <v>128.03</v>
-      </c>
-      <c r="G65" s="6">
-        <v>6</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -20109,27 +18286,13 @@
       <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="B66" s="11">
-        <v>134.5</v>
-      </c>
-      <c r="C66" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D66" s="9">
-        <v>1720</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>148.67000000000002</v>
-      </c>
-      <c r="G66" s="9">
-        <v>6</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -20139,27 +18302,13 @@
       <c r="A67" s="8">
         <v>65</v>
       </c>
-      <c r="B67" s="7">
-        <v>138.6</v>
-      </c>
-      <c r="C67" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D67" s="6">
-        <v>4100</v>
-      </c>
-      <c r="E67" s="6">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6">
-        <v>117.91999999999999</v>
-      </c>
-      <c r="G67" s="6">
-        <v>6</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -20169,27 +18318,13 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="11">
-        <v>139.526072</v>
-      </c>
-      <c r="C68" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D68" s="9">
-        <v>926.072</v>
-      </c>
-      <c r="E68" s="9">
-        <v>0</v>
-      </c>
-      <c r="F68" s="9">
-        <v>115.7900344</v>
-      </c>
-      <c r="G68" s="9">
-        <v>6</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -20199,27 +18334,13 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
-        <v>140.6000061</v>
-      </c>
-      <c r="C69" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D69" s="6">
-        <v>600.00609999999995</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>114.40998597000001</v>
-      </c>
-      <c r="G69" s="6">
-        <v>7</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -20229,27 +18350,13 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11">
-        <v>143.4</v>
-      </c>
-      <c r="C70" s="9">
-        <v>-4</v>
-      </c>
-      <c r="D70" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>125.61</v>
-      </c>
-      <c r="G70" s="9">
-        <v>7</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -20259,27 +18366,13 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
-        <v>145.649</v>
-      </c>
-      <c r="C71" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2249</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6">
-        <v>113.4654</v>
-      </c>
-      <c r="G71" s="6">
-        <v>7</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -20289,27 +18382,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>147.723623</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D72" s="9">
-        <v>2074.623</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>111.18791469999999</v>
-      </c>
-      <c r="G72" s="9">
-        <v>7</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -20319,27 +18398,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>148.5</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D73" s="6">
-        <v>800</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>110.3079</v>
-      </c>
-      <c r="G73" s="6">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -20349,27 +18414,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>154.38999999999999</v>
-      </c>
-      <c r="C74" s="9">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D74" s="9">
-        <v>5890</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
-        <v>137.404</v>
-      </c>
-      <c r="G74" s="9">
-        <v>8</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -20379,27 +18430,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>155.58999999999997</v>
-      </c>
-      <c r="C75" s="6">
-        <v>3.198</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>133.5624</v>
-      </c>
-      <c r="G75" s="6">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -20409,27 +18446,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>157.4</v>
-      </c>
-      <c r="C76" s="9">
-        <v>0</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1810</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>133.56</v>
-      </c>
-      <c r="G76" s="9">
-        <v>8</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -20439,27 +18462,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>159.01000000000002</v>
-      </c>
-      <c r="C77" s="6">
-        <v>-7.2</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1610</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>145.15200000000002</v>
-      </c>
-      <c r="G77" s="6">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -20469,27 +18478,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>162.42999999999998</v>
-      </c>
-      <c r="C78" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3420</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>156.43600000000001</v>
-      </c>
-      <c r="G78" s="9">
-        <v>8</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -20499,27 +18494,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>164.6</v>
-      </c>
-      <c r="C79" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2170</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <v>182.48</v>
-      </c>
-      <c r="G79" s="6">
-        <v>8</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -20529,27 +18510,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>165.81299999999999</v>
-      </c>
-      <c r="C80" s="9">
-        <v>5.4</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1213</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>175.9298</v>
-      </c>
-      <c r="G80" s="9">
-        <v>8</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -20559,27 +18526,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>167.45</v>
-      </c>
-      <c r="C81" s="6">
-        <v>12</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1637</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>156.286</v>
-      </c>
-      <c r="G81" s="6">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -20589,27 +18542,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>169.35</v>
-      </c>
-      <c r="C82" s="9">
-        <v>0</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
-        <v>156.29</v>
-      </c>
-      <c r="G82" s="9">
-        <v>8</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -20619,27 +18558,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>171.47499999999999</v>
-      </c>
-      <c r="C83" s="6">
-        <v>-5.7</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2125</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>168.4025</v>
-      </c>
-      <c r="G83" s="6">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -20649,27 +18574,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>178.1</v>
-      </c>
-      <c r="C84" s="9">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="D84" s="9">
-        <v>6625</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
-        <v>200.86250000000001</v>
-      </c>
-      <c r="G84" s="9">
-        <v>8</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -20679,27 +18590,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>178.1</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="6">
-        <v>200.86</v>
-      </c>
-      <c r="G85" s="6">
-        <v>8</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -20709,27 +18606,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>178.14</v>
-      </c>
-      <c r="C86" s="9">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="D86" s="9">
-        <v>40</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>201.03</v>
-      </c>
-      <c r="G86" s="9">
-        <v>8</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -20739,27 +18622,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>180.2</v>
-      </c>
-      <c r="C87" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D87" s="6">
-        <v>2060</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
-        <v>203.29599999999999</v>
-      </c>
-      <c r="G87" s="6">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -20769,27 +18638,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>185</v>
-      </c>
-      <c r="C88" s="9">
-        <v>8.9</v>
-      </c>
-      <c r="D88" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>160.58000000000001</v>
-      </c>
-      <c r="G88" s="9">
-        <v>8</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -20799,27 +18654,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>191.55</v>
-      </c>
-      <c r="C89" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="D89" s="6">
-        <v>6550</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6">
-        <v>135.03500000000003</v>
-      </c>
-      <c r="G89" s="6">
-        <v>8</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -20829,27 +18670,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>194.10000000000002</v>
-      </c>
-      <c r="C90" s="9">
-        <v>0</v>
-      </c>
-      <c r="D90" s="9">
-        <v>2550</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>135.04</v>
-      </c>
-      <c r="G90" s="9">
-        <v>8</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -20859,27 +18686,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>195.345</v>
-      </c>
-      <c r="C91" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1245</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6">
-        <v>149.97999999999999</v>
-      </c>
-      <c r="G91" s="6">
-        <v>8</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -20889,27 +18702,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>197.57499999999999</v>
-      </c>
-      <c r="C92" s="9">
-        <v>0</v>
-      </c>
-      <c r="D92" s="9">
-        <v>2230</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>149.97999999999999</v>
-      </c>
-      <c r="G92" s="9">
-        <v>8</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -20919,27 +18718,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>199.39999999999998</v>
-      </c>
-      <c r="C93" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1825</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <v>157.28</v>
-      </c>
-      <c r="G93" s="6">
-        <v>8</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -20949,27 +18734,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>200.79900000000001</v>
-      </c>
-      <c r="C94" s="9">
-        <v>5</v>
-      </c>
-      <c r="D94" s="9">
-        <v>1399</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>150.285</v>
-      </c>
-      <c r="G94" s="9">
-        <v>8</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -20979,27 +18750,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>202.4</v>
-      </c>
-      <c r="C95" s="6">
-        <v>12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1601</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <v>131.078</v>
-      </c>
-      <c r="G95" s="6">
-        <v>8</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -21009,27 +18766,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>204.642</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2242</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>131.08000000000001</v>
-      </c>
-      <c r="G96" s="9">
-        <v>8</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -21039,27 +18782,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>206.1</v>
-      </c>
-      <c r="C97" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1458</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <v>148.57600000000002</v>
-      </c>
-      <c r="G97" s="6">
-        <v>8</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -21069,27 +18798,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>218.14</v>
-      </c>
-      <c r="C98" s="9">
-        <v>-3.7</v>
-      </c>
-      <c r="D98" s="9">
-        <v>12040</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>193.12800000000001</v>
-      </c>
-      <c r="G98" s="9">
-        <v>8</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -21099,27 +18814,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>219.55799999999999</v>
-      </c>
-      <c r="C99" s="6">
-        <v>3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1418</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <v>188.876</v>
-      </c>
-      <c r="G99" s="6">
-        <v>8</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -21129,27 +18830,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>222.54999999999998</v>
-      </c>
-      <c r="C100" s="9">
-        <v>14</v>
-      </c>
-      <c r="D100" s="9">
-        <v>2992</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>146.99199999999999</v>
-      </c>
-      <c r="G100" s="9">
-        <v>8</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -21159,27 +18846,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>224.15</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6">
-        <v>146.99</v>
-      </c>
-      <c r="G101" s="6">
-        <v>8</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -21189,27 +18862,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>225.15</v>
-      </c>
-      <c r="C102" s="9">
-        <v>-2</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>148.99</v>
-      </c>
-      <c r="G102" s="9">
-        <v>8</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -21219,27 +18878,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>225.400048</v>
-      </c>
-      <c r="C103" s="6">
-        <v>-18.3</v>
-      </c>
-      <c r="D103" s="6">
-        <v>250.048</v>
-      </c>
-      <c r="E103" s="6">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <v>153.5658784</v>
-      </c>
-      <c r="G103" s="6">
-        <v>8</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -35629,7 +33274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -35637,7 +33282,9 @@
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="15.75" style="10" customWidth="1"/>
     <col min="3" max="7" width="9" style="10"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,7 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CK</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -631,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1420</v>
+        <v>1880</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>50</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -645,125 +648,157 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="6">
+        <v>11811.74</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6">
+        <v>11800</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="C4" s="9">
-        <v>14.3</v>
+        <v>11.9</v>
       </c>
       <c r="D4" s="9">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>50</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9">
+        <v>18967.900000000001</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>19000</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>54</v>
+        <v>96.52</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6">
+        <v>27607.258000000002</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>28400</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="C6" s="9">
-        <v>-8.5</v>
+        <v>-15.7</v>
       </c>
       <c r="D6" s="9">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>54</v>
+        <v>96.52</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>70015.343999999997</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>70000</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>3.88</v>
+        <v>4.6509999999999998</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>2120</v>
+        <v>247</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>46.52</v>
+        <v>83.16</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -775,25 +810,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>6</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="C8" s="9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="9">
-        <v>1100</v>
+        <v>1302</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>46.52</v>
+        <v>84.25</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -805,25 +840,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6">
-        <v>490</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>48.06</v>
+        <v>86.2</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -835,25 +870,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>7.59</v>
+        <v>7.35</v>
       </c>
       <c r="C10" s="9">
-        <v>-40.4</v>
+        <v>-3</v>
       </c>
       <c r="D10" s="9">
-        <v>180</v>
+        <v>3850</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>48.06</v>
+        <v>100</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -865,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>7.77</v>
+        <v>11.2</v>
       </c>
       <c r="C11" s="6">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>250</v>
+        <v>611.74040000000002</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>40.79</v>
+        <v>88.45</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -895,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>8.02</v>
+        <v>11.8</v>
       </c>
       <c r="C12" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>1380</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>48.04</v>
+        <v>88.45</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -925,25 +960,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>10.7</v>
       </c>
       <c r="D13" s="6">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>61.84</v>
+        <v>88.45</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -955,25 +990,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>10.050000000000001</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="9">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>63.79</v>
+        <v>98.08</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -985,25 +1020,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>11.7</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6">
-        <v>10.8</v>
+        <v>-5.4</v>
       </c>
       <c r="D15" s="6">
-        <v>930</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>62.14</v>
+        <v>96.58</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1015,25 +1050,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>12.63</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C16" s="9">
-        <v>-9.5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>570</v>
+        <v>67.900769999999994</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>72.180000000000007</v>
+        <v>86.32</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1045,22 +1080,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>13.2</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>800</v>
+        <v>3700</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>66.77</v>
+        <v>86.32</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -1075,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="C18" s="9">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D18" s="9">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>65.17</v>
+        <v>86.32</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1105,22 +1140,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>14.7</v>
+        <v>24.1</v>
       </c>
       <c r="C19" s="6">
-        <v>13.8</v>
+        <v>-3</v>
       </c>
       <c r="D19" s="6">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>65.17</v>
+        <v>99.34</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -1135,22 +1170,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>15.3</v>
+        <v>26.4</v>
       </c>
       <c r="C20" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="9">
-        <v>700</v>
+        <v>1207.258</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>73.45</v>
+        <v>92.44</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1165,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>16</v>
+        <v>28.4</v>
       </c>
       <c r="C21" s="6">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>73.45</v>
+        <v>96.061779999999999</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1195,22 +1230,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9">
-        <v>1150</v>
+        <v>213</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>75.25</v>
+        <v>96.36</v>
       </c>
       <c r="G22" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -1225,22 +1260,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>17.649999999999999</v>
+        <v>28.713000000000001</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>869.73500000000001</v>
+        <v>2287</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>77.55</v>
+        <v>97</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -1254,13 +1289,27 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="11">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>97</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1270,13 +1319,27 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="7">
+        <v>32.6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>93.8</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1286,13 +1349,27 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="11">
+        <v>34.9</v>
+      </c>
+      <c r="C26" s="9">
+        <v>-6.5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2930</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>109.67</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1302,13 +1379,27 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="7">
+        <v>37.83</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7240</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>90.63</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1318,13 +1409,27 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="11">
+        <v>45.07</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>4630</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>90.63</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1334,13 +1439,27 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="7">
+        <v>49.7</v>
+      </c>
+      <c r="C29" s="6">
+        <v>-3.1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6300</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>115.63</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1350,13 +1469,27 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="11">
+        <v>56</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5343</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>96.1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1366,13 +1499,27 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="7">
+        <v>61.343000000000004</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-2.8</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1807</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>96.1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1382,13 +1529,27 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="11">
+        <v>63.15</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4150</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>91.04</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1398,13 +1559,27 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="7">
+        <v>67.3</v>
+      </c>
+      <c r="C33" s="6">
+        <v>-1.8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2625</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>98.1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1414,13 +1589,27 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="11">
+        <v>69.924999999999997</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D34" s="9">
+        <v>90.340699999999998</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>93.38</v>
+      </c>
+      <c r="G34" s="9">
+        <v>4</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1430,13 +1619,27 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="7">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>93.614879999999999</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -1446,13 +1649,27 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="11">
+        <v>72.7</v>
+      </c>
+      <c r="C36" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>100.63</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -1462,13 +1679,27 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4100</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>95.53</v>
+      </c>
+      <c r="G37" s="6">
+        <v>5</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -1478,13 +1709,27 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="B38" s="11">
+        <v>78.5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>-3.3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>107.01</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -1494,13 +1739,27 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="7">
+        <v>80.5</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3370</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>100.41</v>
+      </c>
+      <c r="G39" s="6">
+        <v>5</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -1510,13 +1769,27 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="B40" s="11">
+        <v>83.87</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1384</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>100.41</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -1526,13 +1799,27 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="B41" s="7">
+        <v>85.254000000000005</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7.64</v>
+      </c>
+      <c r="D41" s="6">
+        <v>946</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>102.9</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -16985,19 +17272,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>1.42</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1420</v>
+        <v>1880</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>50</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -17005,125 +17292,157 @@
       <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="6">
+        <v>11811.74</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6">
+        <v>11800</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="C4" s="9">
-        <v>-14.3</v>
+        <v>-11.9</v>
       </c>
       <c r="D4" s="9">
-        <v>280</v>
+        <v>1520</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>54.003999999999998</v>
+        <v>96.518000000000001</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9">
+        <v>18967.900000000001</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>19000</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>54</v>
+        <v>96.52</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6">
+        <v>27607.258000000002</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>28400</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>3.88</v>
+        <v>4.6509999999999998</v>
       </c>
       <c r="C6" s="9">
-        <v>8.5</v>
+        <v>15.7</v>
       </c>
       <c r="D6" s="9">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>46.519999999999996</v>
+        <v>83.159300000000002</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>70015.343999999997</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="9">
+        <v>70000</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>6</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D7" s="6">
-        <v>2120</v>
+        <v>247</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>46.52</v>
+        <v>84.246799999999993</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -17135,25 +17454,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>7.1</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="C8" s="9">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="D8" s="9">
-        <v>1100</v>
+        <v>1302</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>48.06</v>
+        <v>86.203000000000003</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -17165,25 +17484,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>7.59</v>
+        <v>7.35</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D9" s="6">
-        <v>490</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>48.06</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -17195,25 +17514,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>7.77</v>
+        <v>11.2</v>
       </c>
       <c r="C10" s="9">
-        <v>40.4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9">
-        <v>180</v>
+        <v>3850</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>40.788000000000004</v>
+        <v>88.45</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -17225,25 +17544,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>8.02</v>
+        <v>11.8117404</v>
       </c>
       <c r="C11" s="6">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>250</v>
+        <v>611.74040000000002</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>48.04</v>
+        <v>88.45</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -17255,25 +17574,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>9.3999999999999986</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="C12" s="9">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>1380</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>61.84</v>
+        <v>88.45</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -17285,25 +17604,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>10.050000000000001</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
-        <v>-3</v>
+        <v>-10.7</v>
       </c>
       <c r="D13" s="6">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>63.790000000000006</v>
+        <v>98.08</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -17315,25 +17634,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>11.700000000000001</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="9">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>62.14</v>
+        <v>96.58</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -17345,25 +17664,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>12.629999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C15" s="6">
-        <v>-10.8</v>
+        <v>5.4</v>
       </c>
       <c r="D15" s="6">
-        <v>930</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>72.183999999999997</v>
+        <v>86.32</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -17375,25 +17694,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>13.200000000000001</v>
+        <v>18.96790077</v>
       </c>
       <c r="C16" s="9">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>570</v>
+        <v>67.900769999999994</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>66.765000000000001</v>
+        <v>86.32</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -17405,22 +17724,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>14</v>
+        <v>22.7</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>800</v>
+        <v>3700</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>65.17</v>
+        <v>86.32</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -17435,22 +17754,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>14.7</v>
+        <v>24.099999999999998</v>
       </c>
       <c r="C18" s="9">
-        <v>0</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D18" s="9">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>65.17</v>
+        <v>99.339999999999989</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -17465,22 +17784,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>15.299999999999999</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="C19" s="6">
-        <v>-13.8</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>73.45</v>
+        <v>92.44</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -17495,22 +17814,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>16</v>
+        <v>27.607257999999998</v>
       </c>
       <c r="C20" s="9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D20" s="9">
-        <v>700</v>
+        <v>1207.258</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>73.45</v>
+        <v>96.061774</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -17525,22 +17844,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="C21" s="6">
-        <v>-3.6</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>75.25</v>
+        <v>96.361779999999996</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -17555,22 +17874,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>17.649999999999999</v>
+        <v>28.713000000000001</v>
       </c>
       <c r="C22" s="9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D22" s="9">
-        <v>1150</v>
+        <v>213</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>77.55</v>
+        <v>96.998999999999995</v>
       </c>
       <c r="G22" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -17585,22 +17904,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>18.519734999999997</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>869.73500000000001</v>
+        <v>2287</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>77.55</v>
+        <v>97</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -17614,13 +17933,27 @@
       <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="11">
+        <v>32.6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>93.8</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -17630,13 +17963,27 @@
       <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="7">
+        <v>34.9</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-6.9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>109.67</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -17646,13 +17993,27 @@
       <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="11">
+        <v>37.83</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2930</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>90.625</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -17662,13 +18023,27 @@
       <c r="A27" s="8">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="7">
+        <v>45.07</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7240</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>90.63</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -17678,13 +18053,27 @@
       <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="11">
+        <v>49.7</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-5.4</v>
+      </c>
+      <c r="D28" s="9">
+        <v>4630</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>115.63199999999999</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -17694,13 +18083,27 @@
       <c r="A29" s="8">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="7">
+        <v>56</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6300</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>96.1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -17710,13 +18113,27 @@
       <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="11">
+        <v>61.343000000000004</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5343</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>96.1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -17726,13 +18143,27 @@
       <c r="A31" s="8">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="7">
+        <v>63.150000000000006</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1807</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>91.040399999999991</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -17742,13 +18173,27 @@
       <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="11">
+        <v>67.3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>-1.7</v>
+      </c>
+      <c r="D32" s="9">
+        <v>4150</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>98.094999999999999</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -17758,13 +18203,27 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="7">
+        <v>69.924999999999997</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2625</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>93.375</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -17774,13 +18233,27 @@
       <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="11">
+        <v>70.015340699999996</v>
+      </c>
+      <c r="C34" s="9">
+        <v>-2.6</v>
+      </c>
+      <c r="D34" s="9">
+        <v>90.340699999999998</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>93.614885819999998</v>
+      </c>
+      <c r="G34" s="9">
+        <v>4</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -17790,13 +18263,27 @@
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="B35" s="7">
+        <v>72.7</v>
+      </c>
+      <c r="C35" s="6">
+        <v>-2.6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>100.63488</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -17806,13 +18293,27 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="11">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>95.53</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -17822,13 +18323,27 @@
       <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="7">
+        <v>78.5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-2.8</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4100</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>107.01</v>
+      </c>
+      <c r="G37" s="6">
+        <v>5</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -17838,13 +18353,27 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="B38" s="11">
+        <v>80.5</v>
+      </c>
+      <c r="C38" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>100.41000000000001</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -17854,13 +18383,27 @@
       <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="7">
+        <v>83.87</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3370</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>100.41</v>
+      </c>
+      <c r="G39" s="6">
+        <v>5</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -17870,13 +18413,27 @@
       <c r="A40" s="9">
         <v>38</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="B40" s="11">
+        <v>85.254000000000005</v>
+      </c>
+      <c r="C40" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1384</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>102.9012</v>
+      </c>
+      <c r="G40" s="9">
+        <v>5</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -17886,13 +18443,27 @@
       <c r="A41" s="8">
         <v>39</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="B41" s="7">
+        <v>86.2</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-7.64</v>
+      </c>
+      <c r="D41" s="6">
+        <v>946</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>110.12744000000001</v>
+      </c>
+      <c r="G41" s="6">
+        <v>5</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -628,19 +628,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1880</v>
+        <v>1100</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>78.430000000000007</v>
+        <v>60.502000000000002</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -649,16 +649,16 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>11811.74</v>
+        <v>61996.7</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>11800</v>
+        <v>62000</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
@@ -666,34 +666,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>1.88</v>
+        <v>50.2</v>
       </c>
       <c r="C4" s="9">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="D4" s="9">
-        <v>1520</v>
+        <v>900</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>78.430000000000007</v>
+        <v>60.5</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>18967.900000000001</v>
+        <v>136382.79</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>19000</v>
+        <v>139000</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>13</v>
@@ -704,95 +704,79 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3.4</v>
+        <v>51.1</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="D5" s="6">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>96.52</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6">
-        <v>27607.258000000002</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6">
-        <v>28400</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>3.8</v>
+        <v>52.6</v>
       </c>
       <c r="C6" s="9">
-        <v>-15.7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9">
-        <v>851</v>
+        <v>1400</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>96.52</v>
+        <v>46.1</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>70015.343999999997</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="9">
-        <v>70000</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>4.6509999999999998</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6">
-        <v>4.4000000000000004</v>
+        <v>-6.5</v>
       </c>
       <c r="D7" s="6">
-        <v>247</v>
+        <v>1300</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>83.16</v>
+        <v>47.5</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -810,19 +794,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>4.8979999999999997</v>
+        <v>55.3</v>
       </c>
       <c r="C8" s="9">
-        <v>1.5</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="9">
-        <v>1302</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>84.25</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -840,19 +824,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>6.2</v>
+        <v>56.5</v>
       </c>
       <c r="C9" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>86.2</v>
+        <v>36.65</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -870,19 +854,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>7.35</v>
+        <v>57.9</v>
       </c>
       <c r="C10" s="9">
-        <v>-3</v>
+        <v>-15.3</v>
       </c>
       <c r="D10" s="9">
-        <v>3850</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>100</v>
+        <v>61.85</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -900,19 +884,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>11.2</v>
+        <v>59.1</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D11" s="6">
-        <v>611.74040000000002</v>
+        <v>2100</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>88.45</v>
+        <v>43.49</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -930,22 +914,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>11.8</v>
+        <v>61.2</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D12" s="9">
-        <v>1300</v>
+        <v>796.69849999999997</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>88.45</v>
+        <v>44.33</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
@@ -960,25 +944,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>13.1</v>
+        <v>62</v>
       </c>
       <c r="C13" s="6">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>88.45</v>
+        <v>47.915149999999997</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -990,25 +974,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>14</v>
+        <v>62.4</v>
       </c>
       <c r="C14" s="9">
-        <v>-0.5</v>
+        <v>-7</v>
       </c>
       <c r="D14" s="9">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>98.08</v>
+        <v>49.72</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1020,25 +1004,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>17</v>
+        <v>63.3</v>
       </c>
       <c r="C15" s="6">
-        <v>-5.4</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="6">
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>96.58</v>
+        <v>43.42</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1050,25 +1034,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>18.899999999999999</v>
+        <v>64.55</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="D16" s="9">
-        <v>67.900769999999994</v>
+        <v>1450</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>86.32</v>
+        <v>45.3</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1080,22 +1064,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D17" s="6">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>86.32</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -1110,22 +1094,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>22.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C18" s="9">
-        <v>9.3000000000000007</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="9">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>86.32</v>
+        <v>77.88</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1140,22 +1124,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>24.1</v>
+        <v>69.3</v>
       </c>
       <c r="C19" s="6">
-        <v>-3</v>
+        <v>-11.5</v>
       </c>
       <c r="D19" s="6">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>99.34</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -1170,22 +1154,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>26.4</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C20" s="9">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="D20" s="9">
-        <v>1207.258</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>92.44</v>
+        <v>61.23</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1200,22 +1184,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>28.4</v>
+        <v>71.8</v>
       </c>
       <c r="C21" s="6">
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="D21" s="6">
-        <v>100</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>96.061779999999999</v>
+        <v>76.23</v>
       </c>
       <c r="G21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1230,22 +1214,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>28.5</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="C22" s="9">
-        <v>3</v>
+        <v>-11.5</v>
       </c>
       <c r="D22" s="9">
-        <v>213</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>96.36</v>
+        <v>54.63</v>
       </c>
       <c r="G22" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -1260,22 +1244,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>28.713000000000001</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D23" s="6">
-        <v>2287</v>
+        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>97</v>
+        <v>35.08</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -1290,22 +1274,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>31</v>
+        <v>76.3</v>
       </c>
       <c r="C24" s="9">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="D24" s="9">
-        <v>1600</v>
+        <v>3450</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>97</v>
+        <v>47.84</v>
       </c>
       <c r="G24" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
@@ -1320,22 +1304,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>32.6</v>
+        <v>79.75</v>
       </c>
       <c r="C25" s="6">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>93.8</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>13</v>
@@ -1350,22 +1334,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>34.9</v>
+        <v>81.55</v>
       </c>
       <c r="C26" s="9">
-        <v>-6.5</v>
+        <v>-13.6</v>
       </c>
       <c r="D26" s="9">
-        <v>2930</v>
+        <v>1250</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>109.67</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G26" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
@@ -1380,22 +1364,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>37.83</v>
+        <v>82.8</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D27" s="6">
-        <v>7240</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>90.63</v>
+        <v>18.77</v>
       </c>
       <c r="G27" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>13</v>
@@ -1410,22 +1394,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>45.07</v>
+        <v>84.4</v>
       </c>
       <c r="C28" s="9">
-        <v>5.4</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9">
-        <v>4630</v>
+        <v>2600</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>90.63</v>
+        <v>45.17</v>
       </c>
       <c r="G28" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
@@ -1440,22 +1424,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>49.7</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
-        <v>-3.1</v>
+        <v>-8</v>
       </c>
       <c r="D29" s="6">
-        <v>6300</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>115.63</v>
+        <v>71.17</v>
       </c>
       <c r="G29" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -1470,22 +1454,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>56</v>
+        <v>88.2</v>
       </c>
       <c r="C30" s="9">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D30" s="9">
-        <v>5343</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>96.1</v>
+        <v>61.57</v>
       </c>
       <c r="G30" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
@@ -1500,22 +1484,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>61.343000000000004</v>
+        <v>90</v>
       </c>
       <c r="C31" s="6">
-        <v>-2.8</v>
+        <v>-18</v>
       </c>
       <c r="D31" s="6">
-        <v>1807</v>
+        <v>1400</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>96.1</v>
+        <v>43.57</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
@@ -1530,22 +1514,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>63.15</v>
+        <v>91.4</v>
       </c>
       <c r="C32" s="9">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
-        <v>4150</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>91.04</v>
+        <v>18.37</v>
       </c>
       <c r="G32" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -1560,22 +1544,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>67.3</v>
+        <v>94.5</v>
       </c>
       <c r="C33" s="6">
-        <v>-1.8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="6">
-        <v>2625</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>98.1</v>
+        <v>18.37</v>
       </c>
       <c r="G33" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -1590,22 +1574,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>69.924999999999997</v>
+        <v>96.7</v>
       </c>
       <c r="C34" s="9">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="9">
-        <v>90.340699999999998</v>
+        <v>1600</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>93.38</v>
+        <v>31.57</v>
       </c>
       <c r="G34" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -1620,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>70</v>
+        <v>98.3</v>
       </c>
       <c r="C35" s="6">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D35" s="6">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>93.614879999999999</v>
+        <v>29.97</v>
       </c>
       <c r="G35" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -1650,22 +1634,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>72.7</v>
+        <v>99.5</v>
       </c>
       <c r="C36" s="9">
-        <v>-3</v>
+        <v>-12.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>100.63</v>
+        <v>32.97</v>
       </c>
       <c r="G36" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -1680,22 +1664,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>74.400000000000006</v>
+        <v>100.7</v>
       </c>
       <c r="C37" s="6">
-        <v>2.8</v>
+        <v>-0.5</v>
       </c>
       <c r="D37" s="6">
-        <v>4100</v>
+        <v>5600</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>95.53</v>
+        <v>17.97</v>
       </c>
       <c r="G37" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -1710,25 +1694,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>78.5</v>
+        <v>106.3</v>
       </c>
       <c r="C38" s="9">
-        <v>-3.3</v>
+        <v>12</v>
       </c>
       <c r="D38" s="9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>107.01</v>
+        <v>15.17</v>
       </c>
       <c r="G38" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1740,25 +1724,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>80.5</v>
+        <v>107.7</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="6">
-        <v>3370</v>
+        <v>2100</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>100.41</v>
+        <v>31.952000000000002</v>
       </c>
       <c r="G39" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1770,25 +1754,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>83.87</v>
+        <v>109.8</v>
       </c>
       <c r="C40" s="9">
-        <v>1.8</v>
+        <v>14.7</v>
       </c>
       <c r="D40" s="9">
-        <v>1384</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>100.41</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="G40" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1800,25 +1784,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>85.254000000000005</v>
+        <v>110.8</v>
       </c>
       <c r="C41" s="6">
-        <v>7.64</v>
+        <v>-6.165</v>
       </c>
       <c r="D41" s="6">
-        <v>946</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>102.9</v>
+        <v>48.75</v>
       </c>
       <c r="G41" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -1829,13 +1813,27 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="11">
+        <v>112</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
+        <v>41.35</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -1845,13 +1843,27 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="7">
+        <v>113.9</v>
+      </c>
+      <c r="C43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>43.06</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -1861,13 +1873,27 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="11">
+        <v>117</v>
+      </c>
+      <c r="C44" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>39.96</v>
+      </c>
+      <c r="G44" s="9">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -1877,13 +1903,27 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="7">
+        <v>118.6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>8</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4550</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15.16</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -1893,13 +1933,27 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="B46" s="11">
+        <v>123.15</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3350</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>51.56</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -1909,13 +1963,27 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="B47" s="7">
+        <v>126.5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>51.56</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -1925,13 +1993,27 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="11">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C48" s="9">
+        <v>-18</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9">
+        <v>92.96</v>
+      </c>
+      <c r="G48" s="9">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -1941,13 +2023,27 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="B49" s="7">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="C49" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>58.76</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -1957,13 +2053,27 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="B50" s="11">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="C50" s="9">
+        <v>-11.766999999999999</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2350</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
+        <v>84.18</v>
+      </c>
+      <c r="G50" s="9">
+        <v>2</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -1973,13 +2083,27 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="B51" s="7">
+        <v>136.15</v>
+      </c>
+      <c r="C51" s="6">
+        <v>-18</v>
+      </c>
+      <c r="D51" s="6">
+        <v>232.803</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>56.53</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -1989,13 +2113,27 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="11">
+        <v>139</v>
+      </c>
+      <c r="C52" s="9">
+        <v>-18</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="F52" s="9">
+        <v>52.339550000000003</v>
+      </c>
+      <c r="G52" s="9">
+        <v>3</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -2005,13 +2143,27 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="B53" s="7">
+        <v>140.5</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1499.998</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G53" s="6">
+        <v>3</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -17272,19 +17424,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>1.88</v>
+        <v>50.2</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>1880</v>
+        <v>1100</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>78.430000000000007</v>
+        <v>60.502000000000002</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -17293,16 +17445,16 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>11811.74</v>
+        <v>61996.7</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>11800</v>
+        <v>62000</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
@@ -17310,34 +17462,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>3.4</v>
+        <v>51.1</v>
       </c>
       <c r="C4" s="9">
-        <v>-11.9</v>
+        <v>-11.5</v>
       </c>
       <c r="D4" s="9">
-        <v>1520</v>
+        <v>900</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>96.518000000000001</v>
+        <v>70.849999999999994</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>18967.900000000001</v>
+        <v>136382.79</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>19000</v>
+        <v>139000</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>13</v>
@@ -17348,95 +17500,79 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>3.8</v>
+        <v>52.6</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="D5" s="6">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>96.52</v>
+        <v>46.099999999999994</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6">
-        <v>27607.258000000002</v>
-      </c>
-      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6">
-        <v>28400</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>4.6509999999999998</v>
+        <v>54</v>
       </c>
       <c r="C6" s="9">
-        <v>15.7</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="9">
-        <v>851</v>
+        <v>1400</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>83.159300000000002</v>
+        <v>47.5</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>70015.343999999997</v>
-      </c>
-      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="9">
-        <v>70000</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>4.8979999999999997</v>
+        <v>55.3</v>
       </c>
       <c r="C7" s="6">
-        <v>-4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="6">
-        <v>247</v>
+        <v>1300</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>84.246799999999993</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -17454,19 +17590,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>6.1999999999999993</v>
+        <v>56.5</v>
       </c>
       <c r="C8" s="9">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9">
-        <v>1302</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>86.203000000000003</v>
+        <v>36.65</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -17484,19 +17620,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>7.35</v>
+        <v>57.9</v>
       </c>
       <c r="C9" s="6">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>100</v>
+        <v>61.849999999999994</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -17514,19 +17650,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>11.2</v>
+        <v>59.1</v>
       </c>
       <c r="C10" s="9">
-        <v>3</v>
+        <v>15.3</v>
       </c>
       <c r="D10" s="9">
-        <v>3850</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>88.45</v>
+        <v>43.49</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -17544,19 +17680,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>11.8117404</v>
+        <v>61.2</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="D11" s="6">
-        <v>611.74040000000002</v>
+        <v>2100</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>88.45</v>
+        <v>44.330000000000005</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -17574,22 +17710,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>13.100000000000001</v>
+        <v>61.996698500000001</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="D12" s="9">
-        <v>1300</v>
+        <v>796.69849999999997</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>88.45</v>
+        <v>47.91514325</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>14</v>
@@ -17604,25 +17740,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>14</v>
+        <v>62.4</v>
       </c>
       <c r="C13" s="6">
-        <v>-10.7</v>
+        <v>-4.5</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>98.08</v>
+        <v>49.715149999999994</v>
       </c>
       <c r="G13" s="6">
         <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -17634,25 +17770,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>17</v>
+        <v>63.3</v>
       </c>
       <c r="C14" s="9">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="9">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>96.58</v>
+        <v>43.42</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -17664,25 +17800,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>18.899999999999999</v>
+        <v>64.55</v>
       </c>
       <c r="C15" s="6">
-        <v>5.4</v>
+        <v>-1.5</v>
       </c>
       <c r="D15" s="6">
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>86.32</v>
+        <v>45.295000000000002</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -17694,25 +17830,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>18.96790077</v>
+        <v>66</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="D16" s="9">
-        <v>67.900769999999994</v>
+        <v>1450</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>86.32</v>
+        <v>70.674999999999997</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -17724,22 +17860,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>22.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="D17" s="6">
-        <v>3700</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>86.32</v>
+        <v>77.88000000000001</v>
       </c>
       <c r="G17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -17754,22 +17890,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>24.099999999999998</v>
+        <v>69.3</v>
       </c>
       <c r="C18" s="9">
-        <v>-9.3000000000000007</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>99.339999999999989</v>
+        <v>76.179999999999993</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -17784,22 +17920,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>26.400000000000002</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C19" s="6">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="D19" s="6">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>92.44</v>
+        <v>61.230000000000004</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -17814,22 +17950,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>27.607257999999998</v>
+        <v>71.8</v>
       </c>
       <c r="C20" s="9">
-        <v>-3</v>
+        <v>-12.5</v>
       </c>
       <c r="D20" s="9">
-        <v>1207.258</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>96.061774</v>
+        <v>76.22999999999999</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -17844,22 +17980,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>28.5</v>
+        <v>73.149999999999991</v>
       </c>
       <c r="C21" s="6">
-        <v>-3</v>
+        <v>16</v>
       </c>
       <c r="D21" s="6">
-        <v>100</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>96.361779999999996</v>
+        <v>54.63</v>
       </c>
       <c r="G21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -17874,22 +18010,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>28.713000000000001</v>
+        <v>74.850000000000009</v>
       </c>
       <c r="C22" s="9">
-        <v>-3</v>
+        <v>11.5</v>
       </c>
       <c r="D22" s="9">
-        <v>213</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>96.998999999999995</v>
+        <v>35.08</v>
       </c>
       <c r="G22" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -17904,22 +18040,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>31</v>
+        <v>76.3</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D23" s="6">
-        <v>2287</v>
+        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>97</v>
+        <v>47.84</v>
       </c>
       <c r="G23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -17934,22 +18070,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>32.6</v>
+        <v>79.75</v>
       </c>
       <c r="C24" s="9">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D24" s="9">
-        <v>1600</v>
+        <v>3450</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>93.8</v>
+        <v>35.765000000000001</v>
       </c>
       <c r="G24" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>13</v>
@@ -17964,22 +18100,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>34.9</v>
+        <v>81.55</v>
       </c>
       <c r="C25" s="6">
-        <v>-6.9</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>109.67</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>13</v>
@@ -17994,22 +18130,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>37.83</v>
+        <v>82.8</v>
       </c>
       <c r="C26" s="9">
-        <v>6.5</v>
+        <v>13.6</v>
       </c>
       <c r="D26" s="9">
-        <v>2930</v>
+        <v>1250</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>90.625</v>
+        <v>18.770000000000003</v>
       </c>
       <c r="G26" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>13</v>
@@ -18024,22 +18160,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>45.07</v>
+        <v>84.399999999999991</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>-16.5</v>
       </c>
       <c r="D27" s="6">
-        <v>7240</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>90.63</v>
+        <v>45.17</v>
       </c>
       <c r="G27" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>13</v>
@@ -18054,22 +18190,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>49.7</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9">
-        <v>-5.4</v>
+        <v>-10</v>
       </c>
       <c r="D28" s="9">
-        <v>4630</v>
+        <v>2600</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>115.63199999999999</v>
+        <v>71.17</v>
       </c>
       <c r="G28" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>13</v>
@@ -18084,22 +18220,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>56</v>
+        <v>88.2</v>
       </c>
       <c r="C29" s="6">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6">
-        <v>6300</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>96.1</v>
+        <v>61.57</v>
       </c>
       <c r="G29" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>13</v>
@@ -18114,22 +18250,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>61.343000000000004</v>
+        <v>90</v>
       </c>
       <c r="C30" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" s="9">
-        <v>5343</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>96.1</v>
+        <v>43.57</v>
       </c>
       <c r="G30" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>13</v>
@@ -18144,22 +18280,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>63.150000000000006</v>
+        <v>91.4</v>
       </c>
       <c r="C31" s="6">
-        <v>2.8</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
-        <v>1807</v>
+        <v>1400</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>91.040399999999991</v>
+        <v>18.37</v>
       </c>
       <c r="G31" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>13</v>
@@ -18174,22 +18310,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>67.3</v>
+        <v>94.5</v>
       </c>
       <c r="C32" s="9">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
-        <v>4150</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>98.094999999999999</v>
+        <v>18.37</v>
       </c>
       <c r="G32" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -18204,22 +18340,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>69.924999999999997</v>
+        <v>96.7</v>
       </c>
       <c r="C33" s="6">
-        <v>1.8</v>
+        <v>-6</v>
       </c>
       <c r="D33" s="6">
-        <v>2625</v>
+        <v>2200</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>93.375</v>
+        <v>31.57</v>
       </c>
       <c r="G33" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -18234,22 +18370,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>70.015340699999996</v>
+        <v>98.3</v>
       </c>
       <c r="C34" s="9">
-        <v>-2.6</v>
+        <v>1</v>
       </c>
       <c r="D34" s="9">
-        <v>90.340699999999998</v>
+        <v>1600</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>93.614885819999998</v>
+        <v>29.97</v>
       </c>
       <c r="G34" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -18264,22 +18400,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>72.7</v>
+        <v>99.5</v>
       </c>
       <c r="C35" s="6">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="D35" s="6">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>100.63488</v>
+        <v>32.97</v>
       </c>
       <c r="G35" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -18294,22 +18430,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>74.400000000000006</v>
+        <v>100.7</v>
       </c>
       <c r="C36" s="9">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>95.53</v>
+        <v>17.97</v>
       </c>
       <c r="G36" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -18324,22 +18460,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>78.5</v>
+        <v>106.3</v>
       </c>
       <c r="C37" s="6">
-        <v>-2.8</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="6">
-        <v>4100</v>
+        <v>5600</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>107.01</v>
+        <v>15.169999999999998</v>
       </c>
       <c r="G37" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -18354,25 +18490,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>80.5</v>
+        <v>107.7</v>
       </c>
       <c r="C38" s="9">
-        <v>3.3</v>
+        <v>-12</v>
       </c>
       <c r="D38" s="9">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>100.41000000000001</v>
+        <v>31.97</v>
       </c>
       <c r="G38" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -18384,25 +18520,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>83.87</v>
+        <v>109.8</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="6">
-        <v>3370</v>
+        <v>2100</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>100.41</v>
+        <v>34.052</v>
       </c>
       <c r="G39" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -18414,25 +18550,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>85.254000000000005</v>
+        <v>110.8</v>
       </c>
       <c r="C40" s="9">
-        <v>-1.8</v>
+        <v>-14.7</v>
       </c>
       <c r="D40" s="9">
-        <v>1384</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>102.9012</v>
+        <v>48.75</v>
       </c>
       <c r="G40" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -18444,25 +18580,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>86.2</v>
+        <v>112</v>
       </c>
       <c r="C41" s="6">
-        <v>-7.64</v>
+        <v>6.165</v>
       </c>
       <c r="D41" s="6">
-        <v>946</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>110.12744000000001</v>
+        <v>41.352000000000004</v>
       </c>
       <c r="G41" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -18473,13 +18609,27 @@
       <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="11">
+        <v>113.9</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-0.9</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>43.06</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -18489,13 +18639,27 @@
       <c r="A43" s="8">
         <v>41</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="7">
+        <v>117</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>39.96</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -18505,13 +18669,27 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="11">
+        <v>118.6</v>
+      </c>
+      <c r="C44" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>15.16</v>
+      </c>
+      <c r="G44" s="9">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -18521,13 +18699,27 @@
       <c r="A45" s="8">
         <v>43</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="7">
+        <v>123.14999999999999</v>
+      </c>
+      <c r="C45" s="6">
+        <v>-8</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4550</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>51.56</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -18537,13 +18729,27 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="B46" s="11">
+        <v>126.5</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3350</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>51.56</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -18553,13 +18759,27 @@
       <c r="A47" s="8">
         <v>45</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="B47" s="7">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-18</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>92.960000000000008</v>
+      </c>
+      <c r="G47" s="6">
+        <v>2</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -18569,13 +18789,27 @@
       <c r="A48" s="9">
         <v>46</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="11">
+        <v>130.70000000000002</v>
+      </c>
+      <c r="C48" s="9">
+        <v>18</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>58.759999999999991</v>
+      </c>
+      <c r="G48" s="9">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -18585,13 +18819,27 @@
       <c r="A49" s="8">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="B49" s="7">
+        <v>133.79999999999998</v>
+      </c>
+      <c r="C49" s="6">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>84.179999999999993</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -18601,13 +18849,27 @@
       <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="B50" s="11">
+        <v>136.15</v>
+      </c>
+      <c r="C50" s="9">
+        <v>11.766999999999999</v>
+      </c>
+      <c r="D50" s="9">
+        <v>2350</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>56.527550000000005</v>
+      </c>
+      <c r="G50" s="9">
+        <v>2</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -18617,13 +18879,27 @@
       <c r="A51" s="8">
         <v>49</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="B51" s="7">
+        <v>136.382803</v>
+      </c>
+      <c r="C51" s="6">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6">
+        <v>232.803</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>52.339545999999999</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -18633,13 +18909,27 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="11">
+        <v>140.5</v>
+      </c>
+      <c r="C52" s="9">
+        <v>18</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>25.339550000000003</v>
+      </c>
+      <c r="G52" s="9">
+        <v>3</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -18649,13 +18939,27 @@
       <c r="A53" s="8">
         <v>51</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="B53" s="7">
+        <v>141.99999800000001</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1499.998</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>25.347499989999999</v>
+      </c>
+      <c r="G53" s="6">
+        <v>3</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>D2K</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
@@ -844,18 +841,10 @@
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9">
-        <v>162476.20000000001</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="9">
-        <v>162600</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
@@ -882,18 +871,10 @@
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
-        <v>200660.81</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="6">
-        <v>214400</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
@@ -920,18 +901,10 @@
       <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9">
-        <v>304274.39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="9">
-        <v>304300</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="A11" s="8">
@@ -958,18 +931,10 @@
       <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6">
-        <v>328797.52</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="6">
-        <v>328800</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="A12" s="9">
@@ -996,18 +961,10 @@
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="9">
-        <v>330824.93</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9">
-        <v>334000</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="A13" s="8">
@@ -1034,18 +991,10 @@
       <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6">
-        <v>358738.13</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6">
-        <v>357740</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1">
       <c r="A14" s="9">
@@ -3158,7 +3107,7 @@
         <v>-18</v>
       </c>
       <c r="D84" s="9">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
@@ -3182,19 +3131,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C85" s="6">
-        <v>-18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D85" s="6">
-        <v>1300</v>
+        <v>1499.998</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>52.4816</v>
+        <v>25.34</v>
       </c>
       <c r="G85" s="6">
         <v>6</v>
@@ -3211,27 +3160,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>140.30000000000001</v>
-      </c>
-      <c r="C86" s="9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D86" s="9">
-        <v>4440</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1</v>
-      </c>
-      <c r="F86" s="9">
-        <v>29.08</v>
-      </c>
-      <c r="G86" s="9">
-        <v>6</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -3241,27 +3176,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>144.74</v>
-      </c>
-      <c r="C87" s="6">
-        <v>-10</v>
-      </c>
-      <c r="D87" s="6">
-        <v>3950</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>50.84</v>
-      </c>
-      <c r="G87" s="6">
-        <v>6</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -3271,27 +3192,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>148.69</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9">
-        <v>1610</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1</v>
-      </c>
-      <c r="F88" s="9">
-        <v>11.34</v>
-      </c>
-      <c r="G88" s="9">
-        <v>6</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -3301,27 +3208,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="C89" s="6">
-        <v>15</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6">
-        <v>11.34</v>
-      </c>
-      <c r="G89" s="6">
-        <v>6</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -3331,27 +3224,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>152.80000000000001</v>
-      </c>
-      <c r="C90" s="9">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
-      <c r="F90" s="9">
-        <v>48.84</v>
-      </c>
-      <c r="G90" s="9">
-        <v>6</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -3361,27 +3240,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>154.6</v>
-      </c>
-      <c r="C91" s="6">
-        <v>11</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1630</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1</v>
-      </c>
-      <c r="F91" s="6">
-        <v>46.86</v>
-      </c>
-      <c r="G91" s="6">
-        <v>6</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -3391,27 +3256,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>156.22999999999999</v>
-      </c>
-      <c r="C92" s="9">
-        <v>-10</v>
-      </c>
-      <c r="D92" s="9">
-        <v>1290</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1</v>
-      </c>
-      <c r="F92" s="9">
-        <v>64.790000000000006</v>
-      </c>
-      <c r="G92" s="9">
-        <v>6</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -3421,27 +3272,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>157.52000000000001</v>
-      </c>
-      <c r="C93" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1150</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1</v>
-      </c>
-      <c r="F93" s="6">
-        <v>51.89</v>
-      </c>
-      <c r="G93" s="6">
-        <v>6</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -3451,27 +3288,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>158.66999999999999</v>
-      </c>
-      <c r="C94" s="9">
-        <v>-4.7</v>
-      </c>
-      <c r="D94" s="9">
-        <v>2330</v>
-      </c>
-      <c r="E94" s="9">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
-        <v>54.88</v>
-      </c>
-      <c r="G94" s="9">
-        <v>6</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -3481,27 +3304,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>161</v>
-      </c>
-      <c r="C95" s="6">
-        <v>8</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1476.203</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6">
-        <v>43.93</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -3511,27 +3320,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>162.6</v>
-      </c>
-      <c r="C96" s="9">
-        <v>8</v>
-      </c>
-      <c r="D96" s="9">
-        <v>20</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
-        <v>55.74</v>
-      </c>
-      <c r="G96" s="9">
-        <v>7</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3541,27 +3336,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>162.62</v>
-      </c>
-      <c r="C97" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1250</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" s="6">
-        <v>55.9</v>
-      </c>
-      <c r="G97" s="6">
-        <v>7</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -3571,27 +3352,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>163.87</v>
-      </c>
-      <c r="C98" s="9">
-        <v>-0.6</v>
-      </c>
-      <c r="D98" s="9">
-        <v>900</v>
-      </c>
-      <c r="E98" s="9">
-        <v>1</v>
-      </c>
-      <c r="F98" s="9">
-        <v>52.65</v>
-      </c>
-      <c r="G98" s="9">
-        <v>7</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3601,27 +3368,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>164.77</v>
-      </c>
-      <c r="C99" s="6">
-        <v>17</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>52.11</v>
-      </c>
-      <c r="G99" s="6">
-        <v>7</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -3631,27 +3384,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>165.97</v>
-      </c>
-      <c r="C100" s="9">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1130</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
-      </c>
-      <c r="F100" s="9">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="G100" s="9">
-        <v>7</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3661,27 +3400,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>167.1</v>
-      </c>
-      <c r="C101" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <v>53.41</v>
-      </c>
-      <c r="G101" s="6">
-        <v>7</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -3691,27 +3416,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>168.6</v>
-      </c>
-      <c r="C102" s="9">
-        <v>-7.4</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
-      </c>
-      <c r="F102" s="9">
-        <v>56.56</v>
-      </c>
-      <c r="G102" s="9">
-        <v>7</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3721,27 +3432,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>170.2</v>
-      </c>
-      <c r="C103" s="6">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>44.72</v>
-      </c>
-      <c r="G103" s="6">
-        <v>7</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -3751,27 +3448,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>172.2</v>
-      </c>
-      <c r="C104" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1460</v>
-      </c>
-      <c r="E104" s="9">
-        <v>1</v>
-      </c>
-      <c r="F104" s="9">
-        <v>44.72</v>
-      </c>
-      <c r="G104" s="9">
-        <v>7</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3781,27 +3464,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>173.66</v>
-      </c>
-      <c r="C105" s="6">
-        <v>-2.5</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1640</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
-      <c r="F105" s="6">
-        <v>51.73</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -3811,27 +3480,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>175.3</v>
-      </c>
-      <c r="C106" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D106" s="9">
-        <v>1250</v>
-      </c>
-      <c r="E106" s="9">
-        <v>1</v>
-      </c>
-      <c r="F106" s="9">
-        <v>47.63</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -3841,27 +3496,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>176.55</v>
-      </c>
-      <c r="C107" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D107" s="6">
-        <v>870</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -3871,27 +3512,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>177.42</v>
-      </c>
-      <c r="C108" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1880</v>
-      </c>
-      <c r="E108" s="9">
-        <v>1</v>
-      </c>
-      <c r="F108" s="9">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -3901,27 +3528,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>179.3</v>
-      </c>
-      <c r="C109" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="D109" s="6">
-        <v>900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>1</v>
-      </c>
-      <c r="F109" s="6">
-        <v>27.95</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -3931,27 +3544,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>180.2</v>
-      </c>
-      <c r="C110" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="D110" s="9">
-        <v>300</v>
-      </c>
-      <c r="E110" s="9">
-        <v>1</v>
-      </c>
-      <c r="F110" s="9">
-        <v>31.72</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -3961,27 +3560,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>180.5</v>
-      </c>
-      <c r="C111" s="6">
-        <v>-7.39</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1710</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1</v>
-      </c>
-      <c r="F111" s="6">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -3991,27 +3576,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>182.21</v>
-      </c>
-      <c r="C112" s="9">
-        <v>0</v>
-      </c>
-      <c r="D112" s="9">
-        <v>3900</v>
-      </c>
-      <c r="E112" s="9">
-        <v>1</v>
-      </c>
-      <c r="F112" s="9">
-        <v>20.34</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -4021,27 +3592,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>186.11</v>
-      </c>
-      <c r="C113" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="D113" s="6">
-        <v>1890</v>
-      </c>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6">
-        <v>20.34</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -4051,27 +3608,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>188</v>
-      </c>
-      <c r="C114" s="9">
-        <v>-2.5</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3800</v>
-      </c>
-      <c r="E114" s="9">
-        <v>1</v>
-      </c>
-      <c r="F114" s="9">
-        <v>33.380000000000003</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -4081,27 +3624,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>191.8</v>
-      </c>
-      <c r="C115" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="D115" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E115" s="6">
-        <v>1</v>
-      </c>
-      <c r="F115" s="6">
-        <v>23.88</v>
-      </c>
-      <c r="G115" s="6">
-        <v>7</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -4111,27 +3640,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>193</v>
-      </c>
-      <c r="C116" s="9">
-        <v>-9.9</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E116" s="9">
-        <v>1</v>
-      </c>
-      <c r="F116" s="9">
-        <v>29.27</v>
-      </c>
-      <c r="G116" s="9">
-        <v>7</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -4141,27 +3656,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>194.2</v>
-      </c>
-      <c r="C117" s="6">
-        <v>4</v>
-      </c>
-      <c r="D117" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E117" s="6">
-        <v>1</v>
-      </c>
-      <c r="F117" s="6">
-        <v>17.39</v>
-      </c>
-      <c r="G117" s="6">
-        <v>7</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -4171,27 +3672,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>197.1</v>
-      </c>
-      <c r="C118" s="9">
-        <v>0</v>
-      </c>
-      <c r="D118" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E118" s="9">
-        <v>1</v>
-      </c>
-      <c r="F118" s="9">
-        <v>28.99</v>
-      </c>
-      <c r="G118" s="9">
-        <v>7</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -4201,27 +3688,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>198.5</v>
-      </c>
-      <c r="C119" s="6">
-        <v>-11.1</v>
-      </c>
-      <c r="D119" s="6">
-        <v>1350</v>
-      </c>
-      <c r="E119" s="6">
-        <v>1</v>
-      </c>
-      <c r="F119" s="6">
-        <v>28.99</v>
-      </c>
-      <c r="G119" s="6">
-        <v>7</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -4231,27 +3704,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>199.85</v>
-      </c>
-      <c r="C120" s="9">
-        <v>11.38</v>
-      </c>
-      <c r="D120" s="9">
-        <v>810.80600000000004</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
-      </c>
-      <c r="F120" s="9">
-        <v>14.01</v>
-      </c>
-      <c r="G120" s="9">
-        <v>7</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -4261,27 +3720,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>214.4</v>
-      </c>
-      <c r="C121" s="6">
-        <v>11.38</v>
-      </c>
-      <c r="D121" s="6">
-        <v>100</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
-      <c r="F121" s="6">
-        <v>23.236999999999998</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -4291,27 +3736,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>214.5</v>
-      </c>
-      <c r="C122" s="9">
-        <v>0</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E122" s="9">
-        <v>1</v>
-      </c>
-      <c r="F122" s="9">
-        <v>24.38</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -4321,27 +3752,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>216.1</v>
-      </c>
-      <c r="C123" s="6">
-        <v>-4.8</v>
-      </c>
-      <c r="D123" s="6">
-        <v>2300</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1</v>
-      </c>
-      <c r="F123" s="6">
-        <v>24.38</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -4351,27 +3768,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>218.4</v>
-      </c>
-      <c r="C124" s="9">
-        <v>12.1</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>1</v>
-      </c>
-      <c r="F124" s="9">
-        <v>13.34</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -4381,27 +3784,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>219.8</v>
-      </c>
-      <c r="C125" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="D125" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E125" s="6">
-        <v>1</v>
-      </c>
-      <c r="F125" s="6">
-        <v>30.28</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -4411,27 +3800,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>221.1</v>
-      </c>
-      <c r="C126" s="9">
-        <v>-13</v>
-      </c>
-      <c r="D126" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E126" s="9">
-        <v>1</v>
-      </c>
-      <c r="F126" s="9">
-        <v>29.5</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -4441,27 +3816,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>222.3</v>
-      </c>
-      <c r="C127" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D127" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1</v>
-      </c>
-      <c r="F127" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -4471,27 +3832,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>223.6</v>
-      </c>
-      <c r="C128" s="9">
-        <v>-1.5</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1</v>
-      </c>
-      <c r="F128" s="9">
-        <v>23.65</v>
-      </c>
-      <c r="G128" s="9">
-        <v>8</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -4501,27 +3848,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>225.1</v>
-      </c>
-      <c r="C129" s="6">
-        <v>-3.5</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E129" s="6">
-        <v>1</v>
-      </c>
-      <c r="F129" s="6">
-        <v>21.4</v>
-      </c>
-      <c r="G129" s="6">
-        <v>8</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -4531,27 +3864,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>226.7</v>
-      </c>
-      <c r="C130" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D130" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E130" s="9">
-        <v>1</v>
-      </c>
-      <c r="F130" s="9">
-        <v>15.8</v>
-      </c>
-      <c r="G130" s="9">
-        <v>8</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -4561,27 +3880,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>229.5</v>
-      </c>
-      <c r="C131" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D131" s="6">
-        <v>5650</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1</v>
-      </c>
-      <c r="F131" s="6">
-        <v>20</v>
-      </c>
-      <c r="G131" s="6">
-        <v>8</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -4591,27 +3896,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>235.15</v>
-      </c>
-      <c r="C132" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E132" s="9">
-        <v>1</v>
-      </c>
-      <c r="F132" s="9">
-        <v>23.96</v>
-      </c>
-      <c r="G132" s="9">
-        <v>8</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -4621,27 +3912,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>236.3</v>
-      </c>
-      <c r="C133" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1</v>
-      </c>
-      <c r="F133" s="6">
-        <v>26.61</v>
-      </c>
-      <c r="G133" s="6">
-        <v>8</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -4651,27 +3928,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>238</v>
-      </c>
-      <c r="C134" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="D134" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E134" s="9">
-        <v>1</v>
-      </c>
-      <c r="F134" s="9">
-        <v>23.21</v>
-      </c>
-      <c r="G134" s="9">
-        <v>8</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -4681,27 +3944,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>240.3</v>
-      </c>
-      <c r="C135" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D135" s="6">
-        <v>5170</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6">
-        <v>27.58</v>
-      </c>
-      <c r="G135" s="6">
-        <v>8</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -4711,27 +3960,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>245.47</v>
-      </c>
-      <c r="C136" s="9">
-        <v>-8</v>
-      </c>
-      <c r="D136" s="9">
-        <v>1940</v>
-      </c>
-      <c r="E136" s="9">
-        <v>1</v>
-      </c>
-      <c r="F136" s="9">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="G136" s="9">
-        <v>8</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -4741,27 +3976,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>247.41</v>
-      </c>
-      <c r="C137" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D137" s="6">
-        <v>1390</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6">
-        <v>18.78</v>
-      </c>
-      <c r="G137" s="6">
-        <v>8</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -4771,27 +3992,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>248.8</v>
-      </c>
-      <c r="C138" s="9">
-        <v>0</v>
-      </c>
-      <c r="D138" s="9">
-        <v>3100</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1</v>
-      </c>
-      <c r="F138" s="9">
-        <v>19.89</v>
-      </c>
-      <c r="G138" s="9">
-        <v>8</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -4801,27 +4008,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>251.9</v>
-      </c>
-      <c r="C139" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="D139" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1</v>
-      </c>
-      <c r="F139" s="6">
-        <v>19.89</v>
-      </c>
-      <c r="G139" s="6">
-        <v>8</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -4831,27 +4024,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>254</v>
-      </c>
-      <c r="C140" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D140" s="9">
-        <v>3300</v>
-      </c>
-      <c r="E140" s="9">
-        <v>1</v>
-      </c>
-      <c r="F140" s="9">
-        <v>31.23</v>
-      </c>
-      <c r="G140" s="9">
-        <v>8</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -4861,27 +4040,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>257.3</v>
-      </c>
-      <c r="C141" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1</v>
-      </c>
-      <c r="F141" s="6">
-        <v>27.93</v>
-      </c>
-      <c r="G141" s="6">
-        <v>8</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -4891,27 +4056,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>258.5</v>
-      </c>
-      <c r="C142" s="9">
-        <v>-7</v>
-      </c>
-      <c r="D142" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E142" s="9">
-        <v>1</v>
-      </c>
-      <c r="F142" s="9">
-        <v>38.01</v>
-      </c>
-      <c r="G142" s="9">
-        <v>8</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -4921,27 +4072,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>260</v>
-      </c>
-      <c r="C143" s="6">
-        <v>2</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E143" s="6">
-        <v>1</v>
-      </c>
-      <c r="F143" s="6">
-        <v>27.51</v>
-      </c>
-      <c r="G143" s="6">
-        <v>8</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -4951,27 +4088,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>262</v>
-      </c>
-      <c r="C144" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>2700</v>
-      </c>
-      <c r="E144" s="9">
-        <v>1</v>
-      </c>
-      <c r="F144" s="9">
-        <v>31.51</v>
-      </c>
-      <c r="G144" s="9">
-        <v>8</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -4981,27 +4104,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>264.7</v>
-      </c>
-      <c r="C145" s="6">
-        <v>-3.5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="6">
-        <v>32.86</v>
-      </c>
-      <c r="G145" s="6">
-        <v>8</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -5011,27 +4120,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="C146" s="9">
-        <v>12</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E146" s="9">
-        <v>1</v>
-      </c>
-      <c r="F146" s="9">
-        <v>22.71</v>
-      </c>
-      <c r="G146" s="9">
-        <v>8</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -5041,27 +4136,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>268.75</v>
-      </c>
-      <c r="C147" s="6">
-        <v>-12.8</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1280</v>
-      </c>
-      <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6">
-        <v>36.51</v>
-      </c>
-      <c r="G147" s="6">
-        <v>8</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -5071,27 +4152,13 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="11">
-        <v>270.02999999999997</v>
-      </c>
-      <c r="C148" s="9">
-        <v>0</v>
-      </c>
-      <c r="D148" s="9">
-        <v>6270</v>
-      </c>
-      <c r="E148" s="9">
-        <v>1</v>
-      </c>
-      <c r="F148" s="9">
-        <v>20.13</v>
-      </c>
-      <c r="G148" s="9">
-        <v>8</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -5101,27 +4168,13 @@
       <c r="A149" s="8">
         <v>147</v>
       </c>
-      <c r="B149" s="7">
-        <v>276.3</v>
-      </c>
-      <c r="C149" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E149" s="6">
-        <v>1</v>
-      </c>
-      <c r="F149" s="6">
-        <v>20.13</v>
-      </c>
-      <c r="G149" s="6">
-        <v>8</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -5131,27 +4184,13 @@
       <c r="A150" s="9">
         <v>148</v>
       </c>
-      <c r="B150" s="11">
-        <v>277.60000000000002</v>
-      </c>
-      <c r="C150" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="D150" s="9">
-        <v>2570</v>
-      </c>
-      <c r="E150" s="9">
-        <v>1</v>
-      </c>
-      <c r="F150" s="9">
-        <v>37.42</v>
-      </c>
-      <c r="G150" s="9">
-        <v>8</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -5161,27 +4200,13 @@
       <c r="A151" s="8">
         <v>149</v>
       </c>
-      <c r="B151" s="7">
-        <v>280.17</v>
-      </c>
-      <c r="C151" s="6">
-        <v>-8.5</v>
-      </c>
-      <c r="D151" s="6">
-        <v>1230</v>
-      </c>
-      <c r="E151" s="6">
-        <v>1</v>
-      </c>
-      <c r="F151" s="6">
-        <v>42.82</v>
-      </c>
-      <c r="G151" s="6">
-        <v>8</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -5191,27 +4216,13 @@
       <c r="A152" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="11">
-        <v>281.39999999999998</v>
-      </c>
-      <c r="C152" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="D152" s="9">
-        <v>2500</v>
-      </c>
-      <c r="E152" s="9">
-        <v>1</v>
-      </c>
-      <c r="F152" s="9">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="G152" s="9">
-        <v>8</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -5221,27 +4232,13 @@
       <c r="A153" s="8">
         <v>151</v>
       </c>
-      <c r="B153" s="7">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="C153" s="6">
-        <v>0</v>
-      </c>
-      <c r="D153" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E153" s="6">
-        <v>1</v>
-      </c>
-      <c r="F153" s="6">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="G153" s="6">
-        <v>8</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
@@ -5251,27 +4248,13 @@
       <c r="A154" s="9">
         <v>152</v>
       </c>
-      <c r="B154" s="11">
-        <v>286.89999999999998</v>
-      </c>
-      <c r="C154" s="9">
-        <v>-8.9</v>
-      </c>
-      <c r="D154" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E154" s="9">
-        <v>1</v>
-      </c>
-      <c r="F154" s="9">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="G154" s="9">
-        <v>8</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
@@ -5281,27 +4264,13 @@
       <c r="A155" s="8">
         <v>153</v>
       </c>
-      <c r="B155" s="7">
-        <v>288.2</v>
-      </c>
-      <c r="C155" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="D155" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E155" s="6">
-        <v>1</v>
-      </c>
-      <c r="F155" s="6">
-        <v>22.55</v>
-      </c>
-      <c r="G155" s="6">
-        <v>8</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -5311,27 +4280,13 @@
       <c r="A156" s="9">
         <v>154</v>
       </c>
-      <c r="B156" s="11">
-        <v>291.2</v>
-      </c>
-      <c r="C156" s="9">
-        <v>-3.6</v>
-      </c>
-      <c r="D156" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E156" s="9">
-        <v>1</v>
-      </c>
-      <c r="F156" s="9">
-        <v>21.05</v>
-      </c>
-      <c r="G156" s="9">
-        <v>8</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
@@ -5341,27 +4296,13 @@
       <c r="A157" s="8">
         <v>155</v>
       </c>
-      <c r="B157" s="7">
-        <v>293</v>
-      </c>
-      <c r="C157" s="6">
-        <v>0</v>
-      </c>
-      <c r="D157" s="6">
-        <v>1800</v>
-      </c>
-      <c r="E157" s="6">
-        <v>1</v>
-      </c>
-      <c r="F157" s="6">
-        <v>14.57</v>
-      </c>
-      <c r="G157" s="6">
-        <v>8</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -5371,27 +4312,13 @@
       <c r="A158" s="9">
         <v>156</v>
       </c>
-      <c r="B158" s="11">
-        <v>294.8</v>
-      </c>
-      <c r="C158" s="9">
-        <v>-2.8</v>
-      </c>
-      <c r="D158" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E158" s="9">
-        <v>1</v>
-      </c>
-      <c r="F158" s="9">
-        <v>14.57</v>
-      </c>
-      <c r="G158" s="9">
-        <v>8</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
@@ -5401,27 +4328,13 @@
       <c r="A159" s="8">
         <v>157</v>
       </c>
-      <c r="B159" s="7">
-        <v>296.10000000000002</v>
-      </c>
-      <c r="C159" s="6">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E159" s="6">
-        <v>1</v>
-      </c>
-      <c r="F159" s="6">
-        <v>10.93</v>
-      </c>
-      <c r="G159" s="6">
-        <v>8</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -5431,27 +4344,13 @@
       <c r="A160" s="9">
         <v>158</v>
       </c>
-      <c r="B160" s="11">
-        <v>299.3</v>
-      </c>
-      <c r="C160" s="9">
-        <v>-1.5</v>
-      </c>
-      <c r="D160" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E160" s="9">
-        <v>1</v>
-      </c>
-      <c r="F160" s="9">
-        <v>10.93</v>
-      </c>
-      <c r="G160" s="9">
-        <v>8</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -5461,27 +4360,13 @@
       <c r="A161" s="8">
         <v>159</v>
       </c>
-      <c r="B161" s="7">
-        <v>300.5</v>
-      </c>
-      <c r="C161" s="6">
-        <v>0</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E161" s="6">
-        <v>1</v>
-      </c>
-      <c r="F161" s="6">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="G161" s="6">
-        <v>8</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -5491,27 +4376,13 @@
       <c r="A162" s="9">
         <v>160</v>
       </c>
-      <c r="B162" s="11">
-        <v>302.10000000000002</v>
-      </c>
-      <c r="C162" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D162" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E162" s="9">
-        <v>1</v>
-      </c>
-      <c r="F162" s="9">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="G162" s="9">
-        <v>8</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
@@ -5521,27 +4392,13 @@
       <c r="A163" s="8">
         <v>161</v>
       </c>
-      <c r="B163" s="7">
-        <v>303.3</v>
-      </c>
-      <c r="C163" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="D163" s="6">
-        <v>974.38699999999994</v>
-      </c>
-      <c r="E163" s="6">
-        <v>1</v>
-      </c>
-      <c r="F163" s="6">
-        <v>12.13</v>
-      </c>
-      <c r="G163" s="6">
-        <v>8</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -5551,27 +4408,13 @@
       <c r="A164" s="9">
         <v>162</v>
       </c>
-      <c r="B164" s="11">
-        <v>304.3</v>
-      </c>
-      <c r="C164" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="D164" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E164" s="9">
-        <v>1</v>
-      </c>
-      <c r="F164" s="9">
-        <v>21.776</v>
-      </c>
-      <c r="G164" s="9">
-        <v>9</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
@@ -5581,27 +4424,13 @@
       <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="7">
-        <v>306.60000000000002</v>
-      </c>
-      <c r="C165" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E165" s="6">
-        <v>1</v>
-      </c>
-      <c r="F165" s="6">
-        <v>44.55</v>
-      </c>
-      <c r="G165" s="6">
-        <v>9</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -5611,27 +4440,13 @@
       <c r="A166" s="9">
         <v>164</v>
       </c>
-      <c r="B166" s="11">
-        <v>308.10000000000002</v>
-      </c>
-      <c r="C166" s="9">
-        <v>-13</v>
-      </c>
-      <c r="D166" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E166" s="9">
-        <v>1</v>
-      </c>
-      <c r="F166" s="9">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="G166" s="9">
-        <v>9</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
@@ -5641,27 +4456,13 @@
       <c r="A167" s="8">
         <v>165</v>
       </c>
-      <c r="B167" s="7">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="C167" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="D167" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E167" s="6">
-        <v>1</v>
-      </c>
-      <c r="F167" s="6">
-        <v>27.05</v>
-      </c>
-      <c r="G167" s="6">
-        <v>9</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -5671,27 +4472,13 @@
       <c r="A168" s="9">
         <v>166</v>
       </c>
-      <c r="B168" s="11">
-        <v>312.10000000000002</v>
-      </c>
-      <c r="C168" s="9">
-        <v>-7</v>
-      </c>
-      <c r="D168" s="9">
-        <v>3200</v>
-      </c>
-      <c r="E168" s="9">
-        <v>1</v>
-      </c>
-      <c r="F168" s="9">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="G168" s="9">
-        <v>9</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -5701,27 +4488,13 @@
       <c r="A169" s="8">
         <v>167</v>
       </c>
-      <c r="B169" s="7">
-        <v>315.3</v>
-      </c>
-      <c r="C169" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="D169" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E169" s="6">
-        <v>1</v>
-      </c>
-      <c r="F169" s="6">
-        <v>16.05</v>
-      </c>
-      <c r="G169" s="6">
-        <v>9</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -5731,27 +4504,13 @@
       <c r="A170" s="9">
         <v>168</v>
       </c>
-      <c r="B170" s="11">
-        <v>317</v>
-      </c>
-      <c r="C170" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="D170" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E170" s="9">
-        <v>1</v>
-      </c>
-      <c r="F170" s="9">
-        <v>20.13</v>
-      </c>
-      <c r="G170" s="9">
-        <v>9</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -5761,27 +4520,13 @@
       <c r="A171" s="8">
         <v>169</v>
       </c>
-      <c r="B171" s="7">
-        <v>318.39999999999998</v>
-      </c>
-      <c r="C171" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="D171" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E171" s="6">
-        <v>1</v>
-      </c>
-      <c r="F171" s="6">
-        <v>28.81</v>
-      </c>
-      <c r="G171" s="6">
-        <v>9</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -5791,27 +4536,13 @@
       <c r="A172" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="11">
-        <v>319.60000000000002</v>
-      </c>
-      <c r="C172" s="9">
-        <v>-13.7</v>
-      </c>
-      <c r="D172" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E172" s="9">
-        <v>1</v>
-      </c>
-      <c r="F172" s="9">
-        <v>28.21</v>
-      </c>
-      <c r="G172" s="9">
-        <v>9</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -5821,27 +4552,13 @@
       <c r="A173" s="8">
         <v>171</v>
       </c>
-      <c r="B173" s="7">
-        <v>320.8</v>
-      </c>
-      <c r="C173" s="6">
-        <v>0</v>
-      </c>
-      <c r="D173" s="6">
-        <v>3500</v>
-      </c>
-      <c r="E173" s="6">
-        <v>1</v>
-      </c>
-      <c r="F173" s="6">
-        <v>11.77</v>
-      </c>
-      <c r="G173" s="6">
-        <v>9</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
@@ -5851,27 +4568,13 @@
       <c r="A174" s="9">
         <v>172</v>
       </c>
-      <c r="B174" s="11">
-        <v>324.3</v>
-      </c>
-      <c r="C174" s="9">
-        <v>16.2</v>
-      </c>
-      <c r="D174" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E174" s="9">
-        <v>1</v>
-      </c>
-      <c r="F174" s="9">
-        <v>11.77</v>
-      </c>
-      <c r="G174" s="9">
-        <v>9</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
@@ -5881,27 +4584,13 @@
       <c r="A175" s="8">
         <v>173</v>
       </c>
-      <c r="B175" s="7">
-        <v>326.10000000000002</v>
-      </c>
-      <c r="C175" s="6">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="D175" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E175" s="6">
-        <v>1</v>
-      </c>
-      <c r="F175" s="6">
-        <v>40.93</v>
-      </c>
-      <c r="G175" s="6">
-        <v>9</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
@@ -5911,27 +4600,13 @@
       <c r="A176" s="9">
         <v>174</v>
       </c>
-      <c r="B176" s="11">
-        <v>327.8</v>
-      </c>
-      <c r="C176" s="9">
-        <v>13.4</v>
-      </c>
-      <c r="D176" s="9">
-        <v>997.54399999999998</v>
-      </c>
-      <c r="E176" s="9">
-        <v>1</v>
-      </c>
-      <c r="F176" s="9">
-        <v>13.05</v>
-      </c>
-      <c r="G176" s="9">
-        <v>9</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -5941,27 +4616,13 @@
       <c r="A177" s="8">
         <v>175</v>
       </c>
-      <c r="B177" s="7">
-        <v>328.8</v>
-      </c>
-      <c r="C177" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="D177" s="6">
-        <v>2024.93</v>
-      </c>
-      <c r="E177" s="6">
-        <v>1</v>
-      </c>
-      <c r="F177" s="6">
-        <v>26.417000000000002</v>
-      </c>
-      <c r="G177" s="6">
-        <v>10</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
@@ -5971,27 +4632,13 @@
       <c r="A178" s="9">
         <v>176</v>
       </c>
-      <c r="B178" s="11">
-        <v>334</v>
-      </c>
-      <c r="C178" s="9">
-        <v>13.4</v>
-      </c>
-      <c r="D178" s="9">
-        <v>0</v>
-      </c>
-      <c r="E178" s="9">
-        <v>1</v>
-      </c>
-      <c r="F178" s="9">
-        <v>53.551000000000002</v>
-      </c>
-      <c r="G178" s="9">
-        <v>11</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
@@ -6001,27 +4648,13 @@
       <c r="A179" s="8">
         <v>177</v>
       </c>
-      <c r="B179" s="7">
-        <v>334</v>
-      </c>
-      <c r="C179" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="D179" s="6">
-        <v>550</v>
-      </c>
-      <c r="E179" s="6">
-        <v>1</v>
-      </c>
-      <c r="F179" s="6">
-        <v>53.55</v>
-      </c>
-      <c r="G179" s="6">
-        <v>11</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -6031,27 +4664,13 @@
       <c r="A180" s="9">
         <v>178</v>
       </c>
-      <c r="B180" s="11">
-        <v>334.55</v>
-      </c>
-      <c r="C180" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="D180" s="9">
-        <v>3600</v>
-      </c>
-      <c r="E180" s="9">
-        <v>1</v>
-      </c>
-      <c r="F180" s="9">
-        <v>60.92</v>
-      </c>
-      <c r="G180" s="9">
-        <v>11</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
@@ -6061,27 +4680,13 @@
       <c r="A181" s="8">
         <v>179</v>
       </c>
-      <c r="B181" s="7">
-        <v>338.15</v>
-      </c>
-      <c r="C181" s="6">
-        <v>-2.8</v>
-      </c>
-      <c r="D181" s="6">
-        <v>2250</v>
-      </c>
-      <c r="E181" s="6">
-        <v>1</v>
-      </c>
-      <c r="F181" s="6">
-        <v>97.28</v>
-      </c>
-      <c r="G181" s="6">
-        <v>11</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -6091,27 +4696,13 @@
       <c r="A182" s="9">
         <v>180</v>
       </c>
-      <c r="B182" s="11">
-        <v>340.4</v>
-      </c>
-      <c r="C182" s="9">
-        <v>-6.9</v>
-      </c>
-      <c r="D182" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E182" s="9">
-        <v>1</v>
-      </c>
-      <c r="F182" s="9">
-        <v>90.98</v>
-      </c>
-      <c r="G182" s="9">
-        <v>11</v>
-      </c>
-      <c r="H182" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
@@ -6121,27 +4712,13 @@
       <c r="A183" s="8">
         <v>181</v>
       </c>
-      <c r="B183" s="7">
-        <v>343.2</v>
-      </c>
-      <c r="C183" s="6">
-        <v>-9.9</v>
-      </c>
-      <c r="D183" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E183" s="6">
-        <v>1</v>
-      </c>
-      <c r="F183" s="6">
-        <v>71.66</v>
-      </c>
-      <c r="G183" s="6">
-        <v>11</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -6151,27 +4728,13 @@
       <c r="A184" s="9">
         <v>182</v>
       </c>
-      <c r="B184" s="11">
-        <v>344.6</v>
-      </c>
-      <c r="C184" s="9">
-        <v>-4.8</v>
-      </c>
-      <c r="D184" s="9">
-        <v>4400</v>
-      </c>
-      <c r="E184" s="9">
-        <v>1</v>
-      </c>
-      <c r="F184" s="9">
-        <v>57.8</v>
-      </c>
-      <c r="G184" s="9">
-        <v>11</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -6181,27 +4744,13 @@
       <c r="A185" s="8">
         <v>183</v>
       </c>
-      <c r="B185" s="7">
-        <v>349</v>
-      </c>
-      <c r="C185" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="D185" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E185" s="6">
-        <v>1</v>
-      </c>
-      <c r="F185" s="6">
-        <v>36.68</v>
-      </c>
-      <c r="G185" s="6">
-        <v>11</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -6211,27 +4760,13 @@
       <c r="A186" s="9">
         <v>184</v>
       </c>
-      <c r="B186" s="11">
-        <v>350.55</v>
-      </c>
-      <c r="C186" s="9">
-        <v>-13</v>
-      </c>
-      <c r="D186" s="9">
-        <v>2458</v>
-      </c>
-      <c r="E186" s="9">
-        <v>1</v>
-      </c>
-      <c r="F186" s="9">
-        <v>62.26</v>
-      </c>
-      <c r="G186" s="9">
-        <v>11</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
@@ -6241,27 +4776,13 @@
       <c r="A187" s="8">
         <v>185</v>
       </c>
-      <c r="B187" s="7">
-        <v>353.00799999999998</v>
-      </c>
-      <c r="C187" s="6">
-        <v>1</v>
-      </c>
-      <c r="D187" s="6">
-        <v>2400</v>
-      </c>
-      <c r="E187" s="6">
-        <v>1</v>
-      </c>
-      <c r="F187" s="6">
-        <v>30.31</v>
-      </c>
-      <c r="G187" s="6">
-        <v>11</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -6271,27 +4792,13 @@
       <c r="A188" s="9">
         <v>186</v>
       </c>
-      <c r="B188" s="11">
-        <v>355.40800000000002</v>
-      </c>
-      <c r="C188" s="9">
-        <v>4.0330000000000004</v>
-      </c>
-      <c r="D188" s="9">
-        <v>1692</v>
-      </c>
-      <c r="E188" s="9">
-        <v>1</v>
-      </c>
-      <c r="F188" s="9">
-        <v>32.71</v>
-      </c>
-      <c r="G188" s="9">
-        <v>11</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
@@ -6301,27 +4808,13 @@
       <c r="A189" s="8">
         <v>187</v>
       </c>
-      <c r="B189" s="7">
-        <v>357.1</v>
-      </c>
-      <c r="C189" s="6">
-        <v>-19.477</v>
-      </c>
-      <c r="D189" s="6">
-        <v>940</v>
-      </c>
-      <c r="E189" s="6">
-        <v>1</v>
-      </c>
-      <c r="F189" s="6">
-        <v>39.53</v>
-      </c>
-      <c r="G189" s="6">
-        <v>11</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -6331,27 +4824,13 @@
       <c r="A190" s="9">
         <v>188</v>
       </c>
-      <c r="B190" s="11">
-        <v>358.04</v>
-      </c>
-      <c r="C190" s="9">
-        <v>-2</v>
-      </c>
-      <c r="D190" s="9">
-        <v>690</v>
-      </c>
-      <c r="E190" s="9">
-        <v>1</v>
-      </c>
-      <c r="F190" s="9">
-        <v>21.22</v>
-      </c>
-      <c r="G190" s="9">
-        <v>11</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
@@ -6361,27 +4840,13 @@
       <c r="A191" s="8">
         <v>189</v>
       </c>
-      <c r="B191" s="7">
-        <v>358.73</v>
-      </c>
-      <c r="C191" s="6">
-        <v>-9.5</v>
-      </c>
-      <c r="D191" s="6">
-        <v>8.1140000000000008</v>
-      </c>
-      <c r="E191" s="6">
-        <v>1</v>
-      </c>
-      <c r="F191" s="6">
-        <v>19.84</v>
-      </c>
-      <c r="G191" s="6">
-        <v>11</v>
-      </c>
-      <c r="H191" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -6391,27 +4856,13 @@
       <c r="A192" s="9">
         <v>190</v>
       </c>
-      <c r="B192" s="11">
-        <v>357.74</v>
-      </c>
-      <c r="C192" s="9">
-        <v>-9.5</v>
-      </c>
-      <c r="D192" s="9">
-        <v>884.9</v>
-      </c>
-      <c r="E192" s="9">
-        <v>1</v>
-      </c>
-      <c r="F192" s="9">
-        <v>19.763000000000002</v>
-      </c>
-      <c r="G192" s="9">
-        <v>12</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -6421,27 +4872,13 @@
       <c r="A193" s="8">
         <v>191</v>
       </c>
-      <c r="B193" s="7">
-        <v>358.62490000000003</v>
-      </c>
-      <c r="C193" s="6">
-        <v>0</v>
-      </c>
-      <c r="D193" s="6">
-        <v>5178.8370000000004</v>
-      </c>
-      <c r="E193" s="6">
-        <v>1</v>
-      </c>
-      <c r="F193" s="6">
-        <v>11.36</v>
-      </c>
-      <c r="G193" s="6">
-        <v>12</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
@@ -19672,18 +18109,10 @@
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9">
-        <v>162476.20000000001</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="9">
-        <v>162600</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="A9" s="8">
@@ -19710,18 +18139,10 @@
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
-        <v>200660.81</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="6">
-        <v>214400</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
@@ -19748,18 +18169,10 @@
       <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9">
-        <v>304274.39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="9">
-        <v>304300</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="A11" s="8">
@@ -19786,18 +18199,10 @@
       <c r="H11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6">
-        <v>328797.52</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="6">
-        <v>328800</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="A12" s="9">
@@ -19824,18 +18229,10 @@
       <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="9">
-        <v>330824.93</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9">
-        <v>334000</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="A13" s="8">
@@ -19862,18 +18259,10 @@
       <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="6">
-        <v>358738.13</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="6">
-        <v>357740</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1">
       <c r="A14" s="9">
@@ -21980,19 +20369,19 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="C84" s="9">
         <v>18</v>
       </c>
       <c r="D84" s="9">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>52.34</v>
+        <v>25.340000000000003</v>
       </c>
       <c r="G84" s="9">
         <v>6</v>
@@ -22010,19 +20399,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>140.30000000000001</v>
+        <v>141.99999800000001</v>
       </c>
       <c r="C85" s="6">
-        <v>18</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D85" s="6">
-        <v>1300</v>
+        <v>1499.998</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <v>29.081600000000002</v>
+        <v>25.347499989999999</v>
       </c>
       <c r="G85" s="6">
         <v>6</v>
@@ -22039,27 +20428,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>144.74</v>
-      </c>
-      <c r="C86" s="9">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="D86" s="9">
-        <v>4440</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>50.835999999999999</v>
-      </c>
-      <c r="G86" s="9">
-        <v>6</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -22069,27 +20444,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>148.69</v>
-      </c>
-      <c r="C87" s="6">
-        <v>10</v>
-      </c>
-      <c r="D87" s="6">
-        <v>3950</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
-        <v>11.340000000000003</v>
-      </c>
-      <c r="G87" s="6">
-        <v>6</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -22099,27 +20460,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9">
-        <v>1610</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>11.34</v>
-      </c>
-      <c r="G88" s="9">
-        <v>6</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -22129,27 +20476,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>152.80000000000001</v>
-      </c>
-      <c r="C89" s="6">
-        <v>-15</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6">
-        <v>48.84</v>
-      </c>
-      <c r="G89" s="6">
-        <v>6</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -22159,27 +20492,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>154.60000000000002</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>46.860000000000007</v>
-      </c>
-      <c r="G90" s="9">
-        <v>6</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -22189,27 +20508,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>156.22999999999999</v>
-      </c>
-      <c r="C91" s="6">
-        <v>-11</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1630</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6">
-        <v>64.789999999999992</v>
-      </c>
-      <c r="G91" s="6">
-        <v>6</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -22219,27 +20524,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>157.51999999999998</v>
-      </c>
-      <c r="C92" s="9">
-        <v>10</v>
-      </c>
-      <c r="D92" s="9">
-        <v>1290</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>51.890000000000008</v>
-      </c>
-      <c r="G92" s="9">
-        <v>6</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -22249,27 +20540,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>158.67000000000002</v>
-      </c>
-      <c r="C93" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1150</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <v>54.88</v>
-      </c>
-      <c r="G93" s="6">
-        <v>6</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -22279,27 +20556,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>161</v>
-      </c>
-      <c r="C94" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="D94" s="9">
-        <v>2330</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>43.929000000000002</v>
-      </c>
-      <c r="G94" s="9">
-        <v>6</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -22309,27 +20572,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>162.476203</v>
-      </c>
-      <c r="C95" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1476.203</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <v>55.739623999999999</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -22339,27 +20588,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>162.62</v>
-      </c>
-      <c r="C96" s="9">
-        <v>-8</v>
-      </c>
-      <c r="D96" s="9">
-        <v>20</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>55.9</v>
-      </c>
-      <c r="G96" s="9">
-        <v>7</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -22369,27 +20604,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>163.87</v>
-      </c>
-      <c r="C97" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1250</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <v>52.65</v>
-      </c>
-      <c r="G97" s="6">
-        <v>7</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -22399,27 +20620,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>164.77</v>
-      </c>
-      <c r="C98" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="D98" s="9">
-        <v>900</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>52.11</v>
-      </c>
-      <c r="G98" s="9">
-        <v>7</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -22429,27 +20636,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>165.97</v>
-      </c>
-      <c r="C99" s="6">
-        <v>-17</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <v>72.509999999999991</v>
-      </c>
-      <c r="G99" s="6">
-        <v>7</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -22459,27 +20652,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>167.1</v>
-      </c>
-      <c r="C100" s="9">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1130</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>53.413000000000004</v>
-      </c>
-      <c r="G100" s="9">
-        <v>7</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -22489,27 +20668,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>168.6</v>
-      </c>
-      <c r="C101" s="6">
-        <v>-2.1</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6">
-        <v>56.559999999999995</v>
-      </c>
-      <c r="G101" s="6">
-        <v>7</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -22519,27 +20684,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>170.2</v>
-      </c>
-      <c r="C102" s="9">
-        <v>7.4</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>44.72</v>
-      </c>
-      <c r="G102" s="9">
-        <v>7</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -22549,27 +20700,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>172.2</v>
-      </c>
-      <c r="C103" s="6">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E103" s="6">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <v>44.72</v>
-      </c>
-      <c r="G103" s="6">
-        <v>7</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -22579,27 +20716,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>173.66</v>
-      </c>
-      <c r="C104" s="9">
-        <v>-4.8</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1460</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>51.728000000000002</v>
-      </c>
-      <c r="G104" s="9">
-        <v>7</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -22609,27 +20732,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>175.29999999999998</v>
-      </c>
-      <c r="C105" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1640</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <v>47.629999999999995</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -22639,27 +20748,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>176.55</v>
-      </c>
-      <c r="C106" s="9">
-        <v>12</v>
-      </c>
-      <c r="D106" s="9">
-        <v>1250</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -22669,27 +20764,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>177.42000000000002</v>
-      </c>
-      <c r="C107" s="6">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D107" s="6">
-        <v>870</v>
-      </c>
-      <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <v>33.587000000000003</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -22699,27 +20780,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>179.29999999999998</v>
-      </c>
-      <c r="C108" s="9">
-        <v>3</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1880</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
-        <v>27.950000000000003</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -22729,27 +20796,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>180.20000000000002</v>
-      </c>
-      <c r="C109" s="6">
-        <v>-4.2</v>
-      </c>
-      <c r="D109" s="6">
-        <v>900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0</v>
-      </c>
-      <c r="F109" s="6">
-        <v>31.73</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -22759,27 +20812,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>180.5</v>
-      </c>
-      <c r="C110" s="9">
-        <v>-4.2</v>
-      </c>
-      <c r="D110" s="9">
-        <v>300</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -22789,27 +20828,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>182.21</v>
-      </c>
-      <c r="C111" s="6">
-        <v>7.39</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1710</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <v>20.3431</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -22819,27 +20844,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>186.11</v>
-      </c>
-      <c r="C112" s="9">
-        <v>0</v>
-      </c>
-      <c r="D112" s="9">
-        <v>3900</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
-        <v>20.34</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -22849,27 +20860,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>188</v>
-      </c>
-      <c r="C113" s="6">
-        <v>-6.9</v>
-      </c>
-      <c r="D113" s="6">
-        <v>1890</v>
-      </c>
-      <c r="E113" s="6">
-        <v>0</v>
-      </c>
-      <c r="F113" s="6">
-        <v>33.381</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -22879,27 +20876,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>191.8</v>
-      </c>
-      <c r="C114" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3800</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <v>23.880000000000003</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -22909,27 +20892,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>193</v>
-      </c>
-      <c r="C115" s="6">
-        <v>-4.49</v>
-      </c>
-      <c r="D115" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>29.268000000000001</v>
-      </c>
-      <c r="G115" s="6">
-        <v>7</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -22939,27 +20908,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>194.2</v>
-      </c>
-      <c r="C116" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
-        <v>17.39</v>
-      </c>
-      <c r="G116" s="9">
-        <v>7</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -22969,27 +20924,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>197.1</v>
-      </c>
-      <c r="C117" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D117" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
-        <v>28.990000000000002</v>
-      </c>
-      <c r="G117" s="6">
-        <v>7</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -22999,27 +20940,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>198.5</v>
-      </c>
-      <c r="C118" s="9">
-        <v>0</v>
-      </c>
-      <c r="D118" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <v>28.99</v>
-      </c>
-      <c r="G118" s="9">
-        <v>7</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -23029,27 +20956,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>199.85</v>
-      </c>
-      <c r="C119" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="D119" s="6">
-        <v>1350</v>
-      </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
-      <c r="F119" s="6">
-        <v>14.004999999999999</v>
-      </c>
-      <c r="G119" s="6">
-        <v>7</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -23059,27 +20972,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>200.66080600000001</v>
-      </c>
-      <c r="C120" s="9">
-        <v>-11.38</v>
-      </c>
-      <c r="D120" s="9">
-        <v>810.80600000000004</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
-        <v>23.236972280000003</v>
-      </c>
-      <c r="G120" s="9">
-        <v>7</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -23089,27 +20988,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>214.5</v>
-      </c>
-      <c r="C121" s="6">
-        <v>-11.38</v>
-      </c>
-      <c r="D121" s="6">
-        <v>100</v>
-      </c>
-      <c r="E121" s="6">
-        <v>0</v>
-      </c>
-      <c r="F121" s="6">
-        <v>24.375</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -23119,27 +21004,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>216.1</v>
-      </c>
-      <c r="C122" s="9">
-        <v>0</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
-        <v>24.38</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -23149,27 +21020,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>218.4</v>
-      </c>
-      <c r="C123" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="D123" s="6">
-        <v>2300</v>
-      </c>
-      <c r="E123" s="6">
-        <v>0</v>
-      </c>
-      <c r="F123" s="6">
-        <v>13.34</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -23179,27 +21036,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>219.8</v>
-      </c>
-      <c r="C124" s="9">
-        <v>-12.1</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9">
-        <v>30.28</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -23209,27 +21052,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>221.10000000000002</v>
-      </c>
-      <c r="C125" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D125" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E125" s="6">
-        <v>0</v>
-      </c>
-      <c r="F125" s="6">
-        <v>29.5</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -23239,27 +21068,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>222.29999999999998</v>
-      </c>
-      <c r="C126" s="9">
-        <v>13</v>
-      </c>
-      <c r="D126" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>13.9</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -23269,27 +21084,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>223.60000000000002</v>
-      </c>
-      <c r="C127" s="6">
-        <v>-7.5</v>
-      </c>
-      <c r="D127" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
-      <c r="F127" s="6">
-        <v>23.65</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -23299,27 +21100,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>225.1</v>
-      </c>
-      <c r="C128" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D128" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="G128" s="9">
-        <v>8</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -23329,27 +21116,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>226.7</v>
-      </c>
-      <c r="C129" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
-      <c r="F129" s="6">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G129" s="6">
-        <v>8</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -23359,27 +21132,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>229.5</v>
-      </c>
-      <c r="C130" s="9">
-        <v>-1.5</v>
-      </c>
-      <c r="D130" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0</v>
-      </c>
-      <c r="F130" s="9">
-        <v>20</v>
-      </c>
-      <c r="G130" s="9">
-        <v>8</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -23389,27 +21148,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>235.15</v>
-      </c>
-      <c r="C131" s="6">
-        <v>-0.7</v>
-      </c>
-      <c r="D131" s="6">
-        <v>5650</v>
-      </c>
-      <c r="E131" s="6">
-        <v>0</v>
-      </c>
-      <c r="F131" s="6">
-        <v>23.954999999999998</v>
-      </c>
-      <c r="G131" s="6">
-        <v>8</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -23419,27 +21164,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>236.3</v>
-      </c>
-      <c r="C132" s="9">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132" s="9">
-        <v>26.605</v>
-      </c>
-      <c r="G132" s="9">
-        <v>8</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -23449,27 +21180,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>238</v>
-      </c>
-      <c r="C133" s="6">
-        <v>2</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E133" s="6">
-        <v>0</v>
-      </c>
-      <c r="F133" s="6">
-        <v>23.21</v>
-      </c>
-      <c r="G133" s="6">
-        <v>8</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -23479,27 +21196,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>240.3</v>
-      </c>
-      <c r="C134" s="9">
-        <v>-1.9</v>
-      </c>
-      <c r="D134" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134" s="9">
-        <v>27.580000000000002</v>
-      </c>
-      <c r="G134" s="9">
-        <v>8</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -23509,27 +21212,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>245.47</v>
-      </c>
-      <c r="C135" s="6">
-        <v>-1.3</v>
-      </c>
-      <c r="D135" s="6">
-        <v>5170</v>
-      </c>
-      <c r="E135" s="6">
-        <v>0</v>
-      </c>
-      <c r="F135" s="6">
-        <v>34.301000000000002</v>
-      </c>
-      <c r="G135" s="6">
-        <v>8</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -23539,27 +21228,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>247.41</v>
-      </c>
-      <c r="C136" s="9">
-        <v>8</v>
-      </c>
-      <c r="D136" s="9">
-        <v>1940</v>
-      </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
-      <c r="F136" s="9">
-        <v>18.779999999999998</v>
-      </c>
-      <c r="G136" s="9">
-        <v>8</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -23569,27 +21244,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>248.79999999999998</v>
-      </c>
-      <c r="C137" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="D137" s="6">
-        <v>1390</v>
-      </c>
-      <c r="E137" s="6">
-        <v>0</v>
-      </c>
-      <c r="F137" s="6">
-        <v>19.892000000000003</v>
-      </c>
-      <c r="G137" s="6">
-        <v>8</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -23599,27 +21260,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>251.9</v>
-      </c>
-      <c r="C138" s="9">
-        <v>0</v>
-      </c>
-      <c r="D138" s="9">
-        <v>3100</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-      <c r="F138" s="9">
-        <v>19.89</v>
-      </c>
-      <c r="G138" s="9">
-        <v>8</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -23629,27 +21276,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>254</v>
-      </c>
-      <c r="C139" s="6">
-        <v>-5.4</v>
-      </c>
-      <c r="D139" s="6">
-        <v>2100</v>
-      </c>
-      <c r="E139" s="6">
-        <v>0</v>
-      </c>
-      <c r="F139" s="6">
-        <v>31.23</v>
-      </c>
-      <c r="G139" s="6">
-        <v>8</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -23659,27 +21292,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>257.3</v>
-      </c>
-      <c r="C140" s="9">
-        <v>1</v>
-      </c>
-      <c r="D140" s="9">
-        <v>3300</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140" s="9">
-        <v>27.93</v>
-      </c>
-      <c r="G140" s="9">
-        <v>8</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -23689,27 +21308,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>258.5</v>
-      </c>
-      <c r="C141" s="6">
-        <v>-8.4</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E141" s="6">
-        <v>0</v>
-      </c>
-      <c r="F141" s="6">
-        <v>38.01</v>
-      </c>
-      <c r="G141" s="6">
-        <v>8</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -23719,27 +21324,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>260</v>
-      </c>
-      <c r="C142" s="9">
-        <v>7</v>
-      </c>
-      <c r="D142" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0</v>
-      </c>
-      <c r="F142" s="9">
-        <v>27.509999999999998</v>
-      </c>
-      <c r="G142" s="9">
-        <v>8</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -23749,27 +21340,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>262</v>
-      </c>
-      <c r="C143" s="6">
-        <v>-2</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E143" s="6">
-        <v>0</v>
-      </c>
-      <c r="F143" s="6">
-        <v>31.51</v>
-      </c>
-      <c r="G143" s="6">
-        <v>8</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -23779,27 +21356,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>264.7</v>
-      </c>
-      <c r="C144" s="9">
-        <v>-0.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>2700</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0</v>
-      </c>
-      <c r="F144" s="9">
-        <v>32.86</v>
-      </c>
-      <c r="G144" s="9">
-        <v>8</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -23809,27 +21372,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>267.59999999999997</v>
-      </c>
-      <c r="C145" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>2900</v>
-      </c>
-      <c r="E145" s="6">
-        <v>0</v>
-      </c>
-      <c r="F145" s="6">
-        <v>22.71</v>
-      </c>
-      <c r="G145" s="6">
-        <v>8</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -23839,27 +21388,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>268.75</v>
-      </c>
-      <c r="C146" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0</v>
-      </c>
-      <c r="F146" s="9">
-        <v>36.510000000000005</v>
-      </c>
-      <c r="G146" s="9">
-        <v>8</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -23869,27 +21404,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>270.02999999999997</v>
-      </c>
-      <c r="C147" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1280</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0</v>
-      </c>
-      <c r="F147" s="6">
-        <v>20.125999999999998</v>
-      </c>
-      <c r="G147" s="6">
-        <v>8</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -23899,27 +21420,13 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="11">
-        <v>276.29999999999995</v>
-      </c>
-      <c r="C148" s="9">
-        <v>0</v>
-      </c>
-      <c r="D148" s="9">
-        <v>6270</v>
-      </c>
-      <c r="E148" s="9">
-        <v>0</v>
-      </c>
-      <c r="F148" s="9">
-        <v>20.13</v>
-      </c>
-      <c r="G148" s="9">
-        <v>8</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -23929,27 +21436,13 @@
       <c r="A149" s="8">
         <v>147</v>
       </c>
-      <c r="B149" s="7">
-        <v>277.60000000000002</v>
-      </c>
-      <c r="C149" s="6">
-        <v>-13.3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E149" s="6">
-        <v>0</v>
-      </c>
-      <c r="F149" s="6">
-        <v>37.42</v>
-      </c>
-      <c r="G149" s="6">
-        <v>8</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -23959,27 +21452,13 @@
       <c r="A150" s="9">
         <v>148</v>
       </c>
-      <c r="B150" s="11">
-        <v>280.17</v>
-      </c>
-      <c r="C150" s="9">
-        <v>-2.1</v>
-      </c>
-      <c r="D150" s="9">
-        <v>2570</v>
-      </c>
-      <c r="E150" s="9">
-        <v>0</v>
-      </c>
-      <c r="F150" s="9">
-        <v>42.817</v>
-      </c>
-      <c r="G150" s="9">
-        <v>8</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
       <c r="K150" s="9"/>
@@ -23989,27 +21468,13 @@
       <c r="A151" s="8">
         <v>149</v>
       </c>
-      <c r="B151" s="7">
-        <v>281.40000000000003</v>
-      </c>
-      <c r="C151" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="D151" s="6">
-        <v>1230</v>
-      </c>
-      <c r="E151" s="6">
-        <v>0</v>
-      </c>
-      <c r="F151" s="6">
-        <v>32.365000000000002</v>
-      </c>
-      <c r="G151" s="6">
-        <v>8</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -24019,27 +21484,13 @@
       <c r="A152" s="9">
         <v>150</v>
       </c>
-      <c r="B152" s="11">
-        <v>283.89999999999998</v>
-      </c>
-      <c r="C152" s="9">
-        <v>-0.7</v>
-      </c>
-      <c r="D152" s="9">
-        <v>2500</v>
-      </c>
-      <c r="E152" s="9">
-        <v>0</v>
-      </c>
-      <c r="F152" s="9">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="G152" s="9">
-        <v>8</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -24049,27 +21500,13 @@
       <c r="A153" s="8">
         <v>151</v>
       </c>
-      <c r="B153" s="7">
-        <v>286.89999999999998</v>
-      </c>
-      <c r="C153" s="6">
-        <v>0</v>
-      </c>
-      <c r="D153" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E153" s="6">
-        <v>0</v>
-      </c>
-      <c r="F153" s="6">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="G153" s="6">
-        <v>8</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
@@ -24079,27 +21516,13 @@
       <c r="A154" s="9">
         <v>152</v>
       </c>
-      <c r="B154" s="11">
-        <v>288.2</v>
-      </c>
-      <c r="C154" s="9">
-        <v>8.9</v>
-      </c>
-      <c r="D154" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E154" s="9">
-        <v>0</v>
-      </c>
-      <c r="F154" s="9">
-        <v>22.549999999999997</v>
-      </c>
-      <c r="G154" s="9">
-        <v>8</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
       <c r="K154" s="9"/>
@@ -24109,27 +21532,13 @@
       <c r="A155" s="8">
         <v>153</v>
       </c>
-      <c r="B155" s="7">
-        <v>291.2</v>
-      </c>
-      <c r="C155" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D155" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E155" s="6">
-        <v>0</v>
-      </c>
-      <c r="F155" s="6">
-        <v>21.05</v>
-      </c>
-      <c r="G155" s="6">
-        <v>8</v>
-      </c>
-      <c r="H155" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -24139,27 +21548,13 @@
       <c r="A156" s="9">
         <v>154</v>
       </c>
-      <c r="B156" s="11">
-        <v>293</v>
-      </c>
-      <c r="C156" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="D156" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E156" s="9">
-        <v>0</v>
-      </c>
-      <c r="F156" s="9">
-        <v>14.57</v>
-      </c>
-      <c r="G156" s="9">
-        <v>8</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
@@ -24169,27 +21564,13 @@
       <c r="A157" s="8">
         <v>155</v>
       </c>
-      <c r="B157" s="7">
-        <v>294.8</v>
-      </c>
-      <c r="C157" s="6">
-        <v>0</v>
-      </c>
-      <c r="D157" s="6">
-        <v>1800</v>
-      </c>
-      <c r="E157" s="6">
-        <v>0</v>
-      </c>
-      <c r="F157" s="6">
-        <v>14.57</v>
-      </c>
-      <c r="G157" s="6">
-        <v>8</v>
-      </c>
-      <c r="H157" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -24199,27 +21580,13 @@
       <c r="A158" s="9">
         <v>156</v>
       </c>
-      <c r="B158" s="11">
-        <v>296.10000000000002</v>
-      </c>
-      <c r="C158" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="D158" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E158" s="9">
-        <v>0</v>
-      </c>
-      <c r="F158" s="9">
-        <v>10.93</v>
-      </c>
-      <c r="G158" s="9">
-        <v>8</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
@@ -24229,27 +21596,13 @@
       <c r="A159" s="8">
         <v>157</v>
       </c>
-      <c r="B159" s="7">
-        <v>299.3</v>
-      </c>
-      <c r="C159" s="6">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E159" s="6">
-        <v>0</v>
-      </c>
-      <c r="F159" s="6">
-        <v>10.93</v>
-      </c>
-      <c r="G159" s="6">
-        <v>8</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -24259,27 +21612,13 @@
       <c r="A160" s="9">
         <v>158</v>
       </c>
-      <c r="B160" s="11">
-        <v>300.5</v>
-      </c>
-      <c r="C160" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D160" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E160" s="9">
-        <v>0</v>
-      </c>
-      <c r="F160" s="9">
-        <v>9.129999999999999</v>
-      </c>
-      <c r="G160" s="9">
-        <v>8</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -24289,27 +21628,13 @@
       <c r="A161" s="8">
         <v>159</v>
       </c>
-      <c r="B161" s="7">
-        <v>302.10000000000002</v>
-      </c>
-      <c r="C161" s="6">
-        <v>0</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E161" s="6">
-        <v>0</v>
-      </c>
-      <c r="F161" s="6">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="G161" s="6">
-        <v>8</v>
-      </c>
-      <c r="H161" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -24319,27 +21644,13 @@
       <c r="A162" s="9">
         <v>160</v>
       </c>
-      <c r="B162" s="11">
-        <v>303.3</v>
-      </c>
-      <c r="C162" s="9">
-        <v>-2.5</v>
-      </c>
-      <c r="D162" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E162" s="9">
-        <v>0</v>
-      </c>
-      <c r="F162" s="9">
-        <v>12.13</v>
-      </c>
-      <c r="G162" s="9">
-        <v>8</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
@@ -24349,27 +21660,13 @@
       <c r="A163" s="8">
         <v>161</v>
       </c>
-      <c r="B163" s="7">
-        <v>304.27438699999999</v>
-      </c>
-      <c r="C163" s="6">
-        <v>-9.9</v>
-      </c>
-      <c r="D163" s="6">
-        <v>974.38699999999994</v>
-      </c>
-      <c r="E163" s="6">
-        <v>0</v>
-      </c>
-      <c r="F163" s="6">
-        <v>21.776431299999999</v>
-      </c>
-      <c r="G163" s="6">
-        <v>8</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -24379,27 +21676,13 @@
       <c r="A164" s="9">
         <v>162</v>
       </c>
-      <c r="B164" s="11">
-        <v>306.60000000000002</v>
-      </c>
-      <c r="C164" s="9">
-        <v>-9.9</v>
-      </c>
-      <c r="D164" s="9">
-        <v>2300</v>
-      </c>
-      <c r="E164" s="9">
-        <v>0</v>
-      </c>
-      <c r="F164" s="9">
-        <v>44.545999999999999</v>
-      </c>
-      <c r="G164" s="9">
-        <v>9</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B164" s="11"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
       <c r="K164" s="9"/>
@@ -24409,27 +21692,13 @@
       <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="7">
-        <v>308.10000000000002</v>
-      </c>
-      <c r="C165" s="6">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E165" s="6">
-        <v>0</v>
-      </c>
-      <c r="F165" s="6">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="G165" s="6">
-        <v>9</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -24439,27 +21708,13 @@
       <c r="A166" s="9">
         <v>164</v>
       </c>
-      <c r="B166" s="11">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="C166" s="9">
-        <v>13</v>
-      </c>
-      <c r="D166" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E166" s="9">
-        <v>0</v>
-      </c>
-      <c r="F166" s="9">
-        <v>27.049999999999997</v>
-      </c>
-      <c r="G166" s="9">
-        <v>9</v>
-      </c>
-      <c r="H166" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B166" s="11"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
@@ -24469,27 +21724,13 @@
       <c r="A167" s="8">
         <v>165</v>
       </c>
-      <c r="B167" s="7">
-        <v>312.10000000000002</v>
-      </c>
-      <c r="C167" s="6">
-        <v>-3.8</v>
-      </c>
-      <c r="D167" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E167" s="6">
-        <v>0</v>
-      </c>
-      <c r="F167" s="6">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="G167" s="6">
-        <v>9</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -24499,27 +21740,13 @@
       <c r="A168" s="9">
         <v>166</v>
       </c>
-      <c r="B168" s="11">
-        <v>315.3</v>
-      </c>
-      <c r="C168" s="9">
-        <v>7</v>
-      </c>
-      <c r="D168" s="9">
-        <v>3200</v>
-      </c>
-      <c r="E168" s="9">
-        <v>0</v>
-      </c>
-      <c r="F168" s="9">
-        <v>16.050000000000004</v>
-      </c>
-      <c r="G168" s="9">
-        <v>9</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B168" s="11"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -24529,27 +21756,13 @@
       <c r="A169" s="8">
         <v>167</v>
       </c>
-      <c r="B169" s="7">
-        <v>317</v>
-      </c>
-      <c r="C169" s="6">
-        <v>-2.4</v>
-      </c>
-      <c r="D169" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E169" s="6">
-        <v>0</v>
-      </c>
-      <c r="F169" s="6">
-        <v>20.130000000000003</v>
-      </c>
-      <c r="G169" s="6">
-        <v>9</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -24559,27 +21772,13 @@
       <c r="A170" s="9">
         <v>168</v>
       </c>
-      <c r="B170" s="11">
-        <v>318.39999999999998</v>
-      </c>
-      <c r="C170" s="9">
-        <v>-6.2</v>
-      </c>
-      <c r="D170" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E170" s="9">
-        <v>0</v>
-      </c>
-      <c r="F170" s="9">
-        <v>28.81</v>
-      </c>
-      <c r="G170" s="9">
-        <v>9</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
@@ -24589,27 +21788,13 @@
       <c r="A171" s="8">
         <v>169</v>
       </c>
-      <c r="B171" s="7">
-        <v>319.59999999999997</v>
-      </c>
-      <c r="C171" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D171" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E171" s="6">
-        <v>0</v>
-      </c>
-      <c r="F171" s="6">
-        <v>28.209999999999997</v>
-      </c>
-      <c r="G171" s="6">
-        <v>9</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B171" s="7"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -24619,27 +21804,13 @@
       <c r="A172" s="9">
         <v>170</v>
       </c>
-      <c r="B172" s="11">
-        <v>320.8</v>
-      </c>
-      <c r="C172" s="9">
-        <v>13.7</v>
-      </c>
-      <c r="D172" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E172" s="9">
-        <v>0</v>
-      </c>
-      <c r="F172" s="9">
-        <v>11.77</v>
-      </c>
-      <c r="G172" s="9">
-        <v>9</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
@@ -24649,27 +21820,13 @@
       <c r="A173" s="8">
         <v>171</v>
       </c>
-      <c r="B173" s="7">
-        <v>324.3</v>
-      </c>
-      <c r="C173" s="6">
-        <v>0</v>
-      </c>
-      <c r="D173" s="6">
-        <v>3500</v>
-      </c>
-      <c r="E173" s="6">
-        <v>0</v>
-      </c>
-      <c r="F173" s="6">
-        <v>11.77</v>
-      </c>
-      <c r="G173" s="6">
-        <v>9</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
@@ -24679,27 +21836,13 @@
       <c r="A174" s="9">
         <v>172</v>
       </c>
-      <c r="B174" s="11">
-        <v>326.10000000000002</v>
-      </c>
-      <c r="C174" s="9">
-        <v>-16.2</v>
-      </c>
-      <c r="D174" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E174" s="9">
-        <v>0</v>
-      </c>
-      <c r="F174" s="9">
-        <v>40.93</v>
-      </c>
-      <c r="G174" s="9">
-        <v>9</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
@@ -24709,27 +21852,13 @@
       <c r="A175" s="8">
         <v>173</v>
       </c>
-      <c r="B175" s="7">
-        <v>327.8</v>
-      </c>
-      <c r="C175" s="6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D175" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E175" s="6">
-        <v>0</v>
-      </c>
-      <c r="F175" s="6">
-        <v>13.050000000000004</v>
-      </c>
-      <c r="G175" s="6">
-        <v>9</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
@@ -24739,27 +21868,13 @@
       <c r="A176" s="9">
         <v>174</v>
       </c>
-      <c r="B176" s="11">
-        <v>328.79754400000002</v>
-      </c>
-      <c r="C176" s="9">
-        <v>-13.4</v>
-      </c>
-      <c r="D176" s="9">
-        <v>997.54399999999998</v>
-      </c>
-      <c r="E176" s="9">
-        <v>0</v>
-      </c>
-      <c r="F176" s="9">
-        <v>26.417089600000001</v>
-      </c>
-      <c r="G176" s="9">
-        <v>9</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -24769,27 +21884,13 @@
       <c r="A177" s="8">
         <v>175</v>
       </c>
-      <c r="B177" s="7">
-        <v>330.82492999999999</v>
-      </c>
-      <c r="C177" s="6">
-        <v>-13.4</v>
-      </c>
-      <c r="D177" s="6">
-        <v>2024.93</v>
-      </c>
-      <c r="E177" s="6">
-        <v>0</v>
-      </c>
-      <c r="F177" s="6">
-        <v>53.551062000000002</v>
-      </c>
-      <c r="G177" s="6">
-        <v>10</v>
-      </c>
-      <c r="H177" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
@@ -24799,27 +21900,13 @@
       <c r="A178" s="9">
         <v>176</v>
       </c>
-      <c r="B178" s="11">
-        <v>334</v>
-      </c>
-      <c r="C178" s="9">
-        <v>-13.4</v>
-      </c>
-      <c r="D178" s="9">
-        <v>0</v>
-      </c>
-      <c r="E178" s="9">
-        <v>0</v>
-      </c>
-      <c r="F178" s="9">
-        <v>53.551000000000002</v>
-      </c>
-      <c r="G178" s="9">
-        <v>11</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
@@ -24829,27 +21916,13 @@
       <c r="A179" s="8">
         <v>177</v>
       </c>
-      <c r="B179" s="7">
-        <v>334.55</v>
-      </c>
-      <c r="C179" s="6">
-        <v>-13.4</v>
-      </c>
-      <c r="D179" s="6">
-        <v>550</v>
-      </c>
-      <c r="E179" s="6">
-        <v>0</v>
-      </c>
-      <c r="F179" s="6">
-        <v>60.919999999999995</v>
-      </c>
-      <c r="G179" s="6">
-        <v>11</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -24859,27 +21932,13 @@
       <c r="A180" s="9">
         <v>178</v>
       </c>
-      <c r="B180" s="11">
-        <v>338.15000000000003</v>
-      </c>
-      <c r="C180" s="9">
-        <v>-10.1</v>
-      </c>
-      <c r="D180" s="9">
-        <v>3600</v>
-      </c>
-      <c r="E180" s="9">
-        <v>0</v>
-      </c>
-      <c r="F180" s="9">
-        <v>97.28</v>
-      </c>
-      <c r="G180" s="9">
-        <v>11</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
@@ -24889,27 +21948,13 @@
       <c r="A181" s="8">
         <v>179</v>
       </c>
-      <c r="B181" s="7">
-        <v>340.4</v>
-      </c>
-      <c r="C181" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="D181" s="6">
-        <v>2250</v>
-      </c>
-      <c r="E181" s="6">
-        <v>0</v>
-      </c>
-      <c r="F181" s="6">
-        <v>90.98</v>
-      </c>
-      <c r="G181" s="6">
-        <v>11</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -24919,27 +21964,13 @@
       <c r="A182" s="9">
         <v>180</v>
       </c>
-      <c r="B182" s="11">
-        <v>343.2</v>
-      </c>
-      <c r="C182" s="9">
-        <v>6.9</v>
-      </c>
-      <c r="D182" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E182" s="9">
-        <v>0</v>
-      </c>
-      <c r="F182" s="9">
-        <v>71.66</v>
-      </c>
-      <c r="G182" s="9">
-        <v>11</v>
-      </c>
-      <c r="H182" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
@@ -24949,27 +21980,13 @@
       <c r="A183" s="8">
         <v>181</v>
       </c>
-      <c r="B183" s="7">
-        <v>344.59999999999997</v>
-      </c>
-      <c r="C183" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="D183" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E183" s="6">
-        <v>0</v>
-      </c>
-      <c r="F183" s="6">
-        <v>57.8</v>
-      </c>
-      <c r="G183" s="6">
-        <v>11</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -24979,27 +21996,13 @@
       <c r="A184" s="9">
         <v>182</v>
       </c>
-      <c r="B184" s="11">
-        <v>349</v>
-      </c>
-      <c r="C184" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="D184" s="9">
-        <v>4400</v>
-      </c>
-      <c r="E184" s="9">
-        <v>0</v>
-      </c>
-      <c r="F184" s="9">
-        <v>36.679999999999993</v>
-      </c>
-      <c r="G184" s="9">
-        <v>11</v>
-      </c>
-      <c r="H184" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B184" s="11"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -25009,27 +22012,13 @@
       <c r="A185" s="8">
         <v>183</v>
       </c>
-      <c r="B185" s="7">
-        <v>350.55</v>
-      </c>
-      <c r="C185" s="6">
-        <v>-16.5</v>
-      </c>
-      <c r="D185" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E185" s="6">
-        <v>0</v>
-      </c>
-      <c r="F185" s="6">
-        <v>62.254999999999995</v>
-      </c>
-      <c r="G185" s="6">
-        <v>11</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B185" s="7"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -25039,27 +22028,13 @@
       <c r="A186" s="9">
         <v>184</v>
       </c>
-      <c r="B186" s="11">
-        <v>353.00800000000004</v>
-      </c>
-      <c r="C186" s="9">
-        <v>13</v>
-      </c>
-      <c r="D186" s="9">
-        <v>2458</v>
-      </c>
-      <c r="E186" s="9">
-        <v>0</v>
-      </c>
-      <c r="F186" s="9">
-        <v>30.305999999999997</v>
-      </c>
-      <c r="G186" s="9">
-        <v>11</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B186" s="11"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
@@ -25069,27 +22044,13 @@
       <c r="A187" s="8">
         <v>185</v>
       </c>
-      <c r="B187" s="7">
-        <v>355.40799999999996</v>
-      </c>
-      <c r="C187" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D187" s="6">
-        <v>2400</v>
-      </c>
-      <c r="E187" s="6">
-        <v>0</v>
-      </c>
-      <c r="F187" s="6">
-        <v>32.71</v>
-      </c>
-      <c r="G187" s="6">
-        <v>11</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B187" s="7"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -25099,27 +22060,13 @@
       <c r="A188" s="9">
         <v>186</v>
       </c>
-      <c r="B188" s="11">
-        <v>357.1</v>
-      </c>
-      <c r="C188" s="9">
-        <v>-4.0330000000000004</v>
-      </c>
-      <c r="D188" s="9">
-        <v>1692</v>
-      </c>
-      <c r="E188" s="9">
-        <v>0</v>
-      </c>
-      <c r="F188" s="9">
-        <v>39.533836000000001</v>
-      </c>
-      <c r="G188" s="9">
-        <v>11</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B188" s="11"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
@@ -25129,27 +22076,13 @@
       <c r="A189" s="8">
         <v>187</v>
       </c>
-      <c r="B189" s="7">
-        <v>358.04</v>
-      </c>
-      <c r="C189" s="6">
-        <v>19.477</v>
-      </c>
-      <c r="D189" s="6">
-        <v>940</v>
-      </c>
-      <c r="E189" s="6">
-        <v>0</v>
-      </c>
-      <c r="F189" s="6">
-        <v>21.221620000000001</v>
-      </c>
-      <c r="G189" s="6">
-        <v>11</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -25159,27 +22092,13 @@
       <c r="A190" s="9">
         <v>188</v>
       </c>
-      <c r="B190" s="11">
-        <v>358.73</v>
-      </c>
-      <c r="C190" s="9">
-        <v>2</v>
-      </c>
-      <c r="D190" s="9">
-        <v>690</v>
-      </c>
-      <c r="E190" s="9">
-        <v>0</v>
-      </c>
-      <c r="F190" s="9">
-        <v>19.84</v>
-      </c>
-      <c r="G190" s="9">
-        <v>11</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B190" s="11"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
@@ -25189,27 +22108,13 @@
       <c r="A191" s="8">
         <v>189</v>
       </c>
-      <c r="B191" s="7">
-        <v>358.738114</v>
-      </c>
-      <c r="C191" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="D191" s="6">
-        <v>8.1140000000000008</v>
-      </c>
-      <c r="E191" s="6">
-        <v>0</v>
-      </c>
-      <c r="F191" s="6">
-        <v>19.762917000000002</v>
-      </c>
-      <c r="G191" s="6">
-        <v>11</v>
-      </c>
-      <c r="H191" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -25219,27 +22124,13 @@
       <c r="A192" s="9">
         <v>190</v>
       </c>
-      <c r="B192" s="11">
-        <v>358.62490000000003</v>
-      </c>
-      <c r="C192" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="D192" s="9">
-        <v>884.9</v>
-      </c>
-      <c r="E192" s="9">
-        <v>0</v>
-      </c>
-      <c r="F192" s="9">
-        <v>11.356450000000002</v>
-      </c>
-      <c r="G192" s="9">
-        <v>12</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B192" s="11"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -25249,27 +22140,13 @@
       <c r="A193" s="8">
         <v>191</v>
       </c>
-      <c r="B193" s="7">
-        <v>363.80373700000001</v>
-      </c>
-      <c r="C193" s="6">
-        <v>0</v>
-      </c>
-      <c r="D193" s="6">
-        <v>5178.8370000000004</v>
-      </c>
-      <c r="E193" s="6">
-        <v>0</v>
-      </c>
-      <c r="F193" s="6">
-        <v>11.36</v>
-      </c>
-      <c r="G193" s="6">
-        <v>12</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -803,18 +803,10 @@
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
-        <v>136382.79</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6">
-        <v>139000</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
@@ -2717,13 +2709,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="6">
-        <v>2100</v>
+        <v>1697.5239999999999</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>31.952000000000002</v>
+        <v>31.97</v>
       </c>
       <c r="G71" s="6">
         <v>5</v>
@@ -2740,27 +2732,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>109.8</v>
-      </c>
-      <c r="C72" s="9">
-        <v>14.7</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
-      </c>
-      <c r="F72" s="9">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="G72" s="9">
-        <v>5</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2770,27 +2748,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>110.8</v>
-      </c>
-      <c r="C73" s="6">
-        <v>-6.165</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>48.75</v>
-      </c>
-      <c r="G73" s="6">
-        <v>5</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -2800,27 +2764,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>112</v>
-      </c>
-      <c r="C74" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
-        <v>41.35</v>
-      </c>
-      <c r="G74" s="9">
-        <v>5</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2830,27 +2780,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>113.9</v>
-      </c>
-      <c r="C75" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D75" s="6">
-        <v>3100</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6">
-        <v>43.06</v>
-      </c>
-      <c r="G75" s="6">
-        <v>5</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -2860,27 +2796,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>117</v>
-      </c>
-      <c r="C76" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="9">
-        <v>39.96</v>
-      </c>
-      <c r="G76" s="9">
-        <v>5</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2890,27 +2812,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>118.6</v>
-      </c>
-      <c r="C77" s="6">
-        <v>8</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4550</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
-        <v>15.16</v>
-      </c>
-      <c r="G77" s="6">
-        <v>5</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -2920,27 +2828,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>123.15</v>
-      </c>
-      <c r="C78" s="9">
-        <v>0</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3350</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="9">
-        <v>51.56</v>
-      </c>
-      <c r="G78" s="9">
-        <v>5</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -2950,27 +2844,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>126.5</v>
-      </c>
-      <c r="C79" s="6">
-        <v>18</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2300</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
-        <v>51.56</v>
-      </c>
-      <c r="G79" s="6">
-        <v>5</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -2980,27 +2860,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="C80" s="9">
-        <v>-18</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>92.96</v>
-      </c>
-      <c r="G80" s="9">
-        <v>5</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -3010,27 +2876,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="C81" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D81" s="6">
-        <v>3100</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
-        <v>58.76</v>
-      </c>
-      <c r="G81" s="6">
-        <v>5</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -3040,27 +2892,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="C82" s="9">
-        <v>-11.766999999999999</v>
-      </c>
-      <c r="D82" s="9">
-        <v>2350</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9">
-        <v>84.18</v>
-      </c>
-      <c r="G82" s="9">
-        <v>5</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -3070,27 +2908,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>136.15</v>
-      </c>
-      <c r="C83" s="6">
-        <v>-18</v>
-      </c>
-      <c r="D83" s="6">
-        <v>232.803</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
-        <v>56.53</v>
-      </c>
-      <c r="G83" s="6">
-        <v>5</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -3100,27 +2924,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>139</v>
-      </c>
-      <c r="C84" s="9">
-        <v>-18</v>
-      </c>
-      <c r="D84" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9">
-        <v>52.34</v>
-      </c>
-      <c r="G84" s="9">
-        <v>6</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -3130,27 +2940,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>140.5</v>
-      </c>
-      <c r="C85" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1499.998</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1</v>
-      </c>
-      <c r="F85" s="6">
-        <v>25.34</v>
-      </c>
-      <c r="G85" s="6">
-        <v>6</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -18071,18 +17867,10 @@
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
-        <v>136382.79</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6">
-        <v>139000</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="9">
@@ -19979,19 +19767,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>109.8</v>
+        <v>109.397524</v>
       </c>
       <c r="C71" s="6">
         <v>-1</v>
       </c>
       <c r="D71" s="6">
-        <v>2100</v>
+        <v>1697.5239999999999</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>34.052</v>
+        <v>33.667524</v>
       </c>
       <c r="G71" s="6">
         <v>5</v>
@@ -20008,27 +19796,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>110.8</v>
-      </c>
-      <c r="C72" s="9">
-        <v>-14.7</v>
-      </c>
-      <c r="D72" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>48.75</v>
-      </c>
-      <c r="G72" s="9">
-        <v>5</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -20038,27 +19812,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>112</v>
-      </c>
-      <c r="C73" s="6">
-        <v>6.165</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>41.352000000000004</v>
-      </c>
-      <c r="G73" s="6">
-        <v>5</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -20068,27 +19828,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>113.9</v>
-      </c>
-      <c r="C74" s="9">
-        <v>-0.9</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
-        <v>43.06</v>
-      </c>
-      <c r="G74" s="9">
-        <v>5</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -20098,27 +19844,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>117</v>
-      </c>
-      <c r="C75" s="6">
-        <v>1</v>
-      </c>
-      <c r="D75" s="6">
-        <v>3100</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>39.96</v>
-      </c>
-      <c r="G75" s="6">
-        <v>5</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -20128,27 +19860,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>118.6</v>
-      </c>
-      <c r="C76" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1600</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>15.16</v>
-      </c>
-      <c r="G76" s="9">
-        <v>5</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -20158,27 +19876,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>123.14999999999999</v>
-      </c>
-      <c r="C77" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4550</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>51.56</v>
-      </c>
-      <c r="G77" s="6">
-        <v>5</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -20188,27 +19892,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>126.5</v>
-      </c>
-      <c r="C78" s="9">
-        <v>0</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3350</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>51.56</v>
-      </c>
-      <c r="G78" s="9">
-        <v>5</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -20218,27 +19908,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="C79" s="6">
-        <v>-18</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2300</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <v>92.960000000000008</v>
-      </c>
-      <c r="G79" s="6">
-        <v>5</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -20248,27 +19924,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>130.70000000000002</v>
-      </c>
-      <c r="C80" s="9">
-        <v>18</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1900</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>58.759999999999991</v>
-      </c>
-      <c r="G80" s="9">
-        <v>5</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -20278,27 +19940,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>133.79999999999998</v>
-      </c>
-      <c r="C81" s="6">
-        <v>-8.1999999999999993</v>
-      </c>
-      <c r="D81" s="6">
-        <v>3100</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>84.179999999999993</v>
-      </c>
-      <c r="G81" s="6">
-        <v>5</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -20308,27 +19956,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>136.15</v>
-      </c>
-      <c r="C82" s="9">
-        <v>11.766999999999999</v>
-      </c>
-      <c r="D82" s="9">
-        <v>2350</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
-        <v>56.527550000000005</v>
-      </c>
-      <c r="G82" s="9">
-        <v>5</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -20338,27 +19972,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>136.382803</v>
-      </c>
-      <c r="C83" s="6">
-        <v>18</v>
-      </c>
-      <c r="D83" s="6">
-        <v>232.803</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>52.339545999999999</v>
-      </c>
-      <c r="G83" s="6">
-        <v>5</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -20368,27 +19988,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>140.5</v>
-      </c>
-      <c r="C84" s="9">
-        <v>18</v>
-      </c>
-      <c r="D84" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
-        <v>25.340000000000003</v>
-      </c>
-      <c r="G84" s="9">
-        <v>6</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -20398,27 +20004,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>141.99999800000001</v>
-      </c>
-      <c r="C85" s="6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1499.998</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="6">
-        <v>25.347499989999999</v>
-      </c>
-      <c r="G85" s="6">
-        <v>6</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1077,7 @@
         <v>802</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6">
         <v>850.11</v>
@@ -4764,7 +4764,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="9">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E138" s="9">
         <v>1</v>
@@ -4788,19 +4788,19 @@
         <v>137</v>
       </c>
       <c r="B139" s="7">
-        <v>702.4</v>
+        <v>703.1</v>
       </c>
       <c r="C139" s="6">
-        <v>3</v>
+        <v>14.5</v>
       </c>
       <c r="D139" s="6">
-        <v>700</v>
+        <v>3310</v>
       </c>
       <c r="E139" s="6">
         <v>1</v>
       </c>
       <c r="F139" s="6">
-        <v>1569.027</v>
+        <v>1571.13</v>
       </c>
       <c r="G139" s="6">
         <v>10</v>
@@ -4818,19 +4818,19 @@
         <v>138</v>
       </c>
       <c r="B140" s="11">
-        <v>703.1</v>
+        <v>706.41</v>
       </c>
       <c r="C140" s="9">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="D140" s="9">
-        <v>3310</v>
+        <v>8240</v>
       </c>
       <c r="E140" s="9">
         <v>1</v>
       </c>
       <c r="F140" s="9">
-        <v>1571.13</v>
+        <v>1619.13</v>
       </c>
       <c r="G140" s="9">
         <v>10</v>
@@ -4848,19 +4848,19 @@
         <v>139</v>
       </c>
       <c r="B141" s="7">
-        <v>706.41</v>
+        <v>714.65</v>
       </c>
       <c r="C141" s="6">
-        <v>23.5</v>
+        <v>-3</v>
       </c>
       <c r="D141" s="6">
-        <v>8240</v>
+        <v>4000</v>
       </c>
       <c r="E141" s="6">
         <v>1</v>
       </c>
       <c r="F141" s="6">
-        <v>1619.13</v>
+        <v>1812.77</v>
       </c>
       <c r="G141" s="6">
         <v>10</v>
@@ -4878,19 +4878,19 @@
         <v>140</v>
       </c>
       <c r="B142" s="11">
-        <v>714.65</v>
+        <v>718.65</v>
       </c>
       <c r="C142" s="9">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D142" s="9">
-        <v>4000</v>
+        <v>2250</v>
       </c>
       <c r="E142" s="9">
         <v>1</v>
       </c>
       <c r="F142" s="9">
-        <v>1812.77</v>
+        <v>1800.77</v>
       </c>
       <c r="G142" s="9">
         <v>10</v>
@@ -4908,19 +4908,19 @@
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>718.65</v>
+        <v>720.9</v>
       </c>
       <c r="C143" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>2250</v>
+        <v>1200</v>
       </c>
       <c r="E143" s="6">
         <v>1</v>
       </c>
       <c r="F143" s="6">
-        <v>1800.77</v>
+        <v>1803.02</v>
       </c>
       <c r="G143" s="6">
         <v>10</v>
@@ -4938,19 +4938,19 @@
         <v>142</v>
       </c>
       <c r="B144" s="11">
-        <v>720.9</v>
+        <v>722.1</v>
       </c>
       <c r="C144" s="9">
-        <v>3</v>
+        <v>23.5</v>
       </c>
       <c r="D144" s="9">
-        <v>1200</v>
+        <v>6430</v>
       </c>
       <c r="E144" s="9">
         <v>1</v>
       </c>
       <c r="F144" s="9">
-        <v>1803.02</v>
+        <v>1806.62</v>
       </c>
       <c r="G144" s="9">
         <v>10</v>
@@ -4968,19 +4968,19 @@
         <v>143</v>
       </c>
       <c r="B145" s="7">
-        <v>722.1</v>
+        <v>728.53</v>
       </c>
       <c r="C145" s="6">
-        <v>23.5</v>
+        <v>-3</v>
       </c>
       <c r="D145" s="6">
-        <v>6430</v>
+        <v>4185</v>
       </c>
       <c r="E145" s="6">
         <v>1</v>
       </c>
       <c r="F145" s="6">
-        <v>1806.62</v>
+        <v>1957.73</v>
       </c>
       <c r="G145" s="6">
         <v>10</v>
@@ -4998,19 +4998,19 @@
         <v>144</v>
       </c>
       <c r="B146" s="11">
-        <v>728.53</v>
+        <v>732.71500000000003</v>
       </c>
       <c r="C146" s="9">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="D146" s="9">
-        <v>4185</v>
+        <v>1265</v>
       </c>
       <c r="E146" s="9">
         <v>1</v>
       </c>
       <c r="F146" s="9">
-        <v>1957.73</v>
+        <v>1945.18</v>
       </c>
       <c r="G146" s="9">
         <v>10</v>
@@ -5028,19 +5028,19 @@
         <v>145</v>
       </c>
       <c r="B147" s="7">
-        <v>732.71500000000003</v>
+        <v>733.98</v>
       </c>
       <c r="C147" s="6">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="D147" s="6">
-        <v>1265</v>
+        <v>603</v>
       </c>
       <c r="E147" s="6">
         <v>1</v>
       </c>
       <c r="F147" s="6">
-        <v>1945.18</v>
+        <v>1942.02</v>
       </c>
       <c r="G147" s="6">
         <v>10</v>
@@ -5057,27 +5057,13 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="11">
-        <v>733.98</v>
-      </c>
-      <c r="C148" s="9">
-        <v>0</v>
-      </c>
-      <c r="D148" s="9">
-        <v>603</v>
-      </c>
-      <c r="E148" s="9">
-        <v>1</v>
-      </c>
-      <c r="F148" s="9">
-        <v>1942.02</v>
-      </c>
-      <c r="G148" s="9">
-        <v>10</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>
@@ -19259,7 +19245,7 @@
         <v>802</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
         <v>850.11</v>
@@ -22940,19 +22926,19 @@
         <v>136</v>
       </c>
       <c r="B138" s="11">
-        <v>702.4</v>
+        <v>703.1</v>
       </c>
       <c r="C138" s="9">
         <v>-3</v>
       </c>
       <c r="D138" s="9">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E138" s="9">
         <v>0</v>
       </c>
       <c r="F138" s="9">
-        <v>1569.027</v>
+        <v>1571.127</v>
       </c>
       <c r="G138" s="9">
         <v>10</v>
@@ -22970,19 +22956,19 @@
         <v>137</v>
       </c>
       <c r="B139" s="7">
-        <v>703.1</v>
+        <v>706.41</v>
       </c>
       <c r="C139" s="6">
-        <v>-3</v>
+        <v>-14.5</v>
       </c>
       <c r="D139" s="6">
-        <v>700</v>
+        <v>3310</v>
       </c>
       <c r="E139" s="6">
         <v>0</v>
       </c>
       <c r="F139" s="6">
-        <v>1571.127</v>
+        <v>1619.125</v>
       </c>
       <c r="G139" s="6">
         <v>10</v>
@@ -23000,19 +22986,19 @@
         <v>138</v>
       </c>
       <c r="B140" s="11">
-        <v>706.41</v>
+        <v>714.65</v>
       </c>
       <c r="C140" s="9">
-        <v>-14.5</v>
+        <v>-23.5</v>
       </c>
       <c r="D140" s="9">
-        <v>3310</v>
+        <v>8240</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
       </c>
       <c r="F140" s="9">
-        <v>1619.125</v>
+        <v>1812.77</v>
       </c>
       <c r="G140" s="9">
         <v>10</v>
@@ -23030,19 +23016,19 @@
         <v>139</v>
       </c>
       <c r="B141" s="7">
-        <v>714.65</v>
+        <v>718.65</v>
       </c>
       <c r="C141" s="6">
-        <v>-23.5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>8240</v>
+        <v>4000</v>
       </c>
       <c r="E141" s="6">
         <v>0</v>
       </c>
       <c r="F141" s="6">
-        <v>1812.77</v>
+        <v>1800.77</v>
       </c>
       <c r="G141" s="6">
         <v>10</v>
@@ -23060,19 +23046,19 @@
         <v>140</v>
       </c>
       <c r="B142" s="11">
-        <v>718.65</v>
+        <v>720.9</v>
       </c>
       <c r="C142" s="9">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D142" s="9">
-        <v>4000</v>
+        <v>2250</v>
       </c>
       <c r="E142" s="9">
         <v>0</v>
       </c>
       <c r="F142" s="9">
-        <v>1800.77</v>
+        <v>1803.02</v>
       </c>
       <c r="G142" s="9">
         <v>10</v>
@@ -23090,19 +23076,19 @@
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>720.9</v>
+        <v>722.1</v>
       </c>
       <c r="C143" s="6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D143" s="6">
-        <v>2250</v>
+        <v>1200</v>
       </c>
       <c r="E143" s="6">
         <v>0</v>
       </c>
       <c r="F143" s="6">
-        <v>1803.02</v>
+        <v>1806.62</v>
       </c>
       <c r="G143" s="6">
         <v>10</v>
@@ -23120,19 +23106,19 @@
         <v>142</v>
       </c>
       <c r="B144" s="11">
-        <v>722.1</v>
+        <v>728.53</v>
       </c>
       <c r="C144" s="9">
-        <v>-3</v>
+        <v>-23.5</v>
       </c>
       <c r="D144" s="9">
-        <v>1200</v>
+        <v>6430</v>
       </c>
       <c r="E144" s="9">
         <v>0</v>
       </c>
       <c r="F144" s="9">
-        <v>1806.62</v>
+        <v>1957.7249999999999</v>
       </c>
       <c r="G144" s="9">
         <v>10</v>
@@ -23150,19 +23136,19 @@
         <v>143</v>
       </c>
       <c r="B145" s="7">
-        <v>728.53</v>
+        <v>732.71499999999992</v>
       </c>
       <c r="C145" s="6">
-        <v>-23.5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>6430</v>
+        <v>4185</v>
       </c>
       <c r="E145" s="6">
         <v>0</v>
       </c>
       <c r="F145" s="6">
-        <v>1957.7249999999999</v>
+        <v>1945.175</v>
       </c>
       <c r="G145" s="6">
         <v>10</v>
@@ -23180,19 +23166,19 @@
         <v>144</v>
       </c>
       <c r="B146" s="11">
-        <v>732.71499999999992</v>
+        <v>733.98</v>
       </c>
       <c r="C146" s="9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D146" s="9">
-        <v>4185</v>
+        <v>1265</v>
       </c>
       <c r="E146" s="9">
         <v>0</v>
       </c>
       <c r="F146" s="9">
-        <v>1945.175</v>
+        <v>1942.0175000000002</v>
       </c>
       <c r="G146" s="9">
         <v>10</v>
@@ -23210,19 +23196,19 @@
         <v>145</v>
       </c>
       <c r="B147" s="7">
-        <v>733.98</v>
+        <v>734.58299999999997</v>
       </c>
       <c r="C147" s="6">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D147" s="6">
-        <v>1265</v>
+        <v>603</v>
       </c>
       <c r="E147" s="6">
         <v>0</v>
       </c>
       <c r="F147" s="6">
-        <v>1942.0175000000002</v>
+        <v>1942.02</v>
       </c>
       <c r="G147" s="6">
         <v>10</v>
@@ -23239,27 +23225,13 @@
       <c r="A148" s="9">
         <v>146</v>
       </c>
-      <c r="B148" s="11">
-        <v>734.58299999999997</v>
-      </c>
-      <c r="C148" s="9">
-        <v>0</v>
-      </c>
-      <c r="D148" s="9">
-        <v>603</v>
-      </c>
-      <c r="E148" s="9">
-        <v>0</v>
-      </c>
-      <c r="F148" s="9">
-        <v>1942.02</v>
-      </c>
-      <c r="G148" s="9">
-        <v>10</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
       <c r="K148" s="9"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,16 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D2K</t>
+    <t>AK</t>
   </si>
   <si>
-    <t>D4K</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>D1K</t>
+    <t>A1K</t>
   </si>
 </sst>
 </file>
@@ -564,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,19 +630,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>308.7</v>
+        <v>457</v>
       </c>
       <c r="C3" s="6">
-        <v>3.5</v>
+        <v>-10.9</v>
       </c>
       <c r="D3" s="6">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>486.959</v>
+        <v>948.274</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -657,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>356302.00699999998</v>
+        <v>481067.91</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>355240</v>
+        <v>454000</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -674,37 +668,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>311.45</v>
+        <v>459.2</v>
       </c>
       <c r="C4" s="9">
-        <v>15.5</v>
+        <v>-8</v>
       </c>
       <c r="D4" s="9">
-        <v>6450</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>496.584</v>
+        <v>924.29</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>370664.07400000002</v>
+        <v>462980.261</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>370800</v>
+        <v>465000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,238 +706,190 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>317.89999999999998</v>
+        <v>461.6</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D5" s="6">
-        <v>2850</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>596.55999999999995</v>
+        <v>905.09</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6">
-        <v>418878.37800000003</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="6">
-        <v>418890</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>320.75</v>
+        <v>463.4</v>
       </c>
       <c r="C6" s="9">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="D6" s="9">
-        <v>6050</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>607.96</v>
+        <v>897.89</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>430653.09019999998</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="9">
-        <v>432300</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>326.8</v>
+        <v>465.9</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="6">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>583.76</v>
+        <v>867.89</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6">
-        <v>497099.21</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6">
-        <v>497100</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>329.7</v>
+        <v>467.3</v>
       </c>
       <c r="C8" s="9">
-        <v>15.5</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D8" s="9">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>606.96</v>
+        <v>866.49</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9">
-        <v>602222.46900000004</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9">
-        <v>602000</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>334</v>
+        <v>474.1</v>
       </c>
       <c r="C9" s="6">
-        <v>4.2</v>
+        <v>-2.6</v>
       </c>
       <c r="D9" s="6">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>673.61</v>
+        <v>803.25</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6">
-        <v>630787.83900000004</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>631500</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>338.4</v>
+        <v>476</v>
       </c>
       <c r="C10" s="9">
-        <v>15.4994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>8300</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>692.09</v>
+        <v>798.31</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9">
-        <v>674131.946</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
-        <v>683900</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>346.7</v>
+        <v>478</v>
       </c>
       <c r="C11" s="6">
-        <v>8.5</v>
+        <v>-7</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -952,51 +898,43 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>820.74</v>
+        <v>798.31</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>702749.11499999999</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="6">
-        <v>702400</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>348.2</v>
+        <v>479.5</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.9996999999999998</v>
+        <v>-2.8</v>
       </c>
       <c r="D12" s="9">
-        <v>4450</v>
+        <v>1567.9059999999999</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>833.49</v>
+        <v>787.81</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1008,25 +946,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>352.65</v>
+        <v>481.06799999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>8.5</v>
+        <v>-2.8</v>
       </c>
       <c r="D13" s="6">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>820.14</v>
+        <v>783.42</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1038,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>353.85899999999998</v>
+        <v>454</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
+        <v>-2.8</v>
       </c>
       <c r="D14" s="9">
-        <v>1641</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>830.42</v>
+        <v>783.42</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
@@ -1068,22 +1006,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>355.5</v>
+        <v>456</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>802</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>850.11</v>
+        <v>777.82</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>14</v>
@@ -1098,25 +1036,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>356.30200000000002</v>
+        <v>460</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>850.11</v>
+        <v>777.82299999999998</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1128,25 +1066,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>355.24</v>
+        <v>461</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D17" s="6">
-        <v>3460</v>
+        <v>1980.25</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>850.11</v>
+        <v>777.82</v>
       </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1158,25 +1096,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>358.7</v>
+        <v>462.98</v>
       </c>
       <c r="C18" s="9">
-        <v>12</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D18" s="9">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>850.11</v>
+        <v>773.26499999999999</v>
       </c>
       <c r="G18" s="9">
         <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1188,25 +1126,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>360.18</v>
+        <v>465</v>
       </c>
       <c r="C19" s="6">
-        <v>15.5</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D19" s="6">
-        <v>4920</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>867.87</v>
+        <v>773.26499999999999</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1218,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>365.1</v>
+        <v>471</v>
       </c>
       <c r="C20" s="9">
-        <v>8.8004999999999995</v>
+        <v>-4</v>
       </c>
       <c r="D20" s="9">
-        <v>1303</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>944.13</v>
+        <v>759.47</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1248,25 +1186,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>366.40300000000002</v>
+        <v>475.7</v>
       </c>
       <c r="C21" s="6">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>4197</v>
+        <v>1200</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>955.6</v>
+        <v>740.67</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1278,25 +1216,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>370.6</v>
+        <v>476.9</v>
       </c>
       <c r="C22" s="9">
-        <v>-14.9</v>
+        <v>-4</v>
       </c>
       <c r="D22" s="9">
-        <v>64.055999999999997</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>943</v>
+        <v>740.67</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1308,25 +1246,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>370.66399999999999</v>
+        <v>483.1</v>
       </c>
       <c r="C23" s="6">
-        <v>-14.9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>942.04600000000005</v>
+        <v>715.87</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1338,25 +1276,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>370.8</v>
+        <v>486.1</v>
       </c>
       <c r="C24" s="9">
-        <v>-14.9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>942.04600000000005</v>
+        <v>715.87</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1368,25 +1306,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>373.2</v>
+        <v>488</v>
       </c>
       <c r="C25" s="6">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
       <c r="D25" s="6">
-        <v>2350</v>
+        <v>5900</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>906.29</v>
+        <v>719.67</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1398,25 +1336,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>375.55</v>
+        <v>493.9</v>
       </c>
       <c r="C26" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="9">
-        <v>1241</v>
+        <v>6600</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>894.54</v>
+        <v>704.92</v>
       </c>
       <c r="G26" s="9">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1428,25 +1366,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>376.791</v>
+        <v>500.5</v>
       </c>
       <c r="C27" s="6">
-        <v>15.5</v>
+        <v>-2</v>
       </c>
       <c r="D27" s="6">
-        <v>5309</v>
+        <v>2900</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>903.23</v>
+        <v>704.92</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1458,25 +1396,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>382.1</v>
+        <v>503.4</v>
       </c>
       <c r="C28" s="9">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>1601</v>
+        <v>4100</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>985.52</v>
+        <v>699.12</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1488,25 +1426,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>383.70100000000002</v>
+        <v>507.5</v>
       </c>
       <c r="C29" s="6">
-        <v>-6.2</v>
+        <v>3.5</v>
       </c>
       <c r="D29" s="6">
-        <v>1499</v>
+        <v>5500</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>994.33</v>
+        <v>699.12</v>
       </c>
       <c r="G29" s="6">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1518,25 +1456,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>385.2</v>
+        <v>513</v>
       </c>
       <c r="C30" s="9">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="9">
-        <v>4050</v>
+        <v>1700</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>985.04</v>
+        <v>718.37</v>
       </c>
       <c r="G30" s="9">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1548,25 +1486,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>389.25</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="C31" s="6">
-        <v>-4</v>
+        <v>5.5</v>
       </c>
       <c r="D31" s="6">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>922.27</v>
+        <v>718.37</v>
       </c>
       <c r="G31" s="6">
         <v>3</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1578,25 +1516,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>390.45</v>
+        <v>520</v>
       </c>
       <c r="C32" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
-        <v>1950</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>917.47</v>
+        <v>747.52</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1608,25 +1546,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>392.4</v>
+        <v>521.4</v>
       </c>
       <c r="C33" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D33" s="6">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>931.12</v>
+        <v>747.52</v>
       </c>
       <c r="G33" s="6">
         <v>3</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1638,25 +1576,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>396.5</v>
+        <v>522.9</v>
       </c>
       <c r="C34" s="9">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="D34" s="9">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>943.4</v>
+        <v>764.02</v>
       </c>
       <c r="G34" s="9">
         <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1668,25 +1606,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>400.9</v>
+        <v>524.79999999999995</v>
       </c>
       <c r="C35" s="6">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="D35" s="6">
-        <v>17978.38</v>
+        <v>1200.001</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>996.2</v>
+        <v>774.47</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1698,25 +1636,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>418.87799999999999</v>
+        <v>526</v>
       </c>
       <c r="C36" s="9">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>1274.865</v>
+        <v>786.46699999999998</v>
       </c>
       <c r="G36" s="9">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1728,25 +1666,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>418.89</v>
+        <v>528.29999999999995</v>
       </c>
       <c r="C37" s="6">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="D37" s="6">
-        <v>210</v>
+        <v>4100</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>1274.865</v>
+        <v>814.07</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1758,25 +1696,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>419.1</v>
+        <v>532.4</v>
       </c>
       <c r="C38" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="9">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>1278.1199999999999</v>
+        <v>850.97</v>
       </c>
       <c r="G38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1788,25 +1726,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>420.3</v>
+        <v>533.1</v>
       </c>
       <c r="C39" s="6">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D39" s="6">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>1287.72</v>
+        <v>855.17</v>
       </c>
       <c r="G39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1818,25 +1756,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>422.5</v>
+        <v>535</v>
       </c>
       <c r="C40" s="9">
-        <v>-14.8</v>
+        <v>-14</v>
       </c>
       <c r="D40" s="9">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>1278.92</v>
+        <v>843.77</v>
       </c>
       <c r="G40" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1848,25 +1786,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>424.5</v>
+        <v>535.6</v>
       </c>
       <c r="C41" s="6">
-        <v>-11.3</v>
+        <v>-4</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>1249.32</v>
+        <v>835.37</v>
       </c>
       <c r="G41" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -1878,25 +1816,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>426.2</v>
+        <v>536.4</v>
       </c>
       <c r="C42" s="9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D42" s="9">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>1230.1099999999999</v>
+        <v>832.17</v>
       </c>
       <c r="G42" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1908,25 +1846,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>430.6</v>
+        <v>540</v>
       </c>
       <c r="C43" s="6">
-        <v>3</v>
+        <v>-3.5</v>
       </c>
       <c r="D43" s="6">
-        <v>53.088000000000001</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>1230.1099999999999</v>
+        <v>803.37</v>
       </c>
       <c r="G43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -1938,25 +1876,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>430.65300000000002</v>
+        <v>542</v>
       </c>
       <c r="C44" s="9">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>1230.269</v>
+        <v>796.37</v>
       </c>
       <c r="G44" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1968,25 +1906,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>432.3</v>
+        <v>543.29999999999995</v>
       </c>
       <c r="C45" s="6">
-        <v>3</v>
+        <v>-3.8</v>
       </c>
       <c r="D45" s="6">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>1230.269</v>
+        <v>783.37</v>
       </c>
       <c r="G45" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -1998,25 +1936,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>435.7</v>
+        <v>548.20000000000005</v>
       </c>
       <c r="C46" s="9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D46" s="9">
-        <v>2480</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>1240.47</v>
+        <v>764.75</v>
       </c>
       <c r="G46" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2028,25 +1966,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>438.18</v>
+        <v>549.6</v>
       </c>
       <c r="C47" s="6">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="D47" s="6">
-        <v>6420</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>1233.03</v>
+        <v>763.35</v>
       </c>
       <c r="G47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2058,25 +1996,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>444.6</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="C48" s="9">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D48" s="9">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>1290.81</v>
+        <v>755.65</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2088,25 +2026,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>448.2</v>
+        <v>553.9</v>
       </c>
       <c r="C49" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49" s="6">
-        <v>3900</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>1280.01</v>
+        <v>752.45</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2118,25 +2056,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>452.1</v>
+        <v>554.9</v>
       </c>
       <c r="C50" s="9">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="D50" s="9">
-        <v>5300</v>
+        <v>600</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>1299.51</v>
+        <v>762.45</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2148,25 +2086,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>457.4</v>
+        <v>555.5</v>
       </c>
       <c r="C51" s="6">
-        <v>3.5</v>
+        <v>-10.3</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>1381.66</v>
+        <v>762.45</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2178,25 +2116,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>459.2</v>
+        <v>559</v>
       </c>
       <c r="C52" s="9">
-        <v>-4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="D52" s="9">
-        <v>2880</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>1387.96</v>
+        <v>726.4</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2208,25 +2146,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>462.08</v>
+        <v>562.5</v>
       </c>
       <c r="C53" s="6">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="D53" s="6">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>1375</v>
+        <v>721.15</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -2238,25 +2176,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>462.5</v>
+        <v>563.1</v>
       </c>
       <c r="C54" s="9">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D54" s="9">
-        <v>4750</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>1376.4680000000001</v>
+        <v>725.65</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2268,25 +2206,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>467.25</v>
+        <v>564.6</v>
       </c>
       <c r="C55" s="6">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D55" s="6">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>1393.09</v>
+        <v>725.65</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2298,25 +2236,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>469.75</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="C56" s="9">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="D56" s="9">
-        <v>1450</v>
+        <v>1900</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>1410.59</v>
+        <v>710.05</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2328,25 +2266,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>471.2</v>
+        <v>571.70000000000005</v>
       </c>
       <c r="C57" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>1433.79</v>
+        <v>706.25</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2358,25 +2296,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>472.6</v>
+        <v>572.9</v>
       </c>
       <c r="C58" s="9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D58" s="9">
-        <v>2850</v>
+        <v>900</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>1450.59</v>
+        <v>709.85</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2388,25 +2326,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>475.45</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="C59" s="6">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>2050</v>
+        <v>3450</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>1450.59</v>
+        <v>706.25</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2418,25 +2356,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>477.5</v>
+        <v>577.25</v>
       </c>
       <c r="C60" s="9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="9">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>1434.19</v>
+        <v>726.95</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2448,25 +2386,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>478.85</v>
+        <v>578.65</v>
       </c>
       <c r="C61" s="6">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="D61" s="6">
-        <v>2800</v>
+        <v>1650</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>1435.81</v>
+        <v>728.35</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2478,25 +2416,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>481.65</v>
+        <v>580.29999999999995</v>
       </c>
       <c r="C62" s="9">
         <v>3</v>
       </c>
       <c r="D62" s="9">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>1410.61</v>
+        <v>725.05</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2508,25 +2446,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>482.95</v>
+        <v>581</v>
       </c>
       <c r="C63" s="6">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D63" s="6">
-        <v>2220</v>
+        <v>1300</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>1414.51</v>
+        <v>727.15</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2538,25 +2476,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>485.17</v>
+        <v>582.29999999999995</v>
       </c>
       <c r="C64" s="9">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="D64" s="9">
-        <v>2630</v>
+        <v>1300</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>1437.82</v>
+        <v>742.75</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2568,25 +2506,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>487.8</v>
+        <v>583.6</v>
       </c>
       <c r="C65" s="6">
-        <v>-3.5</v>
+        <v>-6</v>
       </c>
       <c r="D65" s="6">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>1457.55</v>
+        <v>742.75</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -2598,25 +2536,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>491</v>
+        <v>584.79999999999995</v>
       </c>
       <c r="C66" s="9">
-        <v>-15.5</v>
+        <v>-2</v>
       </c>
       <c r="D66" s="9">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>1446.35</v>
+        <v>735.55</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2628,25 +2566,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>494.25</v>
+        <v>586.29999999999995</v>
       </c>
       <c r="C67" s="6">
-        <v>-3.5</v>
+        <v>-8.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>1395.98</v>
+        <v>732.55</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -2658,25 +2596,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>495.76</v>
+        <v>587.79999999999995</v>
       </c>
       <c r="C68" s="9">
-        <v>8.5</v>
+        <v>-2</v>
       </c>
       <c r="D68" s="9">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>1390.7</v>
+        <v>719.8</v>
       </c>
       <c r="G68" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2688,25 +2626,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>496.96</v>
+        <v>588.6</v>
       </c>
       <c r="C69" s="6">
-        <v>15.7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>139.227</v>
+        <v>700</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>1400.9</v>
+        <v>718.2</v>
       </c>
       <c r="G69" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -2718,25 +2656,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>497.09899999999999</v>
+        <v>589.29999999999995</v>
       </c>
       <c r="C70" s="9">
-        <v>15.7</v>
+        <v>-6</v>
       </c>
       <c r="D70" s="9">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>1403.086</v>
+        <v>722.4</v>
       </c>
       <c r="G70" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2748,25 +2686,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>497.1</v>
+        <v>592.5</v>
       </c>
       <c r="C71" s="6">
-        <v>15.7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="6">
-        <v>9050</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>1403.086</v>
+        <v>703.2</v>
       </c>
       <c r="G71" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -2778,25 +2716,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>506.15</v>
+        <v>593.70000000000005</v>
       </c>
       <c r="C72" s="9">
-        <v>11.5</v>
+        <v>2</v>
       </c>
       <c r="D72" s="9">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>1545.17</v>
+        <v>710.4</v>
       </c>
       <c r="G72" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2808,25 +2746,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>508.55</v>
+        <v>595</v>
       </c>
       <c r="C73" s="6">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="D73" s="6">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>1572.77</v>
+        <v>713</v>
       </c>
       <c r="G73" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -2838,25 +2776,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>509.45</v>
+        <v>597.9</v>
       </c>
       <c r="C74" s="9">
-        <v>3.6669999999999998</v>
+        <v>2</v>
       </c>
       <c r="D74" s="9">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>1579.52</v>
+        <v>753.6</v>
       </c>
       <c r="G74" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2868,25 +2806,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>510.35</v>
+        <v>598.6</v>
       </c>
       <c r="C75" s="6">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>1582.82</v>
+        <v>755</v>
       </c>
       <c r="G75" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -2898,25 +2836,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>511.25</v>
+        <v>599.1</v>
       </c>
       <c r="C76" s="9">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="D76" s="9">
-        <v>4300</v>
+        <v>900</v>
       </c>
       <c r="E76" s="9">
         <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>1579.22</v>
+        <v>751</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2928,25 +2866,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>515.54999999999995</v>
+        <v>600</v>
       </c>
       <c r="C77" s="6">
-        <v>-4.5</v>
+        <v>15.5</v>
       </c>
       <c r="D77" s="6">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>1510.42</v>
+        <v>754.6</v>
       </c>
       <c r="G77" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -2958,25 +2896,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>516.85</v>
+        <v>600.9</v>
       </c>
       <c r="C78" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D78" s="9">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="9">
-        <v>1504.57</v>
+        <v>768.55</v>
       </c>
       <c r="G78" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2988,25 +2926,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>519.25</v>
+        <v>602.29999999999995</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D79" s="6">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>1506.97</v>
+        <v>776.95</v>
       </c>
       <c r="G79" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -3018,25 +2956,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>520</v>
+        <v>604.4</v>
       </c>
       <c r="C80" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D80" s="9">
-        <v>2450</v>
+        <v>1000</v>
       </c>
       <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="9">
-        <v>1506.9580000000001</v>
+        <v>812.65</v>
       </c>
       <c r="G80" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3048,25 +2986,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>522.45000000000005</v>
+        <v>605.4</v>
       </c>
       <c r="C81" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D81" s="6">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <v>1506.96</v>
+        <v>820.65</v>
       </c>
       <c r="G81" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -3078,25 +3016,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>523.65</v>
+        <v>606.20000000000005</v>
       </c>
       <c r="C82" s="9">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D82" s="9">
-        <v>2650</v>
+        <v>500</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="9">
-        <v>1521.36</v>
+        <v>834.25</v>
       </c>
       <c r="G82" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3108,25 +3046,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>526.29999999999995</v>
+        <v>606.70000000000005</v>
       </c>
       <c r="C83" s="6">
-        <v>15.6</v>
+        <v>-7</v>
       </c>
       <c r="D83" s="6">
-        <v>6400</v>
+        <v>400</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
       </c>
       <c r="F83" s="6">
-        <v>1569.06</v>
+        <v>836.75</v>
       </c>
       <c r="G83" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -3138,25 +3076,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>532.70000000000005</v>
+        <v>607.1</v>
       </c>
       <c r="C84" s="9">
-        <v>9</v>
+        <v>-18.5</v>
       </c>
       <c r="D84" s="9">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="9">
-        <v>1668.9</v>
+        <v>833.95</v>
       </c>
       <c r="G84" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3168,25 +3106,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>533.9</v>
+        <v>609</v>
       </c>
       <c r="C85" s="6">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D85" s="6">
-        <v>8950</v>
+        <v>400</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>1679.7</v>
+        <v>798.8</v>
       </c>
       <c r="G85" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -3198,25 +3136,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>542.85</v>
+        <v>609.4</v>
       </c>
       <c r="C86" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="9">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="9">
-        <v>1652.85</v>
+        <v>796</v>
       </c>
       <c r="G86" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3228,25 +3166,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>544.75</v>
+        <v>609.9</v>
       </c>
       <c r="C87" s="6">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D87" s="6">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>1658.55</v>
+        <v>797</v>
       </c>
       <c r="G87" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -3258,25 +3196,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>546.65</v>
+        <v>610.9</v>
       </c>
       <c r="C88" s="9">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="9">
-        <v>4100</v>
+        <v>400</v>
       </c>
       <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="9">
-        <v>1641.45</v>
+        <v>789</v>
       </c>
       <c r="G88" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3288,25 +3226,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>550.75</v>
+        <v>611.29999999999995</v>
       </c>
       <c r="C89" s="6">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="D89" s="6">
-        <v>3850</v>
+        <v>1600</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <v>1620.95</v>
+        <v>790.6</v>
       </c>
       <c r="G89" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -3318,25 +3256,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>554.6</v>
+        <v>612.9</v>
       </c>
       <c r="C90" s="9">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D90" s="9">
-        <v>1990</v>
+        <v>700</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="9">
-        <v>1563.2</v>
+        <v>816.2</v>
       </c>
       <c r="G90" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3348,25 +3286,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>556.59</v>
+        <v>613.6</v>
       </c>
       <c r="C91" s="6">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="D91" s="6">
-        <v>2060</v>
+        <v>1200</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="6">
-        <v>1557.23</v>
+        <v>819</v>
       </c>
       <c r="G91" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -3378,25 +3316,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>558.65</v>
+        <v>614.79999999999995</v>
       </c>
       <c r="C92" s="9">
-        <v>-7.5</v>
+        <v>-18.2</v>
       </c>
       <c r="D92" s="9">
-        <v>2350</v>
+        <v>1200</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
       </c>
       <c r="F92" s="9">
-        <v>1563.41</v>
+        <v>809.4</v>
       </c>
       <c r="G92" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3408,25 +3346,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="C93" s="6">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D93" s="6">
-        <v>1950</v>
+        <v>400</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
       </c>
       <c r="F93" s="6">
-        <v>1545.79</v>
+        <v>787.56</v>
       </c>
       <c r="G93" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -3438,25 +3376,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>562.95000000000005</v>
+        <v>616.4</v>
       </c>
       <c r="C94" s="9">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D94" s="9">
-        <v>4650</v>
+        <v>2011.559</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
       </c>
       <c r="F94" s="9">
-        <v>1545.79</v>
+        <v>782.76</v>
       </c>
       <c r="G94" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3467,27 +3405,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>567.6</v>
-      </c>
-      <c r="C95" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6">
-        <v>1489.9939999999999</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -3497,27 +3421,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1476.79</v>
-      </c>
-      <c r="G96" s="9">
-        <v>6</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3527,27 +3437,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>570.9</v>
-      </c>
-      <c r="C97" s="6">
-        <v>4</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2861</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1476.79</v>
-      </c>
-      <c r="G97" s="6">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -3557,27 +3453,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>573.76099999999997</v>
-      </c>
-      <c r="C98" s="9">
-        <v>3</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4559</v>
-      </c>
-      <c r="E98" s="9">
-        <v>1</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1488.23</v>
-      </c>
-      <c r="G98" s="9">
-        <v>6</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3587,27 +3469,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>578.32000000000005</v>
-      </c>
-      <c r="C99" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1330</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1501.91</v>
-      </c>
-      <c r="G99" s="6">
-        <v>6</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -3617,27 +3485,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>579.65</v>
-      </c>
-      <c r="C100" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="D100" s="9">
-        <v>8400</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1489.94</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3647,27 +3501,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>588.04999999999995</v>
-      </c>
-      <c r="C101" s="6">
-        <v>-10.5</v>
-      </c>
-      <c r="D101" s="6">
-        <v>12550</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1359.74</v>
-      </c>
-      <c r="G101" s="6">
-        <v>6</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -3677,27 +3517,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>600.6</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
-      </c>
-      <c r="F102" s="9">
-        <v>1227.97</v>
-      </c>
-      <c r="G102" s="9">
-        <v>6</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3707,27 +3533,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>601.79999999999995</v>
-      </c>
-      <c r="C103" s="6">
-        <v>12</v>
-      </c>
-      <c r="D103" s="6">
-        <v>422.512</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1227.97</v>
-      </c>
-      <c r="G103" s="6">
-        <v>6</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -3737,27 +3549,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>602.22199999999998</v>
-      </c>
-      <c r="C104" s="9">
-        <v>12</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1233.04</v>
-      </c>
-      <c r="G104" s="9">
-        <v>6</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3767,27 +3565,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>602</v>
-      </c>
-      <c r="C105" s="6">
-        <v>12</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
-      <c r="F105" s="6">
-        <v>1233.04</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -3797,27 +3581,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>603.20000000000005</v>
-      </c>
-      <c r="C106" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="D106" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E106" s="9">
-        <v>1</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1247.44</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -3827,27 +3597,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>607.5</v>
-      </c>
-      <c r="C107" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1314.0889999999999</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -3857,27 +3613,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>612.9</v>
-      </c>
-      <c r="C108" s="9">
-        <v>8.6</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E108" s="9">
-        <v>1</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1397.79</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -3887,27 +3629,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>614.1</v>
-      </c>
-      <c r="C109" s="6">
-        <v>-3.4</v>
-      </c>
-      <c r="D109" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>1</v>
-      </c>
-      <c r="F109" s="6">
-        <v>1408.11</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -3917,27 +3645,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>619</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0</v>
-      </c>
-      <c r="D110" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E110" s="9">
-        <v>1</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1391.45</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -3947,27 +3661,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>622</v>
-      </c>
-      <c r="C111" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1391.45</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -3977,27 +3677,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>623.20000000000005</v>
-      </c>
-      <c r="C112" s="9">
-        <v>7</v>
-      </c>
-      <c r="D112" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E112" s="9">
-        <v>1</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1385.45</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -4007,27 +3693,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>624.70000000000005</v>
-      </c>
-      <c r="C113" s="6">
-        <v>14</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2610</v>
-      </c>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6">
-        <v>1395.95</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -4037,27 +3709,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>627.30999999999995</v>
-      </c>
-      <c r="C114" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3477.8150000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>1</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1432.49</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -4067,27 +3725,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>630.78800000000001</v>
-      </c>
-      <c r="C115" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>1</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G115" s="6">
-        <v>7</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -4097,27 +3741,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>631.5</v>
-      </c>
-      <c r="C116" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E116" s="9">
-        <v>1</v>
-      </c>
-      <c r="F116" s="9">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G116" s="9">
-        <v>8</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -4127,27 +3757,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>632.5</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E117" s="6">
-        <v>1</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1447.27</v>
-      </c>
-      <c r="G117" s="6">
-        <v>8</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -4157,27 +3773,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>633.54999999999995</v>
-      </c>
-      <c r="C118" s="9">
-        <v>-3.2109999999999999</v>
-      </c>
-      <c r="D118" s="9">
-        <v>950</v>
-      </c>
-      <c r="E118" s="9">
-        <v>1</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1447.27</v>
-      </c>
-      <c r="G118" s="9">
-        <v>8</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -4187,27 +3789,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>634.5</v>
-      </c>
-      <c r="C119" s="6">
-        <v>-3.2109999999999999</v>
-      </c>
-      <c r="D119" s="6">
-        <v>250</v>
-      </c>
-      <c r="E119" s="6">
-        <v>1</v>
-      </c>
-      <c r="F119" s="6">
-        <v>1444.2159999999999</v>
-      </c>
-      <c r="G119" s="6">
-        <v>8</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -4217,27 +3805,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>634.75</v>
-      </c>
-      <c r="C120" s="9">
-        <v>0</v>
-      </c>
-      <c r="D120" s="9">
-        <v>950</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
-      </c>
-      <c r="F120" s="9">
-        <v>1443.41</v>
-      </c>
-      <c r="G120" s="9">
-        <v>8</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -4247,27 +3821,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>635.70000000000005</v>
-      </c>
-      <c r="C121" s="6">
-        <v>12</v>
-      </c>
-      <c r="D121" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
-      <c r="F121" s="6">
-        <v>1443.41</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -4277,27 +3837,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>636.9</v>
-      </c>
-      <c r="C122" s="9">
-        <v>17.3</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E122" s="9">
-        <v>1</v>
-      </c>
-      <c r="F122" s="9">
-        <v>1457.81</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -4307,27 +3853,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>638.75</v>
-      </c>
-      <c r="C123" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="D123" s="6">
-        <v>20350</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1</v>
-      </c>
-      <c r="F123" s="6">
-        <v>1489.82</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -4337,27 +3869,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>659.1</v>
-      </c>
-      <c r="C124" s="9">
-        <v>5</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>1</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1805.25</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -4367,27 +3885,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>660.5</v>
-      </c>
-      <c r="C125" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8950</v>
-      </c>
-      <c r="E125" s="6">
-        <v>1</v>
-      </c>
-      <c r="F125" s="6">
-        <v>1812.25</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -4397,27 +3901,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>669.45</v>
-      </c>
-      <c r="C126" s="9">
-        <v>-18</v>
-      </c>
-      <c r="D126" s="9">
-        <v>3950</v>
-      </c>
-      <c r="E126" s="9">
-        <v>1</v>
-      </c>
-      <c r="F126" s="9">
-        <v>1749.6</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -4427,27 +3917,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>673.4</v>
-      </c>
-      <c r="C127" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D127" s="6">
-        <v>731.91300000000001</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1</v>
-      </c>
-      <c r="F127" s="6">
-        <v>1678.5</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -4457,27 +3933,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>674.13199999999995</v>
-      </c>
-      <c r="C128" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G128" s="9">
-        <v>8</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -4487,27 +3949,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>683.9</v>
-      </c>
-      <c r="C129" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D129" s="6">
-        <v>400</v>
-      </c>
-      <c r="E129" s="6">
-        <v>1</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G129" s="6">
-        <v>9</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -4517,27 +3965,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>684.3</v>
-      </c>
-      <c r="C130" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D130" s="9">
-        <v>100</v>
-      </c>
-      <c r="E130" s="9">
-        <v>1</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1664.91</v>
-      </c>
-      <c r="G130" s="9">
-        <v>9</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -4547,27 +3981,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>684.4</v>
-      </c>
-      <c r="C131" s="6">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3600</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1663.71</v>
-      </c>
-      <c r="G131" s="6">
-        <v>9</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -4577,27 +3997,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>688</v>
-      </c>
-      <c r="C132" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E132" s="9">
-        <v>1</v>
-      </c>
-      <c r="F132" s="9">
-        <v>1663.71</v>
-      </c>
-      <c r="G132" s="9">
-        <v>9</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -4607,27 +4013,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>689.8</v>
-      </c>
-      <c r="C133" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1900</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1684.23</v>
-      </c>
-      <c r="G133" s="6">
-        <v>9</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -4637,27 +4029,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>691.7</v>
-      </c>
-      <c r="C134" s="9">
-        <v>-13.5</v>
-      </c>
-      <c r="D134" s="9">
-        <v>6900</v>
-      </c>
-      <c r="E134" s="9">
-        <v>1</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1678.53</v>
-      </c>
-      <c r="G134" s="9">
-        <v>9</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -4667,27 +4045,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>698.6</v>
-      </c>
-      <c r="C135" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6">
-        <v>1585.38</v>
-      </c>
-      <c r="G135" s="6">
-        <v>9</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -4697,27 +4061,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>701.8</v>
-      </c>
-      <c r="C136" s="9">
-        <v>3</v>
-      </c>
-      <c r="D136" s="9">
-        <v>949.13699999999994</v>
-      </c>
-      <c r="E136" s="9">
-        <v>1</v>
-      </c>
-      <c r="F136" s="9">
-        <v>1566.18</v>
-      </c>
-      <c r="G136" s="9">
-        <v>9</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -4727,27 +4077,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>702.74900000000002</v>
-      </c>
-      <c r="C137" s="6">
-        <v>3</v>
-      </c>
-      <c r="D137" s="6">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
-        <v>0</v>
-      </c>
-      <c r="F137" s="6">
-        <v>1569.027</v>
-      </c>
-      <c r="G137" s="6">
-        <v>9</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -4757,27 +4093,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>702.4</v>
-      </c>
-      <c r="C138" s="9">
-        <v>3</v>
-      </c>
-      <c r="D138" s="9">
-        <v>700</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1</v>
-      </c>
-      <c r="F138" s="9">
-        <v>1569.027</v>
-      </c>
-      <c r="G138" s="9">
-        <v>10</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -4787,27 +4109,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>703.1</v>
-      </c>
-      <c r="C139" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="D139" s="6">
-        <v>3310</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1571.13</v>
-      </c>
-      <c r="G139" s="6">
-        <v>10</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -4817,27 +4125,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>706.41</v>
-      </c>
-      <c r="C140" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="D140" s="9">
-        <v>8240</v>
-      </c>
-      <c r="E140" s="9">
-        <v>1</v>
-      </c>
-      <c r="F140" s="9">
-        <v>1619.13</v>
-      </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -4847,27 +4141,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>714.65</v>
-      </c>
-      <c r="C141" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1</v>
-      </c>
-      <c r="F141" s="6">
-        <v>1812.77</v>
-      </c>
-      <c r="G141" s="6">
-        <v>10</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -4877,27 +4157,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>718.65</v>
-      </c>
-      <c r="C142" s="9">
-        <v>1</v>
-      </c>
-      <c r="D142" s="9">
-        <v>2250</v>
-      </c>
-      <c r="E142" s="9">
-        <v>1</v>
-      </c>
-      <c r="F142" s="9">
-        <v>1800.77</v>
-      </c>
-      <c r="G142" s="9">
-        <v>10</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -4907,27 +4173,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>720.9</v>
-      </c>
-      <c r="C143" s="6">
-        <v>3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E143" s="6">
-        <v>1</v>
-      </c>
-      <c r="F143" s="6">
-        <v>1803.02</v>
-      </c>
-      <c r="G143" s="6">
-        <v>10</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -4937,27 +4189,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>722.1</v>
-      </c>
-      <c r="C144" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>6430</v>
-      </c>
-      <c r="E144" s="9">
-        <v>1</v>
-      </c>
-      <c r="F144" s="9">
-        <v>1806.62</v>
-      </c>
-      <c r="G144" s="9">
-        <v>10</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -4967,27 +4205,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>728.53</v>
-      </c>
-      <c r="C145" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D145" s="6">
-        <v>4185</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="6">
-        <v>1957.73</v>
-      </c>
-      <c r="G145" s="6">
-        <v>10</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -4997,27 +4221,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>732.71500000000003</v>
-      </c>
-      <c r="C146" s="9">
-        <v>-2.5</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1265</v>
-      </c>
-      <c r="E146" s="9">
-        <v>1</v>
-      </c>
-      <c r="F146" s="9">
-        <v>1945.18</v>
-      </c>
-      <c r="G146" s="9">
-        <v>10</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -5027,27 +4237,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>733.98</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6">
-        <v>603</v>
-      </c>
-      <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1942.02</v>
-      </c>
-      <c r="G147" s="6">
-        <v>10</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -18804,19 +18000,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>311.45</v>
+        <v>459.2</v>
       </c>
       <c r="C3" s="6">
-        <v>-3.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="6">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>496.584</v>
+        <v>924.29399999999998</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18825,13 +18021,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>356302.00699999998</v>
+        <v>481067.91</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>355240</v>
+        <v>454000</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -18842,37 +18038,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>317.89999999999998</v>
+        <v>461.59999999999997</v>
       </c>
       <c r="C4" s="9">
-        <v>-15.5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
-        <v>6450</v>
+        <v>2400</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>596.55899999999997</v>
+        <v>905.08999999999992</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>370664.07400000002</v>
+        <v>462980.261</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>370800</v>
+        <v>465000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18880,238 +18076,190 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>320.75</v>
+        <v>463.40000000000003</v>
       </c>
       <c r="C5" s="6">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>2850</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>607.95999999999992</v>
+        <v>897.89</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6">
-        <v>418878.37800000003</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="6">
-        <v>418890</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>326.8</v>
+        <v>465.9</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" s="9">
-        <v>6050</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>583.76</v>
+        <v>867.89</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>430653.09019999998</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="9">
-        <v>432300</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>329.7</v>
+        <v>467.29999999999995</v>
       </c>
       <c r="C7" s="6">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>606.96</v>
+        <v>866.49</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6">
-        <v>497099.21</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6">
-        <v>497100</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>334</v>
+        <v>474.1</v>
       </c>
       <c r="C8" s="9">
-        <v>-15.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D8" s="9">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>673.61</v>
+        <v>803.25</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9">
-        <v>602222.46900000004</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9">
-        <v>602000</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>338.4</v>
+        <v>476</v>
       </c>
       <c r="C9" s="6">
-        <v>-4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D9" s="6">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>692.09</v>
+        <v>798.31</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="6">
-        <v>630787.83900000004</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>631500</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>346.7</v>
+        <v>478</v>
       </c>
       <c r="C10" s="9">
-        <v>-15.4994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>8300</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>820.73502000000008</v>
+        <v>798.31</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9">
-        <v>674131.946</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
-        <v>683900</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>348.2</v>
+        <v>479.5</v>
       </c>
       <c r="C11" s="6">
-        <v>-8.5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -19120,51 +18268,43 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>833.49</v>
+        <v>787.81</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>702749.11499999999</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="6">
-        <v>702400</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>352.65</v>
+        <v>481.06790599999999</v>
       </c>
       <c r="C12" s="9">
-        <v>2.9996999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="D12" s="9">
-        <v>4450</v>
+        <v>1567.9059999999999</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>820.14133500000003</v>
+        <v>783.4198631999999</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -19176,25 +18316,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>353.85899999999998</v>
+        <v>454</v>
       </c>
       <c r="C13" s="6">
-        <v>-8.5</v>
+        <v>2.8</v>
       </c>
       <c r="D13" s="6">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>830.41650000000004</v>
+        <v>783.42</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -19206,22 +18346,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>355.5</v>
+        <v>456</v>
       </c>
       <c r="C14" s="9">
-        <v>-12</v>
+        <v>2.8</v>
       </c>
       <c r="D14" s="9">
-        <v>1641</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>850.11199999999997</v>
+        <v>777.81999999999994</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
@@ -19236,22 +18376,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>356.30200000000002</v>
+        <v>460</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>802</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>850.11</v>
+        <v>777.82</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>14</v>
@@ -19266,25 +18406,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>355.24</v>
+        <v>461</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
       <c r="F16" s="9">
-        <v>850.11</v>
+        <v>777.82299999999998</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -19296,25 +18436,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>358.7</v>
+        <v>462.98025000000001</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D17" s="6">
-        <v>3460</v>
+        <v>1980.25</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>850.11</v>
+        <v>773.26542500000005</v>
       </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -19326,25 +18466,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>360.18</v>
+        <v>465</v>
       </c>
       <c r="C18" s="9">
-        <v>-12</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D18" s="9">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>867.87</v>
+        <v>773.26499999999999</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -19356,25 +18496,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>365.1</v>
+        <v>471</v>
       </c>
       <c r="C19" s="6">
-        <v>-15.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D19" s="6">
-        <v>4920</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>944.13</v>
+        <v>759.46500000000003</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -19386,25 +18526,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>366.40300000000002</v>
+        <v>475.7</v>
       </c>
       <c r="C20" s="9">
-        <v>-8.8004999999999995</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9">
-        <v>1303</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>955.59705150000002</v>
+        <v>740.67000000000007</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -19416,25 +18556,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>370.6</v>
+        <v>476.9</v>
       </c>
       <c r="C21" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>4197</v>
+        <v>1200</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>943.00900000000001</v>
+        <v>740.67</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -19446,25 +18586,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>370.66405600000002</v>
+        <v>483.09999999999997</v>
       </c>
       <c r="C22" s="9">
-        <v>14.9</v>
+        <v>4</v>
       </c>
       <c r="D22" s="9">
-        <v>64.055999999999997</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>942.04556560000003</v>
+        <v>715.87</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -19476,25 +18616,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>370.8</v>
+        <v>486.1</v>
       </c>
       <c r="C23" s="6">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>942.04600000000005</v>
+        <v>715.87</v>
       </c>
       <c r="G23" s="6">
         <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -19506,25 +18646,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>373.2</v>
+        <v>488</v>
       </c>
       <c r="C24" s="9">
-        <v>14.9</v>
+        <v>-2</v>
       </c>
       <c r="D24" s="9">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>906.28600000000006</v>
+        <v>719.67</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -19536,25 +18676,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>375.55</v>
+        <v>493.9</v>
       </c>
       <c r="C25" s="6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D25" s="6">
-        <v>2350</v>
+        <v>5900</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>894.54</v>
+        <v>704.92</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -19566,25 +18706,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>376.791</v>
+        <v>500.5</v>
       </c>
       <c r="C26" s="9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="9">
-        <v>1241</v>
+        <v>6600</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>903.22699999999998</v>
+        <v>704.92</v>
       </c>
       <c r="G26" s="9">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -19596,25 +18736,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>382.1</v>
+        <v>503.4</v>
       </c>
       <c r="C27" s="6">
-        <v>-15.5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="6">
-        <v>5309</v>
+        <v>2900</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>985.51949999999999</v>
+        <v>699.12</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -19626,25 +18766,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>383.70100000000002</v>
+        <v>507.5</v>
       </c>
       <c r="C28" s="9">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>1601</v>
+        <v>4100</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>994.32550000000003</v>
+        <v>699.12</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -19656,25 +18796,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>385.20000000000005</v>
+        <v>513</v>
       </c>
       <c r="C29" s="6">
-        <v>6.2</v>
+        <v>-3.5</v>
       </c>
       <c r="D29" s="6">
-        <v>1499</v>
+        <v>5500</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>985.03620000000001</v>
+        <v>718.37</v>
       </c>
       <c r="G29" s="6">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -19686,25 +18826,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>389.25</v>
+        <v>514.70000000000005</v>
       </c>
       <c r="C30" s="9">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="9">
-        <v>4050</v>
+        <v>1700</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>922.26499999999999</v>
+        <v>718.37</v>
       </c>
       <c r="G30" s="9">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -19716,25 +18856,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>390.45</v>
+        <v>520</v>
       </c>
       <c r="C31" s="6">
-        <v>4</v>
+        <v>-5.5</v>
       </c>
       <c r="D31" s="6">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>917.47</v>
+        <v>747.52</v>
       </c>
       <c r="G31" s="6">
         <v>3</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -19746,25 +18886,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>392.4</v>
+        <v>521.4</v>
       </c>
       <c r="C32" s="9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D32" s="9">
-        <v>1950</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>931.12</v>
+        <v>747.52</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -19776,25 +18916,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>396.5</v>
+        <v>522.9</v>
       </c>
       <c r="C33" s="6">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="D33" s="6">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>943.42</v>
+        <v>764.02</v>
       </c>
       <c r="G33" s="6">
         <v>3</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -19806,25 +18946,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>400.9</v>
+        <v>524.79999999999995</v>
       </c>
       <c r="C34" s="9">
-        <v>-12</v>
+        <v>-5.5</v>
       </c>
       <c r="D34" s="9">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>996.19999999999993</v>
+        <v>774.47</v>
       </c>
       <c r="G34" s="9">
         <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -19836,25 +18976,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>418.87837999999999</v>
+        <v>526.000001</v>
       </c>
       <c r="C35" s="6">
-        <v>-15.5</v>
+        <v>-10</v>
       </c>
       <c r="D35" s="6">
-        <v>17978.38</v>
+        <v>1200.001</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>1274.8648900000001</v>
+        <v>786.47001</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -19866,25 +19006,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>418.89</v>
+        <v>528.29999999999995</v>
       </c>
       <c r="C36" s="9">
-        <v>-15.5</v>
+        <v>-12</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>1274.865</v>
+        <v>814.06700000000001</v>
       </c>
       <c r="G36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -19896,25 +19036,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>419.09999999999997</v>
+        <v>532.4</v>
       </c>
       <c r="C37" s="6">
-        <v>-15.5</v>
+        <v>-9</v>
       </c>
       <c r="D37" s="6">
-        <v>210</v>
+        <v>4100</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>1278.1200000000001</v>
+        <v>850.97</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -19926,25 +19066,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>420.3</v>
+        <v>533.1</v>
       </c>
       <c r="C38" s="9">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D38" s="9">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>1287.7199999999998</v>
+        <v>855.17000000000007</v>
       </c>
       <c r="G38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -19956,25 +19096,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>422.5</v>
+        <v>535</v>
       </c>
       <c r="C39" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>1278.92</v>
+        <v>843.77</v>
       </c>
       <c r="G39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -19986,25 +19126,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>424.5</v>
+        <v>535.6</v>
       </c>
       <c r="C40" s="9">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="9">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>1249.3200000000002</v>
+        <v>835.37</v>
       </c>
       <c r="G40" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -20016,25 +19156,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>426.2</v>
+        <v>536.4</v>
       </c>
       <c r="C41" s="6">
-        <v>11.3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>1230.1099999999999</v>
+        <v>832.17</v>
       </c>
       <c r="G41" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -20046,25 +19186,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>430.59999999999997</v>
+        <v>540</v>
       </c>
       <c r="C42" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D42" s="9">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>1230.1099999999999</v>
+        <v>803.37</v>
       </c>
       <c r="G42" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -20076,25 +19216,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>430.65308800000003</v>
+        <v>542</v>
       </c>
       <c r="C43" s="6">
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="D43" s="6">
-        <v>53.088000000000001</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>1230.2692639999998</v>
+        <v>796.37</v>
       </c>
       <c r="G43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -20106,25 +19246,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>432.3</v>
+        <v>543.29999999999995</v>
       </c>
       <c r="C44" s="9">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>1230.269</v>
+        <v>783.37</v>
       </c>
       <c r="G44" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -20136,25 +19276,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>435.7</v>
+        <v>548.19999999999993</v>
       </c>
       <c r="C45" s="6">
-        <v>-3</v>
+        <v>3.8</v>
       </c>
       <c r="D45" s="6">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>1240.4690000000001</v>
+        <v>764.75</v>
       </c>
       <c r="G45" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -20166,25 +19306,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>438.18</v>
+        <v>549.6</v>
       </c>
       <c r="C46" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9">
-        <v>2480</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>1233.03</v>
+        <v>763.35</v>
       </c>
       <c r="G46" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -20196,25 +19336,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>444.6</v>
+        <v>550.70000000000005</v>
       </c>
       <c r="C47" s="6">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="D47" s="6">
-        <v>6420</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>1290.81</v>
+        <v>755.65</v>
       </c>
       <c r="G47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -20226,25 +19366,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>448.20000000000005</v>
+        <v>553.90000000000009</v>
       </c>
       <c r="C48" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" s="9">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>1280.01</v>
+        <v>752.44999999999993</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -20256,25 +19396,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>452.09999999999997</v>
+        <v>554.9</v>
       </c>
       <c r="C49" s="6">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="D49" s="6">
-        <v>3900</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>1299.51</v>
+        <v>762.45</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -20286,25 +19426,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>457.40000000000003</v>
+        <v>555.5</v>
       </c>
       <c r="C50" s="9">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="D50" s="9">
-        <v>5300</v>
+        <v>600</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>1381.66</v>
+        <v>762.45</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -20316,25 +19456,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>459.2</v>
+        <v>559</v>
       </c>
       <c r="C51" s="6">
-        <v>-3.5</v>
+        <v>10.3</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>1387.96</v>
+        <v>726.40000000000009</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -20346,25 +19486,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>462.08</v>
+        <v>562.5</v>
       </c>
       <c r="C52" s="9">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D52" s="9">
-        <v>2880</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>1375</v>
+        <v>721.15</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -20376,25 +19516,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>462.5</v>
+        <v>563.1</v>
       </c>
       <c r="C53" s="6">
-        <v>-3.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D53" s="6">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>1376.47</v>
+        <v>725.65</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -20406,25 +19546,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>467.25</v>
+        <v>564.6</v>
       </c>
       <c r="C54" s="9">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="D54" s="9">
-        <v>4750</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>1393.0930000000001</v>
+        <v>725.65</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -20436,25 +19576,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>469.75</v>
+        <v>569.80000000000007</v>
       </c>
       <c r="C55" s="6">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>1410.59</v>
+        <v>710.05</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -20466,25 +19606,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>471.2</v>
+        <v>571.69999999999993</v>
       </c>
       <c r="C56" s="9">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="D56" s="9">
-        <v>1450</v>
+        <v>1900</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>1433.79</v>
+        <v>706.25</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -20496,25 +19636,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>472.59999999999997</v>
+        <v>572.90000000000009</v>
       </c>
       <c r="C57" s="6">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="D57" s="6">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>1450.59</v>
+        <v>709.85</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -20526,25 +19666,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>475.45000000000005</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="C58" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58" s="9">
-        <v>2850</v>
+        <v>900</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>1450.59</v>
+        <v>706.25</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -20556,25 +19696,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>477.5</v>
+        <v>577.25</v>
       </c>
       <c r="C59" s="6">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="D59" s="6">
-        <v>2050</v>
+        <v>3450</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>1434.1899999999998</v>
+        <v>726.95</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -20586,25 +19726,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>478.85</v>
+        <v>578.65</v>
       </c>
       <c r="C60" s="9">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="D60" s="9">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>1435.81</v>
+        <v>728.35</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -20616,25 +19756,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>481.65000000000003</v>
+        <v>580.29999999999995</v>
       </c>
       <c r="C61" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D61" s="6">
-        <v>2800</v>
+        <v>1650</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>1410.61</v>
+        <v>725.05000000000007</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -20646,25 +19786,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>482.95</v>
+        <v>581</v>
       </c>
       <c r="C62" s="9">
         <v>-3</v>
       </c>
       <c r="D62" s="9">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>1414.51</v>
+        <v>727.15</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -20676,25 +19816,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>485.17</v>
+        <v>582.29999999999995</v>
       </c>
       <c r="C63" s="6">
-        <v>-10.5</v>
+        <v>-12</v>
       </c>
       <c r="D63" s="6">
-        <v>2220</v>
+        <v>1300</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>1437.82</v>
+        <v>742.75</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -20706,25 +19846,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>487.8</v>
+        <v>583.59999999999991</v>
       </c>
       <c r="C64" s="9">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="D64" s="9">
-        <v>2630</v>
+        <v>1300</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>1457.5449999999998</v>
+        <v>742.75</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -20736,25 +19876,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>491</v>
+        <v>584.80000000000007</v>
       </c>
       <c r="C65" s="6">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>1446.35</v>
+        <v>735.55</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -20766,25 +19906,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>494.25</v>
+        <v>586.29999999999995</v>
       </c>
       <c r="C66" s="9">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
-        <v>3250</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>1395.9749999999999</v>
+        <v>732.55</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -20796,25 +19936,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>495.76</v>
+        <v>587.79999999999995</v>
       </c>
       <c r="C67" s="6">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>1390.6949999999999</v>
+        <v>719.8</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -20826,25 +19966,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>496.96</v>
+        <v>588.59999999999991</v>
       </c>
       <c r="C68" s="9">
-        <v>-8.5</v>
+        <v>2</v>
       </c>
       <c r="D68" s="9">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>1400.9</v>
+        <v>718.19999999999993</v>
       </c>
       <c r="G68" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -20856,25 +19996,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>497.09922699999998</v>
+        <v>589.30000000000007</v>
       </c>
       <c r="C69" s="6">
-        <v>-15.7</v>
+        <v>-6</v>
       </c>
       <c r="D69" s="6">
-        <v>139.227</v>
+        <v>700</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>1403.0858639</v>
+        <v>722.40000000000009</v>
       </c>
       <c r="G69" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -20886,25 +20026,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>497.1</v>
+        <v>592.5</v>
       </c>
       <c r="C70" s="9">
-        <v>-15.7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="9">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>1403.086</v>
+        <v>703.19999999999993</v>
       </c>
       <c r="G70" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -20916,25 +20056,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>506.15000000000003</v>
+        <v>593.70000000000005</v>
       </c>
       <c r="C71" s="6">
-        <v>-15.7</v>
+        <v>-6</v>
       </c>
       <c r="D71" s="6">
-        <v>9050</v>
+        <v>1200</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>1545.171</v>
+        <v>710.40000000000009</v>
       </c>
       <c r="G71" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -20946,25 +20086,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>508.54999999999995</v>
+        <v>595</v>
       </c>
       <c r="C72" s="9">
-        <v>-11.5</v>
+        <v>-2</v>
       </c>
       <c r="D72" s="9">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>1572.77</v>
+        <v>713</v>
       </c>
       <c r="G72" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -20976,25 +20116,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>509.45</v>
+        <v>597.9</v>
       </c>
       <c r="C73" s="6">
-        <v>-7.5</v>
+        <v>-14</v>
       </c>
       <c r="D73" s="6">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>1579.52</v>
+        <v>753.6</v>
       </c>
       <c r="G73" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -21006,25 +20146,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>510.34999999999997</v>
+        <v>598.6</v>
       </c>
       <c r="C74" s="9">
-        <v>-3.6669999999999998</v>
+        <v>-2</v>
       </c>
       <c r="D74" s="9">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>1582.8203000000001</v>
+        <v>755</v>
       </c>
       <c r="G74" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -21036,25 +20176,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>511.25</v>
+        <v>599.1</v>
       </c>
       <c r="C75" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>1579.22</v>
+        <v>751</v>
       </c>
       <c r="G75" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -21066,25 +20206,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>515.54999999999995</v>
+        <v>600</v>
       </c>
       <c r="C76" s="9">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="D76" s="9">
-        <v>4300</v>
+        <v>900</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>1510.42</v>
+        <v>754.6</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -21096,25 +20236,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>516.84999999999991</v>
+        <v>600.9</v>
       </c>
       <c r="C77" s="6">
-        <v>4.5</v>
+        <v>-15.5</v>
       </c>
       <c r="D77" s="6">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <v>1504.5700000000002</v>
+        <v>768.55000000000007</v>
       </c>
       <c r="G77" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -21126,25 +20266,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>519.25</v>
+        <v>602.29999999999995</v>
       </c>
       <c r="C78" s="9">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D78" s="9">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <v>1506.97</v>
+        <v>776.94999999999993</v>
       </c>
       <c r="G78" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -21156,25 +20296,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>520</v>
+        <v>604.4</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="D79" s="6">
-        <v>750</v>
+        <v>2100</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <v>1506.97</v>
+        <v>812.65000000000009</v>
       </c>
       <c r="G79" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -21186,25 +20326,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>522.45000000000005</v>
+        <v>605.4</v>
       </c>
       <c r="C80" s="9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D80" s="9">
-        <v>2450</v>
+        <v>1000</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <v>1506.9580000000001</v>
+        <v>820.65</v>
       </c>
       <c r="G80" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -21216,25 +20356,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>523.65000000000009</v>
+        <v>606.19999999999993</v>
       </c>
       <c r="C81" s="6">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="D81" s="6">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <v>1521.3600000000001</v>
+        <v>834.25</v>
       </c>
       <c r="G81" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -21246,25 +20386,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>526.29999999999995</v>
+        <v>606.70000000000005</v>
       </c>
       <c r="C82" s="9">
-        <v>-18</v>
+        <v>-5</v>
       </c>
       <c r="D82" s="9">
-        <v>2650</v>
+        <v>500</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>1569.06</v>
+        <v>836.75</v>
       </c>
       <c r="G82" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -21276,25 +20416,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>532.69999999999993</v>
+        <v>607.1</v>
       </c>
       <c r="C83" s="6">
-        <v>-15.6</v>
+        <v>7</v>
       </c>
       <c r="D83" s="6">
-        <v>6400</v>
+        <v>400</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>1668.8999999999999</v>
+        <v>833.95</v>
       </c>
       <c r="G83" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -21306,25 +20446,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>533.90000000000009</v>
+        <v>609</v>
       </c>
       <c r="C84" s="9">
-        <v>-9</v>
+        <v>18.5</v>
       </c>
       <c r="D84" s="9">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>1679.7</v>
+        <v>798.80000000000007</v>
       </c>
       <c r="G84" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -21336,25 +20476,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>542.85</v>
+        <v>609.4</v>
       </c>
       <c r="C85" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D85" s="6">
-        <v>8950</v>
+        <v>400</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <v>1652.8500000000001</v>
+        <v>796</v>
       </c>
       <c r="G85" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -21366,25 +20506,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>544.75</v>
+        <v>609.9</v>
       </c>
       <c r="C86" s="9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D86" s="9">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <v>1658.55</v>
+        <v>797</v>
       </c>
       <c r="G86" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -21396,25 +20536,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>546.65</v>
+        <v>610.9</v>
       </c>
       <c r="C87" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="6">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <v>1641.45</v>
+        <v>789</v>
       </c>
       <c r="G87" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -21426,25 +20566,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>550.75</v>
+        <v>611.29999999999995</v>
       </c>
       <c r="C88" s="9">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D88" s="9">
-        <v>4100</v>
+        <v>400</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <v>1620.95</v>
+        <v>790.6</v>
       </c>
       <c r="G88" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -21456,25 +20596,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>554.6</v>
+        <v>612.9</v>
       </c>
       <c r="C89" s="6">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="D89" s="6">
-        <v>3850</v>
+        <v>1600</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <v>1563.2</v>
+        <v>816.2</v>
       </c>
       <c r="G89" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -21486,25 +20626,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>556.59</v>
+        <v>613.6</v>
       </c>
       <c r="C90" s="9">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D90" s="9">
-        <v>1990</v>
+        <v>700</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <v>1557.23</v>
+        <v>819</v>
       </c>
       <c r="G90" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -21516,25 +20656,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>558.65</v>
+        <v>614.80000000000007</v>
       </c>
       <c r="C91" s="6">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="D91" s="6">
-        <v>2060</v>
+        <v>1200</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="6">
-        <v>1563.41</v>
+        <v>809.4</v>
       </c>
       <c r="G91" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -21546,25 +20686,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="C92" s="9">
-        <v>7.5</v>
+        <v>18.2</v>
       </c>
       <c r="D92" s="9">
-        <v>2350</v>
+        <v>1200</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <v>1545.7850000000001</v>
+        <v>787.56</v>
       </c>
       <c r="G92" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -21576,25 +20716,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>562.95000000000005</v>
+        <v>616.4</v>
       </c>
       <c r="C93" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D93" s="6">
-        <v>1950</v>
+        <v>400</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <v>1545.79</v>
+        <v>782.76</v>
       </c>
       <c r="G93" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -21606,25 +20746,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>567.6</v>
+        <v>618.41155900000001</v>
       </c>
       <c r="C94" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D94" s="9">
-        <v>4650</v>
+        <v>2011.559</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <v>1489.99</v>
+        <v>782.76</v>
       </c>
       <c r="G94" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -21635,27 +20775,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="C95" s="6">
-        <v>12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <v>1476.7939999999999</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -21665,27 +20791,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>570.90000000000009</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1476.79</v>
-      </c>
-      <c r="G96" s="9">
-        <v>6</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -21695,27 +20807,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>573.76099999999997</v>
-      </c>
-      <c r="C97" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2861</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1488.2339999999999</v>
-      </c>
-      <c r="G97" s="6">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -21725,27 +20823,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>578.31999999999994</v>
-      </c>
-      <c r="C98" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4559</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1501.9069999999999</v>
-      </c>
-      <c r="G98" s="9">
-        <v>6</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -21755,27 +20839,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>579.65000000000009</v>
-      </c>
-      <c r="C99" s="6">
-        <v>9</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1330</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1489.94</v>
-      </c>
-      <c r="G99" s="6">
-        <v>6</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -21785,27 +20855,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>588.04999999999995</v>
-      </c>
-      <c r="C100" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="D100" s="9">
-        <v>8400</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1359.74</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -21815,27 +20871,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>600.59999999999991</v>
-      </c>
-      <c r="C101" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="D101" s="6">
-        <v>12550</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1227.9649999999999</v>
-      </c>
-      <c r="G101" s="6">
-        <v>6</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -21845,27 +20887,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>601.80000000000007</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>1227.97</v>
-      </c>
-      <c r="G102" s="9">
-        <v>6</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -21875,27 +20903,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>602.22251199999994</v>
-      </c>
-      <c r="C103" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D103" s="6">
-        <v>422.512</v>
-      </c>
-      <c r="E103" s="6">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1233.0401440000001</v>
-      </c>
-      <c r="G103" s="6">
-        <v>6</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -21905,27 +20919,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>602</v>
-      </c>
-      <c r="C104" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>1</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1233.04</v>
-      </c>
-      <c r="G104" s="9">
-        <v>7</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -21935,27 +20935,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>603.20000000000005</v>
-      </c>
-      <c r="C105" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <v>1247.44</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -21965,27 +20951,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>607.5</v>
-      </c>
-      <c r="C106" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="D106" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1314.0900000000001</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -21995,27 +20967,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>612.9</v>
-      </c>
-      <c r="C107" s="6">
-        <v>-15.5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1397.789</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -22025,27 +20983,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>614.1</v>
-      </c>
-      <c r="C108" s="9">
-        <v>-8.6</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1408.11</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -22055,27 +20999,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>619</v>
-      </c>
-      <c r="C109" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="D109" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0</v>
-      </c>
-      <c r="F109" s="6">
-        <v>1391.4499999999998</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -22085,27 +21015,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>622</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0</v>
-      </c>
-      <c r="D110" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1391.45</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -22115,27 +21031,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>623.20000000000005</v>
-      </c>
-      <c r="C111" s="6">
-        <v>5</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1385.45</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -22145,27 +21047,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>624.70000000000005</v>
-      </c>
-      <c r="C112" s="9">
-        <v>-7</v>
-      </c>
-      <c r="D112" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1395.95</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -22175,27 +21063,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>627.31000000000006</v>
-      </c>
-      <c r="C113" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2610</v>
-      </c>
-      <c r="E113" s="6">
-        <v>0</v>
-      </c>
-      <c r="F113" s="6">
-        <v>1432.49</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -22205,27 +21079,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>630.78781499999991</v>
-      </c>
-      <c r="C114" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3477.8150000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1443.9667895</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -22235,27 +21095,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>631.5</v>
-      </c>
-      <c r="C115" s="6">
-        <v>-3.3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G115" s="6">
-        <v>8</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -22265,27 +21111,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>632.5</v>
-      </c>
-      <c r="C116" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
-        <v>1447.2670000000001</v>
-      </c>
-      <c r="G116" s="9">
-        <v>8</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -22295,27 +21127,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>633.54999999999995</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1447.27</v>
-      </c>
-      <c r="G117" s="6">
-        <v>8</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -22325,27 +21143,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>634.5</v>
-      </c>
-      <c r="C118" s="9">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="D118" s="9">
-        <v>950</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1444.21955</v>
-      </c>
-      <c r="G118" s="9">
-        <v>8</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -22355,27 +21159,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>634.75</v>
-      </c>
-      <c r="C119" s="6">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="D119" s="6">
-        <v>250</v>
-      </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
-      <c r="F119" s="6">
-        <v>1443.4132499999998</v>
-      </c>
-      <c r="G119" s="6">
-        <v>8</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -22385,27 +21175,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>635.70000000000005</v>
-      </c>
-      <c r="C120" s="9">
-        <v>0</v>
-      </c>
-      <c r="D120" s="9">
-        <v>950</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
-        <v>1443.41</v>
-      </c>
-      <c r="G120" s="9">
-        <v>8</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -22415,27 +21191,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>636.90000000000009</v>
-      </c>
-      <c r="C121" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D121" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E121" s="6">
-        <v>0</v>
-      </c>
-      <c r="F121" s="6">
-        <v>1457.8100000000002</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -22445,27 +21207,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>638.75</v>
-      </c>
-      <c r="C122" s="9">
-        <v>-17.3</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
-        <v>1489.8150000000001</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -22475,27 +21223,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>659.1</v>
-      </c>
-      <c r="C123" s="6">
-        <v>-15.5</v>
-      </c>
-      <c r="D123" s="6">
-        <v>20350</v>
-      </c>
-      <c r="E123" s="6">
-        <v>0</v>
-      </c>
-      <c r="F123" s="6">
-        <v>1805.2449999999999</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -22505,27 +21239,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>660.5</v>
-      </c>
-      <c r="C124" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1812.25</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -22535,27 +21255,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>669.45</v>
-      </c>
-      <c r="C125" s="6">
-        <v>7</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8950</v>
-      </c>
-      <c r="E125" s="6">
-        <v>0</v>
-      </c>
-      <c r="F125" s="6">
-        <v>1749.6</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -22565,27 +21271,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>673.40000000000009</v>
-      </c>
-      <c r="C126" s="9">
-        <v>18</v>
-      </c>
-      <c r="D126" s="9">
-        <v>3950</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>1678.5</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -22595,27 +21287,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>674.13191299999994</v>
-      </c>
-      <c r="C127" s="6">
-        <v>12</v>
-      </c>
-      <c r="D127" s="6">
-        <v>731.91300000000001</v>
-      </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
-      <c r="F127" s="6">
-        <v>1669.717044</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -22625,27 +21303,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>683.9</v>
-      </c>
-      <c r="C128" s="9">
-        <v>12</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G128" s="9">
-        <v>9</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -22655,27 +21319,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>684.3</v>
-      </c>
-      <c r="C129" s="6">
-        <v>12</v>
-      </c>
-      <c r="D129" s="6">
-        <v>400</v>
-      </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1664.9170000000001</v>
-      </c>
-      <c r="G129" s="6">
-        <v>9</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -22685,27 +21335,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>684.4</v>
-      </c>
-      <c r="C130" s="9">
-        <v>12</v>
-      </c>
-      <c r="D130" s="9">
-        <v>100</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1663.71</v>
-      </c>
-      <c r="G130" s="9">
-        <v>9</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -22715,27 +21351,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>688</v>
-      </c>
-      <c r="C131" s="6">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3600</v>
-      </c>
-      <c r="E131" s="6">
-        <v>0</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1663.71</v>
-      </c>
-      <c r="G131" s="6">
-        <v>9</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -22745,27 +21367,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>689.8</v>
-      </c>
-      <c r="C132" s="9">
-        <v>-11.4</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132" s="9">
-        <v>1684.23</v>
-      </c>
-      <c r="G132" s="9">
-        <v>9</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -22775,27 +21383,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>691.69999999999993</v>
-      </c>
-      <c r="C133" s="6">
-        <v>3</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1900</v>
-      </c>
-      <c r="E133" s="6">
-        <v>0</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1678.53</v>
-      </c>
-      <c r="G133" s="6">
-        <v>9</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -22805,27 +21399,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>698.6</v>
-      </c>
-      <c r="C134" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="D134" s="9">
-        <v>6900</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1585.3799999999999</v>
-      </c>
-      <c r="G134" s="9">
-        <v>9</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -22835,27 +21415,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>701.80000000000007</v>
-      </c>
-      <c r="C135" s="6">
-        <v>6</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E135" s="6">
-        <v>0</v>
-      </c>
-      <c r="F135" s="6">
-        <v>1566.18</v>
-      </c>
-      <c r="G135" s="6">
-        <v>9</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -22865,27 +21431,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>702.74913699999991</v>
-      </c>
-      <c r="C136" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D136" s="9">
-        <v>949.13699999999994</v>
-      </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
-      <c r="F136" s="9">
-        <v>1569.027411</v>
-      </c>
-      <c r="G136" s="9">
-        <v>9</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -22895,27 +21447,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>702.4</v>
-      </c>
-      <c r="C137" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D137" s="6">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6">
-        <v>1569.027</v>
-      </c>
-      <c r="G137" s="6">
-        <v>10</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -22925,27 +21463,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>703.1</v>
-      </c>
-      <c r="C138" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D138" s="9">
-        <v>700</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-      <c r="F138" s="9">
-        <v>1571.127</v>
-      </c>
-      <c r="G138" s="9">
-        <v>10</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -22955,27 +21479,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>706.41</v>
-      </c>
-      <c r="C139" s="6">
-        <v>-14.5</v>
-      </c>
-      <c r="D139" s="6">
-        <v>3310</v>
-      </c>
-      <c r="E139" s="6">
-        <v>0</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1619.125</v>
-      </c>
-      <c r="G139" s="6">
-        <v>10</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -22985,27 +21495,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>714.65</v>
-      </c>
-      <c r="C140" s="9">
-        <v>-23.5</v>
-      </c>
-      <c r="D140" s="9">
-        <v>8240</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140" s="9">
-        <v>1812.77</v>
-      </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -23015,27 +21511,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>718.65</v>
-      </c>
-      <c r="C141" s="6">
-        <v>3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E141" s="6">
-        <v>0</v>
-      </c>
-      <c r="F141" s="6">
-        <v>1800.77</v>
-      </c>
-      <c r="G141" s="6">
-        <v>10</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -23045,27 +21527,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>720.9</v>
-      </c>
-      <c r="C142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D142" s="9">
-        <v>2250</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0</v>
-      </c>
-      <c r="F142" s="9">
-        <v>1803.02</v>
-      </c>
-      <c r="G142" s="9">
-        <v>10</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -23075,27 +21543,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>722.1</v>
-      </c>
-      <c r="C143" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E143" s="6">
-        <v>0</v>
-      </c>
-      <c r="F143" s="6">
-        <v>1806.62</v>
-      </c>
-      <c r="G143" s="6">
-        <v>10</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -23105,27 +21559,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>728.53</v>
-      </c>
-      <c r="C144" s="9">
-        <v>-23.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>6430</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0</v>
-      </c>
-      <c r="F144" s="9">
-        <v>1957.7249999999999</v>
-      </c>
-      <c r="G144" s="9">
-        <v>10</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -23135,27 +21575,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>732.71499999999992</v>
-      </c>
-      <c r="C145" s="6">
-        <v>3</v>
-      </c>
-      <c r="D145" s="6">
-        <v>4185</v>
-      </c>
-      <c r="E145" s="6">
-        <v>0</v>
-      </c>
-      <c r="F145" s="6">
-        <v>1945.175</v>
-      </c>
-      <c r="G145" s="6">
-        <v>10</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -23165,27 +21591,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>733.98</v>
-      </c>
-      <c r="C146" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1265</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0</v>
-      </c>
-      <c r="F146" s="9">
-        <v>1942.0175000000002</v>
-      </c>
-      <c r="G146" s="9">
-        <v>10</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -23195,27 +21607,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>734.58299999999997</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6">
-        <v>603</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1942.02</v>
-      </c>
-      <c r="G147" s="6">
-        <v>10</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AK</t>
+    <t>D2K</t>
   </si>
   <si>
-    <t>A1K</t>
+    <t>D4K</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>D1K</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10:O11"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,19 +636,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>457</v>
+        <v>308.7</v>
       </c>
       <c r="C3" s="6">
-        <v>-10.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3" s="6">
-        <v>2200</v>
+        <v>2750</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>948.274</v>
+        <v>486.959</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -651,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>481067.91</v>
+        <v>356302.00699999998</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>454000</v>
+        <v>355240</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -668,37 +674,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>459.2</v>
+        <v>311.45</v>
       </c>
       <c r="C4" s="9">
-        <v>-8</v>
+        <v>15.5</v>
       </c>
       <c r="D4" s="9">
-        <v>2400</v>
+        <v>6450</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>924.29</v>
+        <v>496.584</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="9">
-        <v>462980.261</v>
+        <v>370664.07400000002</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="9">
-        <v>465000</v>
+        <v>370800</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,190 +712,238 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>461.6</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="C5" s="6">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>1800</v>
+        <v>2850</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>905.09</v>
+        <v>596.55999999999995</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="6">
+        <v>418878.37800000003</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>418890</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>463.4</v>
+        <v>320.75</v>
       </c>
       <c r="C6" s="9">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="D6" s="9">
-        <v>2500</v>
+        <v>6050</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>897.89</v>
+        <v>607.96</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>430653.09019999998</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="9">
+        <v>432300</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>465.9</v>
+        <v>326.8</v>
       </c>
       <c r="C7" s="6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>867.89</v>
+        <v>583.76</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="6">
+        <v>497099.21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6">
+        <v>497100</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>467.3</v>
+        <v>329.7</v>
       </c>
       <c r="C8" s="9">
-        <v>-9.3000000000000007</v>
+        <v>15.5</v>
       </c>
       <c r="D8" s="9">
-        <v>6800</v>
+        <v>4300</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>866.49</v>
+        <v>606.96</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="9">
+        <v>602222.46900000004</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9">
+        <v>602000</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>474.1</v>
+        <v>334</v>
       </c>
       <c r="C9" s="6">
-        <v>-2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D9" s="6">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>803.25</v>
+        <v>673.61</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="6">
+        <v>630787.83900000004</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>631500</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>476</v>
+        <v>338.4</v>
       </c>
       <c r="C10" s="9">
-        <v>0</v>
+        <v>15.4994</v>
       </c>
       <c r="D10" s="9">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>798.31</v>
+        <v>692.09</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>674131.946</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
+        <v>683900</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>478</v>
+        <v>346.7</v>
       </c>
       <c r="C11" s="6">
-        <v>-7</v>
+        <v>8.5</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -898,43 +952,51 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>798.31</v>
+        <v>820.74</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6">
+        <v>702749.11499999999</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6">
+        <v>702400</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>479.5</v>
+        <v>348.2</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.8</v>
+        <v>-2.9996999999999998</v>
       </c>
       <c r="D12" s="9">
-        <v>1567.9059999999999</v>
+        <v>4450</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>787.81</v>
+        <v>833.49</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -946,25 +1008,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>481.06799999999998</v>
+        <v>352.65</v>
       </c>
       <c r="C13" s="6">
-        <v>-2.8</v>
+        <v>8.5</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>783.42</v>
+        <v>820.14</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -976,22 +1038,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>454</v>
+        <v>353.85899999999998</v>
       </c>
       <c r="C14" s="9">
-        <v>-2.8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9">
-        <v>2000</v>
+        <v>1641</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>783.42</v>
+        <v>830.42</v>
       </c>
       <c r="G14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
@@ -1006,22 +1068,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>456</v>
+        <v>355.5</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>4000</v>
+        <v>802</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>777.82</v>
+        <v>850.11</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>14</v>
@@ -1036,25 +1098,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>460</v>
+        <v>356.30200000000002</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>850.11</v>
+      </c>
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>777.82299999999998</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1066,25 +1128,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>461</v>
+        <v>355.24</v>
       </c>
       <c r="C17" s="6">
-        <v>-2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1980.25</v>
+        <v>3460</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>777.82</v>
+        <v>850.11</v>
       </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1096,25 +1158,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>462.98</v>
+        <v>358.7</v>
       </c>
       <c r="C18" s="9">
-        <v>-2.2999999999999998</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>773.26499999999999</v>
+        <v>850.11</v>
       </c>
       <c r="G18" s="9">
         <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1126,25 +1188,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>465</v>
+        <v>360.18</v>
       </c>
       <c r="C19" s="6">
-        <v>-2.2999999999999998</v>
+        <v>15.5</v>
       </c>
       <c r="D19" s="6">
-        <v>6000</v>
+        <v>4920</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>773.26499999999999</v>
+        <v>867.87</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1156,25 +1218,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>471</v>
+        <v>365.1</v>
       </c>
       <c r="C20" s="9">
-        <v>-4</v>
+        <v>8.8004999999999995</v>
       </c>
       <c r="D20" s="9">
-        <v>4700</v>
+        <v>1303</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>759.47</v>
+        <v>944.13</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1186,25 +1248,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>475.7</v>
+        <v>366.40300000000002</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="6">
-        <v>1200</v>
+        <v>4197</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>740.67</v>
+        <v>955.6</v>
       </c>
       <c r="G21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1216,25 +1278,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>476.9</v>
+        <v>370.6</v>
       </c>
       <c r="C22" s="9">
-        <v>-4</v>
+        <v>-14.9</v>
       </c>
       <c r="D22" s="9">
-        <v>6200</v>
+        <v>64.055999999999997</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>740.67</v>
+        <v>943</v>
       </c>
       <c r="G22" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1246,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>483.1</v>
+        <v>370.66399999999999</v>
       </c>
       <c r="C23" s="6">
+        <v>-14.9</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3000</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>715.87</v>
+        <v>942.04600000000005</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1276,25 +1338,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>486.1</v>
+        <v>370.8</v>
       </c>
       <c r="C24" s="9">
-        <v>2</v>
+        <v>-14.9</v>
       </c>
       <c r="D24" s="9">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>715.87</v>
+        <v>942.04600000000005</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1306,25 +1368,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>488</v>
+        <v>373.2</v>
       </c>
       <c r="C25" s="6">
-        <v>-2.5</v>
+        <v>-5</v>
       </c>
       <c r="D25" s="6">
-        <v>5900</v>
+        <v>2350</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>719.67</v>
+        <v>906.29</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1336,25 +1398,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>493.9</v>
+        <v>375.55</v>
       </c>
       <c r="C26" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" s="9">
-        <v>6600</v>
+        <v>1241</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>704.92</v>
+        <v>894.54</v>
       </c>
       <c r="G26" s="9">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1366,25 +1428,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>500.5</v>
+        <v>376.791</v>
       </c>
       <c r="C27" s="6">
-        <v>-2</v>
+        <v>15.5</v>
       </c>
       <c r="D27" s="6">
-        <v>2900</v>
+        <v>5309</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>704.92</v>
+        <v>903.23</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1396,25 +1458,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>503.4</v>
+        <v>382.1</v>
       </c>
       <c r="C28" s="9">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="D28" s="9">
-        <v>4100</v>
+        <v>1601</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>699.12</v>
+        <v>985.52</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1426,25 +1488,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>507.5</v>
+        <v>383.70100000000002</v>
       </c>
       <c r="C29" s="6">
-        <v>3.5</v>
+        <v>-6.2</v>
       </c>
       <c r="D29" s="6">
-        <v>5500</v>
+        <v>1499</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>699.12</v>
+        <v>994.33</v>
       </c>
       <c r="G29" s="6">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1456,25 +1518,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>513</v>
+        <v>385.2</v>
       </c>
       <c r="C30" s="9">
-        <v>0</v>
+        <v>-15.5</v>
       </c>
       <c r="D30" s="9">
-        <v>1700</v>
+        <v>4050</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>718.37</v>
+        <v>985.04</v>
       </c>
       <c r="G30" s="9">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1486,25 +1548,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>514.70000000000005</v>
+        <v>389.25</v>
       </c>
       <c r="C31" s="6">
-        <v>5.5</v>
+        <v>-4</v>
       </c>
       <c r="D31" s="6">
-        <v>5300</v>
+        <v>1200</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>718.37</v>
+        <v>922.27</v>
       </c>
       <c r="G31" s="6">
         <v>3</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1516,25 +1578,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>520</v>
+        <v>390.45</v>
       </c>
       <c r="C32" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D32" s="9">
-        <v>1400</v>
+        <v>1950</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>747.52</v>
+        <v>917.47</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1546,25 +1608,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>521.4</v>
+        <v>392.4</v>
       </c>
       <c r="C33" s="6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6">
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>747.52</v>
+        <v>931.12</v>
       </c>
       <c r="G33" s="6">
         <v>3</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1576,25 +1638,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>522.9</v>
+        <v>396.5</v>
       </c>
       <c r="C34" s="9">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="D34" s="9">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>764.02</v>
+        <v>943.4</v>
       </c>
       <c r="G34" s="9">
         <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1606,25 +1668,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>524.79999999999995</v>
+        <v>400.9</v>
       </c>
       <c r="C35" s="6">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="D35" s="6">
-        <v>1200.001</v>
+        <v>17978.38</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>774.47</v>
+        <v>996.2</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1636,25 +1698,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>526</v>
+        <v>418.87799999999999</v>
       </c>
       <c r="C36" s="9">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="D36" s="9">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>786.46699999999998</v>
+        <v>1274.865</v>
       </c>
       <c r="G36" s="9">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1666,25 +1728,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>528.29999999999995</v>
+        <v>418.89</v>
       </c>
       <c r="C37" s="6">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="D37" s="6">
-        <v>4100</v>
+        <v>210</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>814.07</v>
+        <v>1274.865</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1696,25 +1758,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>532.4</v>
+        <v>419.1</v>
       </c>
       <c r="C38" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="9">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>850.97</v>
+        <v>1278.1199999999999</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1726,25 +1788,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>533.1</v>
+        <v>420.3</v>
       </c>
       <c r="C39" s="6">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="D39" s="6">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>855.17</v>
+        <v>1287.72</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1756,25 +1818,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>535</v>
+        <v>422.5</v>
       </c>
       <c r="C40" s="9">
-        <v>-14</v>
+        <v>-14.8</v>
       </c>
       <c r="D40" s="9">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>843.77</v>
+        <v>1278.92</v>
       </c>
       <c r="G40" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1786,25 +1848,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>535.6</v>
+        <v>424.5</v>
       </c>
       <c r="C41" s="6">
-        <v>-4</v>
+        <v>-11.3</v>
       </c>
       <c r="D41" s="6">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>835.37</v>
+        <v>1249.32</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -1816,25 +1878,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>536.4</v>
+        <v>426.2</v>
       </c>
       <c r="C42" s="9">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D42" s="9">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>832.17</v>
+        <v>1230.1099999999999</v>
       </c>
       <c r="G42" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1846,25 +1908,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>540</v>
+        <v>430.6</v>
       </c>
       <c r="C43" s="6">
-        <v>-3.5</v>
+        <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>2000</v>
+        <v>53.088000000000001</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>803.37</v>
+        <v>1230.1099999999999</v>
       </c>
       <c r="G43" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -1876,25 +1938,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>542</v>
+        <v>430.65300000000002</v>
       </c>
       <c r="C44" s="9">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D44" s="9">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>796.37</v>
+        <v>1230.269</v>
       </c>
       <c r="G44" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1906,25 +1968,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>543.29999999999995</v>
+        <v>432.3</v>
       </c>
       <c r="C45" s="6">
-        <v>-3.8</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>783.37</v>
+        <v>1230.269</v>
       </c>
       <c r="G45" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -1936,25 +1998,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>548.20000000000005</v>
+        <v>435.7</v>
       </c>
       <c r="C46" s="9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D46" s="9">
-        <v>1400</v>
+        <v>2480</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>764.75</v>
+        <v>1240.47</v>
       </c>
       <c r="G46" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -1966,25 +2028,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>549.6</v>
+        <v>438.18</v>
       </c>
       <c r="C47" s="6">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="D47" s="6">
-        <v>1100</v>
+        <v>6420</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>763.35</v>
+        <v>1233.03</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -1996,25 +2058,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>550.70000000000005</v>
+        <v>444.6</v>
       </c>
       <c r="C48" s="9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D48" s="9">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>755.65</v>
+        <v>1290.81</v>
       </c>
       <c r="G48" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2026,25 +2088,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>553.9</v>
+        <v>448.2</v>
       </c>
       <c r="C49" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" s="6">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>752.45</v>
+        <v>1280.01</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2056,25 +2118,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>554.9</v>
+        <v>452.1</v>
       </c>
       <c r="C50" s="9">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D50" s="9">
-        <v>600</v>
+        <v>5300</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>762.45</v>
+        <v>1299.51</v>
       </c>
       <c r="G50" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2086,25 +2148,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>555.5</v>
+        <v>457.4</v>
       </c>
       <c r="C51" s="6">
-        <v>-10.3</v>
+        <v>3.5</v>
       </c>
       <c r="D51" s="6">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>762.45</v>
+        <v>1381.66</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2116,25 +2178,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>559</v>
+        <v>459.2</v>
       </c>
       <c r="C52" s="9">
-        <v>-1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D52" s="9">
-        <v>3500</v>
+        <v>2880</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>726.4</v>
+        <v>1387.96</v>
       </c>
       <c r="G52" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2146,25 +2208,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>562.5</v>
+        <v>462.08</v>
       </c>
       <c r="C53" s="6">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="D53" s="6">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>721.15</v>
+        <v>1375</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -2176,25 +2238,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>563.1</v>
+        <v>462.5</v>
       </c>
       <c r="C54" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D54" s="9">
-        <v>1500</v>
+        <v>4750</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>725.65</v>
+        <v>1376.4680000000001</v>
       </c>
       <c r="G54" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2206,25 +2268,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>564.6</v>
+        <v>467.25</v>
       </c>
       <c r="C55" s="6">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D55" s="6">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>725.65</v>
+        <v>1393.09</v>
       </c>
       <c r="G55" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2236,25 +2298,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>569.79999999999995</v>
+        <v>469.75</v>
       </c>
       <c r="C56" s="9">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="D56" s="9">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>710.05</v>
+        <v>1410.59</v>
       </c>
       <c r="G56" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2266,25 +2328,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>571.70000000000005</v>
+        <v>471.2</v>
       </c>
       <c r="C57" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D57" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>706.25</v>
+        <v>1433.79</v>
       </c>
       <c r="G57" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2296,25 +2358,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>572.9</v>
+        <v>472.6</v>
       </c>
       <c r="C58" s="9">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>900</v>
+        <v>2850</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>709.85</v>
+        <v>1450.59</v>
       </c>
       <c r="G58" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2326,25 +2388,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>573.79999999999995</v>
+        <v>475.45</v>
       </c>
       <c r="C59" s="6">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="D59" s="6">
-        <v>3450</v>
+        <v>2050</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>706.25</v>
+        <v>1450.59</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2356,25 +2418,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>577.25</v>
+        <v>477.5</v>
       </c>
       <c r="C60" s="9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D60" s="9">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>726.95</v>
+        <v>1434.19</v>
       </c>
       <c r="G60" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2386,25 +2448,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>578.65</v>
+        <v>478.85</v>
       </c>
       <c r="C61" s="6">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="D61" s="6">
-        <v>1650</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>728.35</v>
+        <v>1435.81</v>
       </c>
       <c r="G61" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2416,25 +2478,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>580.29999999999995</v>
+        <v>481.65</v>
       </c>
       <c r="C62" s="9">
         <v>3</v>
       </c>
       <c r="D62" s="9">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>725.05</v>
+        <v>1410.61</v>
       </c>
       <c r="G62" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2446,25 +2508,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>581</v>
+        <v>482.95</v>
       </c>
       <c r="C63" s="6">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="D63" s="6">
-        <v>1300</v>
+        <v>2220</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>727.15</v>
+        <v>1414.51</v>
       </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2476,25 +2538,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>582.29999999999995</v>
+        <v>485.17</v>
       </c>
       <c r="C64" s="9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D64" s="9">
-        <v>1300</v>
+        <v>2630</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>742.75</v>
+        <v>1437.82</v>
       </c>
       <c r="G64" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2506,25 +2568,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>583.6</v>
+        <v>487.8</v>
       </c>
       <c r="C65" s="6">
-        <v>-6</v>
+        <v>-3.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>742.75</v>
+        <v>1457.55</v>
       </c>
       <c r="G65" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -2536,25 +2598,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>584.79999999999995</v>
+        <v>491</v>
       </c>
       <c r="C66" s="9">
-        <v>-2</v>
+        <v>-15.5</v>
       </c>
       <c r="D66" s="9">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>735.55</v>
+        <v>1446.35</v>
       </c>
       <c r="G66" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2566,25 +2628,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>586.29999999999995</v>
+        <v>494.25</v>
       </c>
       <c r="C67" s="6">
-        <v>-8.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>732.55</v>
+        <v>1395.98</v>
       </c>
       <c r="G67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -2596,25 +2658,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>587.79999999999995</v>
+        <v>495.76</v>
       </c>
       <c r="C68" s="9">
-        <v>-2</v>
+        <v>8.5</v>
       </c>
       <c r="D68" s="9">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>719.8</v>
+        <v>1390.7</v>
       </c>
       <c r="G68" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2626,25 +2688,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>588.6</v>
+        <v>496.96</v>
       </c>
       <c r="C69" s="6">
-        <v>6</v>
+        <v>15.7</v>
       </c>
       <c r="D69" s="6">
-        <v>700</v>
+        <v>139.227</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>718.2</v>
+        <v>1400.9</v>
       </c>
       <c r="G69" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -2656,25 +2718,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>589.29999999999995</v>
+        <v>497.09899999999999</v>
       </c>
       <c r="C70" s="9">
-        <v>-6</v>
+        <v>15.7</v>
       </c>
       <c r="D70" s="9">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>722.4</v>
+        <v>1403.086</v>
       </c>
       <c r="G70" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2686,25 +2748,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>592.5</v>
+        <v>497.1</v>
       </c>
       <c r="C71" s="6">
-        <v>6</v>
+        <v>15.7</v>
       </c>
       <c r="D71" s="6">
-        <v>1200</v>
+        <v>9050</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>703.2</v>
+        <v>1403.086</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -2716,25 +2778,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>593.70000000000005</v>
+        <v>506.15</v>
       </c>
       <c r="C72" s="9">
-        <v>2</v>
+        <v>11.5</v>
       </c>
       <c r="D72" s="9">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>710.4</v>
+        <v>1545.17</v>
       </c>
       <c r="G72" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2746,25 +2808,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>595</v>
+        <v>508.55</v>
       </c>
       <c r="C73" s="6">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="D73" s="6">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>713</v>
+        <v>1572.77</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -2776,25 +2838,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>597.9</v>
+        <v>509.45</v>
       </c>
       <c r="C74" s="9">
-        <v>2</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="D74" s="9">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>753.6</v>
+        <v>1579.52</v>
       </c>
       <c r="G74" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2806,25 +2868,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>598.6</v>
+        <v>510.35</v>
       </c>
       <c r="C75" s="6">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D75" s="6">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>755</v>
+        <v>1582.82</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -2836,25 +2898,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>599.1</v>
+        <v>511.25</v>
       </c>
       <c r="C76" s="9">
-        <v>4</v>
+        <v>-16</v>
       </c>
       <c r="D76" s="9">
-        <v>900</v>
+        <v>4300</v>
       </c>
       <c r="E76" s="9">
         <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>751</v>
+        <v>1579.22</v>
       </c>
       <c r="G76" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2866,25 +2928,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>600</v>
+        <v>515.54999999999995</v>
       </c>
       <c r="C77" s="6">
-        <v>15.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D77" s="6">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>754.6</v>
+        <v>1510.42</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -2896,25 +2958,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>600.9</v>
+        <v>516.85</v>
       </c>
       <c r="C78" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D78" s="9">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="9">
-        <v>768.55</v>
+        <v>1504.57</v>
       </c>
       <c r="G78" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -2926,25 +2988,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>602.29999999999995</v>
+        <v>519.25</v>
       </c>
       <c r="C79" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>2100</v>
+        <v>750</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>776.95</v>
+        <v>1506.97</v>
       </c>
       <c r="G79" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -2956,25 +3018,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>604.4</v>
+        <v>520</v>
       </c>
       <c r="C80" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D80" s="9">
-        <v>1000</v>
+        <v>2450</v>
       </c>
       <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="9">
-        <v>812.65</v>
+        <v>1506.9580000000001</v>
       </c>
       <c r="G80" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -2986,25 +3048,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>605.4</v>
+        <v>522.45000000000005</v>
       </c>
       <c r="C81" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D81" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <v>820.65</v>
+        <v>1506.96</v>
       </c>
       <c r="G81" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -3016,25 +3078,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>606.20000000000005</v>
+        <v>523.65</v>
       </c>
       <c r="C82" s="9">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D82" s="9">
-        <v>500</v>
+        <v>2650</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="9">
-        <v>834.25</v>
+        <v>1521.36</v>
       </c>
       <c r="G82" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3046,25 +3108,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>606.70000000000005</v>
+        <v>526.29999999999995</v>
       </c>
       <c r="C83" s="6">
-        <v>-7</v>
+        <v>15.6</v>
       </c>
       <c r="D83" s="6">
-        <v>400</v>
+        <v>6400</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
       </c>
       <c r="F83" s="6">
-        <v>836.75</v>
+        <v>1569.06</v>
       </c>
       <c r="G83" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -3076,25 +3138,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>607.1</v>
+        <v>532.70000000000005</v>
       </c>
       <c r="C84" s="9">
-        <v>-18.5</v>
+        <v>9</v>
       </c>
       <c r="D84" s="9">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="9">
-        <v>833.95</v>
+        <v>1668.9</v>
       </c>
       <c r="G84" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3106,25 +3168,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>609</v>
+        <v>533.9</v>
       </c>
       <c r="C85" s="6">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D85" s="6">
-        <v>400</v>
+        <v>8950</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>798.8</v>
+        <v>1679.7</v>
       </c>
       <c r="G85" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -3136,25 +3198,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>609.4</v>
+        <v>542.85</v>
       </c>
       <c r="C86" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="9">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="9">
-        <v>796</v>
+        <v>1652.85</v>
       </c>
       <c r="G86" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3166,25 +3228,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>609.9</v>
+        <v>544.75</v>
       </c>
       <c r="C87" s="6">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D87" s="6">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>797</v>
+        <v>1658.55</v>
       </c>
       <c r="G87" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -3196,25 +3258,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>610.9</v>
+        <v>546.65</v>
       </c>
       <c r="C88" s="9">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D88" s="9">
-        <v>400</v>
+        <v>4100</v>
       </c>
       <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="9">
-        <v>789</v>
+        <v>1641.45</v>
       </c>
       <c r="G88" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3226,25 +3288,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>611.29999999999995</v>
+        <v>550.75</v>
       </c>
       <c r="C89" s="6">
-        <v>16</v>
+        <v>-15</v>
       </c>
       <c r="D89" s="6">
-        <v>1600</v>
+        <v>3850</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <v>790.6</v>
+        <v>1620.95</v>
       </c>
       <c r="G89" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -3256,25 +3318,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>612.9</v>
+        <v>554.6</v>
       </c>
       <c r="C90" s="9">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D90" s="9">
-        <v>700</v>
+        <v>1990</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
       </c>
       <c r="F90" s="9">
-        <v>816.2</v>
+        <v>1563.2</v>
       </c>
       <c r="G90" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -3286,25 +3348,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>613.6</v>
+        <v>556.59</v>
       </c>
       <c r="C91" s="6">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1200</v>
+        <v>2060</v>
       </c>
       <c r="E91" s="6">
         <v>1</v>
       </c>
       <c r="F91" s="6">
-        <v>819</v>
+        <v>1557.23</v>
       </c>
       <c r="G91" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -3316,25 +3378,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>614.79999999999995</v>
+        <v>558.65</v>
       </c>
       <c r="C92" s="9">
-        <v>-18.2</v>
+        <v>-7.5</v>
       </c>
       <c r="D92" s="9">
-        <v>1200</v>
+        <v>2350</v>
       </c>
       <c r="E92" s="9">
         <v>1</v>
       </c>
       <c r="F92" s="9">
-        <v>809.4</v>
+        <v>1563.41</v>
       </c>
       <c r="G92" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -3346,25 +3408,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="C93" s="6">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D93" s="6">
-        <v>400</v>
+        <v>1950</v>
       </c>
       <c r="E93" s="6">
         <v>1</v>
       </c>
       <c r="F93" s="6">
-        <v>787.56</v>
+        <v>1545.79</v>
       </c>
       <c r="G93" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -3376,25 +3438,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>616.4</v>
+        <v>562.95000000000005</v>
       </c>
       <c r="C94" s="9">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="D94" s="9">
-        <v>2011.559</v>
+        <v>4650</v>
       </c>
       <c r="E94" s="9">
         <v>1</v>
       </c>
       <c r="F94" s="9">
-        <v>782.76</v>
+        <v>1545.79</v>
       </c>
       <c r="G94" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -3405,13 +3467,27 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="B95" s="7">
+        <v>567.6</v>
+      </c>
+      <c r="C95" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1489.9939999999999</v>
+      </c>
+      <c r="G95" s="6">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -3421,13 +3497,27 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="B96" s="11">
+        <v>568.70000000000005</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0</v>
+      </c>
+      <c r="D96" s="9">
+        <v>2200</v>
+      </c>
+      <c r="E96" s="9">
+        <v>1</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1476.79</v>
+      </c>
+      <c r="G96" s="9">
+        <v>6</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3437,13 +3527,27 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="B97" s="7">
+        <v>570.9</v>
+      </c>
+      <c r="C97" s="6">
+        <v>4</v>
+      </c>
+      <c r="D97" s="6">
+        <v>2861</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1476.79</v>
+      </c>
+      <c r="G97" s="6">
+        <v>6</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -3453,13 +3557,27 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="B98" s="11">
+        <v>573.76099999999997</v>
+      </c>
+      <c r="C98" s="9">
+        <v>3</v>
+      </c>
+      <c r="D98" s="9">
+        <v>4559</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1488.23</v>
+      </c>
+      <c r="G98" s="9">
+        <v>6</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3469,13 +3587,27 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="B99" s="7">
+        <v>578.32000000000005</v>
+      </c>
+      <c r="C99" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1330</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1501.91</v>
+      </c>
+      <c r="G99" s="6">
+        <v>6</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -3485,13 +3617,27 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+      <c r="B100" s="11">
+        <v>579.65</v>
+      </c>
+      <c r="C100" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="D100" s="9">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1489.94</v>
+      </c>
+      <c r="G100" s="9">
+        <v>6</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3501,13 +3647,27 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="B101" s="7">
+        <v>588.04999999999995</v>
+      </c>
+      <c r="C101" s="6">
+        <v>-10.5</v>
+      </c>
+      <c r="D101" s="6">
+        <v>12550</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1359.74</v>
+      </c>
+      <c r="G101" s="6">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -3517,13 +3677,27 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="B102" s="11">
+        <v>600.6</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0</v>
+      </c>
+      <c r="D102" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1227.97</v>
+      </c>
+      <c r="G102" s="9">
+        <v>6</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3533,13 +3707,27 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="B103" s="7">
+        <v>601.79999999999995</v>
+      </c>
+      <c r="C103" s="6">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6">
+        <v>422.512</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1227.97</v>
+      </c>
+      <c r="G103" s="6">
+        <v>6</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -3549,13 +3737,27 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="B104" s="11">
+        <v>602.22199999999998</v>
+      </c>
+      <c r="C104" s="9">
+        <v>12</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1233.04</v>
+      </c>
+      <c r="G104" s="9">
+        <v>6</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3565,13 +3767,27 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="B105" s="7">
+        <v>602</v>
+      </c>
+      <c r="C105" s="6">
+        <v>12</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1233.04</v>
+      </c>
+      <c r="G105" s="6">
+        <v>7</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -3581,13 +3797,27 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="11">
+        <v>603.20000000000005</v>
+      </c>
+      <c r="C106" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4300</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1247.44</v>
+      </c>
+      <c r="G106" s="9">
+        <v>7</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -3597,13 +3827,27 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="B107" s="7">
+        <v>607.5</v>
+      </c>
+      <c r="C107" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>5400</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1314.0889999999999</v>
+      </c>
+      <c r="G107" s="6">
+        <v>7</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -3613,13 +3857,27 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="B108" s="11">
+        <v>612.9</v>
+      </c>
+      <c r="C108" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E108" s="9">
+        <v>1</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1397.79</v>
+      </c>
+      <c r="G108" s="9">
+        <v>7</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -3629,13 +3887,27 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="B109" s="7">
+        <v>614.1</v>
+      </c>
+      <c r="C109" s="6">
+        <v>-3.4</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4900</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1408.11</v>
+      </c>
+      <c r="G109" s="6">
+        <v>7</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -3645,13 +3917,27 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="B110" s="11">
+        <v>619</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0</v>
+      </c>
+      <c r="D110" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E110" s="9">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1391.45</v>
+      </c>
+      <c r="G110" s="9">
+        <v>7</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -3661,13 +3947,27 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="B111" s="7">
+        <v>622</v>
+      </c>
+      <c r="C111" s="6">
+        <v>-5</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1391.45</v>
+      </c>
+      <c r="G111" s="6">
+        <v>7</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -3677,13 +3977,27 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="B112" s="11">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="C112" s="9">
+        <v>7</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1385.45</v>
+      </c>
+      <c r="G112" s="9">
+        <v>7</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -3693,13 +4007,27 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="B113" s="7">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="C113" s="6">
+        <v>14</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2610</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1395.95</v>
+      </c>
+      <c r="G113" s="6">
+        <v>7</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -3709,13 +4037,27 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="B114" s="11">
+        <v>627.30999999999995</v>
+      </c>
+      <c r="C114" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="D114" s="9">
+        <v>3477.8150000000001</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1432.49</v>
+      </c>
+      <c r="G114" s="9">
+        <v>7</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -3725,13 +4067,27 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="B115" s="7">
+        <v>630.78800000000001</v>
+      </c>
+      <c r="C115" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
+        <v>1443.9670000000001</v>
+      </c>
+      <c r="G115" s="6">
+        <v>7</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -3741,13 +4097,27 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="B116" s="11">
+        <v>631.5</v>
+      </c>
+      <c r="C116" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E116" s="9">
+        <v>1</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1443.9670000000001</v>
+      </c>
+      <c r="G116" s="9">
+        <v>8</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -3757,13 +4127,27 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+      <c r="B117" s="7">
+        <v>632.5</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1050</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1447.27</v>
+      </c>
+      <c r="G117" s="6">
+        <v>8</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -3773,13 +4157,27 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="B118" s="11">
+        <v>633.54999999999995</v>
+      </c>
+      <c r="C118" s="9">
+        <v>-3.2109999999999999</v>
+      </c>
+      <c r="D118" s="9">
+        <v>950</v>
+      </c>
+      <c r="E118" s="9">
+        <v>1</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1447.27</v>
+      </c>
+      <c r="G118" s="9">
+        <v>8</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -3789,13 +4187,27 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="B119" s="7">
+        <v>634.5</v>
+      </c>
+      <c r="C119" s="6">
+        <v>-3.2109999999999999</v>
+      </c>
+      <c r="D119" s="6">
+        <v>250</v>
+      </c>
+      <c r="E119" s="6">
+        <v>1</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1444.2159999999999</v>
+      </c>
+      <c r="G119" s="6">
+        <v>8</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -3805,13 +4217,27 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="B120" s="11">
+        <v>634.75</v>
+      </c>
+      <c r="C120" s="9">
+        <v>0</v>
+      </c>
+      <c r="D120" s="9">
+        <v>950</v>
+      </c>
+      <c r="E120" s="9">
+        <v>1</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1443.41</v>
+      </c>
+      <c r="G120" s="9">
+        <v>8</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -3821,13 +4247,27 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="B121" s="7">
+        <v>635.70000000000005</v>
+      </c>
+      <c r="C121" s="6">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1443.41</v>
+      </c>
+      <c r="G121" s="6">
+        <v>8</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -3837,13 +4277,27 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="B122" s="11">
+        <v>636.9</v>
+      </c>
+      <c r="C122" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1850</v>
+      </c>
+      <c r="E122" s="9">
+        <v>1</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1457.81</v>
+      </c>
+      <c r="G122" s="9">
+        <v>8</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -3853,13 +4307,27 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="B123" s="7">
+        <v>638.75</v>
+      </c>
+      <c r="C123" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="D123" s="6">
+        <v>20350</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1489.82</v>
+      </c>
+      <c r="G123" s="6">
+        <v>8</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -3869,13 +4337,27 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="B124" s="11">
+        <v>659.1</v>
+      </c>
+      <c r="C124" s="9">
+        <v>5</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1400</v>
+      </c>
+      <c r="E124" s="9">
+        <v>1</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1805.25</v>
+      </c>
+      <c r="G124" s="9">
+        <v>8</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -3885,13 +4367,27 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="B125" s="7">
+        <v>660.5</v>
+      </c>
+      <c r="C125" s="6">
+        <v>-7</v>
+      </c>
+      <c r="D125" s="6">
+        <v>8950</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1812.25</v>
+      </c>
+      <c r="G125" s="6">
+        <v>8</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -3901,13 +4397,27 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="B126" s="11">
+        <v>669.45</v>
+      </c>
+      <c r="C126" s="9">
+        <v>-18</v>
+      </c>
+      <c r="D126" s="9">
+        <v>3950</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1749.6</v>
+      </c>
+      <c r="G126" s="9">
+        <v>8</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -3917,13 +4427,27 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="B127" s="7">
+        <v>673.4</v>
+      </c>
+      <c r="C127" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D127" s="6">
+        <v>731.91300000000001</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1678.5</v>
+      </c>
+      <c r="G127" s="6">
+        <v>8</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -3933,13 +4457,27 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="B128" s="11">
+        <v>674.13199999999995</v>
+      </c>
+      <c r="C128" s="9">
+        <v>-12</v>
+      </c>
+      <c r="D128" s="9">
+        <v>0</v>
+      </c>
+      <c r="E128" s="9">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1669.7170000000001</v>
+      </c>
+      <c r="G128" s="9">
+        <v>8</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -3949,13 +4487,27 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="B129" s="7">
+        <v>683.9</v>
+      </c>
+      <c r="C129" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D129" s="6">
+        <v>400</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1669.7170000000001</v>
+      </c>
+      <c r="G129" s="6">
+        <v>9</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -3965,13 +4517,27 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="B130" s="11">
+        <v>684.3</v>
+      </c>
+      <c r="C130" s="9">
+        <v>-12</v>
+      </c>
+      <c r="D130" s="9">
+        <v>100</v>
+      </c>
+      <c r="E130" s="9">
+        <v>1</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1664.91</v>
+      </c>
+      <c r="G130" s="9">
+        <v>9</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -3981,13 +4547,27 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="B131" s="7">
+        <v>684.4</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1663.71</v>
+      </c>
+      <c r="G131" s="6">
+        <v>9</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -3997,13 +4577,27 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="B132" s="11">
+        <v>688</v>
+      </c>
+      <c r="C132" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="D132" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1663.71</v>
+      </c>
+      <c r="G132" s="9">
+        <v>9</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -4013,13 +4607,27 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="B133" s="7">
+        <v>689.8</v>
+      </c>
+      <c r="C133" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1684.23</v>
+      </c>
+      <c r="G133" s="6">
+        <v>9</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -4029,13 +4637,27 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="B134" s="11">
+        <v>691.7</v>
+      </c>
+      <c r="C134" s="9">
+        <v>-13.5</v>
+      </c>
+      <c r="D134" s="9">
+        <v>6900</v>
+      </c>
+      <c r="E134" s="9">
+        <v>1</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1678.53</v>
+      </c>
+      <c r="G134" s="9">
+        <v>9</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -4045,13 +4667,27 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="B135" s="7">
+        <v>698.6</v>
+      </c>
+      <c r="C135" s="6">
+        <v>-6</v>
+      </c>
+      <c r="D135" s="6">
+        <v>3200</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1585.38</v>
+      </c>
+      <c r="G135" s="6">
+        <v>9</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -4061,13 +4697,27 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="B136" s="11">
+        <v>701.8</v>
+      </c>
+      <c r="C136" s="9">
+        <v>3</v>
+      </c>
+      <c r="D136" s="9">
+        <v>949.13699999999994</v>
+      </c>
+      <c r="E136" s="9">
+        <v>1</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1566.18</v>
+      </c>
+      <c r="G136" s="9">
+        <v>9</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -4077,13 +4727,27 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="B137" s="7">
+        <v>702.74900000000002</v>
+      </c>
+      <c r="C137" s="6">
+        <v>3</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1569.027</v>
+      </c>
+      <c r="G137" s="6">
+        <v>9</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -4093,13 +4757,27 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="B138" s="11">
+        <v>702.4</v>
+      </c>
+      <c r="C138" s="9">
+        <v>3</v>
+      </c>
+      <c r="D138" s="9">
+        <v>700</v>
+      </c>
+      <c r="E138" s="9">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1569.027</v>
+      </c>
+      <c r="G138" s="9">
+        <v>10</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -4109,13 +4787,27 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="B139" s="7">
+        <v>703.1</v>
+      </c>
+      <c r="C139" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="D139" s="6">
+        <v>3310</v>
+      </c>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1571.13</v>
+      </c>
+      <c r="G139" s="6">
+        <v>10</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -4125,13 +4817,27 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="B140" s="11">
+        <v>706.41</v>
+      </c>
+      <c r="C140" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="D140" s="9">
+        <v>8240</v>
+      </c>
+      <c r="E140" s="9">
+        <v>1</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1619.13</v>
+      </c>
+      <c r="G140" s="9">
+        <v>10</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -4141,13 +4847,27 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="B141" s="7">
+        <v>714.65</v>
+      </c>
+      <c r="C141" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D141" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1812.77</v>
+      </c>
+      <c r="G141" s="6">
+        <v>10</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -4157,13 +4877,27 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="B142" s="11">
+        <v>718.65</v>
+      </c>
+      <c r="C142" s="9">
+        <v>1</v>
+      </c>
+      <c r="D142" s="9">
+        <v>2250</v>
+      </c>
+      <c r="E142" s="9">
+        <v>1</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1800.77</v>
+      </c>
+      <c r="G142" s="9">
+        <v>10</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -4173,13 +4907,27 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="B143" s="7">
+        <v>720.9</v>
+      </c>
+      <c r="C143" s="6">
+        <v>3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1803.02</v>
+      </c>
+      <c r="G143" s="6">
+        <v>10</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -4189,13 +4937,27 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
+      <c r="B144" s="11">
+        <v>722.1</v>
+      </c>
+      <c r="C144" s="9">
+        <v>23.5</v>
+      </c>
+      <c r="D144" s="9">
+        <v>6430</v>
+      </c>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1806.62</v>
+      </c>
+      <c r="G144" s="9">
+        <v>10</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -4205,13 +4967,27 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="B145" s="7">
+        <v>728.53</v>
+      </c>
+      <c r="C145" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D145" s="6">
+        <v>4185</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+      <c r="F145" s="6">
+        <v>1957.73</v>
+      </c>
+      <c r="G145" s="6">
+        <v>10</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -4221,13 +4997,27 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="B146" s="11">
+        <v>732.71500000000003</v>
+      </c>
+      <c r="C146" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1265</v>
+      </c>
+      <c r="E146" s="9">
+        <v>1</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1945.18</v>
+      </c>
+      <c r="G146" s="9">
+        <v>10</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -4237,13 +5027,27 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
+      <c r="B147" s="7">
+        <v>733.98</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0</v>
+      </c>
+      <c r="D147" s="6">
+        <v>603</v>
+      </c>
+      <c r="E147" s="6">
+        <v>1</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1942.02</v>
+      </c>
+      <c r="G147" s="6">
+        <v>10</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -18000,19 +18804,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>459.2</v>
+        <v>311.45</v>
       </c>
       <c r="C3" s="6">
-        <v>10.9</v>
+        <v>-3.5</v>
       </c>
       <c r="D3" s="6">
-        <v>2200</v>
+        <v>2750</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>924.29399999999998</v>
+        <v>496.584</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18021,13 +18825,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>481067.91</v>
+        <v>356302.00699999998</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>454000</v>
+        <v>355240</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -18038,37 +18842,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>461.59999999999997</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="C4" s="9">
-        <v>8</v>
+        <v>-15.5</v>
       </c>
       <c r="D4" s="9">
-        <v>2400</v>
+        <v>6450</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>905.08999999999992</v>
+        <v>596.55899999999997</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="9">
-        <v>462980.261</v>
+        <v>370664.07400000002</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="9">
-        <v>465000</v>
+        <v>370800</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18076,190 +18880,238 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>463.40000000000003</v>
+        <v>320.75</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D5" s="6">
-        <v>1800</v>
+        <v>2850</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>897.89</v>
+        <v>607.95999999999992</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="6">
+        <v>418878.37800000003</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>418890</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>465.9</v>
+        <v>326.8</v>
       </c>
       <c r="C6" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9">
-        <v>2500</v>
+        <v>6050</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>867.89</v>
+        <v>583.76</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>430653.09019999998</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="9">
+        <v>432300</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>467.29999999999995</v>
+        <v>329.7</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="D7" s="6">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>866.49</v>
+        <v>606.96</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="6">
+        <v>497099.21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6">
+        <v>497100</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>474.1</v>
+        <v>334</v>
       </c>
       <c r="C8" s="9">
-        <v>9.3000000000000007</v>
+        <v>-15.5</v>
       </c>
       <c r="D8" s="9">
-        <v>6800</v>
+        <v>4300</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>803.25</v>
+        <v>673.61</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="9">
+        <v>602222.46900000004</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9">
+        <v>602000</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>476</v>
+        <v>338.4</v>
       </c>
       <c r="C9" s="6">
-        <v>2.6</v>
+        <v>-4.2</v>
       </c>
       <c r="D9" s="6">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>798.31</v>
+        <v>692.09</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I9" s="6">
+        <v>630787.83900000004</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>631500</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>478</v>
+        <v>346.7</v>
       </c>
       <c r="C10" s="9">
-        <v>0</v>
+        <v>-15.4994</v>
       </c>
       <c r="D10" s="9">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>798.31</v>
+        <v>820.73502000000008</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>674131.946</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9">
+        <v>683900</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>479.5</v>
+        <v>348.2</v>
       </c>
       <c r="C11" s="6">
-        <v>7</v>
+        <v>-8.5</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -18268,43 +19120,51 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>787.81</v>
+        <v>833.49</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6">
+        <v>702749.11499999999</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="6">
+        <v>702400</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>481.06790599999999</v>
+        <v>352.65</v>
       </c>
       <c r="C12" s="9">
-        <v>2.8</v>
+        <v>2.9996999999999998</v>
       </c>
       <c r="D12" s="9">
-        <v>1567.9059999999999</v>
+        <v>4450</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>783.4198631999999</v>
+        <v>820.14133500000003</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -18316,25 +19176,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>454</v>
+        <v>353.85899999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>2.8</v>
+        <v>-8.5</v>
       </c>
       <c r="D13" s="6">
+        <v>1209</v>
+      </c>
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
+        <v>830.41650000000004</v>
+      </c>
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
-        <v>783.42</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -18346,22 +19206,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>456</v>
+        <v>355.5</v>
       </c>
       <c r="C14" s="9">
-        <v>2.8</v>
+        <v>-12</v>
       </c>
       <c r="D14" s="9">
-        <v>2000</v>
+        <v>1641</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>777.81999999999994</v>
+        <v>850.11199999999997</v>
       </c>
       <c r="G14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>14</v>
@@ -18376,22 +19236,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>460</v>
+        <v>356.30200000000002</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>4000</v>
+        <v>802</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>777.82</v>
+        <v>850.11</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>14</v>
@@ -18406,25 +19266,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>461</v>
+        <v>355.24</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>777.82299999999998</v>
+        <v>850.11</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -18436,25 +19296,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>462.98025000000001</v>
+        <v>358.7</v>
       </c>
       <c r="C17" s="6">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1980.25</v>
+        <v>3460</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>773.26542500000005</v>
+        <v>850.11</v>
       </c>
       <c r="G17" s="6">
         <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -18466,25 +19326,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>465</v>
+        <v>360.18</v>
       </c>
       <c r="C18" s="9">
-        <v>2.2999999999999998</v>
+        <v>-12</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>773.26499999999999</v>
+        <v>867.87</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -18496,25 +19356,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>471</v>
+        <v>365.1</v>
       </c>
       <c r="C19" s="6">
-        <v>2.2999999999999998</v>
+        <v>-15.5</v>
       </c>
       <c r="D19" s="6">
-        <v>6000</v>
+        <v>4920</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>759.46500000000003</v>
+        <v>944.13</v>
       </c>
       <c r="G19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -18526,25 +19386,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>475.7</v>
+        <v>366.40300000000002</v>
       </c>
       <c r="C20" s="9">
-        <v>4</v>
+        <v>-8.8004999999999995</v>
       </c>
       <c r="D20" s="9">
-        <v>4700</v>
+        <v>1303</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>740.67000000000007</v>
+        <v>955.59705150000002</v>
       </c>
       <c r="G20" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -18556,25 +19416,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>476.9</v>
+        <v>370.6</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6">
-        <v>1200</v>
+        <v>4197</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>740.67</v>
+        <v>943.00900000000001</v>
       </c>
       <c r="G21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -18586,25 +19446,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>483.09999999999997</v>
+        <v>370.66405600000002</v>
       </c>
       <c r="C22" s="9">
-        <v>4</v>
+        <v>14.9</v>
       </c>
       <c r="D22" s="9">
-        <v>6200</v>
+        <v>64.055999999999997</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>715.87</v>
+        <v>942.04556560000003</v>
       </c>
       <c r="G22" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -18616,25 +19476,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>486.1</v>
+        <v>370.8</v>
       </c>
       <c r="C23" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3000</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>715.87</v>
+        <v>942.04600000000005</v>
       </c>
       <c r="G23" s="6">
         <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -18646,25 +19506,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>488</v>
+        <v>373.2</v>
       </c>
       <c r="C24" s="9">
-        <v>-2</v>
+        <v>14.9</v>
       </c>
       <c r="D24" s="9">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>719.67</v>
+        <v>906.28600000000006</v>
       </c>
       <c r="G24" s="9">
         <v>3</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -18676,25 +19536,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>493.9</v>
+        <v>375.55</v>
       </c>
       <c r="C25" s="6">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
-        <v>5900</v>
+        <v>2350</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>704.92</v>
+        <v>894.54</v>
       </c>
       <c r="G25" s="6">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -18706,25 +19566,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>500.5</v>
+        <v>376.791</v>
       </c>
       <c r="C26" s="9">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D26" s="9">
-        <v>6600</v>
+        <v>1241</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>704.92</v>
+        <v>903.22699999999998</v>
       </c>
       <c r="G26" s="9">
         <v>3</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -18736,25 +19596,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>503.4</v>
+        <v>382.1</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>-15.5</v>
       </c>
       <c r="D27" s="6">
-        <v>2900</v>
+        <v>5309</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>699.12</v>
+        <v>985.51949999999999</v>
       </c>
       <c r="G27" s="6">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -18766,25 +19626,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>507.5</v>
+        <v>383.70100000000002</v>
       </c>
       <c r="C28" s="9">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
       <c r="D28" s="9">
-        <v>4100</v>
+        <v>1601</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>699.12</v>
+        <v>994.32550000000003</v>
       </c>
       <c r="G28" s="9">
         <v>3</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -18796,25 +19656,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>513</v>
+        <v>385.20000000000005</v>
       </c>
       <c r="C29" s="6">
-        <v>-3.5</v>
+        <v>6.2</v>
       </c>
       <c r="D29" s="6">
-        <v>5500</v>
+        <v>1499</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>718.37</v>
+        <v>985.03620000000001</v>
       </c>
       <c r="G29" s="6">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -18826,25 +19686,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>514.70000000000005</v>
+        <v>389.25</v>
       </c>
       <c r="C30" s="9">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D30" s="9">
-        <v>1700</v>
+        <v>4050</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>718.37</v>
+        <v>922.26499999999999</v>
       </c>
       <c r="G30" s="9">
         <v>3</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -18856,25 +19716,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>520</v>
+        <v>390.45</v>
       </c>
       <c r="C31" s="6">
-        <v>-5.5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6">
-        <v>5300</v>
+        <v>1200</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>747.52</v>
+        <v>917.47</v>
       </c>
       <c r="G31" s="6">
         <v>3</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -18886,25 +19746,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>521.4</v>
+        <v>392.4</v>
       </c>
       <c r="C32" s="9">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D32" s="9">
-        <v>1400</v>
+        <v>1950</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>747.52</v>
+        <v>931.12</v>
       </c>
       <c r="G32" s="9">
         <v>3</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -18916,25 +19776,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>522.9</v>
+        <v>396.5</v>
       </c>
       <c r="C33" s="6">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="D33" s="6">
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>764.02</v>
+        <v>943.42</v>
       </c>
       <c r="G33" s="6">
         <v>3</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -18946,25 +19806,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>524.79999999999995</v>
+        <v>400.9</v>
       </c>
       <c r="C34" s="9">
-        <v>-5.5</v>
+        <v>-12</v>
       </c>
       <c r="D34" s="9">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>774.47</v>
+        <v>996.19999999999993</v>
       </c>
       <c r="G34" s="9">
         <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -18976,25 +19836,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>526.000001</v>
+        <v>418.87837999999999</v>
       </c>
       <c r="C35" s="6">
-        <v>-10</v>
+        <v>-15.5</v>
       </c>
       <c r="D35" s="6">
-        <v>1200.001</v>
+        <v>17978.38</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>786.47001</v>
+        <v>1274.8648900000001</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -19006,25 +19866,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>528.29999999999995</v>
+        <v>418.89</v>
       </c>
       <c r="C36" s="9">
-        <v>-12</v>
+        <v>-15.5</v>
       </c>
       <c r="D36" s="9">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>814.06700000000001</v>
+        <v>1274.865</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -19036,25 +19896,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>532.4</v>
+        <v>419.09999999999997</v>
       </c>
       <c r="C37" s="6">
-        <v>-9</v>
+        <v>-15.5</v>
       </c>
       <c r="D37" s="6">
-        <v>4100</v>
+        <v>210</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>850.97</v>
+        <v>1278.1200000000001</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -19066,25 +19926,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>533.1</v>
+        <v>420.3</v>
       </c>
       <c r="C38" s="9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D38" s="9">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>855.17000000000007</v>
+        <v>1287.7199999999998</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -19096,25 +19956,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>535</v>
+        <v>422.5</v>
       </c>
       <c r="C39" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" s="6">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>843.77</v>
+        <v>1278.92</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -19126,25 +19986,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>535.6</v>
+        <v>424.5</v>
       </c>
       <c r="C40" s="9">
-        <v>14</v>
+        <v>14.8</v>
       </c>
       <c r="D40" s="9">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>835.37</v>
+        <v>1249.3200000000002</v>
       </c>
       <c r="G40" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -19156,25 +20016,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>536.4</v>
+        <v>426.2</v>
       </c>
       <c r="C41" s="6">
-        <v>4</v>
+        <v>11.3</v>
       </c>
       <c r="D41" s="6">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>832.17</v>
+        <v>1230.1099999999999</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -19186,25 +20046,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>540</v>
+        <v>430.59999999999997</v>
       </c>
       <c r="C42" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D42" s="9">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>803.37</v>
+        <v>1230.1099999999999</v>
       </c>
       <c r="G42" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -19216,25 +20076,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>542</v>
+        <v>430.65308800000003</v>
       </c>
       <c r="C43" s="6">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="D43" s="6">
-        <v>2000</v>
+        <v>53.088000000000001</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>796.37</v>
+        <v>1230.2692639999998</v>
       </c>
       <c r="G43" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -19246,25 +20106,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>543.29999999999995</v>
+        <v>432.3</v>
       </c>
       <c r="C44" s="9">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="D44" s="9">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>783.37</v>
+        <v>1230.269</v>
       </c>
       <c r="G44" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -19276,25 +20136,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>548.19999999999993</v>
+        <v>435.7</v>
       </c>
       <c r="C45" s="6">
-        <v>3.8</v>
+        <v>-3</v>
       </c>
       <c r="D45" s="6">
-        <v>4900</v>
+        <v>3400</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>764.75</v>
+        <v>1240.4690000000001</v>
       </c>
       <c r="G45" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -19306,25 +20166,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>549.6</v>
+        <v>438.18</v>
       </c>
       <c r="C46" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="9">
-        <v>1400</v>
+        <v>2480</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>763.35</v>
+        <v>1233.03</v>
       </c>
       <c r="G46" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -19336,25 +20196,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>550.70000000000005</v>
+        <v>444.6</v>
       </c>
       <c r="C47" s="6">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="D47" s="6">
-        <v>1100</v>
+        <v>6420</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>755.65</v>
+        <v>1290.81</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -19366,25 +20226,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>553.90000000000009</v>
+        <v>448.20000000000005</v>
       </c>
       <c r="C48" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="9">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>752.44999999999993</v>
+        <v>1280.01</v>
       </c>
       <c r="G48" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -19396,25 +20256,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>554.9</v>
+        <v>452.09999999999997</v>
       </c>
       <c r="C49" s="6">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D49" s="6">
-        <v>1000</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>762.45</v>
+        <v>1299.51</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -19426,25 +20286,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>555.5</v>
+        <v>457.40000000000003</v>
       </c>
       <c r="C50" s="9">
-        <v>0</v>
+        <v>-15.5</v>
       </c>
       <c r="D50" s="9">
-        <v>600</v>
+        <v>5300</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>762.45</v>
+        <v>1381.66</v>
       </c>
       <c r="G50" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -19456,25 +20316,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>559</v>
+        <v>459.2</v>
       </c>
       <c r="C51" s="6">
-        <v>10.3</v>
+        <v>-3.5</v>
       </c>
       <c r="D51" s="6">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>726.40000000000009</v>
+        <v>1387.96</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -19486,25 +20346,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>562.5</v>
+        <v>462.08</v>
       </c>
       <c r="C52" s="9">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D52" s="9">
-        <v>3500</v>
+        <v>2880</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>721.15</v>
+        <v>1375</v>
       </c>
       <c r="G52" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -19516,25 +20376,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>563.1</v>
+        <v>462.5</v>
       </c>
       <c r="C53" s="6">
-        <v>-7.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D53" s="6">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>725.65</v>
+        <v>1376.47</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -19546,25 +20406,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>564.6</v>
+        <v>467.25</v>
       </c>
       <c r="C54" s="9">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="D54" s="9">
-        <v>1500</v>
+        <v>4750</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>725.65</v>
+        <v>1393.0930000000001</v>
       </c>
       <c r="G54" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -19576,25 +20436,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>569.80000000000007</v>
+        <v>469.75</v>
       </c>
       <c r="C55" s="6">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="D55" s="6">
-        <v>5200</v>
+        <v>2500</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>710.05</v>
+        <v>1410.59</v>
       </c>
       <c r="G55" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -19606,25 +20466,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>571.69999999999993</v>
+        <v>471.2</v>
       </c>
       <c r="C56" s="9">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="D56" s="9">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>706.25</v>
+        <v>1433.79</v>
       </c>
       <c r="G56" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -19636,25 +20496,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>572.90000000000009</v>
+        <v>472.59999999999997</v>
       </c>
       <c r="C57" s="6">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="D57" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>709.85</v>
+        <v>1450.59</v>
       </c>
       <c r="G57" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -19666,25 +20526,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>573.79999999999995</v>
+        <v>475.45000000000005</v>
       </c>
       <c r="C58" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>900</v>
+        <v>2850</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>706.25</v>
+        <v>1450.59</v>
       </c>
       <c r="G58" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -19696,25 +20556,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>577.25</v>
+        <v>477.5</v>
       </c>
       <c r="C59" s="6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="D59" s="6">
-        <v>3450</v>
+        <v>2050</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>726.95</v>
+        <v>1434.1899999999998</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -19726,25 +20586,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>578.65</v>
+        <v>478.85</v>
       </c>
       <c r="C60" s="9">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="D60" s="9">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>728.35</v>
+        <v>1435.81</v>
       </c>
       <c r="G60" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -19756,25 +20616,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>580.29999999999995</v>
+        <v>481.65000000000003</v>
       </c>
       <c r="C61" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D61" s="6">
-        <v>1650</v>
+        <v>2800</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>725.05000000000007</v>
+        <v>1410.61</v>
       </c>
       <c r="G61" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -19786,25 +20646,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>581</v>
+        <v>482.95</v>
       </c>
       <c r="C62" s="9">
         <v>-3</v>
       </c>
       <c r="D62" s="9">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>727.15</v>
+        <v>1414.51</v>
       </c>
       <c r="G62" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -19816,25 +20676,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>582.29999999999995</v>
+        <v>485.17</v>
       </c>
       <c r="C63" s="6">
-        <v>-12</v>
+        <v>-10.5</v>
       </c>
       <c r="D63" s="6">
-        <v>1300</v>
+        <v>2220</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>742.75</v>
+        <v>1437.82</v>
       </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -19846,25 +20706,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>583.59999999999991</v>
+        <v>487.8</v>
       </c>
       <c r="C64" s="9">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="D64" s="9">
-        <v>1300</v>
+        <v>2630</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>742.75</v>
+        <v>1457.5449999999998</v>
       </c>
       <c r="G64" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -19876,25 +20736,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>584.80000000000007</v>
+        <v>491</v>
       </c>
       <c r="C65" s="6">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>735.55</v>
+        <v>1446.35</v>
       </c>
       <c r="G65" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -19906,25 +20766,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>586.29999999999995</v>
+        <v>494.25</v>
       </c>
       <c r="C66" s="9">
-        <v>2</v>
+        <v>15.5</v>
       </c>
       <c r="D66" s="9">
-        <v>1500</v>
+        <v>3250</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>732.55</v>
+        <v>1395.9749999999999</v>
       </c>
       <c r="G66" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -19936,25 +20796,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>587.79999999999995</v>
+        <v>495.76</v>
       </c>
       <c r="C67" s="6">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1500</v>
+        <v>1510</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>719.8</v>
+        <v>1390.6949999999999</v>
       </c>
       <c r="G67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -19966,25 +20826,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>588.59999999999991</v>
+        <v>496.96</v>
       </c>
       <c r="C68" s="9">
-        <v>2</v>
+        <v>-8.5</v>
       </c>
       <c r="D68" s="9">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>718.19999999999993</v>
+        <v>1400.9</v>
       </c>
       <c r="G68" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -19996,25 +20856,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>589.30000000000007</v>
+        <v>497.09922699999998</v>
       </c>
       <c r="C69" s="6">
-        <v>-6</v>
+        <v>-15.7</v>
       </c>
       <c r="D69" s="6">
-        <v>700</v>
+        <v>139.227</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>722.40000000000009</v>
+        <v>1403.0858639</v>
       </c>
       <c r="G69" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -20026,25 +20886,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>592.5</v>
+        <v>497.1</v>
       </c>
       <c r="C70" s="9">
-        <v>6</v>
+        <v>-15.7</v>
       </c>
       <c r="D70" s="9">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>703.19999999999993</v>
+        <v>1403.086</v>
       </c>
       <c r="G70" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -20056,25 +20916,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>593.70000000000005</v>
+        <v>506.15000000000003</v>
       </c>
       <c r="C71" s="6">
-        <v>-6</v>
+        <v>-15.7</v>
       </c>
       <c r="D71" s="6">
-        <v>1200</v>
+        <v>9050</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>710.40000000000009</v>
+        <v>1545.171</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -20086,25 +20946,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>595</v>
+        <v>508.54999999999995</v>
       </c>
       <c r="C72" s="9">
-        <v>-2</v>
+        <v>-11.5</v>
       </c>
       <c r="D72" s="9">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>713</v>
+        <v>1572.77</v>
       </c>
       <c r="G72" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -20116,25 +20976,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>597.9</v>
+        <v>509.45</v>
       </c>
       <c r="C73" s="6">
-        <v>-14</v>
+        <v>-7.5</v>
       </c>
       <c r="D73" s="6">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>753.6</v>
+        <v>1579.52</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -20146,25 +21006,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>598.6</v>
+        <v>510.34999999999997</v>
       </c>
       <c r="C74" s="9">
-        <v>-2</v>
+        <v>-3.6669999999999998</v>
       </c>
       <c r="D74" s="9">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>755</v>
+        <v>1582.8203000000001</v>
       </c>
       <c r="G74" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -20176,25 +21036,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>599.1</v>
+        <v>511.25</v>
       </c>
       <c r="C75" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D75" s="6">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>751</v>
+        <v>1579.22</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -20206,25 +21066,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>600</v>
+        <v>515.54999999999995</v>
       </c>
       <c r="C76" s="9">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="D76" s="9">
-        <v>900</v>
+        <v>4300</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>754.6</v>
+        <v>1510.42</v>
       </c>
       <c r="G76" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -20236,25 +21096,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>600.9</v>
+        <v>516.84999999999991</v>
       </c>
       <c r="C77" s="6">
-        <v>-15.5</v>
+        <v>4.5</v>
       </c>
       <c r="D77" s="6">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <v>768.55000000000007</v>
+        <v>1504.5700000000002</v>
       </c>
       <c r="G77" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -20266,25 +21126,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>602.29999999999995</v>
+        <v>519.25</v>
       </c>
       <c r="C78" s="9">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D78" s="9">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <v>776.94999999999993</v>
+        <v>1506.97</v>
       </c>
       <c r="G78" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -20296,25 +21156,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>604.4</v>
+        <v>520</v>
       </c>
       <c r="C79" s="6">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
-        <v>2100</v>
+        <v>750</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <v>812.65000000000009</v>
+        <v>1506.97</v>
       </c>
       <c r="G79" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -20326,25 +21186,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>605.4</v>
+        <v>522.45000000000005</v>
       </c>
       <c r="C80" s="9">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D80" s="9">
-        <v>1000</v>
+        <v>2450</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <v>820.65</v>
+        <v>1506.9580000000001</v>
       </c>
       <c r="G80" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -20356,25 +21216,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>606.19999999999993</v>
+        <v>523.65000000000009</v>
       </c>
       <c r="C81" s="6">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="D81" s="6">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <v>834.25</v>
+        <v>1521.3600000000001</v>
       </c>
       <c r="G81" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -20386,25 +21246,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>606.70000000000005</v>
+        <v>526.29999999999995</v>
       </c>
       <c r="C82" s="9">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="D82" s="9">
-        <v>500</v>
+        <v>2650</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>836.75</v>
+        <v>1569.06</v>
       </c>
       <c r="G82" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -20416,25 +21276,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>607.1</v>
+        <v>532.69999999999993</v>
       </c>
       <c r="C83" s="6">
-        <v>7</v>
+        <v>-15.6</v>
       </c>
       <c r="D83" s="6">
-        <v>400</v>
+        <v>6400</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>833.95</v>
+        <v>1668.8999999999999</v>
       </c>
       <c r="G83" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -20446,25 +21306,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>609</v>
+        <v>533.90000000000009</v>
       </c>
       <c r="C84" s="9">
-        <v>18.5</v>
+        <v>-9</v>
       </c>
       <c r="D84" s="9">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>798.80000000000007</v>
+        <v>1679.7</v>
       </c>
       <c r="G84" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -20476,25 +21336,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>609.4</v>
+        <v>542.85</v>
       </c>
       <c r="C85" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>400</v>
+        <v>8950</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <v>796</v>
+        <v>1652.8500000000001</v>
       </c>
       <c r="G85" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -20506,25 +21366,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>609.9</v>
+        <v>544.75</v>
       </c>
       <c r="C86" s="9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D86" s="9">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <v>797</v>
+        <v>1658.55</v>
       </c>
       <c r="G86" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -20536,25 +21396,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>610.9</v>
+        <v>546.65</v>
       </c>
       <c r="C87" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="6">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <v>789</v>
+        <v>1641.45</v>
       </c>
       <c r="G87" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -20566,25 +21426,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>611.29999999999995</v>
+        <v>550.75</v>
       </c>
       <c r="C88" s="9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="9">
-        <v>400</v>
+        <v>4100</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <v>790.6</v>
+        <v>1620.95</v>
       </c>
       <c r="G88" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -20596,25 +21456,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>612.9</v>
+        <v>554.6</v>
       </c>
       <c r="C89" s="6">
-        <v>-16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="6">
-        <v>1600</v>
+        <v>3850</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <v>816.2</v>
+        <v>1563.2</v>
       </c>
       <c r="G89" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -20626,25 +21486,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="11">
-        <v>613.6</v>
+        <v>556.59</v>
       </c>
       <c r="C90" s="9">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D90" s="9">
-        <v>700</v>
+        <v>1990</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <v>819</v>
+        <v>1557.23</v>
       </c>
       <c r="G90" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -20656,25 +21516,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>614.80000000000007</v>
+        <v>558.65</v>
       </c>
       <c r="C91" s="6">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="D91" s="6">
-        <v>1200</v>
+        <v>2060</v>
       </c>
       <c r="E91" s="6">
         <v>0</v>
       </c>
       <c r="F91" s="6">
-        <v>809.4</v>
+        <v>1563.41</v>
       </c>
       <c r="G91" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -20686,25 +21546,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="11">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="C92" s="9">
-        <v>18.2</v>
+        <v>7.5</v>
       </c>
       <c r="D92" s="9">
-        <v>1200</v>
+        <v>2350</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <v>787.56</v>
+        <v>1545.7850000000001</v>
       </c>
       <c r="G92" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -20716,25 +21576,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>616.4</v>
+        <v>562.95000000000005</v>
       </c>
       <c r="C93" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D93" s="6">
-        <v>400</v>
+        <v>1950</v>
       </c>
       <c r="E93" s="6">
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <v>782.76</v>
+        <v>1545.79</v>
       </c>
       <c r="G93" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -20746,25 +21606,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="11">
-        <v>618.41155900000001</v>
+        <v>567.6</v>
       </c>
       <c r="C94" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D94" s="9">
-        <v>2011.559</v>
+        <v>4650</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <v>782.76</v>
+        <v>1489.99</v>
       </c>
       <c r="G94" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -20775,13 +21635,27 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="B95" s="7">
+        <v>568.70000000000005</v>
+      </c>
+      <c r="C95" s="6">
+        <v>12</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1476.7939999999999</v>
+      </c>
+      <c r="G95" s="6">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -20791,13 +21665,27 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="B96" s="11">
+        <v>570.90000000000009</v>
+      </c>
+      <c r="C96" s="9">
+        <v>0</v>
+      </c>
+      <c r="D96" s="9">
+        <v>2200</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1476.79</v>
+      </c>
+      <c r="G96" s="9">
+        <v>6</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -20807,13 +21695,27 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="B97" s="7">
+        <v>573.76099999999997</v>
+      </c>
+      <c r="C97" s="6">
+        <v>-4</v>
+      </c>
+      <c r="D97" s="6">
+        <v>2861</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1488.2339999999999</v>
+      </c>
+      <c r="G97" s="6">
+        <v>6</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -20823,13 +21725,27 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="B98" s="11">
+        <v>578.31999999999994</v>
+      </c>
+      <c r="C98" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D98" s="9">
+        <v>4559</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9">
+        <v>1501.9069999999999</v>
+      </c>
+      <c r="G98" s="9">
+        <v>6</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -20839,13 +21755,27 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="B99" s="7">
+        <v>579.65000000000009</v>
+      </c>
+      <c r="C99" s="6">
+        <v>9</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1330</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1489.94</v>
+      </c>
+      <c r="G99" s="6">
+        <v>6</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -20855,13 +21785,27 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+      <c r="B100" s="11">
+        <v>588.04999999999995</v>
+      </c>
+      <c r="C100" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="D100" s="9">
+        <v>8400</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1359.74</v>
+      </c>
+      <c r="G100" s="9">
+        <v>6</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -20871,13 +21815,27 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="B101" s="7">
+        <v>600.59999999999991</v>
+      </c>
+      <c r="C101" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D101" s="6">
+        <v>12550</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1227.9649999999999</v>
+      </c>
+      <c r="G101" s="6">
+        <v>6</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -20887,13 +21845,27 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="B102" s="11">
+        <v>601.80000000000007</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0</v>
+      </c>
+      <c r="D102" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1227.97</v>
+      </c>
+      <c r="G102" s="9">
+        <v>6</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -20903,13 +21875,27 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="B103" s="7">
+        <v>602.22251199999994</v>
+      </c>
+      <c r="C103" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D103" s="6">
+        <v>422.512</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1233.0401440000001</v>
+      </c>
+      <c r="G103" s="6">
+        <v>6</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -20919,13 +21905,27 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="B104" s="11">
+        <v>602</v>
+      </c>
+      <c r="C104" s="9">
+        <v>-12</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1</v>
+      </c>
+      <c r="F104" s="9">
+        <v>1233.04</v>
+      </c>
+      <c r="G104" s="9">
+        <v>7</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -20935,13 +21935,27 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="B105" s="7">
+        <v>603.20000000000005</v>
+      </c>
+      <c r="C105" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1247.44</v>
+      </c>
+      <c r="G105" s="6">
+        <v>7</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -20951,13 +21965,27 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="11">
+        <v>607.5</v>
+      </c>
+      <c r="C106" s="9">
+        <v>-15.5</v>
+      </c>
+      <c r="D106" s="9">
+        <v>4300</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1314.0900000000001</v>
+      </c>
+      <c r="G106" s="9">
+        <v>7</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -20967,13 +21995,27 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
+      <c r="B107" s="7">
+        <v>612.9</v>
+      </c>
+      <c r="C107" s="6">
+        <v>-15.5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>5400</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1397.789</v>
+      </c>
+      <c r="G107" s="6">
+        <v>7</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -20983,13 +22025,27 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="B108" s="11">
+        <v>614.1</v>
+      </c>
+      <c r="C108" s="9">
+        <v>-8.6</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1408.11</v>
+      </c>
+      <c r="G108" s="9">
+        <v>7</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -20999,13 +22055,27 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
+      <c r="B109" s="7">
+        <v>619</v>
+      </c>
+      <c r="C109" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="D109" s="6">
+        <v>4900</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1391.4499999999998</v>
+      </c>
+      <c r="G109" s="6">
+        <v>7</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -21015,13 +22085,27 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="B110" s="11">
+        <v>622</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0</v>
+      </c>
+      <c r="D110" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1391.45</v>
+      </c>
+      <c r="G110" s="9">
+        <v>7</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -21031,13 +22115,27 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
+      <c r="B111" s="7">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="C111" s="6">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1385.45</v>
+      </c>
+      <c r="G111" s="6">
+        <v>7</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -21047,13 +22145,27 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="B112" s="11">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="C112" s="9">
+        <v>-7</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1500</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0</v>
+      </c>
+      <c r="F112" s="9">
+        <v>1395.95</v>
+      </c>
+      <c r="G112" s="9">
+        <v>7</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -21063,13 +22175,27 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="B113" s="7">
+        <v>627.31000000000006</v>
+      </c>
+      <c r="C113" s="6">
+        <v>-14</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2610</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1432.49</v>
+      </c>
+      <c r="G113" s="6">
+        <v>7</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -21079,13 +22205,27 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="B114" s="11">
+        <v>630.78781499999991</v>
+      </c>
+      <c r="C114" s="9">
+        <v>-3.3</v>
+      </c>
+      <c r="D114" s="9">
+        <v>3477.8150000000001</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1443.9667895</v>
+      </c>
+      <c r="G114" s="9">
+        <v>7</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -21095,13 +22235,27 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
+      <c r="B115" s="7">
+        <v>631.5</v>
+      </c>
+      <c r="C115" s="6">
+        <v>-3.3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0</v>
+      </c>
+      <c r="F115" s="6">
+        <v>1443.9670000000001</v>
+      </c>
+      <c r="G115" s="6">
+        <v>8</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -21111,13 +22265,27 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="B116" s="11">
+        <v>632.5</v>
+      </c>
+      <c r="C116" s="9">
+        <v>-3.3</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+      <c r="F116" s="9">
+        <v>1447.2670000000001</v>
+      </c>
+      <c r="G116" s="9">
+        <v>8</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -21127,13 +22295,27 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
+      <c r="B117" s="7">
+        <v>633.54999999999995</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1050</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1447.27</v>
+      </c>
+      <c r="G117" s="6">
+        <v>8</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -21143,13 +22325,27 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="B118" s="11">
+        <v>634.5</v>
+      </c>
+      <c r="C118" s="9">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="D118" s="9">
+        <v>950</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1444.21955</v>
+      </c>
+      <c r="G118" s="9">
+        <v>8</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -21159,13 +22355,27 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
+      <c r="B119" s="7">
+        <v>634.75</v>
+      </c>
+      <c r="C119" s="6">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="D119" s="6">
+        <v>250</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1443.4132499999998</v>
+      </c>
+      <c r="G119" s="6">
+        <v>8</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -21175,13 +22385,27 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="B120" s="11">
+        <v>635.70000000000005</v>
+      </c>
+      <c r="C120" s="9">
+        <v>0</v>
+      </c>
+      <c r="D120" s="9">
+        <v>950</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1443.41</v>
+      </c>
+      <c r="G120" s="9">
+        <v>8</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -21191,13 +22415,27 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
+      <c r="B121" s="7">
+        <v>636.90000000000009</v>
+      </c>
+      <c r="C121" s="6">
+        <v>-12</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1457.8100000000002</v>
+      </c>
+      <c r="G121" s="6">
+        <v>8</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -21207,13 +22445,27 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="B122" s="11">
+        <v>638.75</v>
+      </c>
+      <c r="C122" s="9">
+        <v>-17.3</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1850</v>
+      </c>
+      <c r="E122" s="9">
+        <v>0</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1489.8150000000001</v>
+      </c>
+      <c r="G122" s="9">
+        <v>8</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -21223,13 +22475,27 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="B123" s="7">
+        <v>659.1</v>
+      </c>
+      <c r="C123" s="6">
+        <v>-15.5</v>
+      </c>
+      <c r="D123" s="6">
+        <v>20350</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1805.2449999999999</v>
+      </c>
+      <c r="G123" s="6">
+        <v>8</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -21239,13 +22505,27 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="B124" s="11">
+        <v>660.5</v>
+      </c>
+      <c r="C124" s="9">
+        <v>-5</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1400</v>
+      </c>
+      <c r="E124" s="9">
+        <v>0</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1812.25</v>
+      </c>
+      <c r="G124" s="9">
+        <v>8</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -21255,13 +22535,27 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="B125" s="7">
+        <v>669.45</v>
+      </c>
+      <c r="C125" s="6">
+        <v>7</v>
+      </c>
+      <c r="D125" s="6">
+        <v>8950</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="6">
+        <v>1749.6</v>
+      </c>
+      <c r="G125" s="6">
+        <v>8</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -21271,13 +22565,27 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="B126" s="11">
+        <v>673.40000000000009</v>
+      </c>
+      <c r="C126" s="9">
+        <v>18</v>
+      </c>
+      <c r="D126" s="9">
+        <v>3950</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1678.5</v>
+      </c>
+      <c r="G126" s="9">
+        <v>8</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -21287,13 +22595,27 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
+      <c r="B127" s="7">
+        <v>674.13191299999994</v>
+      </c>
+      <c r="C127" s="6">
+        <v>12</v>
+      </c>
+      <c r="D127" s="6">
+        <v>731.91300000000001</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1669.717044</v>
+      </c>
+      <c r="G127" s="6">
+        <v>8</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -21303,13 +22625,27 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="B128" s="11">
+        <v>683.9</v>
+      </c>
+      <c r="C128" s="9">
+        <v>12</v>
+      </c>
+      <c r="D128" s="9">
+        <v>0</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1669.7170000000001</v>
+      </c>
+      <c r="G128" s="9">
+        <v>9</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -21319,13 +22655,27 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="B129" s="7">
+        <v>684.3</v>
+      </c>
+      <c r="C129" s="6">
+        <v>12</v>
+      </c>
+      <c r="D129" s="6">
+        <v>400</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1664.9170000000001</v>
+      </c>
+      <c r="G129" s="6">
+        <v>9</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -21335,13 +22685,27 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="B130" s="11">
+        <v>684.4</v>
+      </c>
+      <c r="C130" s="9">
+        <v>12</v>
+      </c>
+      <c r="D130" s="9">
+        <v>100</v>
+      </c>
+      <c r="E130" s="9">
+        <v>0</v>
+      </c>
+      <c r="F130" s="9">
+        <v>1663.71</v>
+      </c>
+      <c r="G130" s="9">
+        <v>9</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -21351,13 +22715,27 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="B131" s="7">
+        <v>688</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1663.71</v>
+      </c>
+      <c r="G131" s="6">
+        <v>9</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -21367,13 +22745,27 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="B132" s="11">
+        <v>689.8</v>
+      </c>
+      <c r="C132" s="9">
+        <v>-11.4</v>
+      </c>
+      <c r="D132" s="9">
+        <v>1800</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1684.23</v>
+      </c>
+      <c r="G132" s="9">
+        <v>9</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -21383,13 +22775,27 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
+      <c r="B133" s="7">
+        <v>691.69999999999993</v>
+      </c>
+      <c r="C133" s="6">
+        <v>3</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1678.53</v>
+      </c>
+      <c r="G133" s="6">
+        <v>9</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -21399,13 +22805,27 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="B134" s="11">
+        <v>698.6</v>
+      </c>
+      <c r="C134" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="D134" s="9">
+        <v>6900</v>
+      </c>
+      <c r="E134" s="9">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1585.3799999999999</v>
+      </c>
+      <c r="G134" s="9">
+        <v>9</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -21415,13 +22835,27 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
+      <c r="B135" s="7">
+        <v>701.80000000000007</v>
+      </c>
+      <c r="C135" s="6">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6">
+        <v>3200</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1566.18</v>
+      </c>
+      <c r="G135" s="6">
+        <v>9</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -21431,13 +22865,27 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="B136" s="11">
+        <v>702.74913699999991</v>
+      </c>
+      <c r="C136" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D136" s="9">
+        <v>949.13699999999994</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
+      <c r="F136" s="9">
+        <v>1569.027411</v>
+      </c>
+      <c r="G136" s="9">
+        <v>9</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -21447,13 +22895,27 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
+      <c r="B137" s="7">
+        <v>702.4</v>
+      </c>
+      <c r="C137" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1569.027</v>
+      </c>
+      <c r="G137" s="6">
+        <v>10</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -21463,13 +22925,27 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="B138" s="11">
+        <v>703.1</v>
+      </c>
+      <c r="C138" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D138" s="9">
+        <v>700</v>
+      </c>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1571.127</v>
+      </c>
+      <c r="G138" s="9">
+        <v>10</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -21479,13 +22955,27 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+      <c r="B139" s="7">
+        <v>706.41</v>
+      </c>
+      <c r="C139" s="6">
+        <v>-14.5</v>
+      </c>
+      <c r="D139" s="6">
+        <v>3310</v>
+      </c>
+      <c r="E139" s="6">
+        <v>0</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1619.125</v>
+      </c>
+      <c r="G139" s="6">
+        <v>10</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -21495,13 +22985,27 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="B140" s="11">
+        <v>714.65</v>
+      </c>
+      <c r="C140" s="9">
+        <v>-23.5</v>
+      </c>
+      <c r="D140" s="9">
+        <v>8240</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1812.77</v>
+      </c>
+      <c r="G140" s="9">
+        <v>10</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -21511,13 +23015,27 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="B141" s="7">
+        <v>718.65</v>
+      </c>
+      <c r="C141" s="6">
+        <v>3</v>
+      </c>
+      <c r="D141" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1800.77</v>
+      </c>
+      <c r="G141" s="6">
+        <v>10</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -21527,13 +23045,27 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="B142" s="11">
+        <v>720.9</v>
+      </c>
+      <c r="C142" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D142" s="9">
+        <v>2250</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1803.02</v>
+      </c>
+      <c r="G142" s="9">
+        <v>10</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -21543,13 +23075,27 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
+      <c r="B143" s="7">
+        <v>722.1</v>
+      </c>
+      <c r="C143" s="6">
+        <v>-3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1806.62</v>
+      </c>
+      <c r="G143" s="6">
+        <v>10</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -21559,13 +23105,27 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
+      <c r="B144" s="11">
+        <v>728.53</v>
+      </c>
+      <c r="C144" s="9">
+        <v>-23.5</v>
+      </c>
+      <c r="D144" s="9">
+        <v>6430</v>
+      </c>
+      <c r="E144" s="9">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9">
+        <v>1957.7249999999999</v>
+      </c>
+      <c r="G144" s="9">
+        <v>10</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -21575,13 +23135,27 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
+      <c r="B145" s="7">
+        <v>732.71499999999992</v>
+      </c>
+      <c r="C145" s="6">
+        <v>3</v>
+      </c>
+      <c r="D145" s="6">
+        <v>4185</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0</v>
+      </c>
+      <c r="F145" s="6">
+        <v>1945.175</v>
+      </c>
+      <c r="G145" s="6">
+        <v>10</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -21591,13 +23165,27 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="B146" s="11">
+        <v>733.98</v>
+      </c>
+      <c r="C146" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1265</v>
+      </c>
+      <c r="E146" s="9">
+        <v>0</v>
+      </c>
+      <c r="F146" s="9">
+        <v>1942.0175000000002</v>
+      </c>
+      <c r="G146" s="9">
+        <v>10</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -21607,13 +23195,27 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
+      <c r="B147" s="7">
+        <v>734.58299999999997</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0</v>
+      </c>
+      <c r="D147" s="6">
+        <v>603</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1942.02</v>
+      </c>
+      <c r="G147" s="6">
+        <v>10</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>D1K</t>
-  </si>
-  <si>
-    <t>YDK</t>
   </si>
 </sst>
 </file>
@@ -633,178 +630,136 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
+        <v>307.8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2550</v>
+      </c>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2770</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
       <c r="F3" s="6">
-        <v>1346.5589</v>
+        <v>19.02</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6">
-        <v>6000</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6">
-        <v>5881</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>2.77</v>
+        <v>305.25</v>
       </c>
       <c r="C4" s="9">
-        <v>-10.5</v>
+        <v>-1.9</v>
       </c>
       <c r="D4" s="9">
-        <v>2608</v>
+        <v>500</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>1371.21</v>
+        <v>21.57</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>60996.985999999997</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>61020</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>5.3780000000000001</v>
+        <v>304.75</v>
       </c>
       <c r="C5" s="6">
-        <v>0.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D5" s="6">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>1343.83</v>
+        <v>20.62</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6">
-        <v>75186.740000000005</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6">
-        <v>76450</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>6</v>
+        <v>304.45</v>
       </c>
       <c r="C6" s="9">
-        <v>0.5</v>
+        <v>-3.8</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>1344.1410000000001</v>
+        <v>19.63</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9">
-        <v>86961.691999999995</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="9">
-        <v>86950</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>5.8810000000000002</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6">
-        <v>0.5</v>
+        <v>-2.8</v>
       </c>
       <c r="D7" s="6">
-        <v>1473.76</v>
+        <v>200</v>
       </c>
       <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
-        <v>1344.1410000000001</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -815,26 +770,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>7.3547599999999997</v>
+        <v>303.8</v>
       </c>
       <c r="C8" s="9">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="D8" s="9">
-        <v>245.24</v>
+        <v>570</v>
       </c>
       <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>17.36</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>1344.76</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -845,26 +798,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>7.6</v>
+        <v>303.23</v>
       </c>
       <c r="C9" s="6">
-        <v>-3.7</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="6">
-        <v>2600</v>
+        <v>530</v>
       </c>
       <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15.37</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
-        <v>1343.8489</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -875,26 +826,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>10.199999999999999</v>
+        <v>302.7</v>
       </c>
       <c r="C10" s="9">
-        <v>-10.5</v>
+        <v>0.6</v>
       </c>
       <c r="D10" s="9">
-        <v>1350</v>
+        <v>1060</v>
       </c>
       <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>15.58</v>
+      </c>
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
-        <v>1334.23</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -905,26 +854,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>11.55</v>
+        <v>301.64</v>
       </c>
       <c r="C11" s="6">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="6">
-        <v>2000</v>
+        <v>390</v>
       </c>
       <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>16.22</v>
+      </c>
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>1320.06</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -935,26 +882,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>13.55</v>
+        <v>301.25</v>
       </c>
       <c r="C12" s="9">
-        <v>-22.5</v>
+        <v>2.7</v>
       </c>
       <c r="D12" s="9">
-        <v>2948.1550000000002</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>16.88</v>
+      </c>
+      <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="9">
-        <v>1341.06</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -965,26 +910,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>16.498149999999999</v>
+        <v>301.05</v>
       </c>
       <c r="C13" s="6">
-        <v>4.5999999999999996</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D13" s="6">
-        <v>1751.845</v>
+        <v>350</v>
       </c>
       <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
-        <v>1274.73</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -995,26 +938,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>18.25</v>
+        <v>300.7</v>
       </c>
       <c r="C14" s="9">
+        <v>-2.6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>300</v>
+      </c>
+      <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
-        <v>2050</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
+        <v>16.62</v>
+      </c>
+      <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
-        <v>1282.79</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1025,26 +966,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>20.3</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="C15" s="6">
-        <v>-10.5</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="6">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>15.84</v>
+      </c>
+      <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
-        <v>1282.79</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1055,26 +994,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>22.6</v>
+        <v>300.2</v>
       </c>
       <c r="C16" s="9">
-        <v>11</v>
+        <v>-2.4</v>
       </c>
       <c r="D16" s="9">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>15.64</v>
+      </c>
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>1258.6400000000001</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1085,26 +1022,24 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>24.9</v>
+        <v>299.95</v>
       </c>
       <c r="C17" s="6">
-        <v>-8.5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>15.04</v>
+      </c>
+      <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
-        <v>1283.94</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1115,26 +1050,24 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>26.2</v>
+        <v>299.7</v>
       </c>
       <c r="C18" s="9">
-        <v>20.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D18" s="9">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>15.29</v>
+      </c>
+      <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
-        <v>1272.8900000000001</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1145,26 +1078,24 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>26.5</v>
+        <v>299.07</v>
       </c>
       <c r="C19" s="6">
-        <v>20.5</v>
+        <v>-2.1</v>
       </c>
       <c r="D19" s="6">
-        <v>1650</v>
+        <v>570</v>
       </c>
       <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>16.68</v>
+      </c>
+      <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
-        <v>1279.0289</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1175,26 +1106,24 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>28.15</v>
+        <v>298.5</v>
       </c>
       <c r="C20" s="9">
-        <v>14</v>
+        <v>-2</v>
       </c>
       <c r="D20" s="9">
-        <v>1620</v>
+        <v>250</v>
       </c>
       <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>15.48</v>
+      </c>
+      <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
-        <v>1312.85</v>
-      </c>
-      <c r="G20" s="9">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1205,26 +1134,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>29.77</v>
+        <v>298.25</v>
       </c>
       <c r="C21" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>2230</v>
+        <v>680</v>
       </c>
       <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>14.98</v>
+      </c>
+      <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <v>1335.53</v>
-      </c>
-      <c r="G21" s="6">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1235,26 +1162,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>32</v>
+        <v>297.57</v>
       </c>
       <c r="C22" s="9">
-        <v>-3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D22" s="9">
-        <v>1206.25</v>
+        <v>550</v>
       </c>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>14.98</v>
+      </c>
+      <c r="G22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
-        <v>1375.67</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1265,26 +1190,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>33.206249999999997</v>
+        <v>297.02</v>
       </c>
       <c r="C23" s="6">
-        <v>5</v>
+        <v>-0.1</v>
       </c>
       <c r="D23" s="6">
-        <v>2538.75</v>
+        <v>500</v>
       </c>
       <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>15.59</v>
+      </c>
+      <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
-        <v>1372.05</v>
-      </c>
-      <c r="G23" s="6">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1295,26 +1218,24 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>35.744999999999997</v>
+        <v>296.52</v>
       </c>
       <c r="C24" s="9">
-        <v>-25</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="9">
-        <v>355</v>
+        <v>1650</v>
       </c>
       <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>15.54</v>
+      </c>
+      <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="9">
-        <v>1384.74</v>
-      </c>
-      <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1325,26 +1246,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>36.1</v>
+        <v>294.87</v>
       </c>
       <c r="C25" s="6">
-        <v>-25</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="6">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>13.89</v>
+      </c>
+      <c r="G25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="6">
-        <v>1376.1131</v>
-      </c>
-      <c r="G25" s="6">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1355,26 +1274,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>37.5</v>
+        <v>294.37</v>
       </c>
       <c r="C26" s="9">
-        <v>-10</v>
+        <v>3.9</v>
       </c>
       <c r="D26" s="9">
-        <v>2150</v>
+        <v>830</v>
       </c>
       <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>14.29</v>
+      </c>
+      <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="9">
-        <v>1341.11</v>
-      </c>
-      <c r="G26" s="9">
-        <v>2</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1385,26 +1302,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>39.65</v>
+        <v>293.54000000000002</v>
       </c>
       <c r="C27" s="6">
-        <v>25</v>
+        <v>2.1</v>
       </c>
       <c r="D27" s="6">
-        <v>1450</v>
+        <v>1015</v>
       </c>
       <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>17.53</v>
+      </c>
+      <c r="G27" s="6">
         <v>1</v>
       </c>
-      <c r="F27" s="6">
-        <v>1319.61</v>
-      </c>
-      <c r="G27" s="6">
-        <v>2</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1415,26 +1330,24 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>41.1</v>
+        <v>292.52499999999998</v>
       </c>
       <c r="C28" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D28" s="9">
-        <v>2950</v>
+        <v>600</v>
       </c>
       <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>19.66</v>
+      </c>
+      <c r="G28" s="9">
         <v>1</v>
       </c>
-      <c r="F28" s="9">
-        <v>1355.86</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1445,26 +1358,24 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>44.05</v>
+        <v>291.92500000000001</v>
       </c>
       <c r="C29" s="6">
-        <v>-10.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="D29" s="6">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>22.06</v>
+      </c>
+      <c r="G29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
-        <v>1414.86</v>
-      </c>
-      <c r="G29" s="6">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1475,26 +1386,24 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>46.05</v>
+        <v>291.52499999999998</v>
       </c>
       <c r="C30" s="9">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D30" s="9">
-        <v>1470</v>
+        <v>1650</v>
       </c>
       <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>23.42</v>
+      </c>
+      <c r="G30" s="9">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
-        <v>1394.46</v>
-      </c>
-      <c r="G30" s="9">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1505,26 +1414,24 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>47.52</v>
+        <v>289.875</v>
       </c>
       <c r="C31" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>450</v>
+      </c>
+      <c r="E31" s="6">
         <v>0</v>
       </c>
-      <c r="D31" s="6">
-        <v>480</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
+        <v>28.37</v>
+      </c>
+      <c r="G31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
-        <v>1390.05</v>
-      </c>
-      <c r="G31" s="6">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1535,26 +1442,24 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>48</v>
+        <v>289.42500000000001</v>
       </c>
       <c r="C32" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>500</v>
+      </c>
+      <c r="E32" s="9">
         <v>0</v>
       </c>
-      <c r="D32" s="9">
-        <v>1270</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
+        <v>29.09</v>
+      </c>
+      <c r="G32" s="9">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
-        <v>1390.0531000000001</v>
-      </c>
-      <c r="G32" s="9">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1565,26 +1470,24 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>49.27</v>
+        <v>288.92500000000001</v>
       </c>
       <c r="C33" s="6">
-        <v>18.3</v>
+        <v>-4</v>
       </c>
       <c r="D33" s="6">
-        <v>1400</v>
+        <v>325</v>
       </c>
       <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>28.04</v>
+      </c>
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
-        <v>1390.05</v>
-      </c>
-      <c r="G33" s="6">
-        <v>2</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1595,19 +1498,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>50.67</v>
+        <v>0</v>
       </c>
       <c r="C34" s="9">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
       <c r="D34" s="9">
-        <v>1730</v>
+        <v>820</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>1415.67</v>
+        <v>26.73</v>
       </c>
       <c r="G34" s="9">
         <v>2</v>
@@ -1625,19 +1528,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>52.4</v>
+        <v>0.82</v>
       </c>
       <c r="C35" s="6">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="D35" s="6">
-        <v>8596.982</v>
+        <v>1580</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>1415.67</v>
+        <v>23.53</v>
       </c>
       <c r="G35" s="6">
         <v>2</v>
@@ -1655,25 +1558,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>60.997</v>
+        <v>2.4</v>
       </c>
       <c r="C36" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>1630.595</v>
+        <v>23.69</v>
       </c>
       <c r="G36" s="9">
         <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1685,25 +1588,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>61.02</v>
+        <v>3.63</v>
       </c>
       <c r="C37" s="6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D37" s="6">
-        <v>380</v>
+        <v>3780</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>1630.595</v>
+        <v>53.21</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1715,22 +1618,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>61.4</v>
+        <v>7.41</v>
       </c>
       <c r="C38" s="9">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="D38" s="9">
-        <v>4146.7730000000001</v>
+        <v>1920</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>1640.5178000000001</v>
+        <v>68.33</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -1745,25 +1648,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>65.546769999999995</v>
+        <v>9.33</v>
       </c>
       <c r="C39" s="6">
-        <v>12.7</v>
+        <v>-4</v>
       </c>
       <c r="D39" s="6">
-        <v>1903.2270000000001</v>
+        <v>417.85199999999998</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>1744.19</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1775,19 +1678,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>67.45</v>
+        <v>9.4</v>
       </c>
       <c r="C40" s="9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D40" s="9">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>1768.36</v>
+        <v>69.528999999999996</v>
       </c>
       <c r="G40" s="9">
         <v>3</v>
@@ -1805,19 +1708,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>69.25</v>
+        <v>10.3</v>
       </c>
       <c r="C41" s="6">
-        <v>-22.5</v>
+        <v>-20</v>
       </c>
       <c r="D41" s="6">
-        <v>3650</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>1768.36</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="G41" s="6">
         <v>3</v>
@@ -1835,19 +1738,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>72.900000000000006</v>
+        <v>11.7</v>
       </c>
       <c r="C42" s="9">
-        <v>12.6</v>
+        <v>-2</v>
       </c>
       <c r="D42" s="9">
-        <v>2286.741</v>
+        <v>1950</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>1686.24</v>
+        <v>37.93</v>
       </c>
       <c r="G42" s="9">
         <v>3</v>
@@ -1865,19 +1768,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>75.186999999999998</v>
+        <v>13.65</v>
       </c>
       <c r="C43" s="6">
-        <v>12.6</v>
+        <v>17</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>3550</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>1715.0530000000001</v>
+        <v>34.03</v>
       </c>
       <c r="G43" s="6">
         <v>3</v>
@@ -1895,22 +1798,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>76.45</v>
+        <v>17.2</v>
       </c>
       <c r="C44" s="9">
-        <v>12.6</v>
+        <v>25</v>
       </c>
       <c r="D44" s="9">
-        <v>2700</v>
+        <v>1550</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>1715.0530000000001</v>
+        <v>94.38</v>
       </c>
       <c r="G44" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -1925,22 +1828,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>79.150000000000006</v>
+        <v>18.75</v>
       </c>
       <c r="C45" s="6">
-        <v>25</v>
+        <v>-18.7</v>
       </c>
       <c r="D45" s="6">
-        <v>4920</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>1749.07</v>
+        <v>133.13</v>
       </c>
       <c r="G45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -1955,22 +1858,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>84.07</v>
+        <v>21.05</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
       </c>
       <c r="D46" s="9">
-        <v>2891.6959999999999</v>
+        <v>3050</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>1872.07</v>
+        <v>90.12</v>
       </c>
       <c r="G46" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -1985,22 +1888,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>86.962000000000003</v>
+        <v>24.1</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D47" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>1872.07</v>
+        <v>90.12</v>
       </c>
       <c r="G47" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -2015,25 +1918,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>86.95</v>
+        <v>26.6</v>
       </c>
       <c r="C48" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D48" s="9">
-        <v>50</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>1872.07</v>
+        <v>121.37</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2045,25 +1948,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>87</v>
+        <v>30.5</v>
       </c>
       <c r="C49" s="6">
-        <v>-10.6</v>
+        <v>13.6</v>
       </c>
       <c r="D49" s="6">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>1872.066</v>
+        <v>133.07</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2075,25 +1978,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>88.2</v>
+        <v>32.4</v>
       </c>
       <c r="C50" s="9">
-        <v>-25</v>
+        <v>-10.5</v>
       </c>
       <c r="D50" s="9">
-        <v>2480</v>
+        <v>2900</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>1859.35</v>
+        <v>158.91</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2105,25 +2008,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>90.68</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C51" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D51" s="6">
-        <v>1220</v>
+        <v>485.44</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>1797.35</v>
+        <v>128.46</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2135,22 +2038,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>91.9</v>
+        <v>39.4</v>
       </c>
       <c r="C52" s="9">
-        <v>-3.3</v>
+        <v>12</v>
       </c>
       <c r="D52" s="9">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>1801.01</v>
+        <v>134.29</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -2165,22 +2068,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>93.55</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C53" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D53" s="6">
-        <v>1450</v>
+        <v>3450</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>1795.57</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2195,22 +2098,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>95</v>
+        <v>43.75</v>
       </c>
       <c r="C54" s="9">
-        <v>9.3000000000000007</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D54" s="9">
-        <v>1670</v>
+        <v>5150</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>1821.67</v>
+        <v>186.7</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -2225,22 +2128,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>96.67</v>
+        <v>48.9</v>
       </c>
       <c r="C55" s="6">
-        <v>-24.5</v>
+        <v>20</v>
       </c>
       <c r="D55" s="6">
-        <v>2230</v>
+        <v>2550</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>1837.2</v>
+        <v>138.81</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -2255,22 +2158,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>98.9</v>
+        <v>51.45</v>
       </c>
       <c r="C56" s="9">
-        <v>17</v>
+        <v>-3</v>
       </c>
       <c r="D56" s="9">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>1782.557</v>
+        <v>189.81</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -2285,22 +2188,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>100.1</v>
+        <v>52.95</v>
       </c>
       <c r="C57" s="6">
-        <v>25</v>
+        <v>-12.6</v>
       </c>
       <c r="D57" s="6">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>1802.96</v>
+        <v>185.31</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -2315,22 +2218,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>102.7</v>
+        <v>53.95</v>
       </c>
       <c r="C58" s="9">
-        <v>25</v>
+        <v>-23.6</v>
       </c>
       <c r="D58" s="9">
-        <v>450</v>
+        <v>2050</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>1867.9570000000001</v>
+        <v>172.71</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -2345,22 +2248,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>103.15</v>
+        <v>56</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>2230</v>
+        <v>1950</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>1879.21</v>
+        <v>124.33</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -2375,22 +2278,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>105.38</v>
+        <v>57.95</v>
       </c>
       <c r="C60" s="9">
-        <v>18.100000000000001</v>
+        <v>-15.5</v>
       </c>
       <c r="D60" s="9">
-        <v>1870</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>1879.21</v>
+        <v>124.33</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -2405,22 +2308,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>107.25</v>
+        <v>59.35</v>
       </c>
       <c r="C61" s="6">
-        <v>-9.5</v>
+        <v>-0.8</v>
       </c>
       <c r="D61" s="6">
-        <v>3350</v>
+        <v>3300</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>1913.06</v>
+        <v>102.63</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -2435,22 +2338,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>110.6</v>
+        <v>62.65</v>
       </c>
       <c r="C62" s="9">
-        <v>-6.5</v>
+        <v>-16</v>
       </c>
       <c r="D62" s="9">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>1881.24</v>
+        <v>99.99</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -2465,22 +2368,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>113.1</v>
+        <v>63.55</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D63" s="6">
-        <v>1250</v>
+        <v>3950</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>1864.99</v>
+        <v>85.59</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -2495,22 +2398,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>114.35</v>
+        <v>67.5</v>
       </c>
       <c r="C64" s="9">
-        <v>-20.6</v>
+        <v>7.2</v>
       </c>
       <c r="D64" s="9">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>1864.99</v>
+        <v>89.15</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -2525,22 +2428,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>116</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C65" s="6">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1650</v>
+        <v>2100</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>1831</v>
+        <v>95.63</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -2555,22 +2458,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>117.65</v>
+        <v>70.5</v>
       </c>
       <c r="C66" s="9">
-        <v>-22.5</v>
+        <v>5.3</v>
       </c>
       <c r="D66" s="9">
-        <v>951</v>
+        <v>2200</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>1822.09</v>
+        <v>84.08</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -2585,22 +2488,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>118.601</v>
+        <v>72.7</v>
       </c>
       <c r="C67" s="6">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="D67" s="6">
-        <v>263.97300000000001</v>
+        <v>3600</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>1800.69</v>
+        <v>95.74</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -2614,13 +2517,27 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="B68" s="11">
+        <v>76.3</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>84.58</v>
+      </c>
+      <c r="G68" s="9">
+        <v>4</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -2630,13 +2547,27 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="B69" s="7">
+        <v>79</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>700</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>84.57</v>
+      </c>
+      <c r="G69" s="6">
+        <v>4</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -2646,13 +2577,27 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="B70" s="11">
+        <v>79.7</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>84.57</v>
+      </c>
+      <c r="G70" s="9">
+        <v>4</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2662,13 +2607,27 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="B71" s="7">
+        <v>82.4</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>89.43</v>
+      </c>
+      <c r="G71" s="6">
+        <v>4</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -2678,13 +2637,27 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="B72" s="11">
+        <v>84.4</v>
+      </c>
+      <c r="C72" s="9">
+        <v>4</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="9">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9">
+        <v>89.43</v>
+      </c>
+      <c r="G72" s="9">
+        <v>4</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2694,13 +2667,27 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="B73" s="7">
+        <v>86.7</v>
+      </c>
+      <c r="C73" s="6">
+        <v>-1.5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2800</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>98.63</v>
+      </c>
+      <c r="G73" s="6">
+        <v>4</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -2710,13 +2697,27 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="B74" s="11">
+        <v>89.5</v>
+      </c>
+      <c r="C74" s="9">
+        <v>0</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4590</v>
+      </c>
+      <c r="E74" s="9">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9">
+        <v>94.43</v>
+      </c>
+      <c r="G74" s="9">
+        <v>4</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2726,13 +2727,27 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="B75" s="7">
+        <v>94.09</v>
+      </c>
+      <c r="C75" s="6">
+        <v>-16</v>
+      </c>
+      <c r="D75" s="6">
+        <v>900</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>94.43</v>
+      </c>
+      <c r="G75" s="6">
+        <v>4</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -2742,13 +2757,27 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="B76" s="11">
+        <v>94.99</v>
+      </c>
+      <c r="C76" s="9">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9">
+        <v>193.672</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="9">
+        <v>80.03</v>
+      </c>
+      <c r="G76" s="9">
+        <v>4</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2758,13 +2787,27 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="B77" s="7">
+        <v>124.9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3150</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6">
+        <v>80.03</v>
+      </c>
+      <c r="G77" s="6">
+        <v>5</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -17641,178 +17684,136 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2.77</v>
+        <v>305.25</v>
       </c>
       <c r="C3" s="6">
-        <v>-8.9</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="6">
-        <v>2770</v>
+        <v>2550</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>1371.2119</v>
+        <v>16.47</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6">
-        <v>6000</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="6">
-        <v>5881</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>5.3780000000000001</v>
+        <v>304.75</v>
       </c>
       <c r="C4" s="9">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="D4" s="9">
-        <v>2608</v>
+        <v>500</v>
       </c>
       <c r="E4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>1343.826</v>
+        <v>22.52</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="9">
-        <v>60996.985999999997</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>61020</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>6</v>
+        <v>304.45</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.5</v>
+        <v>3.3</v>
       </c>
       <c r="D5" s="6">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>1344.1409999999998</v>
+        <v>21.61</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6">
-        <v>75186.740000000005</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="6">
-        <v>76450</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>5.8810000000000002</v>
+        <v>304</v>
       </c>
       <c r="C6" s="9">
-        <v>-0.5</v>
+        <v>3.8</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>1344.1410000000001</v>
+        <v>21.34</v>
       </c>
       <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9">
-        <v>86961.691999999995</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="9">
-        <v>86950</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>7.3547600000000006</v>
+        <v>303.8</v>
       </c>
       <c r="C7" s="6">
-        <v>-0.5</v>
+        <v>2.8</v>
       </c>
       <c r="D7" s="6">
-        <v>1473.76</v>
+        <v>200</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>1344.87788</v>
+        <v>18.48</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -17823,26 +17824,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>7.6</v>
+        <v>303.23</v>
       </c>
       <c r="C8" s="9">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="9">
-        <v>245.24</v>
+        <v>570</v>
       </c>
       <c r="E8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>1343.8526119999999</v>
+        <v>19.355</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -17853,26 +17852,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>10.199999999999999</v>
+        <v>302.70000000000005</v>
       </c>
       <c r="C9" s="6">
-        <v>3.7</v>
+        <v>-0.4</v>
       </c>
       <c r="D9" s="6">
-        <v>2600</v>
+        <v>530</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>1334.2289000000001</v>
+        <v>15.157999999999999</v>
       </c>
       <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -17883,26 +17880,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>11.549999999999999</v>
+        <v>301.64</v>
       </c>
       <c r="C10" s="9">
-        <v>10.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D10" s="9">
-        <v>1350</v>
+        <v>1060</v>
       </c>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>1320.0550000000001</v>
+        <v>14.944000000000001</v>
       </c>
       <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -17913,26 +17908,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>13.55</v>
+        <v>301.25</v>
       </c>
       <c r="C11" s="6">
-        <v>-10.5</v>
+        <v>-1.7</v>
       </c>
       <c r="D11" s="6">
-        <v>2000</v>
+        <v>390</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>1341.06</v>
+        <v>15.556999999999999</v>
       </c>
       <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -17943,26 +17936,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>16.498155000000001</v>
+        <v>301.05</v>
       </c>
       <c r="C12" s="9">
-        <v>22.5</v>
+        <v>-2.7</v>
       </c>
       <c r="D12" s="9">
-        <v>2948.1550000000002</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>1274.7265124999999</v>
+        <v>16.34</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -17973,26 +17964,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>18.249994999999998</v>
+        <v>300.7</v>
       </c>
       <c r="C13" s="6">
-        <v>-4.5999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D13" s="6">
-        <v>1751.845</v>
+        <v>350</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>1282.788487</v>
+        <v>18.225000000000001</v>
       </c>
       <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -18003,26 +17992,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>20.3</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="C14" s="9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="D14" s="9">
-        <v>2050</v>
+        <v>300</v>
       </c>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>1282.79</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -18033,26 +18020,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>22.6</v>
+        <v>300.2</v>
       </c>
       <c r="C15" s="6">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>1258.6399999999999</v>
+        <v>16.04</v>
       </c>
       <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -18063,26 +18048,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>24.900000000000002</v>
+        <v>299.95</v>
       </c>
       <c r="C16" s="9">
-        <v>-11</v>
+        <v>2.4</v>
       </c>
       <c r="D16" s="9">
-        <v>2300</v>
+        <v>250</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>1283.94</v>
+        <v>16.240000000000002</v>
       </c>
       <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -18093,26 +18076,24 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>26.2</v>
+        <v>299.7</v>
       </c>
       <c r="C17" s="6">
-        <v>8.5</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="6">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>1272.8900000000001</v>
+        <v>14.79</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -18123,26 +18104,24 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>26.5</v>
+        <v>299.07</v>
       </c>
       <c r="C18" s="9">
-        <v>-20.5</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="D18" s="9">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>1279.0400000000002</v>
+        <v>13.904</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -18153,26 +18132,24 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>28.15</v>
+        <v>298.5</v>
       </c>
       <c r="C19" s="6">
-        <v>-20.5</v>
+        <v>2.1</v>
       </c>
       <c r="D19" s="6">
-        <v>1650</v>
+        <v>570</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>1312.8539000000001</v>
+        <v>17.876999999999999</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -18183,26 +18160,24 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>29.77</v>
+        <v>298.25</v>
       </c>
       <c r="C20" s="9">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="D20" s="9">
-        <v>1620</v>
+        <v>250</v>
       </c>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>1335.53</v>
+        <v>15.98</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -18213,26 +18188,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>32</v>
+        <v>297.57</v>
       </c>
       <c r="C21" s="6">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>2230</v>
+        <v>680</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>1375.67</v>
+        <v>14.98</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -18243,26 +18216,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>33.206249999999997</v>
+        <v>297.02</v>
       </c>
       <c r="C22" s="9">
-        <v>3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D22" s="9">
-        <v>1206.25</v>
+        <v>550</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>1372.05125</v>
+        <v>14.375</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -18273,26 +18244,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>35.744999999999997</v>
+        <v>296.52</v>
       </c>
       <c r="C23" s="6">
-        <v>-5</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="6">
-        <v>2538.75</v>
+        <v>500</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>1384.7437499999999</v>
+        <v>15.64</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -18303,26 +18272,24 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>36.099999999999994</v>
+        <v>294.87</v>
       </c>
       <c r="C24" s="9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9">
-        <v>355</v>
+        <v>1650</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>1375.865</v>
+        <v>17.189999999999998</v>
       </c>
       <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -18333,26 +18300,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>37.5</v>
+        <v>294.37</v>
       </c>
       <c r="C25" s="6">
-        <v>25</v>
+        <v>-0.8</v>
       </c>
       <c r="D25" s="6">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>1341.1131</v>
+        <v>13.49</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -18363,26 +18328,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>39.65</v>
+        <v>293.54000000000002</v>
       </c>
       <c r="C26" s="9">
-        <v>10</v>
+        <v>-3.9</v>
       </c>
       <c r="D26" s="9">
-        <v>2150</v>
+        <v>830</v>
       </c>
       <c r="E26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>1319.61</v>
+        <v>11.052999999999999</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -18393,26 +18356,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>41.1</v>
+        <v>292.52500000000003</v>
       </c>
       <c r="C27" s="6">
-        <v>-25</v>
+        <v>-2.1</v>
       </c>
       <c r="D27" s="6">
-        <v>1450</v>
+        <v>1015</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>1355.86</v>
+        <v>15.398500000000002</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -18423,26 +18384,24 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>44.050000000000004</v>
+        <v>291.92499999999995</v>
       </c>
       <c r="C28" s="9">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="D28" s="9">
-        <v>2950</v>
+        <v>600</v>
       </c>
       <c r="E28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>1414.86</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="G28" s="9">
-        <v>2</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -18453,26 +18412,24 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>46.05</v>
+        <v>291.52500000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>10.199999999999999</v>
+        <v>-3.4</v>
       </c>
       <c r="D29" s="6">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>1394.4599999999998</v>
+        <v>20.7</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -18483,26 +18440,24 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>47.519999999999996</v>
+        <v>289.875</v>
       </c>
       <c r="C30" s="9">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D30" s="9">
-        <v>1470</v>
+        <v>1650</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>1390.05</v>
+        <v>18.470000000000002</v>
       </c>
       <c r="G30" s="9">
-        <v>2</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -18513,26 +18468,24 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>48</v>
+        <v>289.42500000000001</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="D31" s="6">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>1390.05</v>
+        <v>27.650000000000002</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -18543,26 +18496,24 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>49.27</v>
+        <v>288.92500000000001</v>
       </c>
       <c r="C32" s="9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="D32" s="9">
-        <v>1270</v>
+        <v>500</v>
       </c>
       <c r="E32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>1390.0531000000001</v>
+        <v>30.14</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -18573,26 +18524,24 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>50.67</v>
+        <v>0</v>
       </c>
       <c r="C33" s="6">
-        <v>-18.3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="6">
-        <v>1400</v>
+        <v>325</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>1415.6699999999998</v>
+        <v>29.34</v>
       </c>
       <c r="G33" s="6">
         <v>2</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -18603,19 +18552,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>52.4</v>
+        <v>0.82</v>
       </c>
       <c r="C34" s="9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="D34" s="9">
-        <v>1730</v>
+        <v>820</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>1415.67</v>
+        <v>23.532</v>
       </c>
       <c r="G34" s="9">
         <v>2</v>
@@ -18633,19 +18582,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>60.996982000000003</v>
+        <v>2.4</v>
       </c>
       <c r="C35" s="6">
-        <v>-25</v>
+        <v>-0.1</v>
       </c>
       <c r="D35" s="6">
-        <v>8596.982</v>
+        <v>1580</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>1630.59455</v>
+        <v>23.688000000000002</v>
       </c>
       <c r="G35" s="6">
         <v>2</v>
@@ -18663,25 +18612,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>61.02</v>
+        <v>3.63</v>
       </c>
       <c r="C36" s="9">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>1630.595</v>
+        <v>53.21</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -18693,25 +18642,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>61.400000000000006</v>
+        <v>7.41</v>
       </c>
       <c r="C37" s="6">
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="D37" s="6">
-        <v>380</v>
+        <v>3780</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>1640.095</v>
+        <v>68.33</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -18723,22 +18672,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>65.546773000000002</v>
+        <v>9.33</v>
       </c>
       <c r="C38" s="9">
-        <v>-25</v>
+        <v>-1.5</v>
       </c>
       <c r="D38" s="9">
-        <v>4146.7730000000001</v>
+        <v>1920</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>1744.1871250000002</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -18753,25 +18702,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>67.449996999999996</v>
+        <v>9.4</v>
       </c>
       <c r="C39" s="6">
-        <v>-12.7</v>
+        <v>4</v>
       </c>
       <c r="D39" s="6">
-        <v>1903.2270000000001</v>
+        <v>417.85199999999998</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>1768.3609829</v>
+        <v>69.538591999999994</v>
       </c>
       <c r="G39" s="6">
         <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -18783,19 +18732,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>69.25</v>
+        <v>10.3</v>
       </c>
       <c r="C40" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D40" s="9">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>1768.36</v>
+        <v>65.929000000000002</v>
       </c>
       <c r="G40" s="9">
         <v>3</v>
@@ -18813,19 +18762,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>72.900000000000006</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="C41" s="6">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="D41" s="6">
-        <v>3650</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>1686.2349999999999</v>
+        <v>37.930000000000007</v>
       </c>
       <c r="G41" s="6">
         <v>3</v>
@@ -18843,19 +18792,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>75.186741000000012</v>
+        <v>13.649999999999999</v>
       </c>
       <c r="C42" s="9">
-        <v>-12.6</v>
+        <v>2</v>
       </c>
       <c r="D42" s="9">
-        <v>2286.741</v>
+        <v>1950</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>1715.0529366000001</v>
+        <v>34.03</v>
       </c>
       <c r="G42" s="9">
         <v>3</v>
@@ -18873,22 +18822,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>76.45</v>
+        <v>17.2</v>
       </c>
       <c r="C43" s="6">
-        <v>-12.6</v>
+        <v>-17</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>3550</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>1715.0530000000001</v>
+        <v>94.38</v>
       </c>
       <c r="G43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>13</v>
@@ -18903,22 +18852,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>79.150000000000006</v>
+        <v>18.75</v>
       </c>
       <c r="C44" s="9">
-        <v>-12.6</v>
+        <v>-25</v>
       </c>
       <c r="D44" s="9">
-        <v>2700</v>
+        <v>1550</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>1749.0730000000001</v>
+        <v>133.13</v>
       </c>
       <c r="G44" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -18933,22 +18882,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>84.070000000000007</v>
+        <v>21.05</v>
       </c>
       <c r="C45" s="6">
-        <v>-25</v>
+        <v>18.7</v>
       </c>
       <c r="D45" s="6">
-        <v>4920</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>1872.07</v>
+        <v>90.12</v>
       </c>
       <c r="G45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -18963,22 +18912,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>86.961695999999989</v>
+        <v>24.1</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
       </c>
       <c r="D46" s="9">
-        <v>2891.6959999999999</v>
+        <v>3050</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>1872.07</v>
+        <v>90.12</v>
       </c>
       <c r="G46" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -18993,22 +18942,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>86.95</v>
+        <v>26.6</v>
       </c>
       <c r="C47" s="6">
+        <v>-12.5</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="6">
         <v>0</v>
       </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
       <c r="F47" s="6">
-        <v>1872.07</v>
+        <v>121.37</v>
       </c>
       <c r="G47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -19023,25 +18972,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>87</v>
+        <v>30.5</v>
       </c>
       <c r="C48" s="9">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D48" s="9">
-        <v>50</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>1872.07</v>
+        <v>133.07</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -19053,25 +19002,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>88.2</v>
+        <v>32.4</v>
       </c>
       <c r="C49" s="6">
-        <v>10.6</v>
+        <v>-13.6</v>
       </c>
       <c r="D49" s="6">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>1859.346</v>
+        <v>158.91</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -19083,25 +19032,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>90.68</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C50" s="9">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="D50" s="9">
-        <v>2480</v>
+        <v>2900</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>1797.35</v>
+        <v>128.46</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -19113,25 +19062,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>91.9</v>
+        <v>39.4</v>
       </c>
       <c r="C51" s="6">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="D51" s="6">
-        <v>1220</v>
+        <v>485.44</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>1801.01</v>
+        <v>134.28528</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -19143,22 +19092,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>93.550000000000011</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C52" s="9">
-        <v>3.3</v>
+        <v>-12</v>
       </c>
       <c r="D52" s="9">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>1795.5650000000001</v>
+        <v>145.09</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -19173,22 +19122,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>95</v>
+        <v>43.75</v>
       </c>
       <c r="C53" s="6">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="D53" s="6">
-        <v>1450</v>
+        <v>3450</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>1821.6699999999998</v>
+        <v>186.70000000000002</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -19203,22 +19152,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>96.67</v>
+        <v>48.9</v>
       </c>
       <c r="C54" s="9">
-        <v>-9.3000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D54" s="9">
-        <v>1670</v>
+        <v>5150</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>1837.201</v>
+        <v>138.80499999999998</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -19233,22 +19182,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>98.9</v>
+        <v>51.449999999999996</v>
       </c>
       <c r="C55" s="6">
-        <v>24.5</v>
+        <v>-20</v>
       </c>
       <c r="D55" s="6">
-        <v>2230</v>
+        <v>2550</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>1782.5650000000001</v>
+        <v>189.81</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -19263,22 +19212,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>100.10000000000001</v>
+        <v>52.95</v>
       </c>
       <c r="C56" s="9">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="D56" s="9">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>1802.9570000000001</v>
+        <v>185.31</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -19293,22 +19242,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>102.69999999999999</v>
+        <v>53.95</v>
       </c>
       <c r="C57" s="6">
-        <v>-25</v>
+        <v>12.6</v>
       </c>
       <c r="D57" s="6">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>1867.96</v>
+        <v>172.71</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -19323,22 +19272,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>103.15</v>
+        <v>56</v>
       </c>
       <c r="C58" s="9">
-        <v>-25</v>
+        <v>23.6</v>
       </c>
       <c r="D58" s="9">
-        <v>450</v>
+        <v>2050</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>1879.2070000000001</v>
+        <v>124.33000000000001</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -19353,22 +19302,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>105.38000000000001</v>
+        <v>57.95</v>
       </c>
       <c r="C59" s="6">
         <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>2230</v>
+        <v>1950</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>1879.21</v>
+        <v>124.33</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -19383,22 +19332,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>107.25</v>
+        <v>59.35</v>
       </c>
       <c r="C60" s="9">
-        <v>-18.100000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="D60" s="9">
-        <v>1870</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>1913.057</v>
+        <v>102.63</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -19413,22 +19362,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>110.6</v>
+        <v>62.65</v>
       </c>
       <c r="C61" s="6">
-        <v>9.5</v>
+        <v>0.8</v>
       </c>
       <c r="D61" s="6">
-        <v>3350</v>
+        <v>3300</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>1881.2349999999999</v>
+        <v>99.99</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -19443,22 +19392,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>113.1</v>
+        <v>63.55</v>
       </c>
       <c r="C62" s="9">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="D62" s="9">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>1864.99</v>
+        <v>85.589999999999989</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -19473,22 +19422,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>114.35</v>
+        <v>67.5</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="D63" s="6">
-        <v>1250</v>
+        <v>3950</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>1864.99</v>
+        <v>89.14500000000001</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -19503,22 +19452,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>116</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C64" s="9">
-        <v>20.6</v>
+        <v>-7.2</v>
       </c>
       <c r="D64" s="9">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>1831</v>
+        <v>95.63000000000001</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -19533,22 +19482,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>117.65</v>
+        <v>70.5</v>
       </c>
       <c r="C65" s="6">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1650</v>
+        <v>2100</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>1822.09</v>
+        <v>84.08</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -19563,22 +19512,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>118.601</v>
+        <v>72.7</v>
       </c>
       <c r="C66" s="9">
-        <v>22.5</v>
+        <v>-5.3</v>
       </c>
       <c r="D66" s="9">
-        <v>951</v>
+        <v>2200</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>1800.6924999999999</v>
+        <v>95.74</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -19593,22 +19542,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>118.86497299999999</v>
+        <v>76.3</v>
       </c>
       <c r="C67" s="6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D67" s="6">
-        <v>263.97300000000001</v>
+        <v>3600</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>1800.69</v>
+        <v>84.58</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -19622,13 +19571,27 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="B68" s="11">
+        <v>79</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="9">
+        <v>84.58</v>
+      </c>
+      <c r="G68" s="9">
+        <v>4</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -19638,13 +19601,27 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="B69" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>700</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>84.57</v>
+      </c>
+      <c r="G69" s="6">
+        <v>4</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -19654,13 +19631,27 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="B70" s="11">
+        <v>82.4</v>
+      </c>
+      <c r="C70" s="9">
+        <v>-1.8</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2700</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="9">
+        <v>89.429999999999993</v>
+      </c>
+      <c r="G70" s="9">
+        <v>4</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -19670,13 +19661,27 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
+      <c r="B71" s="7">
+        <v>84.4</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>89.43</v>
+      </c>
+      <c r="G71" s="6">
+        <v>4</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -19686,13 +19691,27 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="B72" s="11">
+        <v>86.7</v>
+      </c>
+      <c r="C72" s="9">
+        <v>-4</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
+        <v>98.63000000000001</v>
+      </c>
+      <c r="G72" s="9">
+        <v>4</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -19702,13 +19721,27 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="B73" s="7">
+        <v>89.5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2800</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
+        <v>94.429999999999993</v>
+      </c>
+      <c r="G73" s="6">
+        <v>4</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -19718,13 +19751,27 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="B74" s="11">
+        <v>94.09</v>
+      </c>
+      <c r="C74" s="9">
+        <v>0</v>
+      </c>
+      <c r="D74" s="9">
+        <v>4590</v>
+      </c>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>94.43</v>
+      </c>
+      <c r="G74" s="9">
+        <v>4</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -19734,13 +19781,27 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="B75" s="7">
+        <v>94.990000000000009</v>
+      </c>
+      <c r="C75" s="6">
+        <v>16</v>
+      </c>
+      <c r="D75" s="6">
+        <v>900</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6">
+        <v>80.03</v>
+      </c>
+      <c r="G75" s="6">
+        <v>4</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -19750,13 +19811,27 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="B76" s="11">
+        <v>124.9</v>
+      </c>
+      <c r="C76" s="9">
+        <v>0</v>
+      </c>
+      <c r="D76" s="9">
+        <v>193.672</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
+        <v>80.03</v>
+      </c>
+      <c r="G76" s="9">
+        <v>5</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -19766,13 +19841,27 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="B77" s="7">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3150</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>80.03</v>
+      </c>
+      <c r="G77" s="6">
+        <v>5</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DK</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>D1K</t>
+    <t>IYDK</t>
+  </si>
+  <si>
+    <t>ID1K</t>
   </si>
 </sst>
 </file>
@@ -630,80 +633,102 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>307.8</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
-        <v>2550</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
       <c r="F3" s="6">
-        <v>19.02</v>
+        <v>335.86500000000001</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6">
+        <v>39184.54</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>38000</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>305.25</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
-        <v>-1.9</v>
+        <v>-6</v>
       </c>
       <c r="D4" s="9">
-        <v>500</v>
+        <v>1950</v>
       </c>
       <c r="E4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>21.57</v>
+        <v>335.87</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>39173.184999999998</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>40850</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>304.75</v>
+        <v>4.95</v>
       </c>
       <c r="C5" s="6">
-        <v>-3.3</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>20.62</v>
+        <v>324.17</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -714,24 +739,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>304.45</v>
+        <v>6.65</v>
       </c>
       <c r="C6" s="9">
-        <v>-3.8</v>
+        <v>8.5</v>
       </c>
       <c r="D6" s="9">
-        <v>450</v>
+        <v>3200</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>19.63</v>
+        <v>329.27</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -742,24 +769,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>304</v>
+        <v>9.85</v>
       </c>
       <c r="C7" s="6">
-        <v>-2.8</v>
+        <v>-10</v>
       </c>
       <c r="D7" s="6">
-        <v>200</v>
+        <v>2150</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>17.920000000000002</v>
+        <v>356.47</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -770,24 +799,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>303.8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="D8" s="9">
-        <v>570</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>17.36</v>
+        <v>334.97</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -798,24 +829,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>303.23</v>
+        <v>13.05</v>
       </c>
       <c r="C9" s="6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>530</v>
+        <v>2250</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>15.37</v>
+        <v>330.77</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -826,24 +859,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>302.7</v>
+        <v>15.3</v>
       </c>
       <c r="C10" s="9">
-        <v>0.6</v>
+        <v>-3</v>
       </c>
       <c r="D10" s="9">
-        <v>1060</v>
+        <v>2100</v>
       </c>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>15.58</v>
+        <v>330.77</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -854,24 +889,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>301.64</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C11" s="6">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6">
-        <v>390</v>
+        <v>1150</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>16.22</v>
+        <v>324.47000000000003</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -882,24 +919,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>301.25</v>
+        <v>18.55</v>
       </c>
       <c r="C12" s="9">
-        <v>2.7</v>
+        <v>-6</v>
       </c>
       <c r="D12" s="9">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>16.88</v>
+        <v>334.82</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -910,24 +949,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>301.05</v>
+        <v>19.25</v>
       </c>
       <c r="C13" s="6">
-        <v>-2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>350</v>
+        <v>2150</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>17.420000000000002</v>
+        <v>330.62</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -938,24 +979,26 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>300.7</v>
+        <v>21.4</v>
       </c>
       <c r="C14" s="9">
-        <v>-2.6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>16.62</v>
+        <v>330.62</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -966,24 +1009,26 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>300.39999999999998</v>
+        <v>22.65</v>
       </c>
       <c r="C15" s="6">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D15" s="6">
-        <v>200</v>
+        <v>2050</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>15.84</v>
+        <v>344.37</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -994,24 +1039,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>300.2</v>
+        <v>24.7</v>
       </c>
       <c r="C16" s="9">
-        <v>-2.4</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>15.64</v>
+        <v>327.97</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1022,24 +1069,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>299.95</v>
+        <v>26.45</v>
       </c>
       <c r="C17" s="6">
+        <v>-9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
-        <v>250</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
       <c r="F17" s="6">
-        <v>15.04</v>
+        <v>347.22</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1050,24 +1099,26 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>299.7</v>
+        <v>28.35</v>
       </c>
       <c r="C18" s="9">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>630</v>
+        <v>1600</v>
       </c>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>15.29</v>
+        <v>330.12</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1078,24 +1129,26 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>299.07</v>
+        <v>29.95</v>
       </c>
       <c r="C19" s="6">
-        <v>-2.1</v>
+        <v>-7</v>
       </c>
       <c r="D19" s="6">
-        <v>570</v>
+        <v>2900</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>16.68</v>
+        <v>330.12</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1106,24 +1159,26 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>298.5</v>
+        <v>32.85</v>
       </c>
       <c r="C20" s="9">
-        <v>-2</v>
+        <v>6.5</v>
       </c>
       <c r="D20" s="9">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>15.48</v>
+        <v>309.82</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1134,24 +1189,26 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>298.25</v>
+        <v>36.35</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D21" s="6">
-        <v>680</v>
+        <v>1050</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>14.98</v>
+        <v>332.57</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -1162,24 +1219,26 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>297.57</v>
+        <v>37.4</v>
       </c>
       <c r="C22" s="9">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>550</v>
+        <v>1450</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>14.98</v>
+        <v>311.57</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1190,24 +1249,26 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>297.02</v>
+        <v>38.85</v>
       </c>
       <c r="C23" s="6">
-        <v>-0.1</v>
+        <v>-3</v>
       </c>
       <c r="D23" s="6">
-        <v>500</v>
+        <v>334.541</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>15.59</v>
+        <v>311.57</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1218,24 +1279,26 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>296.52</v>
+        <v>39.185000000000002</v>
       </c>
       <c r="C24" s="9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D24" s="9">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>15.54</v>
+        <v>310.56599999999997</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1246,24 +1309,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>294.87</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>13.89</v>
+        <v>311.565</v>
       </c>
       <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1274,24 +1339,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>294.37</v>
+        <v>38.85</v>
       </c>
       <c r="C26" s="9">
-        <v>3.9</v>
+        <v>-3</v>
       </c>
       <c r="D26" s="9">
-        <v>830</v>
+        <v>323.185</v>
       </c>
       <c r="E26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>14.29</v>
+        <v>311.57</v>
       </c>
       <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1302,24 +1369,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>293.54000000000002</v>
+        <v>39.173000000000002</v>
       </c>
       <c r="C27" s="6">
-        <v>2.1</v>
+        <v>-3</v>
       </c>
       <c r="D27" s="6">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>17.53</v>
+        <v>310.601</v>
       </c>
       <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1330,24 +1399,26 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>292.52499999999998</v>
+        <v>40.85</v>
       </c>
       <c r="C28" s="9">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D28" s="9">
-        <v>600</v>
+        <v>851.98</v>
       </c>
       <c r="E28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>19.66</v>
+        <v>310.601</v>
       </c>
       <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1358,24 +1429,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>291.92500000000001</v>
+        <v>41.701979999999999</v>
       </c>
       <c r="C29" s="6">
-        <v>3.4</v>
+        <v>20</v>
       </c>
       <c r="D29" s="6">
-        <v>400</v>
+        <v>1548.0250000000001</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>22.06</v>
+        <v>308.04000000000002</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1386,24 +1459,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>291.52499999999998</v>
+        <v>43.25</v>
       </c>
       <c r="C30" s="9">
+        <v>-20</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1850</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>339</v>
+      </c>
+      <c r="G30" s="9">
         <v>3</v>
       </c>
-      <c r="D30" s="9">
-        <v>1650</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
-        <v>23.42</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1414,24 +1489,26 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>289.875</v>
+        <v>45.1</v>
       </c>
       <c r="C31" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>450</v>
+        <v>2200</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>28.37</v>
+        <v>302</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1442,24 +1519,26 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>289.42500000000001</v>
+        <v>47.3</v>
       </c>
       <c r="C32" s="9">
-        <v>-2.1</v>
+        <v>13.5</v>
       </c>
       <c r="D32" s="9">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>29.09</v>
+        <v>302.01</v>
       </c>
       <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1470,24 +1549,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>288.92500000000001</v>
+        <v>48.5</v>
       </c>
       <c r="C33" s="6">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="D33" s="6">
-        <v>325</v>
+        <v>900</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>28.04</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1498,22 +1579,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>0</v>
+        <v>49.4</v>
       </c>
       <c r="C34" s="9">
-        <v>-3.9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="9">
-        <v>820</v>
+        <v>1300</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>26.73</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="G34" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -1528,22 +1609,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>0.82</v>
+        <v>50.7</v>
       </c>
       <c r="C35" s="6">
-        <v>0.1</v>
+        <v>-4</v>
       </c>
       <c r="D35" s="6">
-        <v>1580</v>
+        <v>2150</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>23.53</v>
+        <v>318.31</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -1558,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>2.4</v>
+        <v>52.85</v>
       </c>
       <c r="C36" s="9">
-        <v>24</v>
+        <v>8.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>23.69</v>
+        <v>309.70999999999998</v>
       </c>
       <c r="G36" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -1588,22 +1669,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>3.63</v>
+        <v>54.45</v>
       </c>
       <c r="C37" s="6">
-        <v>4</v>
+        <v>-5.5</v>
       </c>
       <c r="D37" s="6">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>53.21</v>
+        <v>323.31</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -1618,22 +1699,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>7.41</v>
+        <v>56.05</v>
       </c>
       <c r="C38" s="9">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D38" s="9">
-        <v>1920</v>
+        <v>1650</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>68.33</v>
+        <v>314.51</v>
       </c>
       <c r="G38" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -1648,25 +1729,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>9.33</v>
+        <v>57.7</v>
       </c>
       <c r="C39" s="6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D39" s="6">
-        <v>417.85199999999998</v>
+        <v>1900</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>71.209999999999994</v>
+        <v>322.76</v>
       </c>
       <c r="G39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1678,19 +1759,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>9.4</v>
+        <v>59.6</v>
       </c>
       <c r="C40" s="9">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="9">
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>69.528999999999996</v>
+        <v>317.06</v>
       </c>
       <c r="G40" s="9">
         <v>3</v>
@@ -1708,19 +1789,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>10.3</v>
+        <v>61.85</v>
       </c>
       <c r="C41" s="6">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="D41" s="6">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>65.930000000000007</v>
+        <v>330.56</v>
       </c>
       <c r="G41" s="6">
         <v>3</v>
@@ -1738,19 +1819,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>11.7</v>
+        <v>63.55</v>
       </c>
       <c r="C42" s="9">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="D42" s="9">
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>37.93</v>
+        <v>327.16000000000003</v>
       </c>
       <c r="G42" s="9">
         <v>3</v>
@@ -1768,19 +1849,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>13.65</v>
+        <v>64.75</v>
       </c>
       <c r="C43" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>3550</v>
+        <v>1150</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>34.03</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G43" s="6">
         <v>3</v>
@@ -1798,19 +1879,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>17.2</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C44" s="9">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D44" s="9">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>94.38</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G44" s="9">
         <v>3</v>
@@ -1828,19 +1909,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>18.75</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C45" s="6">
-        <v>-18.7</v>
+        <v>-4.5</v>
       </c>
       <c r="D45" s="6">
-        <v>2300</v>
+        <v>1050</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>133.13</v>
+        <v>307.95999999999998</v>
       </c>
       <c r="G45" s="6">
         <v>3</v>
@@ -1858,19 +1939,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>21.05</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
       </c>
       <c r="D46" s="9">
-        <v>3050</v>
+        <v>1550</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>90.12</v>
+        <v>303.24</v>
       </c>
       <c r="G46" s="9">
         <v>3</v>
@@ -1888,19 +1969,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>24.1</v>
+        <v>69.7</v>
       </c>
       <c r="C47" s="6">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="D47" s="6">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>90.12</v>
+        <v>303.24</v>
       </c>
       <c r="G47" s="6">
         <v>3</v>
@@ -1918,19 +1999,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>26.6</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C48" s="9">
-        <v>3</v>
+        <v>-8.5</v>
       </c>
       <c r="D48" s="9">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>121.37</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="G48" s="9">
         <v>3</v>
@@ -1948,19 +2029,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>30.5</v>
+        <v>72.7</v>
       </c>
       <c r="C49" s="6">
-        <v>13.6</v>
+        <v>17.5</v>
       </c>
       <c r="D49" s="6">
-        <v>1900</v>
+        <v>3150</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>133.07</v>
+        <v>297.54000000000002</v>
       </c>
       <c r="G49" s="6">
         <v>3</v>
@@ -1978,19 +2059,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>32.4</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="C50" s="9">
-        <v>-10.5</v>
+        <v>-5</v>
       </c>
       <c r="D50" s="9">
-        <v>2900</v>
+        <v>2450</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>158.91</v>
+        <v>352.67</v>
       </c>
       <c r="G50" s="9">
         <v>3</v>
@@ -2008,19 +2089,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>35.299999999999997</v>
+        <v>78.3</v>
       </c>
       <c r="C51" s="6">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="D51" s="6">
-        <v>485.44</v>
+        <v>4500</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>128.46</v>
+        <v>340.42</v>
       </c>
       <c r="G51" s="6">
         <v>3</v>
@@ -2038,22 +2119,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>39.4</v>
+        <v>82.8</v>
       </c>
       <c r="C52" s="9">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="D52" s="9">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>134.29</v>
+        <v>360.67</v>
       </c>
       <c r="G52" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -2068,22 +2149,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>40.299999999999997</v>
+        <v>84.35</v>
       </c>
       <c r="C53" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>3450</v>
+        <v>2200</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>145.30000000000001</v>
+        <v>345.17</v>
       </c>
       <c r="G53" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2098,25 +2179,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>43.75</v>
+        <v>86.55</v>
       </c>
       <c r="C54" s="9">
-        <v>-9.3000000000000007</v>
+        <v>-12.5</v>
       </c>
       <c r="D54" s="9">
-        <v>5150</v>
+        <v>1750</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>186.7</v>
+        <v>345.17</v>
       </c>
       <c r="G54" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2128,22 +2209,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>48.9</v>
+        <v>88.3</v>
       </c>
       <c r="C55" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D55" s="6">
-        <v>2550</v>
+        <v>2200</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>138.81</v>
+        <v>323.3</v>
       </c>
       <c r="G55" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -2158,22 +2239,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>51.45</v>
+        <v>90.5</v>
       </c>
       <c r="C56" s="9">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="D56" s="9">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>189.81</v>
+        <v>327.7</v>
       </c>
       <c r="G56" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -2188,22 +2269,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>52.95</v>
+        <v>92.3</v>
       </c>
       <c r="C57" s="6">
-        <v>-12.6</v>
+        <v>-6</v>
       </c>
       <c r="D57" s="6">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>185.31</v>
+        <v>343.9</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -2218,22 +2299,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>53.95</v>
+        <v>94.1</v>
       </c>
       <c r="C58" s="9">
-        <v>-23.6</v>
+        <v>-2</v>
       </c>
       <c r="D58" s="9">
-        <v>2050</v>
+        <v>550</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>172.71</v>
+        <v>333.1</v>
       </c>
       <c r="G58" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -2248,22 +2329,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>56</v>
+        <v>94.65</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D59" s="6">
-        <v>1950</v>
+        <v>850</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>124.33</v>
+        <v>331.98</v>
       </c>
       <c r="G59" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -2278,22 +2359,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>57.95</v>
+        <v>95.5</v>
       </c>
       <c r="C60" s="9">
-        <v>-15.5</v>
+        <v>10.5</v>
       </c>
       <c r="D60" s="9">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>124.33</v>
+        <v>330.28</v>
       </c>
       <c r="G60" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -2308,22 +2389,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>59.35</v>
+        <v>96.95</v>
       </c>
       <c r="C61" s="6">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>102.63</v>
+        <v>345.51</v>
       </c>
       <c r="G61" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -2338,22 +2419,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>62.65</v>
+        <v>99.35</v>
       </c>
       <c r="C62" s="9">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="D62" s="9">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>99.99</v>
+        <v>345.51</v>
       </c>
       <c r="G62" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -2368,22 +2449,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>63.55</v>
+        <v>101.5</v>
       </c>
       <c r="C63" s="6">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="D63" s="6">
-        <v>3950</v>
+        <v>1150</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>85.59</v>
+        <v>302.51</v>
       </c>
       <c r="G63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -2398,22 +2479,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>67.5</v>
+        <v>102.65</v>
       </c>
       <c r="C64" s="9">
-        <v>7.2</v>
+        <v>-8</v>
       </c>
       <c r="D64" s="9">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>89.15</v>
+        <v>315.16000000000003</v>
       </c>
       <c r="G64" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -2428,22 +2509,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>68.400000000000006</v>
+        <v>104.8</v>
       </c>
       <c r="C65" s="6">
-        <v>-5.5</v>
+        <v>5</v>
       </c>
       <c r="D65" s="6">
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>95.63</v>
+        <v>297.95999999999998</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -2458,22 +2539,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>70.5</v>
+        <v>106.75</v>
       </c>
       <c r="C66" s="9">
-        <v>5.3</v>
+        <v>-3</v>
       </c>
       <c r="D66" s="9">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>84.08</v>
+        <v>307.70999999999998</v>
       </c>
       <c r="G66" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -2488,22 +2569,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>72.7</v>
+        <v>108.85</v>
       </c>
       <c r="C67" s="6">
-        <v>-3.1</v>
+        <v>10.5</v>
       </c>
       <c r="D67" s="6">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>95.74</v>
+        <v>301.41000000000003</v>
       </c>
       <c r="G67" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -2518,22 +2599,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>76.3</v>
+        <v>110.65</v>
       </c>
       <c r="C68" s="9">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="D68" s="9">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>84.58</v>
+        <v>320.31</v>
       </c>
       <c r="G68" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -2548,22 +2629,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>79</v>
+        <v>114.4</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D69" s="6">
-        <v>700</v>
+        <v>2650</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>84.57</v>
+        <v>303.44</v>
       </c>
       <c r="G69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -2578,22 +2659,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>79.7</v>
+        <v>117.05</v>
       </c>
       <c r="C70" s="9">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="D70" s="9">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>84.57</v>
+        <v>340.54</v>
       </c>
       <c r="G70" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -2608,25 +2689,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>82.4</v>
+        <v>119.25</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D71" s="6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>89.43</v>
+        <v>340.54</v>
       </c>
       <c r="G71" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -2638,25 +2719,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>84.4</v>
+        <v>121.05</v>
       </c>
       <c r="C72" s="9">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="D72" s="9">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>89.43</v>
+        <v>335.14</v>
       </c>
       <c r="G72" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2668,25 +2749,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>86.7</v>
+        <v>122.65</v>
       </c>
       <c r="C73" s="6">
-        <v>-1.5</v>
+        <v>-11</v>
       </c>
       <c r="D73" s="6">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>98.63</v>
+        <v>356.74</v>
       </c>
       <c r="G73" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -2698,25 +2779,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>89.5</v>
+        <v>125.35</v>
       </c>
       <c r="C74" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D74" s="9">
-        <v>4590</v>
+        <v>1750</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>94.43</v>
+        <v>327.04000000000002</v>
       </c>
       <c r="G74" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2728,25 +2809,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>94.09</v>
+        <v>127.1</v>
       </c>
       <c r="C75" s="6">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>94.43</v>
+        <v>337.54</v>
       </c>
       <c r="G75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -2758,25 +2839,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>94.99</v>
+        <v>128.15</v>
       </c>
       <c r="C76" s="9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D76" s="9">
-        <v>193.672</v>
+        <v>400</v>
       </c>
       <c r="E76" s="9">
         <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>80.03</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="G76" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -2788,25 +2869,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>124.9</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="C77" s="6">
         <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>3150</v>
+        <v>2950</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>80.03</v>
+        <v>313.33999999999997</v>
       </c>
       <c r="G77" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -2817,13 +2898,27 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="B78" s="11">
+        <v>131.5</v>
+      </c>
+      <c r="C78" s="9">
+        <v>-20</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1026.8030000000001</v>
+      </c>
+      <c r="E78" s="9">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9">
+        <v>313.33999999999997</v>
+      </c>
+      <c r="G78" s="9">
+        <v>3</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -17684,80 +17779,102 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>305.25</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>2550</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>16.47</v>
+        <v>335.86500000000001</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6">
+        <v>39184.54</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6">
+        <v>38000</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>304.75</v>
+        <v>4.95</v>
       </c>
       <c r="C4" s="9">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9">
-        <v>500</v>
+        <v>1950</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>22.52</v>
+        <v>324.17</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9">
+        <v>39173.184999999998</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
+        <v>40850</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>304.45</v>
+        <v>6.65</v>
       </c>
       <c r="C5" s="6">
-        <v>3.3</v>
+        <v>-3</v>
       </c>
       <c r="D5" s="6">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>21.61</v>
+        <v>329.27000000000004</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -17768,24 +17885,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>304</v>
+        <v>9.8500000000000014</v>
       </c>
       <c r="C6" s="9">
-        <v>3.8</v>
+        <v>-8.5</v>
       </c>
       <c r="D6" s="9">
-        <v>450</v>
+        <v>3200</v>
       </c>
       <c r="E6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>21.34</v>
+        <v>356.46999999999997</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -17796,24 +17915,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>303.8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6">
-        <v>200</v>
+        <v>2150</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>18.48</v>
+        <v>334.97</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -17824,24 +17945,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>303.23</v>
+        <v>13.05</v>
       </c>
       <c r="C8" s="9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9">
-        <v>570</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>19.355</v>
+        <v>330.77000000000004</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -17852,24 +17975,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>302.70000000000005</v>
+        <v>15.3</v>
       </c>
       <c r="C9" s="6">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>530</v>
+        <v>2250</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>15.157999999999999</v>
+        <v>330.77</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -17880,24 +18005,26 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>301.64</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="C10" s="9">
-        <v>-0.6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="9">
-        <v>1060</v>
+        <v>2100</v>
       </c>
       <c r="E10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>14.944000000000001</v>
+        <v>324.46999999999997</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -17908,24 +18035,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>301.25</v>
+        <v>18.549999999999997</v>
       </c>
       <c r="C11" s="6">
-        <v>-1.7</v>
+        <v>-9</v>
       </c>
       <c r="D11" s="6">
-        <v>390</v>
+        <v>1150</v>
       </c>
       <c r="E11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>15.556999999999999</v>
+        <v>334.82000000000005</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -17936,24 +18065,26 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>301.05</v>
+        <v>19.25</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="9">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>16.34</v>
+        <v>330.62</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -17964,24 +18095,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>300.7</v>
+        <v>21.4</v>
       </c>
       <c r="C13" s="6">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>350</v>
+        <v>2150</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>18.225000000000001</v>
+        <v>330.62</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -17992,24 +18125,26 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>300.39999999999998</v>
+        <v>22.65</v>
       </c>
       <c r="C14" s="9">
-        <v>2.6</v>
+        <v>-11</v>
       </c>
       <c r="D14" s="9">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="E14" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>17.400000000000002</v>
+        <v>344.37</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -18020,24 +18155,26 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>300.2</v>
+        <v>24.7</v>
       </c>
       <c r="C15" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" s="6">
-        <v>200</v>
+        <v>2050</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>16.04</v>
+        <v>327.97</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -18048,24 +18185,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>299.95</v>
+        <v>26.45</v>
       </c>
       <c r="C16" s="9">
-        <v>2.4</v>
+        <v>-11</v>
       </c>
       <c r="D16" s="9">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="E16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>16.240000000000002</v>
+        <v>347.22</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -18076,24 +18215,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>299.7</v>
+        <v>28.349999999999998</v>
       </c>
       <c r="C17" s="6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D17" s="6">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>14.79</v>
+        <v>330.12</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -18104,24 +18245,26 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>299.07</v>
+        <v>29.950000000000003</v>
       </c>
       <c r="C18" s="9">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>630</v>
+        <v>1600</v>
       </c>
       <c r="E18" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>13.904</v>
+        <v>330.12</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -18132,24 +18275,26 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>298.5</v>
+        <v>32.85</v>
       </c>
       <c r="C19" s="6">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6">
-        <v>570</v>
+        <v>2900</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>17.876999999999999</v>
+        <v>309.82</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -18160,24 +18305,26 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>298.25</v>
+        <v>36.35</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>-6.5</v>
       </c>
       <c r="D20" s="9">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>15.98</v>
+        <v>332.57</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -18188,24 +18335,26 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>297.57</v>
+        <v>37.4</v>
       </c>
       <c r="C21" s="6">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1050</v>
+      </c>
+      <c r="E21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="6">
-        <v>680</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
       <c r="F21" s="6">
-        <v>14.98</v>
+        <v>311.57</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -18216,24 +18365,26 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>297.02</v>
+        <v>38.85</v>
       </c>
       <c r="C22" s="9">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D22" s="9">
-        <v>550</v>
+        <v>1450</v>
       </c>
       <c r="E22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>14.375</v>
+        <v>311.57</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -18244,24 +18395,26 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>296.52</v>
+        <v>39.184541000000003</v>
       </c>
       <c r="C23" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>500</v>
+        <v>334.541</v>
       </c>
       <c r="E23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>15.64</v>
+        <v>310.56637699999999</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -18272,24 +18425,26 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>294.87</v>
+        <v>38</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>17.189999999999998</v>
+        <v>310.56599999999997</v>
       </c>
       <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -18300,24 +18455,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>294.37</v>
+        <v>38.85</v>
       </c>
       <c r="C25" s="6">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="E25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>13.49</v>
+        <v>311.565</v>
       </c>
       <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -18328,24 +18485,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>293.54000000000002</v>
+        <v>39.173185000000004</v>
       </c>
       <c r="C26" s="9">
-        <v>-3.9</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9">
-        <v>830</v>
+        <v>323.185</v>
       </c>
       <c r="E26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>11.052999999999999</v>
+        <v>310.60044499999998</v>
       </c>
       <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -18356,24 +18515,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>292.52500000000003</v>
+        <v>40.85</v>
       </c>
       <c r="C27" s="6">
-        <v>-2.1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6">
-        <v>1015</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>15.398500000000002</v>
+        <v>310.601</v>
       </c>
       <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -18384,24 +18545,26 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>291.92499999999995</v>
+        <v>41.701979999999999</v>
       </c>
       <c r="C28" s="9">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9">
-        <v>600</v>
+        <v>851.98</v>
       </c>
       <c r="E28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>17.260000000000002</v>
+        <v>308.04505999999998</v>
       </c>
       <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -18412,24 +18575,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>291.52500000000003</v>
+        <v>43.250005000000002</v>
       </c>
       <c r="C29" s="6">
-        <v>-3.4</v>
+        <v>-20</v>
       </c>
       <c r="D29" s="6">
-        <v>400</v>
+        <v>1548.0250000000001</v>
       </c>
       <c r="E29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>20.7</v>
+        <v>339.00050000000005</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -18440,24 +18605,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>289.875</v>
+        <v>45.1</v>
       </c>
       <c r="C30" s="9">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="E30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>18.470000000000002</v>
+        <v>302</v>
       </c>
       <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -18468,24 +18635,26 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>289.42500000000001</v>
+        <v>47.300000000000004</v>
       </c>
       <c r="C31" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>450</v>
+        <v>2200</v>
       </c>
       <c r="E31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>27.650000000000002</v>
+        <v>302</v>
       </c>
       <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -18496,24 +18665,26 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>288.92500000000001</v>
+        <v>48.5</v>
       </c>
       <c r="C32" s="9">
-        <v>2.1</v>
+        <v>-13.5</v>
       </c>
       <c r="D32" s="9">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>30.14</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -18524,24 +18695,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>900</v>
+      </c>
+      <c r="E33" s="6">
         <v>0</v>
       </c>
-      <c r="C33" s="6">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6">
-        <v>325</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
       <c r="F33" s="6">
-        <v>29.34</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
-      </c>
-      <c r="H33" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -18552,22 +18725,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>0.82</v>
+        <v>50.699999999999996</v>
       </c>
       <c r="C34" s="9">
-        <v>3.9</v>
+        <v>-7</v>
       </c>
       <c r="D34" s="9">
-        <v>820</v>
+        <v>1300</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>23.532</v>
+        <v>318.31</v>
       </c>
       <c r="G34" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -18582,22 +18755,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2.4</v>
+        <v>52.85</v>
       </c>
       <c r="C35" s="6">
-        <v>-0.1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="6">
-        <v>1580</v>
+        <v>2150</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>23.688000000000002</v>
+        <v>309.70999999999998</v>
       </c>
       <c r="G35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -18612,22 +18785,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>3.63</v>
+        <v>54.45</v>
       </c>
       <c r="C36" s="9">
-        <v>-24</v>
+        <v>-8.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>53.21</v>
+        <v>323.31</v>
       </c>
       <c r="G36" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -18642,22 +18815,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>7.41</v>
+        <v>56.050000000000004</v>
       </c>
       <c r="C37" s="6">
-        <v>-4</v>
+        <v>5.5</v>
       </c>
       <c r="D37" s="6">
-        <v>3780</v>
+        <v>1600</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>68.33</v>
+        <v>314.51</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -18672,22 +18845,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>9.33</v>
+        <v>57.699999999999996</v>
       </c>
       <c r="C38" s="9">
-        <v>-1.5</v>
+        <v>-5</v>
       </c>
       <c r="D38" s="9">
-        <v>1920</v>
+        <v>1650</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>71.209999999999994</v>
+        <v>322.76</v>
       </c>
       <c r="G38" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -18702,25 +18875,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>9.4</v>
+        <v>59.6</v>
       </c>
       <c r="C39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>417.85199999999998</v>
+        <v>1900</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>69.538591999999994</v>
+        <v>317.06</v>
       </c>
       <c r="G39" s="6">
         <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -18732,19 +18905,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>10.3</v>
+        <v>61.85</v>
       </c>
       <c r="C40" s="9">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="D40" s="9">
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>65.929000000000002</v>
+        <v>330.56</v>
       </c>
       <c r="G40" s="9">
         <v>3</v>
@@ -18762,19 +18935,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>11.700000000000001</v>
+        <v>63.550000000000004</v>
       </c>
       <c r="C41" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D41" s="6">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>37.930000000000007</v>
+        <v>327.16000000000003</v>
       </c>
       <c r="G41" s="6">
         <v>3</v>
@@ -18792,19 +18965,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>13.649999999999999</v>
+        <v>64.75</v>
       </c>
       <c r="C42" s="9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D42" s="9">
-        <v>1950</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>34.03</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G42" s="9">
         <v>3</v>
@@ -18822,19 +18995,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>17.2</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C43" s="6">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>3550</v>
+        <v>1150</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>94.38</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G43" s="6">
         <v>3</v>
@@ -18852,19 +19025,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>18.75</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="C44" s="9">
-        <v>-25</v>
+        <v>-4</v>
       </c>
       <c r="D44" s="9">
-        <v>1550</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>133.13</v>
+        <v>307.96000000000004</v>
       </c>
       <c r="G44" s="9">
         <v>3</v>
@@ -18882,19 +19055,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>21.05</v>
+        <v>68.149999999999991</v>
       </c>
       <c r="C45" s="6">
-        <v>18.7</v>
+        <v>4.5</v>
       </c>
       <c r="D45" s="6">
-        <v>2300</v>
+        <v>1050</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>90.12</v>
+        <v>303.23499999999996</v>
       </c>
       <c r="G45" s="6">
         <v>3</v>
@@ -18912,19 +19085,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>24.1</v>
+        <v>69.7</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
       </c>
       <c r="D46" s="9">
-        <v>3050</v>
+        <v>1550</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>90.12</v>
+        <v>303.24</v>
       </c>
       <c r="G46" s="9">
         <v>3</v>
@@ -18942,19 +19115,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>26.6</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C47" s="6">
-        <v>-12.5</v>
+        <v>-8</v>
       </c>
       <c r="D47" s="6">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>121.37</v>
+        <v>312.84000000000003</v>
       </c>
       <c r="G47" s="6">
         <v>3</v>
@@ -18972,19 +19145,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>30.5</v>
+        <v>72.7</v>
       </c>
       <c r="C48" s="9">
-        <v>-3</v>
+        <v>8.5</v>
       </c>
       <c r="D48" s="9">
-        <v>3900</v>
+        <v>1800</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>133.07</v>
+        <v>297.53999999999996</v>
       </c>
       <c r="G48" s="9">
         <v>3</v>
@@ -19002,19 +19175,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>32.4</v>
+        <v>75.850000000000009</v>
       </c>
       <c r="C49" s="6">
-        <v>-13.6</v>
+        <v>-17.5</v>
       </c>
       <c r="D49" s="6">
-        <v>1900</v>
+        <v>3150</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>158.91</v>
+        <v>352.66500000000002</v>
       </c>
       <c r="G49" s="6">
         <v>3</v>
@@ -19032,19 +19205,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>35.299999999999997</v>
+        <v>78.3</v>
       </c>
       <c r="C50" s="9">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="D50" s="9">
-        <v>2900</v>
+        <v>2450</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>128.46</v>
+        <v>340.42</v>
       </c>
       <c r="G50" s="9">
         <v>3</v>
@@ -19062,22 +19235,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>39.4</v>
+        <v>82.8</v>
       </c>
       <c r="C51" s="6">
-        <v>-12</v>
+        <v>-4.5</v>
       </c>
       <c r="D51" s="6">
-        <v>485.44</v>
+        <v>4500</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>134.28528</v>
+        <v>360.67</v>
       </c>
       <c r="G51" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>13</v>
@@ -19092,22 +19265,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>40.299999999999997</v>
+        <v>84.35</v>
       </c>
       <c r="C52" s="9">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="9">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>145.09</v>
+        <v>345.17</v>
       </c>
       <c r="G52" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -19122,22 +19295,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>43.75</v>
+        <v>86.55</v>
       </c>
       <c r="C53" s="6">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>3450</v>
+        <v>2200</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>186.70000000000002</v>
+        <v>345.17</v>
       </c>
       <c r="G53" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -19152,25 +19325,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>48.9</v>
+        <v>88.3</v>
       </c>
       <c r="C54" s="9">
-        <v>9.3000000000000007</v>
+        <v>12.5</v>
       </c>
       <c r="D54" s="9">
-        <v>5150</v>
+        <v>1750</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>138.80499999999998</v>
+        <v>323.29500000000002</v>
       </c>
       <c r="G54" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -19182,22 +19355,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>51.449999999999996</v>
+        <v>90.5</v>
       </c>
       <c r="C55" s="6">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="D55" s="6">
-        <v>2550</v>
+        <v>2200</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>189.81</v>
+        <v>327.7</v>
       </c>
       <c r="G55" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -19212,22 +19385,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>52.95</v>
+        <v>92.3</v>
       </c>
       <c r="C56" s="9">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="D56" s="9">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>185.31</v>
+        <v>343.9</v>
       </c>
       <c r="G56" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -19242,22 +19415,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>53.95</v>
+        <v>94.1</v>
       </c>
       <c r="C57" s="6">
-        <v>12.6</v>
+        <v>6</v>
       </c>
       <c r="D57" s="6">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>172.71</v>
+        <v>333.09999999999997</v>
       </c>
       <c r="G57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -19272,22 +19445,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>56</v>
+        <v>94.649999999999991</v>
       </c>
       <c r="C58" s="9">
-        <v>23.6</v>
+        <v>2</v>
       </c>
       <c r="D58" s="9">
-        <v>2050</v>
+        <v>550</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>124.33000000000001</v>
+        <v>332</v>
       </c>
       <c r="G58" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -19302,22 +19475,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>57.95</v>
+        <v>95.5</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6">
-        <v>1950</v>
+        <v>850</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>124.33</v>
+        <v>330.28000000000003</v>
       </c>
       <c r="G59" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -19332,22 +19505,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>59.35</v>
+        <v>96.95</v>
       </c>
       <c r="C60" s="9">
-        <v>15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D60" s="9">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>102.63</v>
+        <v>345.505</v>
       </c>
       <c r="G60" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -19362,22 +19535,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>62.65</v>
+        <v>99.350000000000009</v>
       </c>
       <c r="C61" s="6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>99.99</v>
+        <v>345.51</v>
       </c>
       <c r="G61" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -19392,22 +19565,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>63.55</v>
+        <v>101.5</v>
       </c>
       <c r="C62" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D62" s="9">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>85.589999999999989</v>
+        <v>302.51</v>
       </c>
       <c r="G62" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -19422,22 +19595,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>67.5</v>
+        <v>102.65</v>
       </c>
       <c r="C63" s="6">
-        <v>-0.9</v>
+        <v>-11</v>
       </c>
       <c r="D63" s="6">
-        <v>3950</v>
+        <v>1150</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>89.14500000000001</v>
+        <v>315.15999999999997</v>
       </c>
       <c r="G63" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -19452,22 +19625,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>68.400000000000006</v>
+        <v>104.80000000000001</v>
       </c>
       <c r="C64" s="9">
-        <v>-7.2</v>
+        <v>8</v>
       </c>
       <c r="D64" s="9">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>95.63000000000001</v>
+        <v>297.96000000000004</v>
       </c>
       <c r="G64" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -19482,22 +19655,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>70.5</v>
+        <v>106.75</v>
       </c>
       <c r="C65" s="6">
-        <v>5.5</v>
+        <v>-5</v>
       </c>
       <c r="D65" s="6">
-        <v>2100</v>
+        <v>1950</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>84.08</v>
+        <v>307.70999999999998</v>
       </c>
       <c r="G65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -19512,22 +19685,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>72.7</v>
+        <v>108.85</v>
       </c>
       <c r="C66" s="9">
-        <v>-5.3</v>
+        <v>3</v>
       </c>
       <c r="D66" s="9">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>95.74</v>
+        <v>301.40999999999997</v>
       </c>
       <c r="G66" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -19542,22 +19715,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>76.3</v>
+        <v>110.64999999999999</v>
       </c>
       <c r="C67" s="6">
-        <v>3.1</v>
+        <v>-10.5</v>
       </c>
       <c r="D67" s="6">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>84.58</v>
+        <v>320.31</v>
       </c>
       <c r="G67" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -19572,22 +19745,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>79</v>
+        <v>114.4</v>
       </c>
       <c r="C68" s="9">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D68" s="9">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>84.58</v>
+        <v>303.435</v>
       </c>
       <c r="G68" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -19602,22 +19775,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>79.7</v>
+        <v>117.05000000000001</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D69" s="6">
-        <v>700</v>
+        <v>2650</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>84.57</v>
+        <v>340.54</v>
       </c>
       <c r="G69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -19632,22 +19805,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>82.4</v>
+        <v>119.25</v>
       </c>
       <c r="C70" s="9">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="D70" s="9">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>89.429999999999993</v>
+        <v>340.54</v>
       </c>
       <c r="G70" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -19662,25 +19835,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>84.4</v>
+        <v>121.05</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" s="6">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>89.43</v>
+        <v>335.14000000000004</v>
       </c>
       <c r="G71" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -19692,25 +19865,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>86.7</v>
+        <v>122.64999999999999</v>
       </c>
       <c r="C72" s="9">
-        <v>-4</v>
+        <v>-13.5</v>
       </c>
       <c r="D72" s="9">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>98.63000000000001</v>
+        <v>356.74</v>
       </c>
       <c r="G72" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -19722,25 +19895,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>89.5</v>
+        <v>125.35000000000001</v>
       </c>
       <c r="C73" s="6">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="D73" s="6">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>94.429999999999993</v>
+        <v>327.04000000000002</v>
       </c>
       <c r="G73" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -19752,25 +19925,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>94.09</v>
+        <v>127.1</v>
       </c>
       <c r="C74" s="9">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D74" s="9">
-        <v>4590</v>
+        <v>1750</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>94.43</v>
+        <v>337.54</v>
       </c>
       <c r="G74" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -19782,25 +19955,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>94.990000000000009</v>
+        <v>128.15</v>
       </c>
       <c r="C75" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>1050</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>80.03</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="G75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -19812,25 +19985,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>124.9</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="C76" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D76" s="9">
-        <v>193.672</v>
+        <v>400</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>80.03</v>
+        <v>313.34000000000003</v>
       </c>
       <c r="G76" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -19842,25 +20015,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>128.05000000000001</v>
+        <v>131.5</v>
       </c>
       <c r="C77" s="6">
         <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>3150</v>
+        <v>2950</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <v>80.03</v>
+        <v>313.33999999999997</v>
       </c>
       <c r="G77" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -19871,13 +20044,27 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="B78" s="11">
+        <v>132.526803</v>
+      </c>
+      <c r="C78" s="9">
+        <v>20</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1026.8030000000001</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
+        <v>292.80393999999995</v>
+      </c>
+      <c r="G78" s="9">
+        <v>3</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>IDK</t>
-  </si>
-  <si>
-    <t>IYDK</t>
   </si>
   <si>
     <t>ID1K</t>
@@ -654,16 +651,16 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>39184.54</v>
+        <v>39184.542000000001</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>38000</v>
+        <v>40900</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,18 +688,10 @@
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9">
-        <v>39173.184999999998</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>40850</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -1255,7 +1244,7 @@
         <v>-3</v>
       </c>
       <c r="D23" s="6">
-        <v>334.541</v>
+        <v>334.54500000000002</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -1288,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="9">
         <v>310.56599999999997</v>
@@ -1309,25 +1298,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>38</v>
+        <v>40.9</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="6">
-        <v>850</v>
+        <v>767.75</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>311.565</v>
+        <v>310.56599999999997</v>
       </c>
       <c r="G25" s="6">
         <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1339,25 +1328,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>38.85</v>
+        <v>41.667749999999998</v>
       </c>
       <c r="C26" s="9">
-        <v>-3</v>
+        <v>7.5</v>
       </c>
       <c r="D26" s="9">
-        <v>323.185</v>
+        <v>1732.252</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>311.57</v>
+        <v>308.26</v>
       </c>
       <c r="G26" s="9">
         <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1369,25 +1358,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>39.173000000000002</v>
+        <v>43.4</v>
       </c>
       <c r="C27" s="6">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>310.601</v>
+        <v>321.25</v>
       </c>
       <c r="G27" s="6">
         <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1399,25 +1388,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>40.85</v>
+        <v>45.15</v>
       </c>
       <c r="C28" s="9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>851.98</v>
+        <v>2150</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>310.601</v>
+        <v>302</v>
       </c>
       <c r="G28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1429,25 +1418,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>41.701979999999999</v>
+        <v>47.3</v>
       </c>
       <c r="C29" s="6">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="D29" s="6">
-        <v>1548.0250000000001</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>308.04000000000002</v>
+        <v>302.01</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1459,25 +1448,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>43.25</v>
+        <v>48.5</v>
       </c>
       <c r="C30" s="9">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="D30" s="9">
-        <v>1850</v>
+        <v>900</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>339</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="G30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1489,25 +1478,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>45.1</v>
+        <v>49.4</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="6">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>302</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="G31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1519,22 +1508,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>47.3</v>
+        <v>50.7</v>
       </c>
       <c r="C32" s="9">
-        <v>13.5</v>
+        <v>-4</v>
       </c>
       <c r="D32" s="9">
-        <v>1200</v>
+        <v>2150</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>302.01</v>
+        <v>318.31</v>
       </c>
       <c r="G32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -1549,22 +1538,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>48.5</v>
+        <v>52.85</v>
       </c>
       <c r="C33" s="6">
-        <v>-10</v>
+        <v>8.5</v>
       </c>
       <c r="D33" s="6">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>318.20999999999998</v>
+        <v>309.70999999999998</v>
       </c>
       <c r="G33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -1579,22 +1568,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>49.4</v>
+        <v>54.45</v>
       </c>
       <c r="C34" s="9">
-        <v>7</v>
+        <v>-5.5</v>
       </c>
       <c r="D34" s="9">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>309.20999999999998</v>
+        <v>323.31</v>
       </c>
       <c r="G34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -1609,22 +1598,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>50.7</v>
+        <v>56.05</v>
       </c>
       <c r="C35" s="6">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="6">
-        <v>2150</v>
+        <v>1650</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>318.31</v>
+        <v>314.51</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -1639,22 +1628,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>52.85</v>
+        <v>57.7</v>
       </c>
       <c r="C36" s="9">
-        <v>8.5</v>
+        <v>-3</v>
       </c>
       <c r="D36" s="9">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>309.70999999999998</v>
+        <v>322.76</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -1669,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>54.45</v>
+        <v>59.6</v>
       </c>
       <c r="C37" s="6">
-        <v>-5.5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="6">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>323.31</v>
+        <v>317.06</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -1699,22 +1688,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>56.05</v>
+        <v>61.85</v>
       </c>
       <c r="C38" s="9">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D38" s="9">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>314.51</v>
+        <v>330.56</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -1729,22 +1718,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>57.7</v>
+        <v>63.55</v>
       </c>
       <c r="C39" s="6">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="D39" s="6">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>322.76</v>
+        <v>327.16000000000003</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
@@ -1759,22 +1748,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>59.6</v>
+        <v>64.75</v>
       </c>
       <c r="C40" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="9">
-        <v>2250</v>
+        <v>1150</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>317.06</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G40" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>13</v>
@@ -1789,22 +1778,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>61.85</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C41" s="6">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>330.56</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
@@ -1819,22 +1808,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>63.55</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C42" s="9">
-        <v>-20</v>
+        <v>-4.5</v>
       </c>
       <c r="D42" s="9">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>327.16000000000003</v>
+        <v>307.95999999999998</v>
       </c>
       <c r="G42" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>13</v>
@@ -1849,22 +1838,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>64.75</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>1150</v>
+        <v>1550</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>303.16000000000003</v>
+        <v>303.24</v>
       </c>
       <c r="G43" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>13</v>
@@ -1879,10 +1868,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>65.900000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="C44" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44" s="9">
         <v>1200</v>
@@ -1891,10 +1880,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>303.16000000000003</v>
+        <v>303.24</v>
       </c>
       <c r="G44" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -1909,22 +1898,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>67.099999999999994</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C45" s="6">
-        <v>-4.5</v>
+        <v>-8.5</v>
       </c>
       <c r="D45" s="6">
-        <v>1050</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>307.95999999999998</v>
+        <v>312.83999999999997</v>
       </c>
       <c r="G45" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -1939,22 +1928,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>68.150000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="C46" s="9">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="D46" s="9">
-        <v>1550</v>
+        <v>3150</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>303.24</v>
+        <v>297.54000000000002</v>
       </c>
       <c r="G46" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -1969,22 +1958,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>69.7</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="C47" s="6">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="D47" s="6">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>303.24</v>
+        <v>352.67</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -1999,22 +1988,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>70.900000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="C48" s="9">
-        <v>-8.5</v>
+        <v>4.5</v>
       </c>
       <c r="D48" s="9">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>312.83999999999997</v>
+        <v>340.42</v>
       </c>
       <c r="G48" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>13</v>
@@ -2029,22 +2018,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>72.7</v>
+        <v>82.8</v>
       </c>
       <c r="C49" s="6">
-        <v>17.5</v>
+        <v>-10</v>
       </c>
       <c r="D49" s="6">
-        <v>3150</v>
+        <v>1550</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>297.54000000000002</v>
+        <v>360.67</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>13</v>
@@ -2059,22 +2048,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>75.849999999999994</v>
+        <v>84.35</v>
       </c>
       <c r="C50" s="9">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D50" s="9">
-        <v>2450</v>
+        <v>2200</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>352.67</v>
+        <v>345.17</v>
       </c>
       <c r="G50" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>13</v>
@@ -2089,25 +2078,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>78.3</v>
+        <v>86.55</v>
       </c>
       <c r="C51" s="6">
-        <v>4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D51" s="6">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>340.42</v>
+        <v>345.17</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2119,22 +2108,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>82.8</v>
+        <v>88.3</v>
       </c>
       <c r="C52" s="9">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="D52" s="9">
-        <v>1550</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>360.67</v>
+        <v>323.3</v>
       </c>
       <c r="G52" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -2149,22 +2138,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>84.35</v>
+        <v>90.5</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D53" s="6">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>345.17</v>
+        <v>327.7</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2179,25 +2168,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>86.55</v>
+        <v>92.3</v>
       </c>
       <c r="C54" s="9">
-        <v>-12.5</v>
+        <v>-6</v>
       </c>
       <c r="D54" s="9">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>345.17</v>
+        <v>343.9</v>
       </c>
       <c r="G54" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2209,22 +2198,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>88.3</v>
+        <v>94.1</v>
       </c>
       <c r="C55" s="6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D55" s="6">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>323.3</v>
+        <v>333.1</v>
       </c>
       <c r="G55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -2239,22 +2228,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>90.5</v>
+        <v>94.65</v>
       </c>
       <c r="C56" s="9">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="D56" s="9">
-        <v>1800</v>
+        <v>850</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>327.7</v>
+        <v>331.98</v>
       </c>
       <c r="G56" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -2269,22 +2258,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>92.3</v>
+        <v>95.5</v>
       </c>
       <c r="C57" s="6">
-        <v>-6</v>
+        <v>10.5</v>
       </c>
       <c r="D57" s="6">
-        <v>1800</v>
+        <v>1450</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>343.9</v>
+        <v>330.28</v>
       </c>
       <c r="G57" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -2299,22 +2288,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>94.1</v>
+        <v>96.95</v>
       </c>
       <c r="C58" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>550</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>333.1</v>
+        <v>345.51</v>
       </c>
       <c r="G58" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -2329,22 +2318,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>94.65</v>
+        <v>99.35</v>
       </c>
       <c r="C59" s="6">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="D59" s="6">
-        <v>850</v>
+        <v>2150</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>331.98</v>
+        <v>345.51</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -2359,22 +2348,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>95.5</v>
+        <v>101.5</v>
       </c>
       <c r="C60" s="9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="D60" s="9">
-        <v>1450</v>
+        <v>1150</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>330.28</v>
+        <v>302.51</v>
       </c>
       <c r="G60" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -2389,22 +2378,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>96.95</v>
+        <v>102.65</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D61" s="6">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>345.51</v>
+        <v>315.16000000000003</v>
       </c>
       <c r="G61" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -2419,22 +2408,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>99.35</v>
+        <v>104.8</v>
       </c>
       <c r="C62" s="9">
-        <v>-20</v>
+        <v>5</v>
       </c>
       <c r="D62" s="9">
-        <v>2150</v>
+        <v>1950</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>345.51</v>
+        <v>297.95999999999998</v>
       </c>
       <c r="G62" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -2449,22 +2438,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>101.5</v>
+        <v>106.75</v>
       </c>
       <c r="C63" s="6">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="D63" s="6">
-        <v>1150</v>
+        <v>2100</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>302.51</v>
+        <v>307.70999999999998</v>
       </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -2479,22 +2468,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>102.65</v>
+        <v>108.85</v>
       </c>
       <c r="C64" s="9">
-        <v>-8</v>
+        <v>10.5</v>
       </c>
       <c r="D64" s="9">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>315.16000000000003</v>
+        <v>301.41000000000003</v>
       </c>
       <c r="G64" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -2509,22 +2498,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>104.8</v>
+        <v>110.65</v>
       </c>
       <c r="C65" s="6">
-        <v>5</v>
+        <v>-4.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1950</v>
+        <v>3750</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>297.95999999999998</v>
+        <v>320.31</v>
       </c>
       <c r="G65" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -2539,22 +2528,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>106.75</v>
+        <v>114.4</v>
       </c>
       <c r="C66" s="9">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="D66" s="9">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>307.70999999999998</v>
+        <v>303.44</v>
       </c>
       <c r="G66" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -2569,22 +2558,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>108.85</v>
+        <v>117.05</v>
       </c>
       <c r="C67" s="6">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>301.41000000000003</v>
+        <v>340.54</v>
       </c>
       <c r="G67" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -2599,22 +2588,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>110.65</v>
+        <v>119.25</v>
       </c>
       <c r="C68" s="9">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
       <c r="D68" s="9">
-        <v>3750</v>
+        <v>1800</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>320.31</v>
+        <v>340.54</v>
       </c>
       <c r="G68" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -2629,22 +2618,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>114.4</v>
+        <v>121.05</v>
       </c>
       <c r="C69" s="6">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="D69" s="6">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>303.44</v>
+        <v>335.14</v>
       </c>
       <c r="G69" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -2659,22 +2648,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>117.05</v>
+        <v>122.65</v>
       </c>
       <c r="C70" s="9">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D70" s="9">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>340.54</v>
+        <v>356.74</v>
       </c>
       <c r="G70" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -2689,22 +2678,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>119.25</v>
+        <v>125.35</v>
       </c>
       <c r="C71" s="6">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D71" s="6">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>340.54</v>
+        <v>327.04000000000002</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>13</v>
@@ -2719,22 +2708,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>121.05</v>
+        <v>127.1</v>
       </c>
       <c r="C72" s="9">
-        <v>13.5</v>
+        <v>-20</v>
       </c>
       <c r="D72" s="9">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>335.14</v>
+        <v>337.54</v>
       </c>
       <c r="G72" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>13</v>
@@ -2749,22 +2738,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>122.65</v>
+        <v>128.15</v>
       </c>
       <c r="C73" s="6">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D73" s="6">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>356.74</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>13</v>
@@ -2779,22 +2768,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>125.35</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="C74" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D74" s="9">
-        <v>1750</v>
+        <v>2950</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>327.04000000000002</v>
+        <v>313.33999999999997</v>
       </c>
       <c r="G74" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>13</v>
@@ -2809,22 +2798,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>127.1</v>
+        <v>131.5</v>
       </c>
       <c r="C75" s="6">
         <v>-20</v>
       </c>
       <c r="D75" s="6">
-        <v>1050</v>
+        <v>1026.8030000000001</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>337.54</v>
+        <v>313.33999999999997</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
@@ -2838,27 +2827,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>128.15</v>
-      </c>
-      <c r="C76" s="9">
-        <v>-8</v>
-      </c>
-      <c r="D76" s="9">
-        <v>400</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="9">
-        <v>316.54000000000002</v>
-      </c>
-      <c r="G76" s="9">
-        <v>3</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2868,27 +2843,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>128.55000000000001</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2950</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
-        <v>313.33999999999997</v>
-      </c>
-      <c r="G77" s="6">
-        <v>3</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -2898,27 +2859,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>131.5</v>
-      </c>
-      <c r="C78" s="9">
-        <v>-20</v>
-      </c>
-      <c r="D78" s="9">
-        <v>1026.8030000000001</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="9">
-        <v>313.33999999999997</v>
-      </c>
-      <c r="G78" s="9">
-        <v>3</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -17800,16 +17747,16 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>39184.54</v>
+        <v>39184.542000000001</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>38000</v>
+        <v>40900</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -17837,18 +17784,10 @@
       <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="9">
-        <v>39173.184999999998</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>40850</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -18395,19 +18334,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>39.184541000000003</v>
+        <v>39.184545</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>334.541</v>
+        <v>334.54500000000002</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>310.56637699999999</v>
+        <v>310.56636500000002</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -18425,7 +18364,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>38</v>
+        <v>40.9</v>
       </c>
       <c r="C24" s="9">
         <v>3</v>
@@ -18434,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="9">
         <v>310.56599999999997</v>
@@ -18455,25 +18394,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>38.85</v>
+        <v>41.667749999999998</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>850</v>
+        <v>767.75</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>311.565</v>
+        <v>308.26274999999998</v>
       </c>
       <c r="G25" s="6">
         <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -18485,25 +18424,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>39.173185000000004</v>
+        <v>43.400002000000001</v>
       </c>
       <c r="C26" s="9">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="D26" s="9">
-        <v>323.185</v>
+        <v>1732.252</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>310.60044499999998</v>
+        <v>321.25189</v>
       </c>
       <c r="G26" s="9">
         <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -18515,25 +18454,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>40.85</v>
+        <v>45.15</v>
       </c>
       <c r="C27" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>310.601</v>
+        <v>302</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -18545,25 +18484,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>41.701979999999999</v>
+        <v>47.3</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="9">
-        <v>851.98</v>
+        <v>2150</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>308.04505999999998</v>
+        <v>302</v>
       </c>
       <c r="G28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -18575,25 +18514,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>43.250005000000002</v>
+        <v>48.5</v>
       </c>
       <c r="C29" s="6">
-        <v>-20</v>
+        <v>-13.5</v>
       </c>
       <c r="D29" s="6">
-        <v>1548.0250000000001</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>339.00050000000005</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -18605,25 +18544,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>45.1</v>
+        <v>49.4</v>
       </c>
       <c r="C30" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D30" s="9">
-        <v>1850</v>
+        <v>900</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>302</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="G30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -18635,25 +18574,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>47.300000000000004</v>
+        <v>50.699999999999996</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D31" s="6">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>302</v>
+        <v>318.31</v>
       </c>
       <c r="G31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -18665,22 +18604,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>48.5</v>
+        <v>52.85</v>
       </c>
       <c r="C32" s="9">
-        <v>-13.5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="9">
-        <v>1200</v>
+        <v>2150</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>318.20999999999998</v>
+        <v>309.70999999999998</v>
       </c>
       <c r="G32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>13</v>
@@ -18695,22 +18634,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>49.4</v>
+        <v>54.45</v>
       </c>
       <c r="C33" s="6">
-        <v>10</v>
+        <v>-8.5</v>
       </c>
       <c r="D33" s="6">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>309.20999999999998</v>
+        <v>323.31</v>
       </c>
       <c r="G33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>13</v>
@@ -18725,22 +18664,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>50.699999999999996</v>
+        <v>56.050000000000004</v>
       </c>
       <c r="C34" s="9">
-        <v>-7</v>
+        <v>5.5</v>
       </c>
       <c r="D34" s="9">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>318.31</v>
+        <v>314.51</v>
       </c>
       <c r="G34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>13</v>
@@ -18755,22 +18694,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>52.85</v>
+        <v>57.699999999999996</v>
       </c>
       <c r="C35" s="6">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="D35" s="6">
-        <v>2150</v>
+        <v>1650</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>309.70999999999998</v>
+        <v>322.76</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -18785,22 +18724,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>54.45</v>
+        <v>59.6</v>
       </c>
       <c r="C36" s="9">
-        <v>-8.5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="9">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>323.31</v>
+        <v>317.06</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -18815,22 +18754,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>56.050000000000004</v>
+        <v>61.85</v>
       </c>
       <c r="C37" s="6">
-        <v>5.5</v>
+        <v>-6</v>
       </c>
       <c r="D37" s="6">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>314.51</v>
+        <v>330.56</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -18845,22 +18784,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>57.699999999999996</v>
+        <v>63.550000000000004</v>
       </c>
       <c r="C38" s="9">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D38" s="9">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>322.76</v>
+        <v>327.16000000000003</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -18875,22 +18814,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>59.6</v>
+        <v>64.75</v>
       </c>
       <c r="C39" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D39" s="6">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>317.06</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>13</v>
@@ -18905,22 +18844,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>61.85</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="C40" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="9">
-        <v>2250</v>
+        <v>1150</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>330.56</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G40" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>13</v>
@@ -18935,22 +18874,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>63.550000000000004</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="C41" s="6">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>327.16000000000003</v>
+        <v>307.96000000000004</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>13</v>
@@ -18965,22 +18904,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>64.75</v>
+        <v>68.149999999999991</v>
       </c>
       <c r="C42" s="9">
-        <v>20</v>
+        <v>4.5</v>
       </c>
       <c r="D42" s="9">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>303.16000000000003</v>
+        <v>303.23499999999996</v>
       </c>
       <c r="G42" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>13</v>
@@ -18995,22 +18934,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>65.900000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>1150</v>
+        <v>1550</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>303.16000000000003</v>
+        <v>303.24</v>
       </c>
       <c r="G43" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>13</v>
@@ -19025,10 +18964,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>67.100000000000009</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C44" s="9">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="D44" s="9">
         <v>1200</v>
@@ -19037,10 +18976,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>307.96000000000004</v>
+        <v>312.84000000000003</v>
       </c>
       <c r="G44" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>13</v>
@@ -19055,22 +18994,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>68.149999999999991</v>
+        <v>72.7</v>
       </c>
       <c r="C45" s="6">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="D45" s="6">
-        <v>1050</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>303.23499999999996</v>
+        <v>297.53999999999996</v>
       </c>
       <c r="G45" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>13</v>
@@ -19085,22 +19024,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>69.7</v>
+        <v>75.850000000000009</v>
       </c>
       <c r="C46" s="9">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="D46" s="9">
-        <v>1550</v>
+        <v>3150</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>303.24</v>
+        <v>352.66500000000002</v>
       </c>
       <c r="G46" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -19115,22 +19054,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>70.900000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="C47" s="6">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
-        <v>1200</v>
+        <v>2450</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>312.84000000000003</v>
+        <v>340.42</v>
       </c>
       <c r="G47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -19145,22 +19084,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>72.7</v>
+        <v>82.8</v>
       </c>
       <c r="C48" s="9">
-        <v>8.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D48" s="9">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>297.53999999999996</v>
+        <v>360.67</v>
       </c>
       <c r="G48" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>13</v>
@@ -19175,22 +19114,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>75.850000000000009</v>
+        <v>84.35</v>
       </c>
       <c r="C49" s="6">
-        <v>-17.5</v>
+        <v>10</v>
       </c>
       <c r="D49" s="6">
-        <v>3150</v>
+        <v>1550</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>352.66500000000002</v>
+        <v>345.17</v>
       </c>
       <c r="G49" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>13</v>
@@ -19205,22 +19144,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>78.3</v>
+        <v>86.55</v>
       </c>
       <c r="C50" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D50" s="9">
-        <v>2450</v>
+        <v>2200</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>340.42</v>
+        <v>345.17</v>
       </c>
       <c r="G50" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>13</v>
@@ -19235,25 +19174,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>82.8</v>
+        <v>88.3</v>
       </c>
       <c r="C51" s="6">
-        <v>-4.5</v>
+        <v>12.5</v>
       </c>
       <c r="D51" s="6">
-        <v>4500</v>
+        <v>1750</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>360.67</v>
+        <v>323.29500000000002</v>
       </c>
       <c r="G51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -19265,22 +19204,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>84.35</v>
+        <v>90.5</v>
       </c>
       <c r="C52" s="9">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="D52" s="9">
-        <v>1550</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>345.17</v>
+        <v>327.7</v>
       </c>
       <c r="G52" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>13</v>
@@ -19295,22 +19234,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>86.55</v>
+        <v>92.3</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D53" s="6">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>345.17</v>
+        <v>343.9</v>
       </c>
       <c r="G53" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -19325,25 +19264,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>88.3</v>
+        <v>94.1</v>
       </c>
       <c r="C54" s="9">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="9">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>323.29500000000002</v>
+        <v>333.09999999999997</v>
       </c>
       <c r="G54" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -19355,22 +19294,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>90.5</v>
+        <v>94.649999999999991</v>
       </c>
       <c r="C55" s="6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D55" s="6">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>327.7</v>
+        <v>332</v>
       </c>
       <c r="G55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>13</v>
@@ -19385,22 +19324,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>92.3</v>
+        <v>95.5</v>
       </c>
       <c r="C56" s="9">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="D56" s="9">
-        <v>1800</v>
+        <v>850</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>343.9</v>
+        <v>330.28000000000003</v>
       </c>
       <c r="G56" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>13</v>
@@ -19415,22 +19354,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>94.1</v>
+        <v>96.95</v>
       </c>
       <c r="C57" s="6">
-        <v>6</v>
+        <v>-10.5</v>
       </c>
       <c r="D57" s="6">
-        <v>1800</v>
+        <v>1450</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>333.09999999999997</v>
+        <v>345.505</v>
       </c>
       <c r="G57" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -19445,22 +19384,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>94.649999999999991</v>
+        <v>99.350000000000009</v>
       </c>
       <c r="C58" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>550</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>332</v>
+        <v>345.51</v>
       </c>
       <c r="G58" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -19475,22 +19414,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>95.5</v>
+        <v>101.5</v>
       </c>
       <c r="C59" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D59" s="6">
-        <v>850</v>
+        <v>2150</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>330.28000000000003</v>
+        <v>302.51</v>
       </c>
       <c r="G59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>13</v>
@@ -19505,22 +19444,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>96.95</v>
+        <v>102.65</v>
       </c>
       <c r="C60" s="9">
-        <v>-10.5</v>
+        <v>-11</v>
       </c>
       <c r="D60" s="9">
-        <v>1450</v>
+        <v>1150</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>345.505</v>
+        <v>315.15999999999997</v>
       </c>
       <c r="G60" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>13</v>
@@ -19535,22 +19474,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>99.350000000000009</v>
+        <v>104.80000000000001</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D61" s="6">
-        <v>2400</v>
+        <v>2150</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>345.51</v>
+        <v>297.96000000000004</v>
       </c>
       <c r="G61" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>13</v>
@@ -19565,22 +19504,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>101.5</v>
+        <v>106.75</v>
       </c>
       <c r="C62" s="9">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="D62" s="9">
-        <v>2150</v>
+        <v>1950</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>302.51</v>
+        <v>307.70999999999998</v>
       </c>
       <c r="G62" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -19595,22 +19534,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>102.65</v>
+        <v>108.85</v>
       </c>
       <c r="C63" s="6">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6">
-        <v>1150</v>
+        <v>2100</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>315.15999999999997</v>
+        <v>301.40999999999997</v>
       </c>
       <c r="G63" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -19625,22 +19564,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>104.80000000000001</v>
+        <v>110.64999999999999</v>
       </c>
       <c r="C64" s="9">
-        <v>8</v>
+        <v>-10.5</v>
       </c>
       <c r="D64" s="9">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>297.96000000000004</v>
+        <v>320.31</v>
       </c>
       <c r="G64" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -19655,22 +19594,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>106.75</v>
+        <v>114.4</v>
       </c>
       <c r="C65" s="6">
-        <v>-5</v>
+        <v>4.5</v>
       </c>
       <c r="D65" s="6">
-        <v>1950</v>
+        <v>3750</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>307.70999999999998</v>
+        <v>303.435</v>
       </c>
       <c r="G65" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -19685,22 +19624,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>108.85</v>
+        <v>117.05000000000001</v>
       </c>
       <c r="C66" s="9">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="D66" s="9">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>301.40999999999997</v>
+        <v>340.54</v>
       </c>
       <c r="G66" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -19715,22 +19654,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>110.64999999999999</v>
+        <v>119.25</v>
       </c>
       <c r="C67" s="6">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>320.31</v>
+        <v>340.54</v>
       </c>
       <c r="G67" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -19745,22 +19684,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>114.4</v>
+        <v>121.05</v>
       </c>
       <c r="C68" s="9">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="9">
-        <v>3750</v>
+        <v>1800</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>303.435</v>
+        <v>335.14000000000004</v>
       </c>
       <c r="G68" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -19775,22 +19714,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>117.05000000000001</v>
+        <v>122.64999999999999</v>
       </c>
       <c r="C69" s="6">
-        <v>-14</v>
+        <v>-13.5</v>
       </c>
       <c r="D69" s="6">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>340.54</v>
+        <v>356.74</v>
       </c>
       <c r="G69" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>13</v>
@@ -19805,22 +19744,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>119.25</v>
+        <v>125.35000000000001</v>
       </c>
       <c r="C70" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D70" s="9">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>340.54</v>
+        <v>327.04000000000002</v>
       </c>
       <c r="G70" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>13</v>
@@ -19835,22 +19774,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>121.05</v>
+        <v>127.1</v>
       </c>
       <c r="C71" s="6">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D71" s="6">
-        <v>1800</v>
+        <v>1750</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>335.14000000000004</v>
+        <v>337.54</v>
       </c>
       <c r="G71" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>13</v>
@@ -19865,22 +19804,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>122.64999999999999</v>
+        <v>128.15</v>
       </c>
       <c r="C72" s="9">
-        <v>-13.5</v>
+        <v>20</v>
       </c>
       <c r="D72" s="9">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>356.74</v>
+        <v>316.54000000000002</v>
       </c>
       <c r="G72" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>13</v>
@@ -19895,22 +19834,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>125.35000000000001</v>
+        <v>128.55000000000001</v>
       </c>
       <c r="C73" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="6">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>327.04000000000002</v>
+        <v>313.34000000000003</v>
       </c>
       <c r="G73" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>13</v>
@@ -19925,22 +19864,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>127.1</v>
+        <v>131.5</v>
       </c>
       <c r="C74" s="9">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D74" s="9">
-        <v>1750</v>
+        <v>2950</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>337.54</v>
+        <v>313.33999999999997</v>
       </c>
       <c r="G74" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>13</v>
@@ -19955,22 +19894,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>128.15</v>
+        <v>132.526803</v>
       </c>
       <c r="C75" s="6">
         <v>20</v>
       </c>
       <c r="D75" s="6">
-        <v>1050</v>
+        <v>1026.8030000000001</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>316.54000000000002</v>
+        <v>292.80393999999995</v>
       </c>
       <c r="G75" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>13</v>
@@ -19984,27 +19923,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>128.55000000000001</v>
-      </c>
-      <c r="C76" s="9">
-        <v>8</v>
-      </c>
-      <c r="D76" s="9">
-        <v>400</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>313.34000000000003</v>
-      </c>
-      <c r="G76" s="9">
-        <v>3</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -20014,27 +19939,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>131.5</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2950</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>313.33999999999997</v>
-      </c>
-      <c r="G77" s="6">
-        <v>3</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -20044,27 +19955,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>132.526803</v>
-      </c>
-      <c r="C78" s="9">
-        <v>20</v>
-      </c>
-      <c r="D78" s="9">
-        <v>1026.8030000000001</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>292.80393999999995</v>
-      </c>
-      <c r="G78" s="9">
-        <v>3</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,16 +70,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D2K</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>D4K</t>
+    <t>IYDK</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>ID1K</t>
   </si>
   <si>
-    <t>D1K</t>
+    <t>ID2K</t>
+  </si>
+  <si>
+    <t>IYD1K</t>
+  </si>
+  <si>
+    <t>IYD2K</t>
   </si>
 </sst>
 </file>
@@ -636,19 +642,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>308.7</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>2750</v>
+        <v>3150</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>486.959</v>
+        <v>335.86500000000001</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -657,13 +663,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>356302.00699999998</v>
+        <v>39173.156999999999</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>355240</v>
+        <v>40850</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -674,37 +680,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>311.45</v>
+        <v>3.15</v>
       </c>
       <c r="C4" s="9">
-        <v>15.5</v>
+        <v>-6</v>
       </c>
       <c r="D4" s="9">
-        <v>6450</v>
+        <v>1790</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>496.584</v>
+        <v>335.87</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>370664.07400000002</v>
+        <v>55299.989000000001</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="9">
-        <v>370800</v>
+        <v>55300</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -712,37 +718,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>317.89999999999998</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>2850</v>
+        <v>910</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>596.55999999999995</v>
+        <v>325.13</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>418878.37800000003</v>
+        <v>63499.987000000001</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="6">
-        <v>418890</v>
+        <v>63500</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,37 +756,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>320.75</v>
+        <v>5.85</v>
       </c>
       <c r="C6" s="9">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>6050</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>607.96</v>
+        <v>327.86</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="9">
-        <v>430653.09019999998</v>
+        <v>67099.979000000007</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9">
-        <v>432300</v>
+        <v>67100</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,37 +794,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>326.8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>583.76</v>
+        <v>327.86</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6">
-        <v>497099.21</v>
+        <v>76599.381999999998</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="6">
-        <v>497100</v>
+        <v>76600</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -826,37 +832,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>329.7</v>
+        <v>9.86</v>
       </c>
       <c r="C8" s="9">
-        <v>15.5</v>
+        <v>-9.5</v>
       </c>
       <c r="D8" s="9">
-        <v>4300</v>
+        <v>1990</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>606.96</v>
+        <v>356.46</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="9">
-        <v>602222.46900000004</v>
+        <v>83399.794999999998</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="9">
-        <v>602000</v>
+        <v>83400</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -864,37 +870,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>334</v>
+        <v>11.85</v>
       </c>
       <c r="C9" s="6">
-        <v>4.2</v>
+        <v>-6</v>
       </c>
       <c r="D9" s="6">
-        <v>4400</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>673.61</v>
+        <v>337.56</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6">
-        <v>630787.83900000004</v>
+        <v>85999.953999999998</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="6">
-        <v>631500</v>
+        <v>86000</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -902,48 +908,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>338.4</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9">
-        <v>15.4994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>8300</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>692.09</v>
+        <v>330.66</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9">
-        <v>674131.946</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
-        <v>683900</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>346.7</v>
+        <v>15.3</v>
       </c>
       <c r="C11" s="6">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -952,51 +950,43 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>820.74</v>
+        <v>330.66</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>702749.11499999999</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="6">
-        <v>702400</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>348.2</v>
+        <v>16.8</v>
       </c>
       <c r="C12" s="9">
-        <v>-2.9996999999999998</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>4450</v>
+        <v>1550</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>833.49</v>
+        <v>335.16</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1008,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>352.65</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>8.5</v>
+        <v>-5</v>
       </c>
       <c r="D13" s="6">
-        <v>1209</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>820.14</v>
+        <v>335.16</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1038,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>353.85899999999998</v>
+        <v>19.25</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>1641</v>
+        <v>2150</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>830.42</v>
+        <v>330.66</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1068,25 +1058,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>355.5</v>
+        <v>21.4</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6">
-        <v>802</v>
+        <v>1250</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>850.11</v>
+        <v>330.66</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1098,25 +1088,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>356.30200000000002</v>
+        <v>22.65</v>
       </c>
       <c r="C16" s="9">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D16" s="9">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>850.11</v>
+        <v>344.41</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1128,25 +1118,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>355.24</v>
+        <v>24.7</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6">
-        <v>3460</v>
+        <v>1750</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>850.11</v>
+        <v>328.01</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1158,25 +1148,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>358.7</v>
+        <v>26.45</v>
       </c>
       <c r="C18" s="9">
-        <v>12</v>
+        <v>-13.5</v>
       </c>
       <c r="D18" s="9">
-        <v>1480</v>
+        <v>1250</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>850.11</v>
+        <v>347.26</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1188,25 +1178,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>360.18</v>
+        <v>27.7</v>
       </c>
       <c r="C19" s="6">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>4920</v>
+        <v>2250</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>867.87</v>
+        <v>330.39</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1218,25 +1208,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>365.1</v>
+        <v>29.95</v>
       </c>
       <c r="C20" s="9">
-        <v>8.8004999999999995</v>
+        <v>-7</v>
       </c>
       <c r="D20" s="9">
-        <v>1303</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>944.13</v>
+        <v>330.39</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1248,25 +1238,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>366.40300000000002</v>
+        <v>32.85</v>
       </c>
       <c r="C21" s="6">
-        <v>-3</v>
+        <v>6.5</v>
       </c>
       <c r="D21" s="6">
-        <v>4197</v>
+        <v>3500</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>955.6</v>
+        <v>310.08999999999997</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1278,25 +1268,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>370.6</v>
+        <v>36.35</v>
       </c>
       <c r="C22" s="9">
-        <v>-14.9</v>
+        <v>-20</v>
       </c>
       <c r="D22" s="9">
-        <v>64.055999999999997</v>
+        <v>1050</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>943</v>
+        <v>332.84</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1308,25 +1298,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>370.66399999999999</v>
+        <v>37.4</v>
       </c>
       <c r="C23" s="6">
-        <v>-14.9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>942.04600000000005</v>
+        <v>311.83999999999997</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1338,22 +1328,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>370.8</v>
+        <v>38.85</v>
       </c>
       <c r="C24" s="9">
-        <v>-14.9</v>
+        <v>-3</v>
       </c>
       <c r="D24" s="9">
-        <v>2400</v>
+        <v>323.15800000000002</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>942.04600000000005</v>
+        <v>311.83</v>
       </c>
       <c r="G24" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>14</v>
@@ -1368,25 +1358,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>373.2</v>
+        <v>39.173000000000002</v>
       </c>
       <c r="C25" s="6">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="6">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>906.29</v>
+        <v>310.86099999999999</v>
       </c>
       <c r="G25" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1398,25 +1388,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>375.55</v>
+        <v>40.85</v>
       </c>
       <c r="C26" s="9">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="D26" s="9">
-        <v>1241</v>
+        <v>863.28</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>894.54</v>
+        <v>310.86099999999999</v>
       </c>
       <c r="G26" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1428,25 +1418,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>376.791</v>
+        <v>41.713279999999997</v>
       </c>
       <c r="C27" s="6">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="D27" s="6">
-        <v>5309</v>
+        <v>1536.7170000000001</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>903.23</v>
+        <v>308.27</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1458,25 +1448,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>382.1</v>
+        <v>43.25</v>
       </c>
       <c r="C28" s="9">
-        <v>5.5</v>
+        <v>-20</v>
       </c>
       <c r="D28" s="9">
-        <v>1601</v>
+        <v>1850</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>985.52</v>
+        <v>339</v>
       </c>
       <c r="G28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1488,25 +1478,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>383.70100000000002</v>
+        <v>45.1</v>
       </c>
       <c r="C29" s="6">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>1499</v>
+        <v>2250</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>994.33</v>
+        <v>302</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1518,25 +1508,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>385.2</v>
+        <v>47.35</v>
       </c>
       <c r="C30" s="9">
-        <v>-15.5</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9">
-        <v>4050</v>
+        <v>1250</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>985.04</v>
+        <v>302</v>
       </c>
       <c r="G30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1548,25 +1538,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>389.25</v>
+        <v>48.6</v>
       </c>
       <c r="C31" s="6">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="D31" s="6">
-        <v>1200</v>
+        <v>963.63499999999999</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>922.27</v>
+        <v>327</v>
       </c>
       <c r="G31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1578,25 +1568,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>390.45</v>
+        <v>49.563639999999999</v>
       </c>
       <c r="C32" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D32" s="9">
-        <v>1950</v>
+        <v>2936.3649999999998</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>917.47</v>
+        <v>307.73</v>
       </c>
       <c r="G32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1608,22 +1598,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>392.4</v>
+        <v>52.5</v>
       </c>
       <c r="C33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="6">
-        <v>4100</v>
+        <v>2799.9879999999998</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>931.12</v>
+        <v>308.01</v>
       </c>
       <c r="G33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>15</v>
@@ -1638,22 +1628,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>396.5</v>
+        <v>55.3</v>
       </c>
       <c r="C34" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D34" s="9">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>943.4</v>
+        <v>313.61</v>
       </c>
       <c r="G34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>15</v>
@@ -1668,25 +1658,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>400.9</v>
+        <v>55.3</v>
       </c>
       <c r="C35" s="6">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="D35" s="6">
-        <v>17978.38</v>
+        <v>2400</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>996.2</v>
+        <v>313.61</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1698,25 +1688,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>418.87799999999999</v>
+        <v>57.7</v>
       </c>
       <c r="C36" s="9">
-        <v>15.5</v>
+        <v>-10</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>1274.865</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="G36" s="9">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1728,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>418.89</v>
+        <v>59.25</v>
       </c>
       <c r="C37" s="6">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>1274.865</v>
+        <v>302.91000000000003</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -1758,25 +1748,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>419.1</v>
+        <v>61.35</v>
       </c>
       <c r="C38" s="9">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D38" s="9">
-        <v>1200</v>
+        <v>2149.9899999999998</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>1278.1199999999999</v>
+        <v>326.01</v>
       </c>
       <c r="G38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -1788,22 +1778,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>420.3</v>
+        <v>63.5</v>
       </c>
       <c r="C39" s="6">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D39" s="6">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>1287.72</v>
+        <v>321.70999999999998</v>
       </c>
       <c r="G39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>15</v>
@@ -1818,25 +1808,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>422.5</v>
+        <v>63.5</v>
       </c>
       <c r="C40" s="9">
-        <v>-14.8</v>
+        <v>-2</v>
       </c>
       <c r="D40" s="9">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>1278.92</v>
+        <v>321.70999999999998</v>
       </c>
       <c r="G40" s="9">
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -1848,25 +1838,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>424.5</v>
+        <v>63.65</v>
       </c>
       <c r="C41" s="6">
-        <v>-11.3</v>
+        <v>-20</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>1080</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>1249.32</v>
+        <v>321.41000000000003</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -1878,25 +1868,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>426.2</v>
+        <v>64.73</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
       </c>
       <c r="D42" s="9">
-        <v>4400</v>
+        <v>1120</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>1230.1099999999999</v>
+        <v>299.81</v>
       </c>
       <c r="G42" s="9">
         <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -1908,25 +1898,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>430.6</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="C43" s="6">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>53.088000000000001</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>1230.1099999999999</v>
+        <v>299.81</v>
       </c>
       <c r="G43" s="6">
         <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -1938,19 +1928,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>430.65300000000002</v>
+        <v>67.05</v>
       </c>
       <c r="C44" s="9">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
+        <v>49.973999999999997</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>1230.269</v>
+        <v>303.41000000000003</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
@@ -1968,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>432.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C45" s="6">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="D45" s="6">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>1230.269</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G45" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>15</v>
@@ -1998,25 +1988,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>435.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C46" s="9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D46" s="9">
-        <v>2480</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>1240.47</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G46" s="9">
         <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2028,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>438.18</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C47" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
-        <v>6420</v>
+        <v>1600</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>1233.03</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="G47" s="6">
         <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2058,25 +2048,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>444.6</v>
+        <v>69.7</v>
       </c>
       <c r="C48" s="9">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="D48" s="9">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>1290.81</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="G48" s="9">
         <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2088,25 +2078,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>448.2</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C49" s="6">
-        <v>5</v>
+        <v>-8.5</v>
       </c>
       <c r="D49" s="6">
-        <v>3900</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>1280.01</v>
+        <v>307.76</v>
       </c>
       <c r="G49" s="6">
         <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2118,19 +2108,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>452.1</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C50" s="9">
         <v>15.5</v>
       </c>
       <c r="D50" s="9">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>1299.51</v>
+        <v>293.31</v>
       </c>
       <c r="G50" s="9">
         <v>5</v>
@@ -2148,19 +2138,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>457.4</v>
+        <v>76</v>
       </c>
       <c r="C51" s="6">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>599.38300000000004</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>1381.66</v>
+        <v>346.01</v>
       </c>
       <c r="G51" s="6">
         <v>5</v>
@@ -2178,19 +2168,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>459.2</v>
+        <v>76.599000000000004</v>
       </c>
       <c r="C52" s="9">
         <v>-4.5</v>
       </c>
       <c r="D52" s="9">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>1387.96</v>
+        <v>343.31299999999999</v>
       </c>
       <c r="G52" s="9">
         <v>5</v>
@@ -2208,25 +2198,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>462.08</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C53" s="6">
-        <v>3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D53" s="6">
-        <v>420</v>
+        <v>1750</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>1375</v>
+        <v>343.31299999999999</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -2238,25 +2228,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>462.5</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="C54" s="9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D54" s="9">
-        <v>4750</v>
+        <v>4430</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>1376.4680000000001</v>
+        <v>335.44</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2268,22 +2258,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>467.25</v>
+        <v>82.78</v>
       </c>
       <c r="C55" s="6">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="D55" s="6">
-        <v>2500</v>
+        <v>619.798</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>1393.09</v>
+        <v>355.38</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>15</v>
@@ -2298,22 +2288,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>469.75</v>
+        <v>83.4</v>
       </c>
       <c r="C56" s="9">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="D56" s="9">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>1410.59</v>
+        <v>348.56200000000001</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>15</v>
@@ -2328,25 +2318,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>471.2</v>
+        <v>83.4</v>
       </c>
       <c r="C57" s="6">
-        <v>12</v>
+        <v>-11</v>
       </c>
       <c r="D57" s="6">
-        <v>1400</v>
+        <v>817.74</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>1433.79</v>
+        <v>348.56200000000001</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -2358,25 +2348,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>472.6</v>
+        <v>84.217740000000006</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>2850</v>
+        <v>1782.21</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>1450.59</v>
+        <v>339.57</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2388,22 +2378,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>475.45</v>
+        <v>86</v>
       </c>
       <c r="C59" s="6">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>1450.59</v>
+        <v>339.57</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>15</v>
@@ -2418,25 +2408,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>477.5</v>
+        <v>86</v>
       </c>
       <c r="C60" s="9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="9">
-        <v>1350</v>
+        <v>550</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>1434.19</v>
+        <v>339.57</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2448,25 +2438,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>478.85</v>
+        <v>86.55</v>
       </c>
       <c r="C61" s="6">
-        <v>-9</v>
+        <v>-12.5</v>
       </c>
       <c r="D61" s="6">
-        <v>2800</v>
+        <v>1750</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>1435.81</v>
+        <v>339.57</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2478,25 +2468,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>481.65</v>
+        <v>88.3</v>
       </c>
       <c r="C62" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="9">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>1410.61</v>
+        <v>317.7</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -2508,25 +2498,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>482.95</v>
+        <v>90.5</v>
       </c>
       <c r="C63" s="6">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D63" s="6">
-        <v>2220</v>
+        <v>1800</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>1414.51</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -2538,25 +2528,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>485.17</v>
+        <v>92.3</v>
       </c>
       <c r="C64" s="9">
-        <v>7.5</v>
+        <v>-6</v>
       </c>
       <c r="D64" s="9">
-        <v>2630</v>
+        <v>1800</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>1437.82</v>
+        <v>338.3</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -2568,25 +2558,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>487.8</v>
+        <v>94.1</v>
       </c>
       <c r="C65" s="6">
-        <v>-3.5</v>
+        <v>-1.9999</v>
       </c>
       <c r="D65" s="6">
-        <v>3200</v>
+        <v>550</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>1457.55</v>
+        <v>327.5</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -2598,25 +2588,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>491</v>
+        <v>94.65</v>
       </c>
       <c r="C66" s="9">
-        <v>-15.5</v>
+        <v>-2</v>
       </c>
       <c r="D66" s="9">
-        <v>3250</v>
+        <v>850</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>1446.35</v>
+        <v>331.97500000000002</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -2628,25 +2618,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>494.25</v>
+        <v>95.5</v>
       </c>
       <c r="C67" s="6">
-        <v>-3.5</v>
+        <v>10.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1510</v>
+        <v>1450</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>1395.98</v>
+        <v>330.28</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -2658,25 +2648,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>495.76</v>
+        <v>96.95</v>
       </c>
       <c r="C68" s="9">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="D68" s="9">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>1390.7</v>
+        <v>345.51</v>
       </c>
       <c r="G68" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -2688,25 +2678,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>496.96</v>
+        <v>99.35</v>
       </c>
       <c r="C69" s="6">
-        <v>15.7</v>
+        <v>-20</v>
       </c>
       <c r="D69" s="6">
-        <v>139.227</v>
+        <v>2150</v>
       </c>
       <c r="E69" s="6">
         <v>1</v>
       </c>
       <c r="F69" s="6">
-        <v>1400.9</v>
+        <v>345.51</v>
       </c>
       <c r="G69" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -2718,25 +2708,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>497.09899999999999</v>
+        <v>101.5</v>
       </c>
       <c r="C70" s="9">
-        <v>15.7</v>
+        <v>11</v>
       </c>
       <c r="D70" s="9">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E70" s="9">
         <v>1</v>
       </c>
       <c r="F70" s="9">
-        <v>1403.086</v>
+        <v>302.51</v>
       </c>
       <c r="G70" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -2748,25 +2738,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>497.1</v>
+        <v>102.65</v>
       </c>
       <c r="C71" s="6">
-        <v>15.7</v>
+        <v>-8</v>
       </c>
       <c r="D71" s="6">
-        <v>9050</v>
+        <v>2150</v>
       </c>
       <c r="E71" s="6">
         <v>1</v>
       </c>
       <c r="F71" s="6">
-        <v>1403.086</v>
+        <v>315.16000000000003</v>
       </c>
       <c r="G71" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -2778,25 +2768,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>506.15</v>
+        <v>104.8</v>
       </c>
       <c r="C72" s="9">
-        <v>11.5</v>
+        <v>-3</v>
       </c>
       <c r="D72" s="9">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
       </c>
       <c r="F72" s="9">
-        <v>1545.17</v>
+        <v>297.95999999999998</v>
       </c>
       <c r="G72" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -2808,25 +2798,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>508.55</v>
+        <v>106.9</v>
       </c>
       <c r="C73" s="6">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D73" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E73" s="6">
         <v>1</v>
       </c>
       <c r="F73" s="6">
-        <v>1572.77</v>
+        <v>291.66000000000003</v>
       </c>
       <c r="G73" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -2838,25 +2828,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>509.45</v>
+        <v>107.6</v>
       </c>
       <c r="C74" s="9">
-        <v>3.6669999999999998</v>
+        <v>7.7</v>
       </c>
       <c r="D74" s="9">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="9">
         <v>1</v>
       </c>
       <c r="F74" s="9">
-        <v>1579.52</v>
+        <v>297.04000000000002</v>
       </c>
       <c r="G74" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -2868,22 +2858,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>510.35</v>
+        <v>109.1</v>
       </c>
       <c r="C75" s="6">
         <v>-4</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="E75" s="6">
         <v>1</v>
       </c>
       <c r="F75" s="6">
-        <v>1582.82</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="G75" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>15</v>
@@ -2898,22 +2888,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>511.25</v>
+        <v>110.85</v>
       </c>
       <c r="C76" s="9">
-        <v>-16</v>
+        <v>5</v>
       </c>
       <c r="D76" s="9">
-        <v>4300</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="9">
         <v>1</v>
       </c>
       <c r="F76" s="9">
-        <v>1579.22</v>
+        <v>301.58999999999997</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>15</v>
@@ -2928,22 +2918,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>515.54999999999995</v>
+        <v>112.25</v>
       </c>
       <c r="C77" s="6">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>1300</v>
+        <v>4250</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6">
-        <v>1510.42</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="G77" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>15</v>
@@ -2958,22 +2948,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>516.85</v>
+        <v>116.5</v>
       </c>
       <c r="C78" s="9">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D78" s="9">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="9">
-        <v>1504.57</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="G78" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>15</v>
@@ -2988,22 +2978,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>519.25</v>
+        <v>119.6</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D79" s="6">
-        <v>750</v>
+        <v>1700</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>1506.97</v>
+        <v>293.08999999999997</v>
       </c>
       <c r="G79" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>15</v>
@@ -3018,22 +3008,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>520</v>
+        <v>121.3</v>
       </c>
       <c r="C80" s="9">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D80" s="9">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="9">
         <v>1</v>
       </c>
       <c r="F80" s="9">
-        <v>1506.9580000000001</v>
+        <v>303.29000000000002</v>
       </c>
       <c r="G80" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>15</v>
@@ -3048,22 +3038,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>522.45000000000005</v>
+        <v>122.8</v>
       </c>
       <c r="C81" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D81" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="6">
         <v>1</v>
       </c>
       <c r="F81" s="6">
-        <v>1506.96</v>
+        <v>294.29000000000002</v>
       </c>
       <c r="G81" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>15</v>
@@ -3078,22 +3068,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>523.65</v>
+        <v>124.2</v>
       </c>
       <c r="C82" s="9">
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="D82" s="9">
-        <v>2650</v>
+        <v>1400</v>
       </c>
       <c r="E82" s="9">
         <v>1</v>
       </c>
       <c r="F82" s="9">
-        <v>1521.36</v>
+        <v>313.89</v>
       </c>
       <c r="G82" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>15</v>
@@ -3108,22 +3098,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>526.29999999999995</v>
+        <v>125.6</v>
       </c>
       <c r="C83" s="6">
-        <v>15.6</v>
+        <v>-12</v>
       </c>
       <c r="D83" s="6">
-        <v>6400</v>
+        <v>1550</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
       </c>
       <c r="F83" s="6">
-        <v>1569.06</v>
+        <v>311.08999999999997</v>
       </c>
       <c r="G83" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>15</v>
@@ -3138,22 +3128,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>532.70000000000005</v>
+        <v>127.15</v>
       </c>
       <c r="C84" s="9">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D84" s="9">
-        <v>1200</v>
+        <v>886.7</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
       </c>
       <c r="F84" s="9">
-        <v>1668.9</v>
+        <v>292.49</v>
       </c>
       <c r="G84" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>15</v>
@@ -3168,25 +3158,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>533.9</v>
+        <v>128.0367</v>
       </c>
       <c r="C85" s="6">
-        <v>-3</v>
+        <v>7.5</v>
       </c>
       <c r="D85" s="6">
-        <v>8950</v>
+        <v>1113.3</v>
       </c>
       <c r="E85" s="6">
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>1679.7</v>
+        <v>292.86500000000001</v>
       </c>
       <c r="G85" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -3198,25 +3188,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>542.85</v>
+        <v>129.15</v>
       </c>
       <c r="C86" s="9">
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="D86" s="9">
-        <v>1900</v>
+        <v>920</v>
       </c>
       <c r="E86" s="9">
         <v>1</v>
       </c>
       <c r="F86" s="9">
-        <v>1652.85</v>
+        <v>301.20999999999998</v>
       </c>
       <c r="G86" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3228,25 +3218,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>544.75</v>
+        <v>130.07</v>
       </c>
       <c r="C87" s="6">
-        <v>-9</v>
+        <v>15.8</v>
       </c>
       <c r="D87" s="6">
-        <v>1900</v>
+        <v>1047.5</v>
       </c>
       <c r="E87" s="6">
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>1658.55</v>
+        <v>290.17</v>
       </c>
       <c r="G87" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -3258,25 +3248,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>546.65</v>
+        <v>131.11750000000001</v>
       </c>
       <c r="C88" s="9">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D88" s="9">
-        <v>4100</v>
+        <v>1708</v>
       </c>
       <c r="E88" s="9">
         <v>1</v>
       </c>
       <c r="F88" s="9">
-        <v>1641.45</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="G88" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -3288,25 +3278,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>550.75</v>
+        <v>132.82550000000001</v>
       </c>
       <c r="C89" s="6">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="E89" s="6">
         <v>1</v>
       </c>
       <c r="F89" s="6">
-        <v>1620.95</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="G89" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -3317,27 +3307,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>554.6</v>
-      </c>
-      <c r="C90" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1990</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1</v>
-      </c>
-      <c r="F90" s="9">
-        <v>1563.2</v>
-      </c>
-      <c r="G90" s="9">
-        <v>6</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -3347,27 +3323,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>556.59</v>
-      </c>
-      <c r="C91" s="6">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6">
-        <v>2060</v>
-      </c>
-      <c r="E91" s="6">
-        <v>1</v>
-      </c>
-      <c r="F91" s="6">
-        <v>1557.23</v>
-      </c>
-      <c r="G91" s="6">
-        <v>6</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -3377,27 +3339,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>558.65</v>
-      </c>
-      <c r="C92" s="9">
-        <v>-7.5</v>
-      </c>
-      <c r="D92" s="9">
-        <v>2350</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1</v>
-      </c>
-      <c r="F92" s="9">
-        <v>1563.41</v>
-      </c>
-      <c r="G92" s="9">
-        <v>6</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -3407,27 +3355,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>561</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1950</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1</v>
-      </c>
-      <c r="F93" s="6">
-        <v>1545.79</v>
-      </c>
-      <c r="G93" s="6">
-        <v>6</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -3437,27 +3371,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>562.95000000000005</v>
-      </c>
-      <c r="C94" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D94" s="9">
-        <v>4650</v>
-      </c>
-      <c r="E94" s="9">
-        <v>1</v>
-      </c>
-      <c r="F94" s="9">
-        <v>1545.79</v>
-      </c>
-      <c r="G94" s="9">
-        <v>6</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -3467,27 +3387,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>567.6</v>
-      </c>
-      <c r="C95" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6">
-        <v>1489.9939999999999</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -3497,27 +3403,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1476.79</v>
-      </c>
-      <c r="G96" s="9">
-        <v>6</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -3527,27 +3419,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>570.9</v>
-      </c>
-      <c r="C97" s="6">
-        <v>4</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2861</v>
-      </c>
-      <c r="E97" s="6">
-        <v>1</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1476.79</v>
-      </c>
-      <c r="G97" s="6">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -3557,27 +3435,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>573.76099999999997</v>
-      </c>
-      <c r="C98" s="9">
-        <v>3</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4559</v>
-      </c>
-      <c r="E98" s="9">
-        <v>1</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1488.23</v>
-      </c>
-      <c r="G98" s="9">
-        <v>6</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -3587,27 +3451,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>578.32000000000005</v>
-      </c>
-      <c r="C99" s="6">
-        <v>-9</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1330</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1501.91</v>
-      </c>
-      <c r="G99" s="6">
-        <v>6</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -3617,27 +3467,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>579.65</v>
-      </c>
-      <c r="C100" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="D100" s="9">
-        <v>8400</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1489.94</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -3647,27 +3483,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>588.04999999999995</v>
-      </c>
-      <c r="C101" s="6">
-        <v>-10.5</v>
-      </c>
-      <c r="D101" s="6">
-        <v>12550</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1359.74</v>
-      </c>
-      <c r="G101" s="6">
-        <v>6</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -3677,27 +3499,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>600.6</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E102" s="9">
-        <v>1</v>
-      </c>
-      <c r="F102" s="9">
-        <v>1227.97</v>
-      </c>
-      <c r="G102" s="9">
-        <v>6</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -3707,27 +3515,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>601.79999999999995</v>
-      </c>
-      <c r="C103" s="6">
-        <v>12</v>
-      </c>
-      <c r="D103" s="6">
-        <v>422.512</v>
-      </c>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1227.97</v>
-      </c>
-      <c r="G103" s="6">
-        <v>6</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -3737,27 +3531,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>602.22199999999998</v>
-      </c>
-      <c r="C104" s="9">
-        <v>12</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>0</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1233.04</v>
-      </c>
-      <c r="G104" s="9">
-        <v>6</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -3767,27 +3547,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>602</v>
-      </c>
-      <c r="C105" s="6">
-        <v>12</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>1</v>
-      </c>
-      <c r="F105" s="6">
-        <v>1233.04</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -3797,27 +3563,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>603.20000000000005</v>
-      </c>
-      <c r="C106" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="D106" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E106" s="9">
-        <v>1</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1247.44</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -3827,27 +3579,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>607.5</v>
-      </c>
-      <c r="C107" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1314.0889999999999</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -3857,27 +3595,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>612.9</v>
-      </c>
-      <c r="C108" s="9">
-        <v>8.6</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E108" s="9">
-        <v>1</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1397.79</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -3887,27 +3611,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>614.1</v>
-      </c>
-      <c r="C109" s="6">
-        <v>-3.4</v>
-      </c>
-      <c r="D109" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>1</v>
-      </c>
-      <c r="F109" s="6">
-        <v>1408.11</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -3917,27 +3627,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>619</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0</v>
-      </c>
-      <c r="D110" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E110" s="9">
-        <v>1</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1391.45</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -3947,27 +3643,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>622</v>
-      </c>
-      <c r="C111" s="6">
-        <v>-5</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1391.45</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -3977,27 +3659,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>623.20000000000005</v>
-      </c>
-      <c r="C112" s="9">
-        <v>7</v>
-      </c>
-      <c r="D112" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E112" s="9">
-        <v>1</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1385.45</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -4007,27 +3675,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>624.70000000000005</v>
-      </c>
-      <c r="C113" s="6">
-        <v>14</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2610</v>
-      </c>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6">
-        <v>1395.95</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -4037,27 +3691,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>627.30999999999995</v>
-      </c>
-      <c r="C114" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3477.8150000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>1</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1432.49</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -4067,27 +3707,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>630.78800000000001</v>
-      </c>
-      <c r="C115" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>1</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G115" s="6">
-        <v>7</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -4097,27 +3723,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>631.5</v>
-      </c>
-      <c r="C116" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E116" s="9">
-        <v>1</v>
-      </c>
-      <c r="F116" s="9">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G116" s="9">
-        <v>8</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -4127,27 +3739,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>632.5</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E117" s="6">
-        <v>1</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1447.27</v>
-      </c>
-      <c r="G117" s="6">
-        <v>8</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -4157,27 +3755,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>633.54999999999995</v>
-      </c>
-      <c r="C118" s="9">
-        <v>-3.2109999999999999</v>
-      </c>
-      <c r="D118" s="9">
-        <v>950</v>
-      </c>
-      <c r="E118" s="9">
-        <v>1</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1447.27</v>
-      </c>
-      <c r="G118" s="9">
-        <v>8</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -4187,27 +3771,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>634.5</v>
-      </c>
-      <c r="C119" s="6">
-        <v>-3.2109999999999999</v>
-      </c>
-      <c r="D119" s="6">
-        <v>250</v>
-      </c>
-      <c r="E119" s="6">
-        <v>1</v>
-      </c>
-      <c r="F119" s="6">
-        <v>1444.2159999999999</v>
-      </c>
-      <c r="G119" s="6">
-        <v>8</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -4217,27 +3787,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>634.75</v>
-      </c>
-      <c r="C120" s="9">
-        <v>0</v>
-      </c>
-      <c r="D120" s="9">
-        <v>950</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1</v>
-      </c>
-      <c r="F120" s="9">
-        <v>1443.41</v>
-      </c>
-      <c r="G120" s="9">
-        <v>8</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -4247,27 +3803,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>635.70000000000005</v>
-      </c>
-      <c r="C121" s="6">
-        <v>12</v>
-      </c>
-      <c r="D121" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E121" s="6">
-        <v>1</v>
-      </c>
-      <c r="F121" s="6">
-        <v>1443.41</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -4277,27 +3819,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>636.9</v>
-      </c>
-      <c r="C122" s="9">
-        <v>17.3</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E122" s="9">
-        <v>1</v>
-      </c>
-      <c r="F122" s="9">
-        <v>1457.81</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -4307,27 +3835,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>638.75</v>
-      </c>
-      <c r="C123" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="D123" s="6">
-        <v>20350</v>
-      </c>
-      <c r="E123" s="6">
-        <v>1</v>
-      </c>
-      <c r="F123" s="6">
-        <v>1489.82</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -4337,27 +3851,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>659.1</v>
-      </c>
-      <c r="C124" s="9">
-        <v>5</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>1</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1805.25</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -4367,27 +3867,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>660.5</v>
-      </c>
-      <c r="C125" s="6">
-        <v>-7</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8950</v>
-      </c>
-      <c r="E125" s="6">
-        <v>1</v>
-      </c>
-      <c r="F125" s="6">
-        <v>1812.25</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -4397,27 +3883,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>669.45</v>
-      </c>
-      <c r="C126" s="9">
-        <v>-18</v>
-      </c>
-      <c r="D126" s="9">
-        <v>3950</v>
-      </c>
-      <c r="E126" s="9">
-        <v>1</v>
-      </c>
-      <c r="F126" s="9">
-        <v>1749.6</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -4427,27 +3899,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>673.4</v>
-      </c>
-      <c r="C127" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D127" s="6">
-        <v>731.91300000000001</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1</v>
-      </c>
-      <c r="F127" s="6">
-        <v>1678.5</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -4457,27 +3915,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>674.13199999999995</v>
-      </c>
-      <c r="C128" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0</v>
-      </c>
-      <c r="E128" s="9">
-        <v>1</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G128" s="9">
-        <v>8</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -4487,27 +3931,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>683.9</v>
-      </c>
-      <c r="C129" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D129" s="6">
-        <v>400</v>
-      </c>
-      <c r="E129" s="6">
-        <v>1</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G129" s="6">
-        <v>9</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -4517,27 +3947,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>684.3</v>
-      </c>
-      <c r="C130" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D130" s="9">
-        <v>100</v>
-      </c>
-      <c r="E130" s="9">
-        <v>1</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1664.91</v>
-      </c>
-      <c r="G130" s="9">
-        <v>9</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -4547,27 +3963,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>684.4</v>
-      </c>
-      <c r="C131" s="6">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3600</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1663.71</v>
-      </c>
-      <c r="G131" s="6">
-        <v>9</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -4577,27 +3979,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>688</v>
-      </c>
-      <c r="C132" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E132" s="9">
-        <v>1</v>
-      </c>
-      <c r="F132" s="9">
-        <v>1663.71</v>
-      </c>
-      <c r="G132" s="9">
-        <v>9</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -4607,27 +3995,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>689.8</v>
-      </c>
-      <c r="C133" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1900</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1684.23</v>
-      </c>
-      <c r="G133" s="6">
-        <v>9</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -4637,27 +4011,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>691.7</v>
-      </c>
-      <c r="C134" s="9">
-        <v>-13.5</v>
-      </c>
-      <c r="D134" s="9">
-        <v>6900</v>
-      </c>
-      <c r="E134" s="9">
-        <v>1</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1678.53</v>
-      </c>
-      <c r="G134" s="9">
-        <v>9</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -4667,27 +4027,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>698.6</v>
-      </c>
-      <c r="C135" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E135" s="6">
-        <v>1</v>
-      </c>
-      <c r="F135" s="6">
-        <v>1585.38</v>
-      </c>
-      <c r="G135" s="6">
-        <v>9</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -4697,27 +4043,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>701.8</v>
-      </c>
-      <c r="C136" s="9">
-        <v>3</v>
-      </c>
-      <c r="D136" s="9">
-        <v>949.13699999999994</v>
-      </c>
-      <c r="E136" s="9">
-        <v>1</v>
-      </c>
-      <c r="F136" s="9">
-        <v>1566.18</v>
-      </c>
-      <c r="G136" s="9">
-        <v>9</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -4727,27 +4059,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>702.74900000000002</v>
-      </c>
-      <c r="C137" s="6">
-        <v>3</v>
-      </c>
-      <c r="D137" s="6">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
-        <v>0</v>
-      </c>
-      <c r="F137" s="6">
-        <v>1569.027</v>
-      </c>
-      <c r="G137" s="6">
-        <v>9</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -4757,27 +4075,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>702.4</v>
-      </c>
-      <c r="C138" s="9">
-        <v>3</v>
-      </c>
-      <c r="D138" s="9">
-        <v>700</v>
-      </c>
-      <c r="E138" s="9">
-        <v>1</v>
-      </c>
-      <c r="F138" s="9">
-        <v>1569.027</v>
-      </c>
-      <c r="G138" s="9">
-        <v>10</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -4787,27 +4091,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>703.1</v>
-      </c>
-      <c r="C139" s="6">
-        <v>14.5</v>
-      </c>
-      <c r="D139" s="6">
-        <v>3310</v>
-      </c>
-      <c r="E139" s="6">
-        <v>1</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1571.13</v>
-      </c>
-      <c r="G139" s="6">
-        <v>10</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -4817,27 +4107,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>706.41</v>
-      </c>
-      <c r="C140" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="D140" s="9">
-        <v>8240</v>
-      </c>
-      <c r="E140" s="9">
-        <v>1</v>
-      </c>
-      <c r="F140" s="9">
-        <v>1619.13</v>
-      </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -4847,27 +4123,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>714.65</v>
-      </c>
-      <c r="C141" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1</v>
-      </c>
-      <c r="F141" s="6">
-        <v>1812.77</v>
-      </c>
-      <c r="G141" s="6">
-        <v>10</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -4877,27 +4139,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>718.65</v>
-      </c>
-      <c r="C142" s="9">
-        <v>1</v>
-      </c>
-      <c r="D142" s="9">
-        <v>2250</v>
-      </c>
-      <c r="E142" s="9">
-        <v>1</v>
-      </c>
-      <c r="F142" s="9">
-        <v>1800.77</v>
-      </c>
-      <c r="G142" s="9">
-        <v>10</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -4907,27 +4155,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>720.9</v>
-      </c>
-      <c r="C143" s="6">
-        <v>3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E143" s="6">
-        <v>1</v>
-      </c>
-      <c r="F143" s="6">
-        <v>1803.02</v>
-      </c>
-      <c r="G143" s="6">
-        <v>10</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -4937,27 +4171,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>722.1</v>
-      </c>
-      <c r="C144" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>6430</v>
-      </c>
-      <c r="E144" s="9">
-        <v>1</v>
-      </c>
-      <c r="F144" s="9">
-        <v>1806.62</v>
-      </c>
-      <c r="G144" s="9">
-        <v>10</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -4967,27 +4187,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>728.53</v>
-      </c>
-      <c r="C145" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D145" s="6">
-        <v>4185</v>
-      </c>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="6">
-        <v>1957.73</v>
-      </c>
-      <c r="G145" s="6">
-        <v>10</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -4997,27 +4203,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>732.71500000000003</v>
-      </c>
-      <c r="C146" s="9">
-        <v>-2.5</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1265</v>
-      </c>
-      <c r="E146" s="9">
-        <v>1</v>
-      </c>
-      <c r="F146" s="9">
-        <v>1945.18</v>
-      </c>
-      <c r="G146" s="9">
-        <v>10</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -5027,27 +4219,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>733.98</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6">
-        <v>603</v>
-      </c>
-      <c r="E147" s="6">
-        <v>1</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1942.02</v>
-      </c>
-      <c r="G147" s="6">
-        <v>10</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -18804,19 +17982,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>311.45</v>
+        <v>3.15</v>
       </c>
       <c r="C3" s="6">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>2750</v>
+        <v>3150</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>496.584</v>
+        <v>335.86500000000001</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18825,13 +18003,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>356302.00699999998</v>
+        <v>39173.156999999999</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="6">
-        <v>355240</v>
+        <v>40850</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -18842,37 +18020,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>317.89999999999998</v>
+        <v>4.9399999999999995</v>
       </c>
       <c r="C4" s="9">
-        <v>-15.5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9">
-        <v>6450</v>
+        <v>1790</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>596.55899999999997</v>
+        <v>325.13</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>370664.07400000002</v>
+        <v>55299.989000000001</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="9">
-        <v>370800</v>
+        <v>55300</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18880,37 +18058,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>320.75</v>
+        <v>5.8500000000000005</v>
       </c>
       <c r="C5" s="6">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D5" s="6">
-        <v>2850</v>
+        <v>910</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>607.95999999999992</v>
+        <v>327.86</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>418878.37800000003</v>
+        <v>63499.987000000001</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="6">
-        <v>418890</v>
+        <v>63500</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18918,37 +18096,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>326.8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>6050</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>583.76</v>
+        <v>327.86</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="9">
-        <v>430653.09019999998</v>
+        <v>67099.979000000007</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="9">
-        <v>432300</v>
+        <v>67100</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18956,37 +18134,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>329.7</v>
+        <v>9.86</v>
       </c>
       <c r="C7" s="6">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D7" s="6">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>606.96</v>
+        <v>356.46000000000004</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6">
-        <v>497099.21</v>
+        <v>76599.381999999998</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="6">
-        <v>497100</v>
+        <v>76600</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -18994,37 +18172,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>334</v>
+        <v>11.85</v>
       </c>
       <c r="C8" s="9">
-        <v>-15.5</v>
+        <v>9.5</v>
       </c>
       <c r="D8" s="9">
-        <v>4300</v>
+        <v>1990</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>673.61</v>
+        <v>337.55499999999995</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="9">
-        <v>602222.46900000004</v>
+        <v>83399.794999999998</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="9">
-        <v>602000</v>
+        <v>83400</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -19032,37 +18210,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>338.4</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
-        <v>-4.2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6">
-        <v>4400</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>692.09</v>
+        <v>330.66</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6">
-        <v>630787.83900000004</v>
+        <v>85999.953999999998</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="6">
-        <v>631500</v>
+        <v>86000</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -19070,48 +18248,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>346.7</v>
+        <v>15.3</v>
       </c>
       <c r="C10" s="9">
-        <v>-15.4994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>8300</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>820.73502000000008</v>
+        <v>330.66</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="9">
-        <v>674131.946</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9">
-        <v>683900</v>
-      </c>
-      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>348.2</v>
+        <v>16.8</v>
       </c>
       <c r="C11" s="6">
-        <v>-8.5</v>
+        <v>-3</v>
       </c>
       <c r="D11" s="6">
         <v>1500</v>
@@ -19120,51 +18290,43 @@
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>833.49</v>
+        <v>335.16</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="6">
-        <v>702749.11499999999</v>
-      </c>
-      <c r="J11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="6">
-        <v>702400</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>352.65</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C12" s="9">
-        <v>2.9996999999999998</v>
+        <v>0</v>
       </c>
       <c r="D12" s="9">
-        <v>4450</v>
+        <v>1550</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>820.14133500000003</v>
+        <v>335.16</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -19176,25 +18338,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>353.85899999999998</v>
+        <v>19.25</v>
       </c>
       <c r="C13" s="6">
-        <v>-8.5</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>1209</v>
+        <v>900</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>830.41650000000004</v>
+        <v>330.66</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -19206,25 +18368,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>355.5</v>
+        <v>21.4</v>
       </c>
       <c r="C14" s="9">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>1641</v>
+        <v>2150</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>850.11199999999997</v>
+        <v>330.66</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -19236,25 +18398,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>356.30200000000002</v>
+        <v>22.65</v>
       </c>
       <c r="C15" s="6">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D15" s="6">
-        <v>802</v>
+        <v>1250</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>850.11</v>
+        <v>344.41</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -19266,25 +18428,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>355.24</v>
+        <v>24.7</v>
       </c>
       <c r="C16" s="9">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2050</v>
+      </c>
+      <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
+        <v>328.01000000000005</v>
+      </c>
+      <c r="G16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>850.11</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -19296,25 +18458,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>358.7</v>
+        <v>26.45</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D17" s="6">
-        <v>3460</v>
+        <v>1750</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>850.11</v>
+        <v>347.26</v>
       </c>
       <c r="G17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -19326,25 +18488,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>360.18</v>
+        <v>27.7</v>
       </c>
       <c r="C18" s="9">
-        <v>-12</v>
+        <v>13.5</v>
       </c>
       <c r="D18" s="9">
-        <v>1480</v>
+        <v>1250</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>867.87</v>
+        <v>330.38499999999999</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -19356,25 +18518,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>365.1</v>
+        <v>29.95</v>
       </c>
       <c r="C19" s="6">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>4920</v>
+        <v>2250</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>944.13</v>
+        <v>330.39</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -19386,25 +18548,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>366.40300000000002</v>
+        <v>32.85</v>
       </c>
       <c r="C20" s="9">
-        <v>-8.8004999999999995</v>
+        <v>7</v>
       </c>
       <c r="D20" s="9">
-        <v>1303</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>955.59705150000002</v>
+        <v>310.08999999999997</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -19416,25 +18578,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>370.6</v>
+        <v>36.35</v>
       </c>
       <c r="C21" s="6">
-        <v>3</v>
+        <v>-6.5</v>
       </c>
       <c r="D21" s="6">
-        <v>4197</v>
+        <v>3500</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>943.00900000000001</v>
+        <v>332.84</v>
       </c>
       <c r="G21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -19446,25 +18608,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>370.66405600000002</v>
+        <v>37.4</v>
       </c>
       <c r="C22" s="9">
-        <v>14.9</v>
+        <v>20</v>
       </c>
       <c r="D22" s="9">
-        <v>64.055999999999997</v>
+        <v>1050</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>942.04556560000003</v>
+        <v>311.83999999999997</v>
       </c>
       <c r="G22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -19476,25 +18638,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>370.8</v>
+        <v>38.85</v>
       </c>
       <c r="C23" s="6">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>942.04600000000005</v>
+        <v>311.83999999999997</v>
       </c>
       <c r="G23" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -19506,22 +18668,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>373.2</v>
+        <v>39.173158000000001</v>
       </c>
       <c r="C24" s="9">
-        <v>14.9</v>
+        <v>3</v>
       </c>
       <c r="D24" s="9">
-        <v>2400</v>
+        <v>323.15800000000002</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>906.28600000000006</v>
+        <v>310.86052599999999</v>
       </c>
       <c r="G24" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>14</v>
@@ -19536,25 +18698,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>375.55</v>
+        <v>40.85</v>
       </c>
       <c r="C25" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>894.54</v>
+        <v>310.86099999999999</v>
       </c>
       <c r="G25" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -19566,25 +18728,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>376.791</v>
+        <v>41.713280000000005</v>
       </c>
       <c r="C26" s="9">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9">
-        <v>1241</v>
+        <v>863.28</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>903.22699999999998</v>
+        <v>308.27116000000001</v>
       </c>
       <c r="G26" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -19596,25 +18758,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>382.1</v>
+        <v>43.249997</v>
       </c>
       <c r="C27" s="6">
-        <v>-15.5</v>
+        <v>-20</v>
       </c>
       <c r="D27" s="6">
-        <v>5309</v>
+        <v>1536.7170000000001</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>985.51949999999999</v>
+        <v>339.00433999999996</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -19626,25 +18788,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>383.70100000000002</v>
+        <v>45.1</v>
       </c>
       <c r="C28" s="9">
-        <v>-5.5</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9">
-        <v>1601</v>
+        <v>1850</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>994.32550000000003</v>
+        <v>302</v>
       </c>
       <c r="G28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -19656,25 +18818,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>385.20000000000005</v>
+        <v>47.35</v>
       </c>
       <c r="C29" s="6">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>1499</v>
+        <v>2250</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>985.03620000000001</v>
+        <v>302</v>
       </c>
       <c r="G29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -19686,25 +18848,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>389.25</v>
+        <v>48.6</v>
       </c>
       <c r="C30" s="9">
-        <v>15.5</v>
+        <v>-20</v>
       </c>
       <c r="D30" s="9">
-        <v>4050</v>
+        <v>1250</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>922.26499999999999</v>
+        <v>327</v>
       </c>
       <c r="G30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -19716,25 +18878,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>390.45</v>
+        <v>49.563635000000005</v>
       </c>
       <c r="C31" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D31" s="6">
-        <v>1200</v>
+        <v>963.63499999999999</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>917.47</v>
+        <v>307.72730000000001</v>
       </c>
       <c r="G31" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -19746,25 +18908,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>392.4</v>
+        <v>52.500005000000002</v>
       </c>
       <c r="C32" s="9">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D32" s="9">
-        <v>1950</v>
+        <v>2936.3649999999998</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>931.12</v>
+        <v>313.60273000000001</v>
       </c>
       <c r="G32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -19776,22 +18938,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>396.5</v>
+        <v>55.299987999999999</v>
       </c>
       <c r="C33" s="6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D33" s="6">
-        <v>4100</v>
+        <v>2799.9879999999998</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>943.42</v>
+        <v>313.60997600000002</v>
       </c>
       <c r="G33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>15</v>
@@ -19806,19 +18968,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>400.9</v>
+        <v>55.3</v>
       </c>
       <c r="C34" s="9">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="D34" s="9">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>996.19999999999993</v>
+        <v>313.61</v>
       </c>
       <c r="G34" s="9">
         <v>3</v>
@@ -19836,25 +18998,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>418.87837999999999</v>
+        <v>57.699999999999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-15.5</v>
+        <v>-2</v>
       </c>
       <c r="D35" s="6">
-        <v>17978.38</v>
+        <v>2400</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>1274.8648900000001</v>
+        <v>318.41000000000003</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -19866,25 +19028,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>418.89</v>
+        <v>59.25</v>
       </c>
       <c r="C36" s="9">
-        <v>-15.5</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>1274.865</v>
+        <v>302.91000000000003</v>
       </c>
       <c r="G36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -19896,25 +19058,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>419.09999999999997</v>
+        <v>61.35</v>
       </c>
       <c r="C37" s="6">
-        <v>-15.5</v>
+        <v>-11</v>
       </c>
       <c r="D37" s="6">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>1278.1200000000001</v>
+        <v>326.01000000000005</v>
       </c>
       <c r="G37" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -19926,25 +19088,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>420.3</v>
+        <v>63.499990000000004</v>
       </c>
       <c r="C38" s="9">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D38" s="9">
-        <v>1200</v>
+        <v>2149.9899999999998</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>1287.7199999999998</v>
+        <v>321.71001999999999</v>
       </c>
       <c r="G38" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -19956,19 +19118,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>422.5</v>
+        <v>63.5</v>
       </c>
       <c r="C39" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="6">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>1278.92</v>
+        <v>321.70999999999998</v>
       </c>
       <c r="G39" s="6">
         <v>4</v>
@@ -19986,25 +19148,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>424.5</v>
+        <v>63.65</v>
       </c>
       <c r="C40" s="9">
-        <v>14.8</v>
+        <v>2</v>
       </c>
       <c r="D40" s="9">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>1249.3200000000002</v>
+        <v>321.40999999999997</v>
       </c>
       <c r="G40" s="9">
         <v>4</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -20016,25 +19178,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>426.2</v>
+        <v>64.73</v>
       </c>
       <c r="C41" s="6">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="D41" s="6">
-        <v>1700</v>
+        <v>1080</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>1230.1099999999999</v>
+        <v>299.81</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -20046,25 +19208,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>430.59999999999997</v>
+        <v>65.850000000000009</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
       </c>
       <c r="D42" s="9">
-        <v>4400</v>
+        <v>1120</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>1230.1099999999999</v>
+        <v>299.81</v>
       </c>
       <c r="G42" s="9">
         <v>4</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -20076,25 +19238,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>430.65308800000003</v>
+        <v>67.05</v>
       </c>
       <c r="C43" s="6">
         <v>-3</v>
       </c>
       <c r="D43" s="6">
-        <v>53.088000000000001</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>1230.2692639999998</v>
+        <v>303.41000000000003</v>
       </c>
       <c r="G43" s="6">
         <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -20106,22 +19268,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>432.3</v>
+        <v>67.099974000000003</v>
       </c>
       <c r="C44" s="9">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="9">
-        <v>0</v>
+        <v>49.973999999999997</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>1230.269</v>
+        <v>303.16013000000004</v>
       </c>
       <c r="G44" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>15</v>
@@ -20136,19 +19298,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>435.7</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C45" s="6">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>1240.4690000000001</v>
+        <v>303.16000000000003</v>
       </c>
       <c r="G45" s="6">
         <v>5</v>
@@ -20166,25 +19328,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>438.18</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C46" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="9">
-        <v>2480</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>1233.03</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="G46" s="9">
         <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -20196,25 +19358,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>444.6</v>
+        <v>69.699999999999989</v>
       </c>
       <c r="C47" s="6">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6">
-        <v>6420</v>
+        <v>1600</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>1290.81</v>
+        <v>298.16000000000003</v>
       </c>
       <c r="G47" s="6">
         <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -20226,25 +19388,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>448.20000000000005</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C48" s="9">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="D48" s="9">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>1280.01</v>
+        <v>307.76000000000005</v>
       </c>
       <c r="G48" s="9">
         <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -20256,25 +19418,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>452.09999999999997</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="C49" s="6">
-        <v>-5</v>
+        <v>8.5</v>
       </c>
       <c r="D49" s="6">
-        <v>3900</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>1299.51</v>
+        <v>293.31</v>
       </c>
       <c r="G49" s="6">
         <v>5</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -20286,19 +19448,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>457.40000000000003</v>
+        <v>76</v>
       </c>
       <c r="C50" s="9">
         <v>-15.5</v>
       </c>
       <c r="D50" s="9">
-        <v>5300</v>
+        <v>3400</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>1381.66</v>
+        <v>346.01</v>
       </c>
       <c r="G50" s="9">
         <v>5</v>
@@ -20316,19 +19478,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>459.2</v>
+        <v>76.599383000000003</v>
       </c>
       <c r="C51" s="6">
-        <v>-3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D51" s="6">
-        <v>1800</v>
+        <v>599.38300000000004</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>1387.96</v>
+        <v>343.31277649999998</v>
       </c>
       <c r="G51" s="6">
         <v>5</v>
@@ -20346,22 +19508,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>462.08</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C52" s="9">
         <v>4.5</v>
       </c>
       <c r="D52" s="9">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>1375</v>
+        <v>343.31299999999999</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>15</v>
@@ -20376,25 +19538,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>462.5</v>
+        <v>78.349999999999994</v>
       </c>
       <c r="C53" s="6">
-        <v>-3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D53" s="6">
-        <v>420</v>
+        <v>1750</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>1376.47</v>
+        <v>335.43799999999999</v>
       </c>
       <c r="G53" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -20406,25 +19568,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>467.25</v>
+        <v>82.78</v>
       </c>
       <c r="C54" s="9">
-        <v>-3.5</v>
+        <v>-4.5</v>
       </c>
       <c r="D54" s="9">
-        <v>4750</v>
+        <v>4430</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>1393.0930000000001</v>
+        <v>355.375</v>
       </c>
       <c r="G54" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -20436,22 +19598,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>469.75</v>
+        <v>83.399798000000004</v>
       </c>
       <c r="C55" s="6">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6">
-        <v>2500</v>
+        <v>619.798</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>1410.59</v>
+        <v>348.56222200000002</v>
       </c>
       <c r="G55" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>15</v>
@@ -20466,22 +19628,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>471.2</v>
+        <v>83.4</v>
       </c>
       <c r="C56" s="9">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="D56" s="9">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>1433.79</v>
+        <v>348.56200000000001</v>
       </c>
       <c r="G56" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>15</v>
@@ -20496,25 +19658,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>472.59999999999997</v>
+        <v>84.217740000000006</v>
       </c>
       <c r="C57" s="6">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6">
-        <v>1400</v>
+        <v>817.74</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>1450.59</v>
+        <v>339.56686000000002</v>
       </c>
       <c r="G57" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -20526,25 +19688,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>475.45000000000005</v>
+        <v>85.999950000000013</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
       </c>
       <c r="D58" s="9">
-        <v>2850</v>
+        <v>1782.21</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>1450.59</v>
+        <v>339.57</v>
       </c>
       <c r="G58" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -20556,22 +19718,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>477.5</v>
+        <v>86</v>
       </c>
       <c r="C59" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>1434.1899999999998</v>
+        <v>339.57</v>
       </c>
       <c r="G59" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>15</v>
@@ -20586,25 +19748,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>478.85</v>
+        <v>86.55</v>
       </c>
       <c r="C60" s="9">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="D60" s="9">
-        <v>1350</v>
+        <v>550</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>1435.81</v>
+        <v>339.57</v>
       </c>
       <c r="G60" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -20616,25 +19778,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>481.65000000000003</v>
+        <v>88.3</v>
       </c>
       <c r="C61" s="6">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="D61" s="6">
-        <v>2800</v>
+        <v>1750</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>1410.61</v>
+        <v>317.69499999999999</v>
       </c>
       <c r="G61" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -20646,25 +19808,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>482.95</v>
+        <v>90.5</v>
       </c>
       <c r="C62" s="9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D62" s="9">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>1414.51</v>
+        <v>322.09999999999997</v>
       </c>
       <c r="G62" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -20676,25 +19838,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>485.17</v>
+        <v>92.3</v>
       </c>
       <c r="C63" s="6">
-        <v>-10.5</v>
+        <v>-9</v>
       </c>
       <c r="D63" s="6">
-        <v>2220</v>
+        <v>1800</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>1437.82</v>
+        <v>338.3</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -20706,25 +19868,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>487.8</v>
+        <v>94.1</v>
       </c>
       <c r="C64" s="9">
-        <v>-7.5</v>
+        <v>6</v>
       </c>
       <c r="D64" s="9">
-        <v>2630</v>
+        <v>1800</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>1457.5449999999998</v>
+        <v>327.5</v>
       </c>
       <c r="G64" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -20736,25 +19898,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>491</v>
+        <v>94.649999999999991</v>
       </c>
       <c r="C65" s="6">
-        <v>3.5</v>
+        <v>1.9999</v>
       </c>
       <c r="D65" s="6">
-        <v>3200</v>
+        <v>550</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>1446.35</v>
+        <v>326.40005500000001</v>
       </c>
       <c r="G65" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -20766,25 +19928,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>494.25</v>
+        <v>95.5</v>
       </c>
       <c r="C66" s="9">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="D66" s="9">
-        <v>3250</v>
+        <v>850</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>1395.9749999999999</v>
+        <v>330.27500000000003</v>
       </c>
       <c r="G66" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -20796,25 +19958,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>495.76</v>
+        <v>96.95</v>
       </c>
       <c r="C67" s="6">
-        <v>3.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D67" s="6">
-        <v>1510</v>
+        <v>1450</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>1390.6949999999999</v>
+        <v>345.505</v>
       </c>
       <c r="G67" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -20826,25 +19988,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>496.96</v>
+        <v>99.350000000000009</v>
       </c>
       <c r="C68" s="9">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="D68" s="9">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>1400.9</v>
+        <v>345.51</v>
       </c>
       <c r="G68" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -20856,25 +20018,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>497.09922699999998</v>
+        <v>101.5</v>
       </c>
       <c r="C69" s="6">
-        <v>-15.7</v>
+        <v>20</v>
       </c>
       <c r="D69" s="6">
-        <v>139.227</v>
+        <v>2150</v>
       </c>
       <c r="E69" s="6">
         <v>0</v>
       </c>
       <c r="F69" s="6">
-        <v>1403.0858639</v>
+        <v>302.51</v>
       </c>
       <c r="G69" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -20886,25 +20048,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="11">
-        <v>497.1</v>
+        <v>102.65</v>
       </c>
       <c r="C70" s="9">
-        <v>-15.7</v>
+        <v>-11</v>
       </c>
       <c r="D70" s="9">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="9">
-        <v>1403.086</v>
+        <v>315.15999999999997</v>
       </c>
       <c r="G70" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -20916,25 +20078,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>506.15000000000003</v>
+        <v>104.80000000000001</v>
       </c>
       <c r="C71" s="6">
-        <v>-15.7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="6">
-        <v>9050</v>
+        <v>2150</v>
       </c>
       <c r="E71" s="6">
         <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>1545.171</v>
+        <v>297.96000000000004</v>
       </c>
       <c r="G71" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -20946,25 +20108,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="11">
-        <v>508.54999999999995</v>
+        <v>106.89999999999999</v>
       </c>
       <c r="C72" s="9">
-        <v>-11.5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="9">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="9">
-        <v>1572.77</v>
+        <v>291.65999999999997</v>
       </c>
       <c r="G72" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -20976,25 +20138,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>509.45</v>
+        <v>107.60000000000001</v>
       </c>
       <c r="C73" s="6">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="D73" s="6">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E73" s="6">
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>1579.52</v>
+        <v>297.05</v>
       </c>
       <c r="G73" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -21006,25 +20168,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="11">
-        <v>510.34999999999997</v>
+        <v>109.1</v>
       </c>
       <c r="C74" s="9">
-        <v>-3.6669999999999998</v>
+        <v>-7.7</v>
       </c>
       <c r="D74" s="9">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <v>1582.8203000000001</v>
+        <v>308.59000000000003</v>
       </c>
       <c r="G74" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -21036,22 +20198,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>511.25</v>
+        <v>110.85</v>
       </c>
       <c r="C75" s="6">
         <v>4</v>
       </c>
       <c r="D75" s="6">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="E75" s="6">
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>1579.22</v>
+        <v>301.58999999999997</v>
       </c>
       <c r="G75" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>15</v>
@@ -21066,22 +20228,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="11">
-        <v>515.54999999999995</v>
+        <v>112.25</v>
       </c>
       <c r="C76" s="9">
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="D76" s="9">
-        <v>4300</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <v>1510.42</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="G76" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>15</v>
@@ -21096,22 +20258,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>516.84999999999991</v>
+        <v>116.5</v>
       </c>
       <c r="C77" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>1300</v>
+        <v>4250</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
       </c>
       <c r="F77" s="6">
-        <v>1504.5700000000002</v>
+        <v>308.58999999999997</v>
       </c>
       <c r="G77" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>15</v>
@@ -21126,22 +20288,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="11">
-        <v>519.25</v>
+        <v>119.6</v>
       </c>
       <c r="C78" s="9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D78" s="9">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <v>1506.97</v>
+        <v>293.08999999999997</v>
       </c>
       <c r="G78" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>15</v>
@@ -21156,22 +20318,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>520</v>
+        <v>121.3</v>
       </c>
       <c r="C79" s="6">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D79" s="6">
-        <v>750</v>
+        <v>1700</v>
       </c>
       <c r="E79" s="6">
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <v>1506.97</v>
+        <v>303.28999999999996</v>
       </c>
       <c r="G79" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>15</v>
@@ -21186,22 +20348,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="11">
-        <v>522.45000000000005</v>
+        <v>122.8</v>
       </c>
       <c r="C80" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D80" s="9">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <v>1506.9580000000001</v>
+        <v>294.29000000000002</v>
       </c>
       <c r="G80" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>15</v>
@@ -21216,22 +20378,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>523.65000000000009</v>
+        <v>124.2</v>
       </c>
       <c r="C81" s="6">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D81" s="6">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <v>1521.3600000000001</v>
+        <v>313.89000000000004</v>
       </c>
       <c r="G81" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>15</v>
@@ -21246,22 +20408,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="11">
-        <v>526.29999999999995</v>
+        <v>125.60000000000001</v>
       </c>
       <c r="C82" s="9">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="D82" s="9">
-        <v>2650</v>
+        <v>1400</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>1569.06</v>
+        <v>311.08999999999997</v>
       </c>
       <c r="G82" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>15</v>
@@ -21276,22 +20438,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>532.69999999999993</v>
+        <v>127.14999999999999</v>
       </c>
       <c r="C83" s="6">
-        <v>-15.6</v>
+        <v>12</v>
       </c>
       <c r="D83" s="6">
-        <v>6400</v>
+        <v>1550</v>
       </c>
       <c r="E83" s="6">
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>1668.8999999999999</v>
+        <v>292.48999999999995</v>
       </c>
       <c r="G83" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>15</v>
@@ -21306,22 +20468,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="11">
-        <v>533.90000000000009</v>
+        <v>128.0367</v>
       </c>
       <c r="C84" s="9">
-        <v>-9</v>
+        <v>-7.5</v>
       </c>
       <c r="D84" s="9">
-        <v>1200</v>
+        <v>886.7</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <v>1679.7</v>
+        <v>299.14025000000004</v>
       </c>
       <c r="G84" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>15</v>
@@ -21336,25 +20498,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>542.85</v>
+        <v>129.15</v>
       </c>
       <c r="C85" s="6">
-        <v>3</v>
+        <v>-7.5</v>
       </c>
       <c r="D85" s="6">
-        <v>8950</v>
+        <v>1113.3</v>
       </c>
       <c r="E85" s="6">
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <v>1652.8500000000001</v>
+        <v>301.21474999999998</v>
       </c>
       <c r="G85" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -21366,25 +20528,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="11">
-        <v>544.75</v>
+        <v>130.07</v>
       </c>
       <c r="C86" s="9">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="D86" s="9">
-        <v>1900</v>
+        <v>920</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <v>1658.55</v>
+        <v>290.16999999999996</v>
       </c>
       <c r="G86" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -21396,25 +20558,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>546.65</v>
+        <v>131.11750000000001</v>
       </c>
       <c r="C87" s="6">
-        <v>9</v>
+        <v>-15.8</v>
       </c>
       <c r="D87" s="6">
-        <v>1900</v>
+        <v>1047.5</v>
       </c>
       <c r="E87" s="6">
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <v>1641.45</v>
+        <v>306.72050000000002</v>
       </c>
       <c r="G87" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -21426,25 +20588,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="11">
-        <v>550.75</v>
+        <v>132.82550000000001</v>
       </c>
       <c r="C88" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D88" s="9">
-        <v>4100</v>
+        <v>1708</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <v>1620.95</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="G88" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -21456,25 +20618,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>554.6</v>
+        <v>132.82550000000001</v>
       </c>
       <c r="C89" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D89" s="6">
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="E89" s="6">
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <v>1563.2</v>
+        <v>306.72000000000003</v>
       </c>
       <c r="G89" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -21485,27 +20647,13 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="11">
-        <v>556.59</v>
-      </c>
-      <c r="C90" s="9">
-        <v>3</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1990</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>1557.23</v>
-      </c>
-      <c r="G90" s="9">
-        <v>6</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
@@ -21515,27 +20663,13 @@
       <c r="A91" s="8">
         <v>89</v>
       </c>
-      <c r="B91" s="7">
-        <v>558.65</v>
-      </c>
-      <c r="C91" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D91" s="6">
-        <v>2060</v>
-      </c>
-      <c r="E91" s="6">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6">
-        <v>1563.41</v>
-      </c>
-      <c r="G91" s="6">
-        <v>6</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -21545,27 +20679,13 @@
       <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="B92" s="11">
-        <v>561</v>
-      </c>
-      <c r="C92" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D92" s="9">
-        <v>2350</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="9">
-        <v>1545.7850000000001</v>
-      </c>
-      <c r="G92" s="9">
-        <v>6</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
@@ -21575,27 +20695,13 @@
       <c r="A93" s="8">
         <v>91</v>
       </c>
-      <c r="B93" s="7">
-        <v>562.95000000000005</v>
-      </c>
-      <c r="C93" s="6">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1950</v>
-      </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <v>1545.79</v>
-      </c>
-      <c r="G93" s="6">
-        <v>6</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -21605,27 +20711,13 @@
       <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="B94" s="11">
-        <v>567.6</v>
-      </c>
-      <c r="C94" s="9">
-        <v>12</v>
-      </c>
-      <c r="D94" s="9">
-        <v>4650</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" s="9">
-        <v>1489.99</v>
-      </c>
-      <c r="G94" s="9">
-        <v>6</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
@@ -21635,27 +20727,13 @@
       <c r="A95" s="8">
         <v>93</v>
       </c>
-      <c r="B95" s="7">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="C95" s="6">
-        <v>12</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1100</v>
-      </c>
-      <c r="E95" s="6">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <v>1476.7939999999999</v>
-      </c>
-      <c r="G95" s="6">
-        <v>6</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -21665,27 +20743,13 @@
       <c r="A96" s="9">
         <v>94</v>
       </c>
-      <c r="B96" s="11">
-        <v>570.90000000000009</v>
-      </c>
-      <c r="C96" s="9">
-        <v>0</v>
-      </c>
-      <c r="D96" s="9">
-        <v>2200</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="9">
-        <v>1476.79</v>
-      </c>
-      <c r="G96" s="9">
-        <v>6</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -21695,27 +20759,13 @@
       <c r="A97" s="8">
         <v>95</v>
       </c>
-      <c r="B97" s="7">
-        <v>573.76099999999997</v>
-      </c>
-      <c r="C97" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2861</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1488.2339999999999</v>
-      </c>
-      <c r="G97" s="6">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -21725,27 +20775,13 @@
       <c r="A98" s="9">
         <v>96</v>
       </c>
-      <c r="B98" s="11">
-        <v>578.31999999999994</v>
-      </c>
-      <c r="C98" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D98" s="9">
-        <v>4559</v>
-      </c>
-      <c r="E98" s="9">
-        <v>0</v>
-      </c>
-      <c r="F98" s="9">
-        <v>1501.9069999999999</v>
-      </c>
-      <c r="G98" s="9">
-        <v>6</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
@@ -21755,27 +20791,13 @@
       <c r="A99" s="8">
         <v>97</v>
       </c>
-      <c r="B99" s="7">
-        <v>579.65000000000009</v>
-      </c>
-      <c r="C99" s="6">
-        <v>9</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1330</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1489.94</v>
-      </c>
-      <c r="G99" s="6">
-        <v>6</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -21785,27 +20807,13 @@
       <c r="A100" s="9">
         <v>98</v>
       </c>
-      <c r="B100" s="11">
-        <v>588.04999999999995</v>
-      </c>
-      <c r="C100" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="D100" s="9">
-        <v>8400</v>
-      </c>
-      <c r="E100" s="9">
-        <v>0</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1359.74</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
@@ -21815,27 +20823,13 @@
       <c r="A101" s="8">
         <v>99</v>
       </c>
-      <c r="B101" s="7">
-        <v>600.59999999999991</v>
-      </c>
-      <c r="C101" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="D101" s="6">
-        <v>12550</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1227.9649999999999</v>
-      </c>
-      <c r="G101" s="6">
-        <v>6</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -21845,27 +20839,13 @@
       <c r="A102" s="9">
         <v>100</v>
       </c>
-      <c r="B102" s="11">
-        <v>601.80000000000007</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E102" s="9">
-        <v>0</v>
-      </c>
-      <c r="F102" s="9">
-        <v>1227.97</v>
-      </c>
-      <c r="G102" s="9">
-        <v>6</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
@@ -21875,27 +20855,13 @@
       <c r="A103" s="8">
         <v>101</v>
       </c>
-      <c r="B103" s="7">
-        <v>602.22251199999994</v>
-      </c>
-      <c r="C103" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D103" s="6">
-        <v>422.512</v>
-      </c>
-      <c r="E103" s="6">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1233.0401440000001</v>
-      </c>
-      <c r="G103" s="6">
-        <v>6</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -21905,27 +20871,13 @@
       <c r="A104" s="9">
         <v>102</v>
       </c>
-      <c r="B104" s="11">
-        <v>602</v>
-      </c>
-      <c r="C104" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
-      </c>
-      <c r="E104" s="9">
-        <v>1</v>
-      </c>
-      <c r="F104" s="9">
-        <v>1233.04</v>
-      </c>
-      <c r="G104" s="9">
-        <v>7</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -21935,27 +20887,13 @@
       <c r="A105" s="8">
         <v>103</v>
       </c>
-      <c r="B105" s="7">
-        <v>603.20000000000005</v>
-      </c>
-      <c r="C105" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E105" s="6">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <v>1247.44</v>
-      </c>
-      <c r="G105" s="6">
-        <v>7</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -21965,27 +20903,13 @@
       <c r="A106" s="9">
         <v>104</v>
       </c>
-      <c r="B106" s="11">
-        <v>607.5</v>
-      </c>
-      <c r="C106" s="9">
-        <v>-15.5</v>
-      </c>
-      <c r="D106" s="9">
-        <v>4300</v>
-      </c>
-      <c r="E106" s="9">
-        <v>0</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1314.0900000000001</v>
-      </c>
-      <c r="G106" s="9">
-        <v>7</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
@@ -21995,27 +20919,13 @@
       <c r="A107" s="8">
         <v>105</v>
       </c>
-      <c r="B107" s="7">
-        <v>612.9</v>
-      </c>
-      <c r="C107" s="6">
-        <v>-15.5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>5400</v>
-      </c>
-      <c r="E107" s="6">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1397.789</v>
-      </c>
-      <c r="G107" s="6">
-        <v>7</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -22025,27 +20935,13 @@
       <c r="A108" s="9">
         <v>106</v>
       </c>
-      <c r="B108" s="11">
-        <v>614.1</v>
-      </c>
-      <c r="C108" s="9">
-        <v>-8.6</v>
-      </c>
-      <c r="D108" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1408.11</v>
-      </c>
-      <c r="G108" s="9">
-        <v>7</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
@@ -22055,27 +20951,13 @@
       <c r="A109" s="8">
         <v>107</v>
       </c>
-      <c r="B109" s="7">
-        <v>619</v>
-      </c>
-      <c r="C109" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="D109" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E109" s="6">
-        <v>0</v>
-      </c>
-      <c r="F109" s="6">
-        <v>1391.4499999999998</v>
-      </c>
-      <c r="G109" s="6">
-        <v>7</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -22085,27 +20967,13 @@
       <c r="A110" s="9">
         <v>108</v>
       </c>
-      <c r="B110" s="11">
-        <v>622</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0</v>
-      </c>
-      <c r="D110" s="9">
-        <v>3000</v>
-      </c>
-      <c r="E110" s="9">
-        <v>0</v>
-      </c>
-      <c r="F110" s="9">
-        <v>1391.45</v>
-      </c>
-      <c r="G110" s="9">
-        <v>7</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
@@ -22115,27 +20983,13 @@
       <c r="A111" s="8">
         <v>109</v>
       </c>
-      <c r="B111" s="7">
-        <v>623.20000000000005</v>
-      </c>
-      <c r="C111" s="6">
-        <v>5</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1385.45</v>
-      </c>
-      <c r="G111" s="6">
-        <v>7</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -22145,27 +20999,13 @@
       <c r="A112" s="9">
         <v>110</v>
       </c>
-      <c r="B112" s="11">
-        <v>624.70000000000005</v>
-      </c>
-      <c r="C112" s="9">
-        <v>-7</v>
-      </c>
-      <c r="D112" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E112" s="9">
-        <v>0</v>
-      </c>
-      <c r="F112" s="9">
-        <v>1395.95</v>
-      </c>
-      <c r="G112" s="9">
-        <v>7</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -22175,27 +21015,13 @@
       <c r="A113" s="8">
         <v>111</v>
       </c>
-      <c r="B113" s="7">
-        <v>627.31000000000006</v>
-      </c>
-      <c r="C113" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2610</v>
-      </c>
-      <c r="E113" s="6">
-        <v>0</v>
-      </c>
-      <c r="F113" s="6">
-        <v>1432.49</v>
-      </c>
-      <c r="G113" s="6">
-        <v>7</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -22205,27 +21031,13 @@
       <c r="A114" s="9">
         <v>112</v>
       </c>
-      <c r="B114" s="11">
-        <v>630.78781499999991</v>
-      </c>
-      <c r="C114" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="D114" s="9">
-        <v>3477.8150000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1443.9667895</v>
-      </c>
-      <c r="G114" s="9">
-        <v>7</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
@@ -22235,27 +21047,13 @@
       <c r="A115" s="8">
         <v>113</v>
       </c>
-      <c r="B115" s="7">
-        <v>631.5</v>
-      </c>
-      <c r="C115" s="6">
-        <v>-3.3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1443.9670000000001</v>
-      </c>
-      <c r="G115" s="6">
-        <v>8</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -22265,27 +21063,13 @@
       <c r="A116" s="9">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
-        <v>632.5</v>
-      </c>
-      <c r="C116" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="D116" s="9">
-        <v>1000</v>
-      </c>
-      <c r="E116" s="9">
-        <v>0</v>
-      </c>
-      <c r="F116" s="9">
-        <v>1447.2670000000001</v>
-      </c>
-      <c r="G116" s="9">
-        <v>8</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
@@ -22295,27 +21079,13 @@
       <c r="A117" s="8">
         <v>115</v>
       </c>
-      <c r="B117" s="7">
-        <v>633.54999999999995</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1050</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
-        <v>1447.27</v>
-      </c>
-      <c r="G117" s="6">
-        <v>8</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -22325,27 +21095,13 @@
       <c r="A118" s="9">
         <v>116</v>
       </c>
-      <c r="B118" s="11">
-        <v>634.5</v>
-      </c>
-      <c r="C118" s="9">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="D118" s="9">
-        <v>950</v>
-      </c>
-      <c r="E118" s="9">
-        <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <v>1444.21955</v>
-      </c>
-      <c r="G118" s="9">
-        <v>8</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
@@ -22355,27 +21111,13 @@
       <c r="A119" s="8">
         <v>117</v>
       </c>
-      <c r="B119" s="7">
-        <v>634.75</v>
-      </c>
-      <c r="C119" s="6">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="D119" s="6">
-        <v>250</v>
-      </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
-      <c r="F119" s="6">
-        <v>1443.4132499999998</v>
-      </c>
-      <c r="G119" s="6">
-        <v>8</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -22385,27 +21127,13 @@
       <c r="A120" s="9">
         <v>118</v>
       </c>
-      <c r="B120" s="11">
-        <v>635.70000000000005</v>
-      </c>
-      <c r="C120" s="9">
-        <v>0</v>
-      </c>
-      <c r="D120" s="9">
-        <v>950</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="9">
-        <v>1443.41</v>
-      </c>
-      <c r="G120" s="9">
-        <v>8</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -22415,27 +21143,13 @@
       <c r="A121" s="8">
         <v>119</v>
       </c>
-      <c r="B121" s="7">
-        <v>636.90000000000009</v>
-      </c>
-      <c r="C121" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D121" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E121" s="6">
-        <v>0</v>
-      </c>
-      <c r="F121" s="6">
-        <v>1457.8100000000002</v>
-      </c>
-      <c r="G121" s="6">
-        <v>8</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -22445,27 +21159,13 @@
       <c r="A122" s="9">
         <v>120</v>
       </c>
-      <c r="B122" s="11">
-        <v>638.75</v>
-      </c>
-      <c r="C122" s="9">
-        <v>-17.3</v>
-      </c>
-      <c r="D122" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E122" s="9">
-        <v>0</v>
-      </c>
-      <c r="F122" s="9">
-        <v>1489.8150000000001</v>
-      </c>
-      <c r="G122" s="9">
-        <v>8</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
@@ -22475,27 +21175,13 @@
       <c r="A123" s="8">
         <v>121</v>
       </c>
-      <c r="B123" s="7">
-        <v>659.1</v>
-      </c>
-      <c r="C123" s="6">
-        <v>-15.5</v>
-      </c>
-      <c r="D123" s="6">
-        <v>20350</v>
-      </c>
-      <c r="E123" s="6">
-        <v>0</v>
-      </c>
-      <c r="F123" s="6">
-        <v>1805.2449999999999</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -22505,27 +21191,13 @@
       <c r="A124" s="9">
         <v>122</v>
       </c>
-      <c r="B124" s="11">
-        <v>660.5</v>
-      </c>
-      <c r="C124" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D124" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E124" s="9">
-        <v>0</v>
-      </c>
-      <c r="F124" s="9">
-        <v>1812.25</v>
-      </c>
-      <c r="G124" s="9">
-        <v>8</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
@@ -22535,27 +21207,13 @@
       <c r="A125" s="8">
         <v>123</v>
       </c>
-      <c r="B125" s="7">
-        <v>669.45</v>
-      </c>
-      <c r="C125" s="6">
-        <v>7</v>
-      </c>
-      <c r="D125" s="6">
-        <v>8950</v>
-      </c>
-      <c r="E125" s="6">
-        <v>0</v>
-      </c>
-      <c r="F125" s="6">
-        <v>1749.6</v>
-      </c>
-      <c r="G125" s="6">
-        <v>8</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -22565,27 +21223,13 @@
       <c r="A126" s="9">
         <v>124</v>
       </c>
-      <c r="B126" s="11">
-        <v>673.40000000000009</v>
-      </c>
-      <c r="C126" s="9">
-        <v>18</v>
-      </c>
-      <c r="D126" s="9">
-        <v>3950</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0</v>
-      </c>
-      <c r="F126" s="9">
-        <v>1678.5</v>
-      </c>
-      <c r="G126" s="9">
-        <v>8</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
@@ -22595,27 +21239,13 @@
       <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="7">
-        <v>674.13191299999994</v>
-      </c>
-      <c r="C127" s="6">
-        <v>12</v>
-      </c>
-      <c r="D127" s="6">
-        <v>731.91300000000001</v>
-      </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
-      <c r="F127" s="6">
-        <v>1669.717044</v>
-      </c>
-      <c r="G127" s="6">
-        <v>8</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -22625,27 +21255,13 @@
       <c r="A128" s="9">
         <v>126</v>
       </c>
-      <c r="B128" s="11">
-        <v>683.9</v>
-      </c>
-      <c r="C128" s="9">
-        <v>12</v>
-      </c>
-      <c r="D128" s="9">
-        <v>0</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0</v>
-      </c>
-      <c r="F128" s="9">
-        <v>1669.7170000000001</v>
-      </c>
-      <c r="G128" s="9">
-        <v>9</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -22655,27 +21271,13 @@
       <c r="A129" s="8">
         <v>127</v>
       </c>
-      <c r="B129" s="7">
-        <v>684.3</v>
-      </c>
-      <c r="C129" s="6">
-        <v>12</v>
-      </c>
-      <c r="D129" s="6">
-        <v>400</v>
-      </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1664.9170000000001</v>
-      </c>
-      <c r="G129" s="6">
-        <v>9</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -22685,27 +21287,13 @@
       <c r="A130" s="9">
         <v>128</v>
       </c>
-      <c r="B130" s="11">
-        <v>684.4</v>
-      </c>
-      <c r="C130" s="9">
-        <v>12</v>
-      </c>
-      <c r="D130" s="9">
-        <v>100</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0</v>
-      </c>
-      <c r="F130" s="9">
-        <v>1663.71</v>
-      </c>
-      <c r="G130" s="9">
-        <v>9</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
@@ -22715,27 +21303,13 @@
       <c r="A131" s="8">
         <v>129</v>
       </c>
-      <c r="B131" s="7">
-        <v>688</v>
-      </c>
-      <c r="C131" s="6">
-        <v>0</v>
-      </c>
-      <c r="D131" s="6">
-        <v>3600</v>
-      </c>
-      <c r="E131" s="6">
-        <v>0</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1663.71</v>
-      </c>
-      <c r="G131" s="6">
-        <v>9</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -22745,27 +21319,13 @@
       <c r="A132" s="9">
         <v>130</v>
       </c>
-      <c r="B132" s="11">
-        <v>689.8</v>
-      </c>
-      <c r="C132" s="9">
-        <v>-11.4</v>
-      </c>
-      <c r="D132" s="9">
-        <v>1800</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132" s="9">
-        <v>1684.23</v>
-      </c>
-      <c r="G132" s="9">
-        <v>9</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
@@ -22775,27 +21335,13 @@
       <c r="A133" s="8">
         <v>131</v>
       </c>
-      <c r="B133" s="7">
-        <v>691.69999999999993</v>
-      </c>
-      <c r="C133" s="6">
-        <v>3</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1900</v>
-      </c>
-      <c r="E133" s="6">
-        <v>0</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1678.53</v>
-      </c>
-      <c r="G133" s="6">
-        <v>9</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -22805,27 +21351,13 @@
       <c r="A134" s="9">
         <v>132</v>
       </c>
-      <c r="B134" s="11">
-        <v>698.6</v>
-      </c>
-      <c r="C134" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="D134" s="9">
-        <v>6900</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0</v>
-      </c>
-      <c r="F134" s="9">
-        <v>1585.3799999999999</v>
-      </c>
-      <c r="G134" s="9">
-        <v>9</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
@@ -22835,27 +21367,13 @@
       <c r="A135" s="8">
         <v>133</v>
       </c>
-      <c r="B135" s="7">
-        <v>701.80000000000007</v>
-      </c>
-      <c r="C135" s="6">
-        <v>6</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3200</v>
-      </c>
-      <c r="E135" s="6">
-        <v>0</v>
-      </c>
-      <c r="F135" s="6">
-        <v>1566.18</v>
-      </c>
-      <c r="G135" s="6">
-        <v>9</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -22865,27 +21383,13 @@
       <c r="A136" s="9">
         <v>134</v>
       </c>
-      <c r="B136" s="11">
-        <v>702.74913699999991</v>
-      </c>
-      <c r="C136" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D136" s="9">
-        <v>949.13699999999994</v>
-      </c>
-      <c r="E136" s="9">
-        <v>0</v>
-      </c>
-      <c r="F136" s="9">
-        <v>1569.027411</v>
-      </c>
-      <c r="G136" s="9">
-        <v>9</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -22895,27 +21399,13 @@
       <c r="A137" s="8">
         <v>135</v>
       </c>
-      <c r="B137" s="7">
-        <v>702.4</v>
-      </c>
-      <c r="C137" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D137" s="6">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6">
-        <v>1569.027</v>
-      </c>
-      <c r="G137" s="6">
-        <v>10</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -22925,27 +21415,13 @@
       <c r="A138" s="9">
         <v>136</v>
       </c>
-      <c r="B138" s="11">
-        <v>703.1</v>
-      </c>
-      <c r="C138" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D138" s="9">
-        <v>700</v>
-      </c>
-      <c r="E138" s="9">
-        <v>0</v>
-      </c>
-      <c r="F138" s="9">
-        <v>1571.127</v>
-      </c>
-      <c r="G138" s="9">
-        <v>10</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
@@ -22955,27 +21431,13 @@
       <c r="A139" s="8">
         <v>137</v>
       </c>
-      <c r="B139" s="7">
-        <v>706.41</v>
-      </c>
-      <c r="C139" s="6">
-        <v>-14.5</v>
-      </c>
-      <c r="D139" s="6">
-        <v>3310</v>
-      </c>
-      <c r="E139" s="6">
-        <v>0</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1619.125</v>
-      </c>
-      <c r="G139" s="6">
-        <v>10</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -22985,27 +21447,13 @@
       <c r="A140" s="9">
         <v>138</v>
       </c>
-      <c r="B140" s="11">
-        <v>714.65</v>
-      </c>
-      <c r="C140" s="9">
-        <v>-23.5</v>
-      </c>
-      <c r="D140" s="9">
-        <v>8240</v>
-      </c>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140" s="9">
-        <v>1812.77</v>
-      </c>
-      <c r="G140" s="9">
-        <v>10</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
@@ -23015,27 +21463,13 @@
       <c r="A141" s="8">
         <v>139</v>
       </c>
-      <c r="B141" s="7">
-        <v>718.65</v>
-      </c>
-      <c r="C141" s="6">
-        <v>3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E141" s="6">
-        <v>0</v>
-      </c>
-      <c r="F141" s="6">
-        <v>1800.77</v>
-      </c>
-      <c r="G141" s="6">
-        <v>10</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -23045,27 +21479,13 @@
       <c r="A142" s="9">
         <v>140</v>
       </c>
-      <c r="B142" s="11">
-        <v>720.9</v>
-      </c>
-      <c r="C142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="D142" s="9">
-        <v>2250</v>
-      </c>
-      <c r="E142" s="9">
-        <v>0</v>
-      </c>
-      <c r="F142" s="9">
-        <v>1803.02</v>
-      </c>
-      <c r="G142" s="9">
-        <v>10</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
@@ -23075,27 +21495,13 @@
       <c r="A143" s="8">
         <v>141</v>
       </c>
-      <c r="B143" s="7">
-        <v>722.1</v>
-      </c>
-      <c r="C143" s="6">
-        <v>-3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E143" s="6">
-        <v>0</v>
-      </c>
-      <c r="F143" s="6">
-        <v>1806.62</v>
-      </c>
-      <c r="G143" s="6">
-        <v>10</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -23105,27 +21511,13 @@
       <c r="A144" s="9">
         <v>142</v>
       </c>
-      <c r="B144" s="11">
-        <v>728.53</v>
-      </c>
-      <c r="C144" s="9">
-        <v>-23.5</v>
-      </c>
-      <c r="D144" s="9">
-        <v>6430</v>
-      </c>
-      <c r="E144" s="9">
-        <v>0</v>
-      </c>
-      <c r="F144" s="9">
-        <v>1957.7249999999999</v>
-      </c>
-      <c r="G144" s="9">
-        <v>10</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -23135,27 +21527,13 @@
       <c r="A145" s="8">
         <v>143</v>
       </c>
-      <c r="B145" s="7">
-        <v>732.71499999999992</v>
-      </c>
-      <c r="C145" s="6">
-        <v>3</v>
-      </c>
-      <c r="D145" s="6">
-        <v>4185</v>
-      </c>
-      <c r="E145" s="6">
-        <v>0</v>
-      </c>
-      <c r="F145" s="6">
-        <v>1945.175</v>
-      </c>
-      <c r="G145" s="6">
-        <v>10</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -23165,27 +21543,13 @@
       <c r="A146" s="9">
         <v>144</v>
       </c>
-      <c r="B146" s="11">
-        <v>733.98</v>
-      </c>
-      <c r="C146" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="D146" s="9">
-        <v>1265</v>
-      </c>
-      <c r="E146" s="9">
-        <v>0</v>
-      </c>
-      <c r="F146" s="9">
-        <v>1942.0175000000002</v>
-      </c>
-      <c r="G146" s="9">
-        <v>10</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
@@ -23195,27 +21559,13 @@
       <c r="A147" s="8">
         <v>145</v>
       </c>
-      <c r="B147" s="7">
-        <v>734.58299999999997</v>
-      </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6">
-        <v>603</v>
-      </c>
-      <c r="E147" s="6">
-        <v>0</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1942.02</v>
-      </c>
-      <c r="G147" s="6">
-        <v>10</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接坡面数据_Single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,22 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDK</t>
+    <t>DK</t>
   </si>
   <si>
-    <t>IYDK</t>
-  </si>
-  <si>
-    <t>ID1K</t>
-  </si>
-  <si>
-    <t>ID2K</t>
-  </si>
-  <si>
-    <t>IYD1K</t>
-  </si>
-  <si>
-    <t>IYD2K</t>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -648,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>3150</v>
+        <v>355</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <v>335.86500000000001</v>
+        <v>1444.6579999999999</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -663,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>39173.156999999999</v>
+        <v>1145</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>40850</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -680,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>3.15</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C4" s="9">
-        <v>-6</v>
+        <v>-3.3</v>
       </c>
       <c r="D4" s="9">
-        <v>1790</v>
+        <v>790</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>335.87</v>
+        <v>1444.66</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
@@ -701,13 +689,13 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>55299.989000000001</v>
+        <v>22217.48</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>55300</v>
+        <v>22200</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>13</v>
@@ -718,19 +706,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>4.9400000000000004</v>
+        <v>1.145</v>
       </c>
       <c r="C5" s="6">
-        <v>3</v>
+        <v>-3.3</v>
       </c>
       <c r="D5" s="6">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>325.13</v>
+        <v>1442.0530000000001</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -739,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>63499.987000000001</v>
+        <v>24998.27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" s="6">
-        <v>63500</v>
+        <v>25000</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -756,174 +744,142 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="D6" s="9">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>327.86</v>
+        <v>1444.6579999999999</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9">
-        <v>67099.979000000007</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="9">
-        <v>67100</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>-7.5</v>
       </c>
       <c r="D7" s="6">
-        <v>2860</v>
+        <v>2400</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>327.86</v>
+        <v>1443.34</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
-        <v>76599.381999999998</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6">
-        <v>76600</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>9.86</v>
+        <v>2.8</v>
       </c>
       <c r="C8" s="9">
-        <v>-9.5</v>
+        <v>-20</v>
       </c>
       <c r="D8" s="9">
-        <v>1990</v>
+        <v>1700</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9">
-        <v>356.46</v>
+        <v>1425.34</v>
       </c>
       <c r="G8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9">
-        <v>83399.794999999998</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9">
-        <v>83400</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>11.85</v>
+        <v>4.5</v>
       </c>
       <c r="C9" s="6">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>337.56</v>
+        <v>1391.34</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
-        <v>85999.953999999998</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>86000</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="C10" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="9">
-        <v>2300</v>
+        <v>1480</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>330.66</v>
+        <v>1412.24</v>
       </c>
       <c r="G10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -938,22 +894,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>15.3</v>
+        <v>7.88</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D11" s="6">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <v>330.66</v>
+        <v>1410.76</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -968,22 +924,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>16.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="9">
-        <v>335.16</v>
+        <v>1402.84</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
@@ -998,22 +954,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>18.350000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="C13" s="6">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>335.16</v>
+        <v>1404.14</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>13</v>
@@ -1028,22 +984,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>19.25</v>
+        <v>11.5</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>330.66</v>
+        <v>1400.14</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>13</v>
@@ -1058,22 +1014,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>21.4</v>
+        <v>11.5</v>
       </c>
       <c r="C15" s="6">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="D15" s="6">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>330.66</v>
+        <v>1400.1379999999999</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -1088,22 +1044,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>22.65</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
-        <v>-8</v>
+        <v>-9.5</v>
       </c>
       <c r="D16" s="9">
-        <v>2050</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <v>344.41</v>
+        <v>1398.14</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>13</v>
@@ -1118,22 +1074,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>24.7</v>
+        <v>13.9</v>
       </c>
       <c r="C17" s="6">
-        <v>11</v>
+        <v>-30</v>
       </c>
       <c r="D17" s="6">
-        <v>1750</v>
+        <v>5150</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
       <c r="F17" s="6">
-        <v>328.01</v>
+        <v>1380.09</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -1148,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>26.45</v>
+        <v>19.05</v>
       </c>
       <c r="C18" s="9">
-        <v>-13.5</v>
+        <v>-17.3</v>
       </c>
       <c r="D18" s="9">
-        <v>1250</v>
+        <v>2300</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <v>347.26</v>
+        <v>1225.5899999999999</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -1178,22 +1134,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>27.7</v>
+        <v>21.35</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="D19" s="6">
-        <v>2250</v>
+        <v>867.48</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6">
-        <v>330.39</v>
+        <v>1185.8</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -1208,22 +1164,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>29.95</v>
+        <v>22.216999999999999</v>
       </c>
       <c r="C20" s="9">
-        <v>-7</v>
+        <v>-19</v>
       </c>
       <c r="D20" s="9">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="9">
-        <v>330.39</v>
+        <v>1169.318</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -1238,22 +1194,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>32.85</v>
+        <v>22.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6.5</v>
+        <v>-19</v>
       </c>
       <c r="D21" s="6">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21" s="6">
-        <v>310.08999999999997</v>
+        <v>1169.318</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -1268,22 +1224,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>36.35</v>
+        <v>22.3</v>
       </c>
       <c r="C22" s="9">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="D22" s="9">
-        <v>1050</v>
+        <v>2698.27</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
-        <v>332.84</v>
+        <v>1167.42</v>
       </c>
       <c r="G22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -1298,22 +1254,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>37.4</v>
+        <v>24.998000000000001</v>
       </c>
       <c r="C23" s="6">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <v>311.83999999999997</v>
+        <v>1162.0239999999999</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -1328,25 +1284,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>38.85</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D24" s="9">
-        <v>323.15800000000002</v>
+        <v>50</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>311.83</v>
+        <v>1162.0239999999999</v>
       </c>
       <c r="G24" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1358,25 +1314,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>39.173000000000002</v>
+        <v>25.05</v>
       </c>
       <c r="C25" s="6">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6">
-        <v>310.86099999999999</v>
+        <v>1161.92</v>
       </c>
       <c r="G25" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1388,25 +1344,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>40.85</v>
+        <v>27.87</v>
       </c>
       <c r="C26" s="9">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="D26" s="9">
-        <v>863.28</v>
+        <v>2230</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
-        <v>310.86099999999999</v>
+        <v>1161.92</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1418,25 +1374,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>41.713279999999997</v>
+        <v>30.1</v>
       </c>
       <c r="C27" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27" s="6">
-        <v>1536.7170000000001</v>
+        <v>1690</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6">
-        <v>308.27</v>
+        <v>1158.58</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1448,25 +1404,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>43.25</v>
+        <v>31.79</v>
       </c>
       <c r="C28" s="9">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9">
-        <v>1850</v>
+        <v>2210</v>
       </c>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9">
-        <v>339</v>
+        <v>1180.55</v>
       </c>
       <c r="G28" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1478,25 +1434,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>45.1</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6">
-        <v>0</v>
+        <v>-14.5</v>
       </c>
       <c r="D29" s="6">
-        <v>2250</v>
+        <v>1300</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6">
-        <v>302</v>
+        <v>1187.18</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -1508,25 +1464,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>47.35</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C30" s="9">
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="D30" s="9">
-        <v>1250</v>
+        <v>2200</v>
       </c>
       <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>302</v>
+        <v>1168.33</v>
       </c>
       <c r="G30" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1538,25 +1494,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>48.6</v>
+        <v>37.5</v>
       </c>
       <c r="C31" s="6">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="D31" s="6">
-        <v>963.63499999999999</v>
+        <v>1300</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6">
-        <v>327</v>
+        <v>1189.23</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -1568,25 +1524,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>49.563639999999999</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C32" s="9">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D32" s="9">
-        <v>2936.3649999999998</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="9">
         <v>1</v>
       </c>
       <c r="F32" s="9">
-        <v>307.73</v>
+        <v>1165.83</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1598,25 +1554,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>52.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C33" s="6">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="D33" s="6">
-        <v>2799.9879999999998</v>
+        <v>1270</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6">
-        <v>308.01</v>
+        <v>1159.83</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1628,25 +1584,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>55.3</v>
+        <v>41.57</v>
       </c>
       <c r="C34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="9">
-        <v>0</v>
+        <v>2362.5</v>
       </c>
       <c r="E34" s="9">
         <v>1</v>
       </c>
       <c r="F34" s="9">
-        <v>313.61</v>
+        <v>1148.4000000000001</v>
       </c>
       <c r="G34" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1658,22 +1614,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>55.3</v>
+        <v>43.932499999999997</v>
       </c>
       <c r="C35" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D35" s="6">
-        <v>2400</v>
+        <v>2767.5</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6">
-        <v>313.61</v>
+        <v>1148.4000000000001</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -1688,22 +1644,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>57.7</v>
+        <v>46.7</v>
       </c>
       <c r="C36" s="9">
-        <v>-10</v>
+        <v>-13.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="9">
-        <v>318.41000000000003</v>
+        <v>1192.68</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -1718,22 +1674,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>59.25</v>
+        <v>48.1</v>
       </c>
       <c r="C37" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="6">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
       </c>
       <c r="F37" s="6">
-        <v>302.91000000000003</v>
+        <v>1173.78</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -1748,22 +1704,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>61.35</v>
+        <v>49.3</v>
       </c>
       <c r="C38" s="9">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="D38" s="9">
-        <v>2149.9899999999998</v>
+        <v>1360</v>
       </c>
       <c r="E38" s="9">
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>326.01</v>
+        <v>1189.3800000000001</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -1778,25 +1734,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>63.5</v>
+        <v>50.66</v>
       </c>
       <c r="C39" s="6">
-        <v>-2</v>
+        <v>12.55</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="6">
-        <v>321.70999999999998</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="G39" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -1808,19 +1764,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>63.5</v>
+        <v>52.1</v>
       </c>
       <c r="C40" s="9">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="D40" s="9">
-        <v>150</v>
+        <v>1550</v>
       </c>
       <c r="E40" s="9">
         <v>1</v>
       </c>
       <c r="F40" s="9">
-        <v>321.70999999999998</v>
+        <v>1241.45</v>
       </c>
       <c r="G40" s="9">
         <v>4</v>
@@ -1838,19 +1794,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>63.65</v>
+        <v>53.65</v>
       </c>
       <c r="C41" s="6">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>1080</v>
+        <v>1250</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <v>321.41000000000003</v>
+        <v>1280.2</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
@@ -1868,19 +1824,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>64.73</v>
+        <v>54.9</v>
       </c>
       <c r="C42" s="9">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="D42" s="9">
-        <v>1120</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="9">
         <v>1</v>
       </c>
       <c r="F42" s="9">
-        <v>299.81</v>
+        <v>1283.95</v>
       </c>
       <c r="G42" s="9">
         <v>4</v>
@@ -1898,19 +1854,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>65.849999999999994</v>
+        <v>56.8</v>
       </c>
       <c r="C43" s="6">
-        <v>3</v>
+        <v>-18</v>
       </c>
       <c r="D43" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6">
-        <v>299.81</v>
+        <v>1236.45</v>
       </c>
       <c r="G43" s="6">
         <v>4</v>
@@ -1928,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>67.05</v>
+        <v>58.8</v>
       </c>
       <c r="C44" s="9">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="D44" s="9">
-        <v>49.973999999999997</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="9">
         <v>1</v>
       </c>
       <c r="F44" s="9">
-        <v>303.41000000000003</v>
+        <v>1200.45</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -1958,25 +1914,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>67.099999999999994</v>
+        <v>60.5</v>
       </c>
       <c r="C45" s="6">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6">
-        <v>303.16000000000003</v>
+        <v>1157.95</v>
       </c>
       <c r="G45" s="6">
         <v>4</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -1988,22 +1944,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>67.099999999999994</v>
+        <v>61.7</v>
       </c>
       <c r="C46" s="9">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="D46" s="9">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E46" s="9">
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <v>303.16000000000003</v>
+        <v>1136.3499999999999</v>
       </c>
       <c r="G46" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -2018,22 +1974,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>68.099999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="D47" s="6">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6">
-        <v>298.16000000000003</v>
+        <v>1117.45</v>
       </c>
       <c r="G47" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -2048,22 +2004,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>69.7</v>
+        <v>63.9</v>
       </c>
       <c r="C48" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D48" s="9">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="9">
         <v>1</v>
       </c>
       <c r="F48" s="9">
-        <v>298.16000000000003</v>
+        <v>1107.7</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>13</v>
@@ -2078,22 +2034,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>70.900000000000006</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C49" s="6">
-        <v>-8.5</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6">
-        <v>1700</v>
+        <v>4450</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6">
-        <v>307.76</v>
+        <v>1112.0999999999999</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>13</v>
@@ -2108,25 +2064,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>72.599999999999994</v>
+        <v>70.55</v>
       </c>
       <c r="C50" s="9">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="9">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
       </c>
       <c r="F50" s="9">
-        <v>293.31</v>
+        <v>1169.95</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2138,25 +2094,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>76</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C51" s="6">
-        <v>-4.5</v>
+        <v>-24</v>
       </c>
       <c r="D51" s="6">
-        <v>599.38300000000004</v>
+        <v>2050</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6">
-        <v>346.01</v>
+        <v>1180.8</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2168,25 +2124,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>76.599000000000004</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="C52" s="9">
-        <v>-4.5</v>
+        <v>-15.75</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
       </c>
       <c r="F52" s="9">
-        <v>343.31299999999999</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="G52" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2198,22 +2154,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>76.599999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="C53" s="6">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>1750</v>
+        <v>2200</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6">
-        <v>343.31299999999999</v>
+        <v>1095.3800000000001</v>
       </c>
       <c r="G53" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -2228,22 +2184,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>78.349999999999994</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="C54" s="9">
-        <v>4.5</v>
+        <v>12.4</v>
       </c>
       <c r="D54" s="9">
-        <v>4430</v>
+        <v>3250</v>
       </c>
       <c r="E54" s="9">
         <v>1</v>
       </c>
       <c r="F54" s="9">
-        <v>335.44</v>
+        <v>1095.3800000000001</v>
       </c>
       <c r="G54" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -2258,25 +2214,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>82.78</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C55" s="6">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="D55" s="6">
-        <v>619.798</v>
+        <v>5050</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6">
-        <v>355.38</v>
+        <v>1135.68</v>
       </c>
       <c r="G55" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -2288,25 +2244,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>83.4</v>
+        <v>86.95</v>
       </c>
       <c r="C56" s="9">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="D56" s="9">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E56" s="9">
         <v>1</v>
       </c>
       <c r="F56" s="9">
-        <v>348.56200000000001</v>
+        <v>1287.18</v>
       </c>
       <c r="G56" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2318,22 +2274,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>83.4</v>
+        <v>87.85</v>
       </c>
       <c r="C57" s="6">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="D57" s="6">
-        <v>817.74</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6">
-        <v>348.56200000000001</v>
+        <v>1289.8800000000001</v>
       </c>
       <c r="G57" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -2348,22 +2304,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>84.217740000000006</v>
+        <v>89.05</v>
       </c>
       <c r="C58" s="9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D58" s="9">
-        <v>1782.21</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="9">
         <v>1</v>
       </c>
       <c r="F58" s="9">
-        <v>339.57</v>
+        <v>1287.48</v>
       </c>
       <c r="G58" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -2378,25 +2334,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>86</v>
+        <v>91.15</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6">
-        <v>339.57</v>
+        <v>1294.83</v>
       </c>
       <c r="G59" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -2408,25 +2364,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>86</v>
+        <v>92.65</v>
       </c>
       <c r="C60" s="9">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="D60" s="9">
-        <v>550</v>
+        <v>1850</v>
       </c>
       <c r="E60" s="9">
         <v>1</v>
       </c>
       <c r="F60" s="9">
-        <v>339.57</v>
+        <v>1297.83</v>
       </c>
       <c r="G60" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2438,25 +2394,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>86.55</v>
+        <v>94.5</v>
       </c>
       <c r="C61" s="6">
-        <v>-12.5</v>
+        <v>1.7</v>
       </c>
       <c r="D61" s="6">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>339.57</v>
+        <v>1321.33</v>
       </c>
       <c r="G61" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -2468,22 +2424,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>88.3</v>
+        <v>96.2</v>
       </c>
       <c r="C62" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D62" s="9">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="9">
         <v>1</v>
       </c>
       <c r="F62" s="9">
-        <v>317.7</v>
+        <v>1324.22</v>
       </c>
       <c r="G62" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -2498,22 +2454,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>90.5</v>
+        <v>97.6</v>
       </c>
       <c r="C63" s="6">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="D63" s="6">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63" s="6">
-        <v>322.10000000000002</v>
+        <v>1359.22</v>
       </c>
       <c r="G63" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -2528,22 +2484,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>92.3</v>
+        <v>100.6</v>
       </c>
       <c r="C64" s="9">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D64" s="9">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E64" s="9">
         <v>1</v>
       </c>
       <c r="F64" s="9">
-        <v>338.3</v>
+        <v>1308.22</v>
       </c>
       <c r="G64" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -2558,22 +2514,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>94.1</v>
+        <v>101.8</v>
       </c>
       <c r="C65" s="6">
-        <v>-1.9999</v>
+        <v>10</v>
       </c>
       <c r="D65" s="6">
-        <v>550</v>
+        <v>1350</v>
       </c>
       <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65" s="6">
-        <v>327.5</v>
+        <v>1296.22</v>
       </c>
       <c r="G65" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -2588,22 +2544,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>94.65</v>
+        <v>103.15</v>
       </c>
       <c r="C66" s="9">
-        <v>-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D66" s="9">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E66" s="9">
         <v>1</v>
       </c>
       <c r="F66" s="9">
-        <v>331.97500000000002</v>
+        <v>1309.72</v>
       </c>
       <c r="G66" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -2618,22 +2574,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>95.5</v>
+        <v>104.05</v>
       </c>
       <c r="C67" s="6">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>330.28</v>
+        <v>1314.13</v>
       </c>
       <c r="G67" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -2648,22 +2604,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>96.95</v>
+        <v>106.35</v>
       </c>
       <c r="C68" s="9">
-        <v>0</v>
+        <v>-2.1019999999999999</v>
       </c>
       <c r="D68" s="9">
-        <v>2400</v>
+        <v>423</v>
       </c>
       <c r="E68" s="9">
         <v>1</v>
       </c>
       <c r="F68" s="9">
-        <v>345.51</v>
+        <v>1314.13</v>
       </c>
       <c r="G68" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -2677,27 +2633,13 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
-        <v>99.35</v>
-      </c>
-      <c r="C69" s="6">
-        <v>-20</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2150</v>
-      </c>
-      <c r="E69" s="6">
-        <v>1</v>
-      </c>
-      <c r="F69" s="6">
-        <v>345.51</v>
-      </c>
-      <c r="G69" s="6">
-        <v>8</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -2707,27 +2649,13 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11">
-        <v>101.5</v>
-      </c>
-      <c r="C70" s="9">
-        <v>11</v>
-      </c>
-      <c r="D70" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="9">
-        <v>302.51</v>
-      </c>
-      <c r="G70" s="9">
-        <v>8</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -2737,27 +2665,13 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
-        <v>102.65</v>
-      </c>
-      <c r="C71" s="6">
-        <v>-8</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2150</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>315.16000000000003</v>
-      </c>
-      <c r="G71" s="6">
-        <v>8</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -2767,27 +2681,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>104.8</v>
-      </c>
-      <c r="C72" s="9">
-        <v>-3</v>
-      </c>
-      <c r="D72" s="9">
-        <v>2100</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
-      </c>
-      <c r="F72" s="9">
-        <v>297.95999999999998</v>
-      </c>
-      <c r="G72" s="9">
-        <v>8</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -2797,27 +2697,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>106.9</v>
-      </c>
-      <c r="C73" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="D73" s="6">
-        <v>700</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>291.66000000000003</v>
-      </c>
-      <c r="G73" s="6">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -2827,27 +2713,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>107.6</v>
-      </c>
-      <c r="C74" s="9">
-        <v>7.7</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E74" s="9">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9">
-        <v>297.04000000000002</v>
-      </c>
-      <c r="G74" s="9">
-        <v>8</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -2857,27 +2729,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>109.1</v>
-      </c>
-      <c r="C75" s="6">
-        <v>-4</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1750</v>
-      </c>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6">
-        <v>308.58999999999997</v>
-      </c>
-      <c r="G75" s="6">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -2887,27 +2745,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>110.85</v>
-      </c>
-      <c r="C76" s="9">
-        <v>5</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="9">
-        <v>301.58999999999997</v>
-      </c>
-      <c r="G76" s="9">
-        <v>8</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -2917,27 +2761,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>112.25</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4250</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
-        <v>308.58999999999997</v>
-      </c>
-      <c r="G77" s="6">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -2947,27 +2777,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>116.5</v>
-      </c>
-      <c r="C78" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3100</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="9">
-        <v>308.58999999999997</v>
-      </c>
-      <c r="G78" s="9">
-        <v>8</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -2977,27 +2793,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>119.6</v>
-      </c>
-      <c r="C79" s="6">
-        <v>6</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
-        <v>293.08999999999997</v>
-      </c>
-      <c r="G79" s="6">
-        <v>8</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -3007,27 +2809,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>121.3</v>
-      </c>
-      <c r="C80" s="9">
-        <v>-6</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9">
-        <v>303.29000000000002</v>
-      </c>
-      <c r="G80" s="9">
-        <v>8</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -3037,27 +2825,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>122.8</v>
-      </c>
-      <c r="C81" s="6">
-        <v>14</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
-        <v>294.29000000000002</v>
-      </c>
-      <c r="G81" s="6">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -3067,27 +2841,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="C82" s="9">
-        <v>-2</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9">
-        <v>313.89</v>
-      </c>
-      <c r="G82" s="9">
-        <v>8</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -3097,27 +2857,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>125.6</v>
-      </c>
-      <c r="C83" s="6">
-        <v>-12</v>
-      </c>
-      <c r="D83" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
-        <v>311.08999999999997</v>
-      </c>
-      <c r="G83" s="6">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -3127,27 +2873,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>127.15</v>
-      </c>
-      <c r="C84" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="D84" s="9">
-        <v>886.7</v>
-      </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9">
-        <v>292.49</v>
-      </c>
-      <c r="G84" s="9">
-        <v>8</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -3157,27 +2889,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>128.0367</v>
-      </c>
-      <c r="C85" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1113.3</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1</v>
-      </c>
-      <c r="F85" s="6">
-        <v>292.86500000000001</v>
-      </c>
-      <c r="G85" s="6">
-        <v>8</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -3187,27 +2905,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>129.15</v>
-      </c>
-      <c r="C86" s="9">
-        <v>-12</v>
-      </c>
-      <c r="D86" s="9">
-        <v>920</v>
-      </c>
-      <c r="E86" s="9">
-        <v>1</v>
-      </c>
-      <c r="F86" s="9">
-        <v>301.20999999999998</v>
-      </c>
-      <c r="G86" s="9">
-        <v>8</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -3217,27 +2921,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>130.07</v>
-      </c>
-      <c r="C87" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1047.5</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>290.17</v>
-      </c>
-      <c r="G87" s="6">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -3247,27 +2937,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>131.11750000000001</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9">
-        <v>1708</v>
-      </c>
-      <c r="E88" s="9">
-        <v>1</v>
-      </c>
-      <c r="F88" s="9">
-        <v>306.72000000000003</v>
-      </c>
-      <c r="G88" s="9">
-        <v>8</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -3277,27 +2953,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>132.82550000000001</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6">
-        <v>306.72000000000003</v>
-      </c>
-      <c r="G89" s="6">
-        <v>8</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -17982,19 +17644,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>3.15</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>3150</v>
+        <v>355</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>335.86500000000001</v>
+        <v>1444.6579999999999</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -18003,13 +17665,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="6">
-        <v>39173.156999999999</v>
+        <v>1145</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="6">
-        <v>40850</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
@@ -18020,19 +17682,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>4.9399999999999995</v>
+        <v>1.145</v>
       </c>
       <c r="C4" s="9">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="D4" s="9">
-        <v>1790</v>
+        <v>790</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>325.13</v>
+        <v>1442.0530000000001</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
@@ -18041,13 +17703,13 @@
         <v>13</v>
       </c>
       <c r="I4" s="9">
-        <v>55299.989000000001</v>
+        <v>22217.48</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="9">
-        <v>55300</v>
+        <v>22200</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>13</v>
@@ -18058,34 +17720,34 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>5.8500000000000005</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>-3</v>
+        <v>3.3</v>
       </c>
       <c r="D5" s="6">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>327.86</v>
+        <v>1442.0530000000001</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="6">
-        <v>63499.987000000001</v>
+        <v>24998.27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" s="6">
-        <v>63500</v>
+        <v>25000</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>13</v>
@@ -18096,174 +17758,142 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D6" s="9">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>327.86</v>
+        <v>1443.338</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="9">
-        <v>67099.979000000007</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="9">
-        <v>67100</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>9.86</v>
+        <v>2.8</v>
       </c>
       <c r="C7" s="6">
-        <v>-10</v>
+        <v>7.5</v>
       </c>
       <c r="D7" s="6">
-        <v>2860</v>
+        <v>2400</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>356.46000000000004</v>
+        <v>1425.34</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
-        <v>76599.381999999998</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6">
-        <v>76600</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>11.85</v>
+        <v>4.5</v>
       </c>
       <c r="C8" s="9">
-        <v>9.5</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9">
-        <v>1990</v>
+        <v>1700</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>337.55499999999995</v>
+        <v>1391.34</v>
       </c>
       <c r="G8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9">
-        <v>83399.794999999998</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="9">
-        <v>83400</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="C9" s="6">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="D9" s="6">
-        <v>1150</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>330.66</v>
+        <v>1412.24</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
-        <v>85999.953999999998</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6">
-        <v>86000</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>15.3</v>
+        <v>7.8800000000000008</v>
       </c>
       <c r="C10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="9">
-        <v>2300</v>
+        <v>1480</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>330.66</v>
+        <v>1410.76</v>
       </c>
       <c r="G10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
@@ -18278,22 +17908,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>16.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C11" s="6">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>335.16</v>
+        <v>1402.84</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>13</v>
@@ -18308,22 +17938,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>18.350000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="C12" s="9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="9">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <v>335.16</v>
+        <v>1404.1399999999999</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
@@ -18338,22 +17968,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>19.25</v>
+        <v>11.5</v>
       </c>
       <c r="C13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>330.66</v>
+        <v>1400.14</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>13</v>
@@ -18368,22 +17998,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>21.4</v>
+        <v>11.5</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>330.66</v>
+        <v>1400.14</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>13</v>
@@ -18398,22 +18028,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>22.65</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6">
-        <v>-11</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>344.41</v>
+        <v>1398.1379999999999</v>
       </c>
       <c r="G15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -18428,22 +18058,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>24.7</v>
+        <v>13.9</v>
       </c>
       <c r="C16" s="9">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="D16" s="9">
-        <v>2050</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>328.01000000000005</v>
+        <v>1380.0900000000001</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>13</v>
@@ -18458,22 +18088,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>26.45</v>
+        <v>19.05</v>
       </c>
       <c r="C17" s="6">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6">
-        <v>1750</v>
+        <v>5150</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>347.26</v>
+        <v>1225.5899999999999</v>
       </c>
       <c r="G17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>13</v>
@@ -18488,22 +18118,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>27.7</v>
+        <v>21.35</v>
       </c>
       <c r="C18" s="9">
-        <v>13.5</v>
+        <v>17.3</v>
       </c>
       <c r="D18" s="9">
-        <v>1250</v>
+        <v>2300</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>330.38499999999999</v>
+        <v>1185.8</v>
       </c>
       <c r="G18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>13</v>
@@ -18518,22 +18148,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>29.95</v>
+        <v>22.217480000000002</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6">
-        <v>2250</v>
+        <v>867.48</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <v>330.39</v>
+        <v>1169.3178800000001</v>
       </c>
       <c r="G19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>13</v>
@@ -18548,22 +18178,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>32.85</v>
+        <v>22.2</v>
       </c>
       <c r="C20" s="9">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D20" s="9">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>310.08999999999997</v>
+        <v>1169.318</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>13</v>
@@ -18578,22 +18208,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>36.35</v>
+        <v>22.3</v>
       </c>
       <c r="C21" s="6">
-        <v>-6.5</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>332.84</v>
+        <v>1167.4179999999999</v>
       </c>
       <c r="G21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>13</v>
@@ -18608,22 +18238,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>37.4</v>
+        <v>24.998270000000002</v>
       </c>
       <c r="C22" s="9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D22" s="9">
-        <v>1050</v>
+        <v>2698.27</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>311.83999999999997</v>
+        <v>1162.0234600000001</v>
       </c>
       <c r="G22" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>13</v>
@@ -18638,22 +18268,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>38.85</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1450</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="6">
-        <v>311.83999999999997</v>
+        <v>1162.0239999999999</v>
       </c>
       <c r="G23" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
@@ -18668,25 +18298,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>39.173158000000001</v>
+        <v>25.05</v>
       </c>
       <c r="C24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9">
-        <v>323.15800000000002</v>
+        <v>50</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <v>310.86052599999999</v>
+        <v>1161.924</v>
       </c>
       <c r="G24" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -18698,25 +18328,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>40.85</v>
+        <v>27.87</v>
       </c>
       <c r="C25" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>310.86099999999999</v>
+        <v>1161.92</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -18728,25 +18358,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>41.713280000000005</v>
+        <v>30.1</v>
       </c>
       <c r="C26" s="9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="9">
-        <v>863.28</v>
+        <v>2230</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="9">
-        <v>308.27116000000001</v>
+        <v>1158.575</v>
       </c>
       <c r="G26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -18758,25 +18388,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>43.249997</v>
+        <v>31.790000000000003</v>
       </c>
       <c r="C27" s="6">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="D27" s="6">
-        <v>1536.7170000000001</v>
+        <v>1690</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>339.00433999999996</v>
+        <v>1180.55</v>
       </c>
       <c r="G27" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -18788,25 +18418,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>45.1</v>
+        <v>34</v>
       </c>
       <c r="C28" s="9">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="D28" s="9">
-        <v>1850</v>
+        <v>2210</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="9">
-        <v>302</v>
+        <v>1187.18</v>
       </c>
       <c r="G28" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -18818,25 +18448,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>47.35</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C29" s="6">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D29" s="6">
-        <v>2250</v>
+        <v>1300</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>302</v>
+        <v>1168.3300000000002</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -18848,25 +18478,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>48.6</v>
+        <v>37.5</v>
       </c>
       <c r="C30" s="9">
-        <v>-20</v>
+        <v>-9.5</v>
       </c>
       <c r="D30" s="9">
-        <v>1250</v>
+        <v>2200</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="9">
-        <v>327</v>
+        <v>1189.23</v>
       </c>
       <c r="G30" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -18878,25 +18508,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>49.563635000000005</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C31" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
-        <v>963.63499999999999</v>
+        <v>1300</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="6">
-        <v>307.72730000000001</v>
+        <v>1165.83</v>
       </c>
       <c r="G31" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -18908,25 +18538,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>52.500005000000002</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C32" s="9">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="9">
-        <v>2936.3649999999998</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="9">
-        <v>313.60273000000001</v>
+        <v>1159.83</v>
       </c>
       <c r="G32" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -18938,25 +18568,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>55.299987999999999</v>
+        <v>41.57</v>
       </c>
       <c r="C33" s="6">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D33" s="6">
-        <v>2799.9879999999998</v>
+        <v>1270</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>313.60997600000002</v>
+        <v>1148.3999999999999</v>
       </c>
       <c r="G33" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -18968,25 +18598,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="11">
-        <v>55.3</v>
+        <v>43.932499999999997</v>
       </c>
       <c r="C34" s="9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="9">
-        <v>0</v>
+        <v>2362.5</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <v>313.61</v>
+        <v>1148.4000000000001</v>
       </c>
       <c r="G34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -18998,22 +18628,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>57.699999999999996</v>
+        <v>46.699999999999996</v>
       </c>
       <c r="C35" s="6">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="D35" s="6">
-        <v>2400</v>
+        <v>2767.5</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>318.41000000000003</v>
+        <v>1192.68</v>
       </c>
       <c r="G35" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>13</v>
@@ -19028,22 +18658,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="11">
-        <v>59.25</v>
+        <v>48.1</v>
       </c>
       <c r="C36" s="9">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="D36" s="9">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>302.91000000000003</v>
+        <v>1173.78</v>
       </c>
       <c r="G36" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -19058,22 +18688,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>61.35</v>
+        <v>49.300000000000004</v>
       </c>
       <c r="C37" s="6">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="D37" s="6">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>326.01000000000005</v>
+        <v>1189.3799999999999</v>
       </c>
       <c r="G37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>13</v>
@@ -19088,22 +18718,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="11">
-        <v>63.499990000000004</v>
+        <v>50.66</v>
       </c>
       <c r="C38" s="9">
-        <v>2</v>
+        <v>-25</v>
       </c>
       <c r="D38" s="9">
-        <v>2149.9899999999998</v>
+        <v>1360</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="9">
-        <v>321.71001999999999</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="G38" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>13</v>
@@ -19118,25 +18748,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>63.5</v>
+        <v>52.099999999999994</v>
       </c>
       <c r="C39" s="6">
-        <v>2</v>
+        <v>-12.55</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>321.70999999999998</v>
+        <v>1241.452</v>
       </c>
       <c r="G39" s="6">
         <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -19148,19 +18778,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="11">
-        <v>63.65</v>
+        <v>53.65</v>
       </c>
       <c r="C40" s="9">
-        <v>2</v>
+        <v>-25</v>
       </c>
       <c r="D40" s="9">
-        <v>150</v>
+        <v>1550</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="9">
-        <v>321.40999999999997</v>
+        <v>1280.2</v>
       </c>
       <c r="G40" s="9">
         <v>4</v>
@@ -19178,19 +18808,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>64.73</v>
+        <v>54.9</v>
       </c>
       <c r="C41" s="6">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="D41" s="6">
-        <v>1080</v>
+        <v>1250</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>299.81</v>
+        <v>1283.95</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
@@ -19208,19 +18838,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="11">
-        <v>65.850000000000009</v>
+        <v>56.8</v>
       </c>
       <c r="C42" s="9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D42" s="9">
-        <v>1120</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="9">
-        <v>299.81</v>
+        <v>1236.45</v>
       </c>
       <c r="G42" s="9">
         <v>4</v>
@@ -19238,19 +18868,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>67.05</v>
+        <v>58.8</v>
       </c>
       <c r="C43" s="6">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="D43" s="6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>303.41000000000003</v>
+        <v>1200.45</v>
       </c>
       <c r="G43" s="6">
         <v>4</v>
@@ -19268,25 +18898,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="11">
-        <v>67.099974000000003</v>
+        <v>60.5</v>
       </c>
       <c r="C44" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D44" s="9">
-        <v>49.973999999999997</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="9">
-        <v>303.16013000000004</v>
+        <v>1157.95</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -19298,25 +18928,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>67.099999999999994</v>
+        <v>61.7</v>
       </c>
       <c r="C45" s="6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D45" s="6">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="6">
         <v>0</v>
       </c>
       <c r="F45" s="6">
-        <v>303.16000000000003</v>
+        <v>1136.3500000000001</v>
       </c>
       <c r="G45" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -19328,22 +18958,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="11">
-        <v>68.099999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="C46" s="9">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D46" s="9">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="9">
-        <v>298.16000000000003</v>
+        <v>1117.4499999999998</v>
       </c>
       <c r="G46" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>13</v>
@@ -19358,22 +18988,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>69.699999999999989</v>
+        <v>63.9</v>
       </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="D47" s="6">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>298.16000000000003</v>
+        <v>1107.7</v>
       </c>
       <c r="G47" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>13</v>
@@ -19388,22 +19018,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="11">
-        <v>70.900000000000006</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C48" s="9">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D48" s="9">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="9">
-        <v>307.76000000000005</v>
+        <v>1112.1000000000001</v>
       </c>
       <c r="G48" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>13</v>
@@ -19418,22 +19048,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>72.600000000000009</v>
+        <v>70.55</v>
       </c>
       <c r="C49" s="6">
-        <v>8.5</v>
+        <v>-13</v>
       </c>
       <c r="D49" s="6">
-        <v>1700</v>
+        <v>4450</v>
       </c>
       <c r="E49" s="6">
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>293.31</v>
+        <v>1169.9499999999998</v>
       </c>
       <c r="G49" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>13</v>
@@ -19448,25 +19078,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="11">
-        <v>76</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C50" s="9">
-        <v>-15.5</v>
+        <v>-7</v>
       </c>
       <c r="D50" s="9">
-        <v>3400</v>
+        <v>1550</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
-        <v>346.01</v>
+        <v>1180.8</v>
       </c>
       <c r="G50" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -19478,25 +19108,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>76.599383000000003</v>
+        <v>74.149999999999991</v>
       </c>
       <c r="C51" s="6">
-        <v>4.5</v>
+        <v>24</v>
       </c>
       <c r="D51" s="6">
-        <v>599.38300000000004</v>
+        <v>2050</v>
       </c>
       <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="6">
-        <v>343.31277649999998</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="G51" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -19508,25 +19138,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="11">
-        <v>76.599999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="C52" s="9">
-        <v>4.5</v>
+        <v>15.75</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="9">
-        <v>343.31299999999999</v>
+        <v>1095.375</v>
       </c>
       <c r="G52" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -19538,22 +19168,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>78.349999999999994</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="C53" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>1750</v>
+        <v>2200</v>
       </c>
       <c r="E53" s="6">
         <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>335.43799999999999</v>
+        <v>1095.3800000000001</v>
       </c>
       <c r="G53" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
@@ -19568,22 +19198,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="11">
-        <v>82.78</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C54" s="9">
-        <v>-4.5</v>
+        <v>-12.4</v>
       </c>
       <c r="D54" s="9">
-        <v>4430</v>
+        <v>3250</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="9">
-        <v>355.375</v>
+        <v>1135.68</v>
       </c>
       <c r="G54" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>13</v>
@@ -19598,25 +19228,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>83.399798000000004</v>
+        <v>86.95</v>
       </c>
       <c r="C55" s="6">
-        <v>11</v>
+        <v>-30</v>
       </c>
       <c r="D55" s="6">
-        <v>619.798</v>
+        <v>5050</v>
       </c>
       <c r="E55" s="6">
         <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>348.56222200000002</v>
+        <v>1287.18</v>
       </c>
       <c r="G55" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -19628,25 +19258,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="11">
-        <v>83.4</v>
+        <v>87.850000000000009</v>
       </c>
       <c r="C56" s="9">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="D56" s="9">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
-        <v>348.56200000000001</v>
+        <v>1289.8800000000001</v>
       </c>
       <c r="G56" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -19658,22 +19288,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>84.217740000000006</v>
+        <v>89.05</v>
       </c>
       <c r="C57" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D57" s="6">
-        <v>817.74</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="6">
         <v>0</v>
       </c>
       <c r="F57" s="6">
-        <v>339.56686000000002</v>
+        <v>1287.48</v>
       </c>
       <c r="G57" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>13</v>
@@ -19688,22 +19318,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="11">
-        <v>85.999950000000013</v>
+        <v>91.149999999999991</v>
       </c>
       <c r="C58" s="9">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="D58" s="9">
-        <v>1782.21</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
       <c r="F58" s="9">
-        <v>339.57</v>
+        <v>1294.83</v>
       </c>
       <c r="G58" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>13</v>
@@ -19718,25 +19348,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>86</v>
+        <v>92.65</v>
       </c>
       <c r="C59" s="6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="6">
         <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>339.57</v>
+        <v>1297.83</v>
       </c>
       <c r="G59" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -19748,25 +19378,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="11">
-        <v>86.55</v>
+        <v>94.5</v>
       </c>
       <c r="C60" s="9">
-        <v>0</v>
+        <v>-12.7</v>
       </c>
       <c r="D60" s="9">
-        <v>550</v>
+        <v>1850</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
       <c r="F60" s="9">
-        <v>339.57</v>
+        <v>1321.3249999999998</v>
       </c>
       <c r="G60" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -19778,25 +19408,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>88.3</v>
+        <v>96.2</v>
       </c>
       <c r="C61" s="6">
-        <v>12.5</v>
+        <v>-1.7</v>
       </c>
       <c r="D61" s="6">
-        <v>1750</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="6">
         <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>317.69499999999999</v>
+        <v>1324.22</v>
       </c>
       <c r="G61" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -19808,22 +19438,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="11">
-        <v>90.5</v>
+        <v>97.600000000000009</v>
       </c>
       <c r="C62" s="9">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="D62" s="9">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="9">
-        <v>322.09999999999997</v>
+        <v>1359.22</v>
       </c>
       <c r="G62" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>13</v>
@@ -19838,22 +19468,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>92.3</v>
+        <v>100.6</v>
       </c>
       <c r="C63" s="6">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="6">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="E63" s="6">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>338.3</v>
+        <v>1308.22</v>
       </c>
       <c r="G63" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>13</v>
@@ -19868,22 +19498,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="11">
-        <v>94.1</v>
+        <v>101.8</v>
       </c>
       <c r="C64" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D64" s="9">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
       <c r="F64" s="9">
-        <v>327.5</v>
+        <v>1296.22</v>
       </c>
       <c r="G64" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>13</v>
@@ -19898,22 +19528,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>94.649999999999991</v>
+        <v>103.14999999999999</v>
       </c>
       <c r="C65" s="6">
-        <v>1.9999</v>
+        <v>-10</v>
       </c>
       <c r="D65" s="6">
-        <v>550</v>
+        <v>1350</v>
       </c>
       <c r="E65" s="6">
         <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>326.40005500000001</v>
+        <v>1309.72</v>
       </c>
       <c r="G65" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -19928,22 +19558,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="11">
-        <v>95.5</v>
+        <v>104.05000000000001</v>
       </c>
       <c r="C66" s="9">
-        <v>2</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D66" s="9">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="9">
-        <v>330.27500000000003</v>
+        <v>1314.13</v>
       </c>
       <c r="G66" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>13</v>
@@ -19958,22 +19588,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>96.95</v>
+        <v>106.35</v>
       </c>
       <c r="C67" s="6">
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1450</v>
+        <v>2300</v>
       </c>
       <c r="E67" s="6">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>345.505</v>
+        <v>1314.13</v>
       </c>
       <c r="G67" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>13</v>
@@ -19988,22 +19618,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="11">
-        <v>99.350000000000009</v>
+        <v>106.773</v>
       </c>
       <c r="C68" s="9">
-        <v>0</v>
+        <v>2.1019999999999999</v>
       </c>
       <c r="D68" s="9">
-        <v>2400</v>
+        <v>423</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="9">
-        <v>345.51</v>
+        <v>1313.2408540000001</v>
       </c>
       <c r="G68" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>13</v>
@@ -20017,27 +19647,13 @@
       <c r="A69" s="8">
         <v>67</v>
       </c>
-      <c r="B69" s="7">
-        <v>101.5</v>
-      </c>
-      <c r="C69" s="6">
-        <v>20</v>
-      </c>
-      <c r="D69" s="6">
-        <v>2150</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
-        <v>302.51</v>
-      </c>
-      <c r="G69" s="6">
-        <v>8</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -20047,27 +19663,13 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="11">
-        <v>102.65</v>
-      </c>
-      <c r="C70" s="9">
-        <v>-11</v>
-      </c>
-      <c r="D70" s="9">
-        <v>1150</v>
-      </c>
-      <c r="E70" s="9">
-        <v>0</v>
-      </c>
-      <c r="F70" s="9">
-        <v>315.15999999999997</v>
-      </c>
-      <c r="G70" s="9">
-        <v>8</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -20077,27 +19679,13 @@
       <c r="A71" s="8">
         <v>69</v>
       </c>
-      <c r="B71" s="7">
-        <v>104.80000000000001</v>
-      </c>
-      <c r="C71" s="6">
-        <v>8</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2150</v>
-      </c>
-      <c r="E71" s="6">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6">
-        <v>297.96000000000004</v>
-      </c>
-      <c r="G71" s="6">
-        <v>8</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -20107,27 +19695,13 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="11">
-        <v>106.89999999999999</v>
-      </c>
-      <c r="C72" s="9">
-        <v>3</v>
-      </c>
-      <c r="D72" s="9">
-        <v>2100</v>
-      </c>
-      <c r="E72" s="9">
-        <v>0</v>
-      </c>
-      <c r="F72" s="9">
-        <v>291.65999999999997</v>
-      </c>
-      <c r="G72" s="9">
-        <v>8</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -20137,27 +19711,13 @@
       <c r="A73" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="7">
-        <v>107.60000000000001</v>
-      </c>
-      <c r="C73" s="6">
-        <v>-7.7</v>
-      </c>
-      <c r="D73" s="6">
-        <v>700</v>
-      </c>
-      <c r="E73" s="6">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6">
-        <v>297.05</v>
-      </c>
-      <c r="G73" s="6">
-        <v>8</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -20167,27 +19727,13 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="11">
-        <v>109.1</v>
-      </c>
-      <c r="C74" s="9">
-        <v>-7.7</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E74" s="9">
-        <v>0</v>
-      </c>
-      <c r="F74" s="9">
-        <v>308.59000000000003</v>
-      </c>
-      <c r="G74" s="9">
-        <v>8</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -20197,27 +19743,13 @@
       <c r="A75" s="8">
         <v>73</v>
       </c>
-      <c r="B75" s="7">
-        <v>110.85</v>
-      </c>
-      <c r="C75" s="6">
-        <v>4</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1750</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <v>301.58999999999997</v>
-      </c>
-      <c r="G75" s="6">
-        <v>8</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -20227,27 +19759,13 @@
       <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="B76" s="11">
-        <v>112.25</v>
-      </c>
-      <c r="C76" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D76" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E76" s="9">
-        <v>0</v>
-      </c>
-      <c r="F76" s="9">
-        <v>308.58999999999997</v>
-      </c>
-      <c r="G76" s="9">
-        <v>8</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -20257,27 +19775,13 @@
       <c r="A77" s="8">
         <v>75</v>
       </c>
-      <c r="B77" s="7">
-        <v>116.5</v>
-      </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6">
-        <v>4250</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>308.58999999999997</v>
-      </c>
-      <c r="G77" s="6">
-        <v>8</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -20287,27 +19791,13 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="11">
-        <v>119.6</v>
-      </c>
-      <c r="C78" s="9">
-        <v>5</v>
-      </c>
-      <c r="D78" s="9">
-        <v>3100</v>
-      </c>
-      <c r="E78" s="9">
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <v>293.08999999999997</v>
-      </c>
-      <c r="G78" s="9">
-        <v>8</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
@@ -20317,27 +19807,13 @@
       <c r="A79" s="8">
         <v>77</v>
       </c>
-      <c r="B79" s="7">
-        <v>121.3</v>
-      </c>
-      <c r="C79" s="6">
-        <v>-6</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1700</v>
-      </c>
-      <c r="E79" s="6">
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <v>303.28999999999996</v>
-      </c>
-      <c r="G79" s="6">
-        <v>8</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -20347,27 +19823,13 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="11">
-        <v>122.8</v>
-      </c>
-      <c r="C80" s="9">
-        <v>6</v>
-      </c>
-      <c r="D80" s="9">
-        <v>1500</v>
-      </c>
-      <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9">
-        <v>294.29000000000002</v>
-      </c>
-      <c r="G80" s="9">
-        <v>8</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -20377,27 +19839,13 @@
       <c r="A81" s="8">
         <v>79</v>
       </c>
-      <c r="B81" s="7">
-        <v>124.2</v>
-      </c>
-      <c r="C81" s="6">
-        <v>-14</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <v>313.89000000000004</v>
-      </c>
-      <c r="G81" s="6">
-        <v>8</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -20407,27 +19855,13 @@
       <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="B82" s="11">
-        <v>125.60000000000001</v>
-      </c>
-      <c r="C82" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" s="9">
-        <v>1400</v>
-      </c>
-      <c r="E82" s="9">
-        <v>0</v>
-      </c>
-      <c r="F82" s="9">
-        <v>311.08999999999997</v>
-      </c>
-      <c r="G82" s="9">
-        <v>8</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
@@ -20437,27 +19871,13 @@
       <c r="A83" s="8">
         <v>81</v>
       </c>
-      <c r="B83" s="7">
-        <v>127.14999999999999</v>
-      </c>
-      <c r="C83" s="6">
-        <v>12</v>
-      </c>
-      <c r="D83" s="6">
-        <v>1550</v>
-      </c>
-      <c r="E83" s="6">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6">
-        <v>292.48999999999995</v>
-      </c>
-      <c r="G83" s="6">
-        <v>8</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -20467,27 +19887,13 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="11">
-        <v>128.0367</v>
-      </c>
-      <c r="C84" s="9">
-        <v>-7.5</v>
-      </c>
-      <c r="D84" s="9">
-        <v>886.7</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="9">
-        <v>299.14025000000004</v>
-      </c>
-      <c r="G84" s="9">
-        <v>8</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
@@ -20497,27 +19903,13 @@
       <c r="A85" s="8">
         <v>83</v>
       </c>
-      <c r="B85" s="7">
-        <v>129.15</v>
-      </c>
-      <c r="C85" s="6">
-        <v>-7.5</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1113.3</v>
-      </c>
-      <c r="E85" s="6">
-        <v>0</v>
-      </c>
-      <c r="F85" s="6">
-        <v>301.21474999999998</v>
-      </c>
-      <c r="G85" s="6">
-        <v>8</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -20527,27 +19919,13 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="11">
-        <v>130.07</v>
-      </c>
-      <c r="C86" s="9">
-        <v>12</v>
-      </c>
-      <c r="D86" s="9">
-        <v>920</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="9">
-        <v>290.16999999999996</v>
-      </c>
-      <c r="G86" s="9">
-        <v>8</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
@@ -20557,27 +19935,13 @@
       <c r="A87" s="8">
         <v>85</v>
       </c>
-      <c r="B87" s="7">
-        <v>131.11750000000001</v>
-      </c>
-      <c r="C87" s="6">
-        <v>-15.8</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1047.5</v>
-      </c>
-      <c r="E87" s="6">
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
-        <v>306.72050000000002</v>
-      </c>
-      <c r="G87" s="6">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -20587,27 +19951,13 @@
       <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="B88" s="11">
-        <v>132.82550000000001</v>
-      </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9">
-        <v>1708</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="9">
-        <v>306.72000000000003</v>
-      </c>
-      <c r="G88" s="9">
-        <v>8</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -20617,27 +19967,13 @@
       <c r="A89" s="8">
         <v>87</v>
       </c>
-      <c r="B89" s="7">
-        <v>132.82550000000001</v>
-      </c>
-      <c r="C89" s="6">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6">
-        <v>306.72000000000003</v>
-      </c>
-      <c r="G89" s="6">
-        <v>8</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
